--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCB3DD2-EE5E-A544-8654-AE5DEA52F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9510D0A-84DB-1948-B04A-62198A076083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9564" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9562" uniqueCount="1289">
   <si>
     <t>Notes</t>
   </si>
@@ -42543,26 +42543,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5E015A-69B3-E449-BA8B-148C187E74C0}">
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50.83203125" style="48" customWidth="1"/>
     <col min="3" max="5" width="25.83203125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="48"/>
-    <col min="7" max="7" width="11.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="48"/>
-    <col min="10" max="10" width="14.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="48"/>
+    <col min="6" max="6" width="10.83203125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="48"/>
+    <col min="8" max="8" width="14.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="171" t="s">
         <v>60</v>
       </c>
@@ -42578,24 +42576,18 @@
       <c r="E1" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>894</v>
-      </c>
-      <c r="G1" s="158" t="s">
-        <v>895</v>
-      </c>
-      <c r="H1" s="155" t="s">
+      <c r="F1" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="48">
-        <f>SUM(H2:H205)</f>
+      <c r="G1" s="48">
+        <f>SUM(F2:F205)</f>
         <v>56488</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>507</v>
       </c>
@@ -42612,17 +42604,10 @@
         <v>89</v>
       </c>
       <c r="F2" s="33">
-        <v>99</v>
-      </c>
-      <c r="G2" s="48">
-        <v>97</v>
-      </c>
-      <c r="H2" s="33">
-        <f>F2+G2</f>
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>509</v>
       </c>
@@ -42635,13 +42620,11 @@
       <c r="E3" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="H3" s="33">
-        <f t="shared" ref="H3:H66" si="0">F3+G3</f>
+      <c r="F3" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>510</v>
       </c>
@@ -42654,13 +42637,11 @@
       <c r="E4" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="H4" s="33">
-        <f t="shared" si="0"/>
+      <c r="F4" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
         <v>146</v>
       </c>
@@ -42674,17 +42655,10 @@
         <v>89</v>
       </c>
       <c r="F5" s="33">
-        <v>12</v>
-      </c>
-      <c r="G5" s="48">
-        <v>29</v>
-      </c>
-      <c r="H5" s="33">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="33" t="s">
         <v>140</v>
       </c>
@@ -42698,17 +42672,10 @@
         <v>89</v>
       </c>
       <c r="F6" s="33">
-        <v>1</v>
-      </c>
-      <c r="G6" s="48">
-        <v>2</v>
-      </c>
-      <c r="H6" s="33">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>141</v>
       </c>
@@ -42722,17 +42689,10 @@
         <v>89</v>
       </c>
       <c r="F7" s="33">
-        <v>69</v>
-      </c>
-      <c r="G7" s="48">
-        <v>94</v>
-      </c>
-      <c r="H7" s="33">
-        <f t="shared" si="0"/>
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>124</v>
       </c>
@@ -42746,17 +42706,10 @@
         <v>89</v>
       </c>
       <c r="F8" s="33">
-        <v>29</v>
-      </c>
-      <c r="G8" s="48">
-        <v>30</v>
-      </c>
-      <c r="H8" s="33">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>129</v>
       </c>
@@ -42770,17 +42723,10 @@
         <v>89</v>
       </c>
       <c r="F9" s="33">
-        <v>142</v>
-      </c>
-      <c r="G9" s="48">
-        <v>165</v>
-      </c>
-      <c r="H9" s="33">
-        <f t="shared" si="0"/>
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>496</v>
       </c>
@@ -42794,17 +42740,10 @@
         <v>89</v>
       </c>
       <c r="F10" s="33">
-        <v>164</v>
-      </c>
-      <c r="G10" s="48">
-        <v>67</v>
-      </c>
-      <c r="H10" s="33">
-        <f t="shared" si="0"/>
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>189</v>
       </c>
@@ -42818,17 +42757,10 @@
         <v>89</v>
       </c>
       <c r="F11" s="33">
-        <v>5537</v>
-      </c>
-      <c r="G11" s="48">
-        <v>4138</v>
-      </c>
-      <c r="H11" s="33">
-        <f t="shared" si="0"/>
         <v>9675</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
         <v>511</v>
       </c>
@@ -42841,13 +42773,11 @@
       <c r="E12" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="H12" s="33">
-        <f t="shared" si="0"/>
+      <c r="F12" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>512</v>
       </c>
@@ -42860,13 +42790,11 @@
       <c r="E13" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="H13" s="33">
-        <f t="shared" si="0"/>
+      <c r="F13" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>513</v>
       </c>
@@ -42882,12 +42810,8 @@
       <c r="F14" s="33">
         <v>1</v>
       </c>
-      <c r="H14" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>898</v>
       </c>
@@ -42901,17 +42825,10 @@
         <v>89</v>
       </c>
       <c r="F15" s="33">
-        <v>33</v>
-      </c>
-      <c r="G15" s="48">
-        <v>66</v>
-      </c>
-      <c r="H15" s="33">
-        <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
         <v>131</v>
       </c>
@@ -42924,13 +42841,11 @@
       <c r="E16" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="H16" s="33">
-        <f t="shared" si="0"/>
+      <c r="F16" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>142</v>
       </c>
@@ -42943,13 +42858,11 @@
       <c r="E17" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="H17" s="33">
-        <f t="shared" si="0"/>
+      <c r="F17" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>133</v>
       </c>
@@ -42963,17 +42876,10 @@
         <v>89</v>
       </c>
       <c r="F18" s="33">
-        <v>3</v>
-      </c>
-      <c r="G18" s="48">
-        <v>2</v>
-      </c>
-      <c r="H18" s="33">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>126</v>
       </c>
@@ -42987,17 +42893,10 @@
         <v>89</v>
       </c>
       <c r="F19" s="33">
-        <v>39</v>
-      </c>
-      <c r="G19" s="48">
-        <v>19</v>
-      </c>
-      <c r="H19" s="33">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="33" t="s">
         <v>515</v>
       </c>
@@ -43011,17 +42910,10 @@
         <v>89</v>
       </c>
       <c r="F20" s="33">
-        <v>10</v>
-      </c>
-      <c r="G20" s="48">
-        <v>12</v>
-      </c>
-      <c r="H20" s="33">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>516</v>
       </c>
@@ -43035,17 +42927,10 @@
         <v>89</v>
       </c>
       <c r="F21" s="33">
-        <v>32</v>
-      </c>
-      <c r="G21" s="48">
-        <v>24</v>
-      </c>
-      <c r="H21" s="33">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="33" t="s">
         <v>497</v>
       </c>
@@ -43059,17 +42944,10 @@
         <v>89</v>
       </c>
       <c r="F22" s="33">
-        <v>1</v>
-      </c>
-      <c r="G22" s="48">
-        <v>1</v>
-      </c>
-      <c r="H22" s="33">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="33" t="s">
         <v>135</v>
       </c>
@@ -43083,17 +42961,10 @@
         <v>89</v>
       </c>
       <c r="F23" s="33">
-        <v>2</v>
-      </c>
-      <c r="G23" s="48">
-        <v>1</v>
-      </c>
-      <c r="H23" s="33">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="33" t="s">
         <v>144</v>
       </c>
@@ -43106,13 +42977,11 @@
       <c r="E24" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="H24" s="33">
-        <f t="shared" si="0"/>
+      <c r="F24" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="33" t="s">
         <v>134</v>
       </c>
@@ -43126,17 +42995,10 @@
         <v>89</v>
       </c>
       <c r="F25" s="33">
-        <v>17</v>
-      </c>
-      <c r="G25" s="48">
-        <v>27</v>
-      </c>
-      <c r="H25" s="33">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="33" t="s">
         <v>517</v>
       </c>
@@ -43150,17 +43012,10 @@
         <v>89</v>
       </c>
       <c r="F26" s="33">
-        <v>1</v>
-      </c>
-      <c r="G26" s="48">
-        <v>2</v>
-      </c>
-      <c r="H26" s="33">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="33" t="s">
         <v>164</v>
       </c>
@@ -43174,17 +43029,10 @@
         <v>84</v>
       </c>
       <c r="F27" s="33">
-        <v>16</v>
-      </c>
-      <c r="G27" s="48">
-        <v>6</v>
-      </c>
-      <c r="H27" s="33">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="33" t="s">
         <v>518</v>
       </c>
@@ -43198,17 +43046,10 @@
         <v>84</v>
       </c>
       <c r="F28" s="33">
-        <v>4</v>
-      </c>
-      <c r="G28" s="48">
-        <v>1</v>
-      </c>
-      <c r="H28" s="33">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="33" t="s">
         <v>502</v>
       </c>
@@ -43222,17 +43063,10 @@
         <v>89</v>
       </c>
       <c r="F29" s="33">
-        <v>2978</v>
-      </c>
-      <c r="G29" s="48">
-        <v>2330</v>
-      </c>
-      <c r="H29" s="33">
-        <f t="shared" si="0"/>
         <v>5308</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="33" t="s">
         <v>522</v>
       </c>
@@ -43246,17 +43080,10 @@
         <v>89</v>
       </c>
       <c r="F30" s="33">
-        <v>66</v>
-      </c>
-      <c r="G30" s="48">
-        <v>55</v>
-      </c>
-      <c r="H30" s="33">
-        <f t="shared" si="0"/>
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="33" t="s">
         <v>519</v>
       </c>
@@ -43270,17 +43097,10 @@
         <v>89</v>
       </c>
       <c r="F31" s="33">
-        <v>184</v>
-      </c>
-      <c r="G31" s="48">
-        <v>97</v>
-      </c>
-      <c r="H31" s="33">
-        <f t="shared" si="0"/>
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="33" t="s">
         <v>520</v>
       </c>
@@ -43294,17 +43114,10 @@
         <v>89</v>
       </c>
       <c r="F32" s="33">
-        <v>87</v>
-      </c>
-      <c r="G32" s="48">
-        <v>83</v>
-      </c>
-      <c r="H32" s="33">
-        <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="33" t="s">
         <v>521</v>
       </c>
@@ -43318,17 +43131,10 @@
         <v>89</v>
       </c>
       <c r="F33" s="33">
-        <v>23</v>
-      </c>
-      <c r="G33" s="48">
-        <v>18</v>
-      </c>
-      <c r="H33" s="33">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>523</v>
       </c>
@@ -43342,17 +43148,10 @@
         <v>89</v>
       </c>
       <c r="F34" s="33">
-        <v>17</v>
-      </c>
-      <c r="G34" s="48">
-        <v>3</v>
-      </c>
-      <c r="H34" s="33">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="33" t="s">
         <v>524</v>
       </c>
@@ -43366,17 +43165,10 @@
         <v>89</v>
       </c>
       <c r="F35" s="33">
-        <v>57</v>
-      </c>
-      <c r="G35" s="48">
-        <v>26</v>
-      </c>
-      <c r="H35" s="33">
-        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>213</v>
       </c>
@@ -43390,17 +43182,10 @@
         <v>89</v>
       </c>
       <c r="F36" s="33">
-        <v>11</v>
-      </c>
-      <c r="G36" s="48">
-        <v>11</v>
-      </c>
-      <c r="H36" s="33">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>525</v>
       </c>
@@ -43414,17 +43199,10 @@
         <v>89</v>
       </c>
       <c r="F37" s="33">
-        <v>5</v>
-      </c>
-      <c r="G37" s="48">
-        <v>1</v>
-      </c>
-      <c r="H37" s="33">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>498</v>
       </c>
@@ -43438,17 +43216,10 @@
         <v>89</v>
       </c>
       <c r="F38" s="33">
-        <v>244</v>
-      </c>
-      <c r="G38" s="48">
-        <v>104</v>
-      </c>
-      <c r="H38" s="33">
-        <f t="shared" si="0"/>
         <v>348</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="33" t="s">
         <v>526</v>
       </c>
@@ -43462,17 +43233,10 @@
         <v>89</v>
       </c>
       <c r="F39" s="33">
-        <v>14</v>
-      </c>
-      <c r="G39" s="48">
-        <v>5</v>
-      </c>
-      <c r="H39" s="33">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="33" t="s">
         <v>899</v>
       </c>
@@ -43486,17 +43250,10 @@
         <v>24</v>
       </c>
       <c r="F40" s="33">
-        <v>74</v>
-      </c>
-      <c r="G40" s="48">
-        <v>39</v>
-      </c>
-      <c r="H40" s="33">
-        <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="33" t="s">
         <v>900</v>
       </c>
@@ -43510,17 +43267,10 @@
         <v>24</v>
       </c>
       <c r="F41" s="33">
-        <v>799</v>
-      </c>
-      <c r="G41" s="48">
-        <v>453</v>
-      </c>
-      <c r="H41" s="33">
-        <f t="shared" si="0"/>
         <v>1252</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" s="33" t="s">
         <v>901</v>
       </c>
@@ -43534,17 +43284,10 @@
         <v>24</v>
       </c>
       <c r="F42" s="33">
-        <v>344</v>
-      </c>
-      <c r="G42" s="48">
-        <v>130</v>
-      </c>
-      <c r="H42" s="33">
-        <f t="shared" si="0"/>
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="33" t="s">
         <v>902</v>
       </c>
@@ -43558,17 +43301,10 @@
         <v>24</v>
       </c>
       <c r="F43" s="33">
-        <v>339</v>
-      </c>
-      <c r="G43" s="48">
-        <v>114</v>
-      </c>
-      <c r="H43" s="33">
-        <f t="shared" si="0"/>
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="33" t="s">
         <v>903</v>
       </c>
@@ -43582,17 +43318,10 @@
         <v>24</v>
       </c>
       <c r="F44" s="33">
-        <v>212</v>
-      </c>
-      <c r="G44" s="48">
-        <v>77</v>
-      </c>
-      <c r="H44" s="33">
-        <f t="shared" si="0"/>
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="33" t="s">
         <v>904</v>
       </c>
@@ -43606,17 +43335,10 @@
         <v>24</v>
       </c>
       <c r="F45" s="33">
-        <v>47</v>
-      </c>
-      <c r="G45" s="48">
-        <v>29</v>
-      </c>
-      <c r="H45" s="33">
-        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" s="33" t="s">
         <v>905</v>
       </c>
@@ -43630,17 +43352,10 @@
         <v>24</v>
       </c>
       <c r="F46" s="33">
-        <v>453</v>
-      </c>
-      <c r="G46" s="48">
-        <v>195</v>
-      </c>
-      <c r="H46" s="33">
-        <f t="shared" si="0"/>
         <v>648</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="33" t="s">
         <v>534</v>
       </c>
@@ -43654,17 +43369,10 @@
         <v>24</v>
       </c>
       <c r="F47" s="33">
-        <v>5</v>
-      </c>
-      <c r="G47" s="48">
-        <v>4</v>
-      </c>
-      <c r="H47" s="33">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="33" t="s">
         <v>1285</v>
       </c>
@@ -43678,17 +43386,10 @@
         <v>84</v>
       </c>
       <c r="F48" s="33">
-        <v>53</v>
-      </c>
-      <c r="G48" s="48">
-        <v>28</v>
-      </c>
-      <c r="H48" s="33">
-        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="33" t="s">
         <v>536</v>
       </c>
@@ -43702,17 +43403,10 @@
         <v>14</v>
       </c>
       <c r="F49" s="33">
-        <v>17</v>
-      </c>
-      <c r="G49" s="48">
-        <v>22</v>
-      </c>
-      <c r="H49" s="33">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="33" t="s">
         <v>537</v>
       </c>
@@ -43726,17 +43420,10 @@
         <v>84</v>
       </c>
       <c r="F50" s="33">
-        <v>1</v>
-      </c>
-      <c r="G50" s="48">
-        <v>1</v>
-      </c>
-      <c r="H50" s="33">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="33" t="s">
         <v>21</v>
       </c>
@@ -43750,17 +43437,10 @@
         <v>14</v>
       </c>
       <c r="F51" s="33">
-        <v>339</v>
-      </c>
-      <c r="G51" s="48">
-        <v>196</v>
-      </c>
-      <c r="H51" s="33">
-        <f t="shared" si="0"/>
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="33" t="s">
         <v>538</v>
       </c>
@@ -43774,17 +43454,10 @@
         <v>14</v>
       </c>
       <c r="F52" s="33">
-        <v>31</v>
-      </c>
-      <c r="G52" s="48">
-        <v>12</v>
-      </c>
-      <c r="H52" s="33">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="33" t="s">
         <v>72</v>
       </c>
@@ -43798,17 +43471,10 @@
         <v>14</v>
       </c>
       <c r="F53" s="33">
-        <v>8</v>
-      </c>
-      <c r="G53" s="48">
-        <v>9</v>
-      </c>
-      <c r="H53" s="33">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="33" t="s">
         <v>539</v>
       </c>
@@ -43822,17 +43488,10 @@
         <v>24</v>
       </c>
       <c r="F54" s="33">
-        <v>54</v>
-      </c>
-      <c r="G54" s="48">
-        <v>18</v>
-      </c>
-      <c r="H54" s="33">
-        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="33" t="s">
         <v>540</v>
       </c>
@@ -43846,17 +43505,10 @@
         <v>14</v>
       </c>
       <c r="F55" s="33">
-        <v>142</v>
-      </c>
-      <c r="G55" s="48">
-        <v>61</v>
-      </c>
-      <c r="H55" s="33">
-        <f t="shared" si="0"/>
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="33" t="s">
         <v>541</v>
       </c>
@@ -43870,17 +43522,10 @@
         <v>84</v>
       </c>
       <c r="F56" s="33">
-        <v>21</v>
-      </c>
-      <c r="G56" s="48">
-        <v>6</v>
-      </c>
-      <c r="H56" s="33">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="33" t="s">
         <v>542</v>
       </c>
@@ -43894,17 +43539,10 @@
         <v>14</v>
       </c>
       <c r="F57" s="33">
-        <v>64</v>
-      </c>
-      <c r="G57" s="48">
-        <v>75</v>
-      </c>
-      <c r="H57" s="33">
-        <f t="shared" si="0"/>
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="33" t="s">
         <v>543</v>
       </c>
@@ -43917,16 +43555,11 @@
       <c r="E58" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="48">
+      <c r="F58" s="33">
         <v>2</v>
       </c>
-      <c r="H58" s="33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="33" t="s">
         <v>544</v>
       </c>
@@ -43940,17 +43573,10 @@
         <v>86</v>
       </c>
       <c r="F59" s="33">
-        <v>1</v>
-      </c>
-      <c r="G59" s="48">
-        <v>2</v>
-      </c>
-      <c r="H59" s="33">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="53"/>
       <c r="B60" s="35" t="s">
         <v>545</v>
@@ -43964,18 +43590,11 @@
       <c r="E60" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="35">
-        <v>8</v>
-      </c>
-      <c r="G60" s="53">
-        <v>2</v>
-      </c>
-      <c r="H60" s="33">
-        <f t="shared" si="0"/>
+      <c r="F60" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>508</v>
       </c>
@@ -43992,17 +43611,10 @@
         <v>84</v>
       </c>
       <c r="F61" s="50">
-        <v>16</v>
-      </c>
-      <c r="G61" s="48">
-        <v>7</v>
-      </c>
-      <c r="H61" s="50">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="33" t="s">
         <v>546</v>
       </c>
@@ -44016,17 +43628,10 @@
         <v>89</v>
       </c>
       <c r="F62" s="33">
-        <v>59</v>
-      </c>
-      <c r="G62" s="48">
-        <v>46</v>
-      </c>
-      <c r="H62" s="33">
-        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="33" t="s">
         <v>547</v>
       </c>
@@ -44040,17 +43645,10 @@
         <v>89</v>
       </c>
       <c r="F63" s="33">
-        <v>32</v>
-      </c>
-      <c r="G63" s="48">
-        <v>30</v>
-      </c>
-      <c r="H63" s="33">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="33" t="s">
         <v>548</v>
       </c>
@@ -44064,17 +43662,10 @@
         <v>89</v>
       </c>
       <c r="F64" s="33">
-        <v>61</v>
-      </c>
-      <c r="G64" s="48">
-        <v>24</v>
-      </c>
-      <c r="H64" s="33">
-        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="33" t="s">
         <v>63</v>
       </c>
@@ -44088,17 +43679,10 @@
         <v>89</v>
       </c>
       <c r="F65" s="33">
-        <v>65</v>
-      </c>
-      <c r="G65" s="48">
-        <v>36</v>
-      </c>
-      <c r="H65" s="33">
-        <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="33" t="s">
         <v>499</v>
       </c>
@@ -44112,17 +43696,10 @@
         <v>89</v>
       </c>
       <c r="F66" s="33">
-        <v>9</v>
-      </c>
-      <c r="G66" s="48">
-        <v>11</v>
-      </c>
-      <c r="H66" s="33">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="33" t="s">
         <v>549</v>
       </c>
@@ -44136,17 +43713,10 @@
         <v>84</v>
       </c>
       <c r="F67" s="33">
-        <v>120</v>
-      </c>
-      <c r="G67" s="48">
-        <v>65</v>
-      </c>
-      <c r="H67" s="33">
-        <f t="shared" ref="H67:H130" si="1">F67+G67</f>
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="33" t="s">
         <v>550</v>
       </c>
@@ -44160,17 +43730,10 @@
         <v>68</v>
       </c>
       <c r="F68" s="33">
-        <v>1673</v>
-      </c>
-      <c r="G68" s="48">
-        <v>1098</v>
-      </c>
-      <c r="H68" s="33">
-        <f t="shared" si="1"/>
         <v>2771</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="33" t="s">
         <v>551</v>
       </c>
@@ -44184,17 +43747,10 @@
         <v>14</v>
       </c>
       <c r="F69" s="33">
-        <v>20</v>
-      </c>
-      <c r="G69" s="48">
-        <v>26</v>
-      </c>
-      <c r="H69" s="33">
-        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="33" t="s">
         <v>552</v>
       </c>
@@ -44208,17 +43764,10 @@
         <v>14</v>
       </c>
       <c r="F70" s="33">
-        <v>80</v>
-      </c>
-      <c r="G70" s="48">
-        <v>101</v>
-      </c>
-      <c r="H70" s="33">
-        <f t="shared" si="1"/>
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="33" t="s">
         <v>553</v>
       </c>
@@ -44232,17 +43781,10 @@
         <v>14</v>
       </c>
       <c r="F71" s="33">
-        <v>105</v>
-      </c>
-      <c r="G71" s="48">
-        <v>275</v>
-      </c>
-      <c r="H71" s="33">
-        <f t="shared" si="1"/>
         <v>380</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="33" t="s">
         <v>554</v>
       </c>
@@ -44256,17 +43798,10 @@
         <v>14</v>
       </c>
       <c r="F72" s="33">
-        <v>27</v>
-      </c>
-      <c r="G72" s="48">
-        <v>51</v>
-      </c>
-      <c r="H72" s="33">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="33" t="s">
         <v>34</v>
       </c>
@@ -44280,17 +43815,10 @@
         <v>14</v>
       </c>
       <c r="F73" s="33">
-        <v>49</v>
-      </c>
-      <c r="G73" s="48">
-        <v>69</v>
-      </c>
-      <c r="H73" s="33">
-        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" s="33" t="s">
         <v>555</v>
       </c>
@@ -44303,16 +43831,11 @@
       <c r="E74" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="48">
+      <c r="F74" s="33">
         <v>1</v>
       </c>
-      <c r="H74" s="33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" s="33" t="s">
         <v>556</v>
       </c>
@@ -44326,17 +43849,10 @@
         <v>84</v>
       </c>
       <c r="F75" s="33">
-        <v>18</v>
-      </c>
-      <c r="G75" s="48">
-        <v>22</v>
-      </c>
-      <c r="H75" s="33">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
       <c r="B76" s="33" t="s">
         <v>33</v>
@@ -44351,17 +43867,10 @@
         <v>14</v>
       </c>
       <c r="F76" s="33">
-        <v>1</v>
-      </c>
-      <c r="G76" s="37">
-        <v>6</v>
-      </c>
-      <c r="H76" s="33">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="37"/>
       <c r="B77" s="33" t="s">
         <v>557</v>
@@ -44376,17 +43885,10 @@
         <v>14</v>
       </c>
       <c r="F77" s="33">
-        <v>2</v>
-      </c>
-      <c r="G77" s="37">
-        <v>3</v>
-      </c>
-      <c r="H77" s="33">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="37"/>
       <c r="B78" s="33" t="s">
         <v>558</v>
@@ -44401,17 +43903,10 @@
         <v>84</v>
       </c>
       <c r="F78" s="33">
-        <v>77</v>
-      </c>
-      <c r="G78" s="37">
-        <v>43</v>
-      </c>
-      <c r="H78" s="33">
-        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="37"/>
       <c r="B79" s="33" t="s">
         <v>559</v>
@@ -44426,17 +43921,10 @@
         <v>84</v>
       </c>
       <c r="F79" s="33">
-        <v>2</v>
-      </c>
-      <c r="G79" s="37">
-        <v>3</v>
-      </c>
-      <c r="H79" s="33">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="53"/>
       <c r="B80" s="35" t="s">
         <v>560</v>
@@ -44450,18 +43938,11 @@
       <c r="E80" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="F80" s="35">
-        <v>38</v>
-      </c>
-      <c r="G80" s="53">
-        <v>11</v>
-      </c>
-      <c r="H80" s="33">
-        <f t="shared" si="1"/>
+      <c r="F80" s="33">
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>106</v>
       </c>
@@ -44477,18 +43958,11 @@
       <c r="E81" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F81" s="33">
-        <v>20</v>
-      </c>
-      <c r="G81" s="48">
-        <v>21</v>
-      </c>
-      <c r="H81" s="50">
-        <f t="shared" si="1"/>
+      <c r="F81" s="50">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" s="33" t="s">
         <v>562</v>
       </c>
@@ -44502,17 +43976,10 @@
         <v>68</v>
       </c>
       <c r="F82" s="33">
-        <v>182</v>
-      </c>
-      <c r="G82" s="48">
-        <v>81</v>
-      </c>
-      <c r="H82" s="33">
-        <f t="shared" si="1"/>
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" s="33" t="s">
         <v>500</v>
       </c>
@@ -44526,17 +43993,10 @@
         <v>68</v>
       </c>
       <c r="F83" s="33">
-        <v>3716</v>
-      </c>
-      <c r="G83" s="48">
-        <v>2434</v>
-      </c>
-      <c r="H83" s="33">
-        <f t="shared" si="1"/>
         <v>6150</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="37"/>
       <c r="B84" s="33" t="s">
         <v>563</v>
@@ -44551,17 +44011,10 @@
         <v>68</v>
       </c>
       <c r="F84" s="33">
-        <v>177</v>
-      </c>
-      <c r="G84" s="37">
-        <v>126</v>
-      </c>
-      <c r="H84" s="33">
-        <f t="shared" si="1"/>
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="37"/>
       <c r="B85" s="33" t="s">
         <v>1234</v>
@@ -44576,17 +44029,10 @@
         <v>68</v>
       </c>
       <c r="F85" s="33">
-        <v>476</v>
-      </c>
-      <c r="G85" s="37">
-        <v>420</v>
-      </c>
-      <c r="H85" s="33">
-        <f t="shared" si="1"/>
         <v>896</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
       <c r="B86" s="33" t="s">
         <v>565</v>
@@ -44601,17 +44047,10 @@
         <v>68</v>
       </c>
       <c r="F86" s="33">
-        <v>93</v>
-      </c>
-      <c r="G86" s="37">
-        <v>74</v>
-      </c>
-      <c r="H86" s="33">
-        <f t="shared" si="1"/>
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
       <c r="B87" s="33" t="s">
         <v>566</v>
@@ -44626,17 +44065,10 @@
         <v>68</v>
       </c>
       <c r="F87" s="33">
-        <v>12</v>
-      </c>
-      <c r="G87" s="37">
-        <v>9</v>
-      </c>
-      <c r="H87" s="33">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
       <c r="B88" s="33" t="s">
         <v>675</v>
@@ -44651,17 +44083,10 @@
         <v>68</v>
       </c>
       <c r="F88" s="33">
-        <v>15</v>
-      </c>
-      <c r="G88" s="37">
-        <v>4</v>
-      </c>
-      <c r="H88" s="33">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="53"/>
       <c r="B89" s="35" t="s">
         <v>567</v>
@@ -44675,18 +44100,11 @@
       <c r="E89" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="35">
-        <v>5</v>
-      </c>
-      <c r="G89" s="53">
-        <v>4</v>
-      </c>
-      <c r="H89" s="33">
-        <f t="shared" si="1"/>
+      <c r="F89" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>107</v>
       </c>
@@ -44702,18 +44120,11 @@
       <c r="E90" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="F90" s="33">
-        <v>1</v>
-      </c>
-      <c r="G90" s="48">
-        <v>1</v>
-      </c>
-      <c r="H90" s="50">
-        <f t="shared" si="1"/>
+      <c r="F90" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="33" t="s">
         <v>569</v>
       </c>
@@ -44727,17 +44138,10 @@
         <v>84</v>
       </c>
       <c r="F91" s="33">
-        <v>11</v>
-      </c>
-      <c r="G91" s="48">
-        <v>11</v>
-      </c>
-      <c r="H91" s="33">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="33" t="s">
         <v>570</v>
       </c>
@@ -44751,17 +44155,10 @@
         <v>84</v>
       </c>
       <c r="F92" s="33">
-        <v>14</v>
-      </c>
-      <c r="G92" s="48">
-        <v>4</v>
-      </c>
-      <c r="H92" s="33">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" s="33" t="s">
         <v>190</v>
       </c>
@@ -44775,17 +44172,10 @@
         <v>84</v>
       </c>
       <c r="F93" s="33">
-        <v>99</v>
-      </c>
-      <c r="G93" s="48">
-        <v>63</v>
-      </c>
-      <c r="H93" s="33">
-        <f t="shared" si="1"/>
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="33" t="s">
         <v>571</v>
       </c>
@@ -44799,17 +44189,10 @@
         <v>14</v>
       </c>
       <c r="F94" s="33">
-        <v>103</v>
-      </c>
-      <c r="G94" s="48">
-        <v>65</v>
-      </c>
-      <c r="H94" s="33">
-        <f t="shared" si="1"/>
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="33" t="s">
         <v>301</v>
       </c>
@@ -44823,17 +44206,10 @@
         <v>84</v>
       </c>
       <c r="F95" s="33">
-        <v>1060</v>
-      </c>
-      <c r="G95" s="48">
-        <v>633</v>
-      </c>
-      <c r="H95" s="33">
-        <f t="shared" si="1"/>
         <v>1693</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="33" t="s">
         <v>300</v>
       </c>
@@ -44847,17 +44223,10 @@
         <v>84</v>
       </c>
       <c r="F96" s="33">
-        <v>3168</v>
-      </c>
-      <c r="G96" s="48">
-        <v>1773</v>
-      </c>
-      <c r="H96" s="33">
-        <f t="shared" si="1"/>
         <v>4941</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" s="33" t="s">
         <v>572</v>
       </c>
@@ -44871,17 +44240,10 @@
         <v>84</v>
       </c>
       <c r="F97" s="33">
-        <v>172</v>
-      </c>
-      <c r="G97" s="48">
-        <v>292</v>
-      </c>
-      <c r="H97" s="33">
-        <f t="shared" si="1"/>
         <v>464</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" s="33" t="s">
         <v>194</v>
       </c>
@@ -44895,17 +44257,10 @@
         <v>84</v>
       </c>
       <c r="F98" s="33">
-        <v>80</v>
-      </c>
-      <c r="G98" s="48">
-        <v>33</v>
-      </c>
-      <c r="H98" s="33">
-        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" s="33" t="s">
         <v>573</v>
       </c>
@@ -44919,17 +44274,10 @@
         <v>84</v>
       </c>
       <c r="F99" s="33">
-        <v>37</v>
-      </c>
-      <c r="G99" s="48">
-        <v>35</v>
-      </c>
-      <c r="H99" s="33">
-        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B100" s="33" t="s">
         <v>574</v>
       </c>
@@ -44943,17 +44291,10 @@
         <v>84</v>
       </c>
       <c r="F100" s="33">
-        <v>13</v>
-      </c>
-      <c r="G100" s="48">
-        <v>8</v>
-      </c>
-      <c r="H100" s="33">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
       <c r="B101" s="33" t="s">
         <v>69</v>
@@ -44968,17 +44309,10 @@
         <v>14</v>
       </c>
       <c r="F101" s="33">
-        <v>41</v>
-      </c>
-      <c r="G101" s="37">
-        <v>41</v>
-      </c>
-      <c r="H101" s="33">
-        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
       <c r="B102" s="33" t="s">
         <v>575</v>
@@ -44993,17 +44327,10 @@
         <v>14</v>
       </c>
       <c r="F102" s="33">
-        <v>3</v>
-      </c>
-      <c r="G102" s="37">
-        <v>3</v>
-      </c>
-      <c r="H102" s="33">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="53"/>
       <c r="B103" s="35" t="s">
         <v>576</v>
@@ -45017,18 +44344,11 @@
       <c r="E103" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="F103" s="35">
-        <v>11</v>
-      </c>
-      <c r="G103" s="53">
-        <v>23</v>
-      </c>
-      <c r="H103" s="33">
-        <f t="shared" si="1"/>
+      <c r="F103" s="33">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>108</v>
       </c>
@@ -45044,18 +44364,11 @@
       <c r="E104" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="33">
-        <v>20</v>
-      </c>
-      <c r="G104" s="48">
-        <v>12</v>
-      </c>
-      <c r="H104" s="50">
-        <f t="shared" si="1"/>
+      <c r="F104" s="50">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" s="33" t="s">
         <v>577</v>
       </c>
@@ -45069,17 +44382,10 @@
         <v>84</v>
       </c>
       <c r="F105" s="33">
-        <v>62</v>
-      </c>
-      <c r="G105" s="48">
-        <v>31</v>
-      </c>
-      <c r="H105" s="33">
-        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="33" t="s">
         <v>578</v>
       </c>
@@ -45095,12 +44401,8 @@
       <c r="F106" s="33">
         <v>2</v>
       </c>
-      <c r="H106" s="33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="33" t="s">
         <v>579</v>
       </c>
@@ -45114,17 +44416,10 @@
         <v>84</v>
       </c>
       <c r="F107" s="33">
-        <v>146</v>
-      </c>
-      <c r="G107" s="48">
-        <v>63</v>
-      </c>
-      <c r="H107" s="33">
-        <f t="shared" si="1"/>
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="33" t="s">
         <v>907</v>
       </c>
@@ -45138,17 +44433,10 @@
         <v>84</v>
       </c>
       <c r="F108" s="33">
-        <v>132</v>
-      </c>
-      <c r="G108" s="48">
-        <v>128</v>
-      </c>
-      <c r="H108" s="33">
-        <f t="shared" si="1"/>
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" s="33" t="s">
         <v>501</v>
       </c>
@@ -45162,17 +44450,10 @@
         <v>89</v>
       </c>
       <c r="F109" s="33">
-        <v>486</v>
-      </c>
-      <c r="G109" s="48">
-        <v>577</v>
-      </c>
-      <c r="H109" s="33">
-        <f t="shared" si="1"/>
         <v>1063</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B110" s="33" t="s">
         <v>581</v>
       </c>
@@ -45186,17 +44467,10 @@
         <v>89</v>
       </c>
       <c r="F110" s="33">
-        <v>190</v>
-      </c>
-      <c r="G110" s="48">
-        <v>178</v>
-      </c>
-      <c r="H110" s="33">
-        <f t="shared" si="1"/>
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B111" s="33" t="s">
         <v>150</v>
       </c>
@@ -45209,13 +44483,11 @@
       <c r="E111" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F111" s="33"/>
-      <c r="H111" s="33">
-        <f t="shared" si="1"/>
+      <c r="F111" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B112" s="33" t="s">
         <v>582</v>
       </c>
@@ -45231,12 +44503,8 @@
       <c r="F112" s="33">
         <v>4</v>
       </c>
-      <c r="H112" s="33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="33" t="s">
         <v>504</v>
       </c>
@@ -45250,17 +44518,10 @@
         <v>84</v>
       </c>
       <c r="F113" s="33">
-        <v>287</v>
-      </c>
-      <c r="G113" s="48">
-        <v>110</v>
-      </c>
-      <c r="H113" s="33">
-        <f t="shared" si="1"/>
         <v>397</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="33" t="s">
         <v>583</v>
       </c>
@@ -45274,17 +44535,10 @@
         <v>84</v>
       </c>
       <c r="F114" s="33">
-        <v>91</v>
-      </c>
-      <c r="G114" s="48">
-        <v>39</v>
-      </c>
-      <c r="H114" s="33">
-        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" s="33" t="s">
         <v>584</v>
       </c>
@@ -45298,17 +44552,10 @@
         <v>84</v>
       </c>
       <c r="F115" s="33">
-        <v>162</v>
-      </c>
-      <c r="G115" s="48">
-        <v>96</v>
-      </c>
-      <c r="H115" s="33">
-        <f t="shared" si="1"/>
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="33" t="s">
         <v>585</v>
       </c>
@@ -45322,17 +44569,10 @@
         <v>84</v>
       </c>
       <c r="F116" s="33">
-        <v>52</v>
-      </c>
-      <c r="G116" s="48">
-        <v>36</v>
-      </c>
-      <c r="H116" s="33">
-        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="33" t="s">
         <v>586</v>
       </c>
@@ -45346,17 +44586,10 @@
         <v>84</v>
       </c>
       <c r="F117" s="33">
-        <v>11</v>
-      </c>
-      <c r="G117" s="48">
-        <v>3</v>
-      </c>
-      <c r="H117" s="33">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B118" s="33" t="s">
         <v>587</v>
       </c>
@@ -45372,12 +44605,8 @@
       <c r="F118" s="33">
         <v>3</v>
       </c>
-      <c r="H118" s="33">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="37"/>
       <c r="B119" s="33" t="s">
         <v>505</v>
@@ -45392,17 +44621,10 @@
         <v>14</v>
       </c>
       <c r="F119" s="33">
-        <v>313</v>
-      </c>
-      <c r="G119" s="37">
-        <v>148</v>
-      </c>
-      <c r="H119" s="33">
-        <f t="shared" si="1"/>
         <v>461</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="37"/>
       <c r="B120" s="33" t="s">
         <v>588</v>
@@ -45417,17 +44639,10 @@
         <v>14</v>
       </c>
       <c r="F120" s="33">
-        <v>56</v>
-      </c>
-      <c r="G120" s="37">
-        <v>19</v>
-      </c>
-      <c r="H120" s="33">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="37"/>
       <c r="B121" s="33" t="s">
         <v>589</v>
@@ -45442,17 +44657,10 @@
         <v>84</v>
       </c>
       <c r="F121" s="33">
-        <v>95</v>
-      </c>
-      <c r="G121" s="37">
-        <v>48</v>
-      </c>
-      <c r="H121" s="33">
-        <f t="shared" si="1"/>
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="37"/>
       <c r="B122" s="33" t="s">
         <v>590</v>
@@ -45467,17 +44675,10 @@
         <v>84</v>
       </c>
       <c r="F122" s="33">
-        <v>5</v>
-      </c>
-      <c r="G122" s="37">
-        <v>2</v>
-      </c>
-      <c r="H122" s="33">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="37"/>
       <c r="B123" s="33" t="s">
         <v>591</v>
@@ -45492,17 +44693,10 @@
         <v>89</v>
       </c>
       <c r="F123" s="33">
-        <v>33</v>
-      </c>
-      <c r="G123" s="37">
-        <v>22</v>
-      </c>
-      <c r="H123" s="33">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="53"/>
       <c r="B124" s="35" t="s">
         <v>908</v>
@@ -45516,18 +44710,11 @@
       <c r="E124" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F124" s="35">
-        <v>28</v>
-      </c>
-      <c r="G124" s="53">
-        <v>6</v>
-      </c>
-      <c r="H124" s="33">
-        <f t="shared" si="1"/>
+      <c r="F124" s="33">
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="48" t="s">
         <v>896</v>
       </c>
@@ -45543,18 +44730,11 @@
       <c r="E125" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F125" s="33">
-        <v>140</v>
-      </c>
-      <c r="G125" s="48">
-        <v>78</v>
-      </c>
-      <c r="H125" s="50">
-        <f t="shared" si="1"/>
+      <c r="F125" s="50">
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="33" t="s">
         <v>592</v>
       </c>
@@ -45568,17 +44748,10 @@
         <v>14</v>
       </c>
       <c r="F126" s="33">
-        <v>1837</v>
-      </c>
-      <c r="G126" s="48">
-        <v>1047</v>
-      </c>
-      <c r="H126" s="33">
-        <f t="shared" si="1"/>
         <v>2884</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="33" t="s">
         <v>593</v>
       </c>
@@ -45591,13 +44764,11 @@
       <c r="E127" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F127" s="33"/>
-      <c r="H127" s="33">
-        <f t="shared" si="1"/>
+      <c r="F127" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="33" t="s">
         <v>594</v>
       </c>
@@ -45611,17 +44782,10 @@
         <v>84</v>
       </c>
       <c r="F128" s="33">
-        <v>56</v>
-      </c>
-      <c r="G128" s="48">
-        <v>24</v>
-      </c>
-      <c r="H128" s="33">
-        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="33" t="s">
         <v>1286</v>
       </c>
@@ -45635,17 +44799,10 @@
         <v>84</v>
       </c>
       <c r="F129" s="33">
-        <v>19</v>
-      </c>
-      <c r="G129" s="48">
-        <v>7</v>
-      </c>
-      <c r="H129" s="33">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="33" t="s">
         <v>596</v>
       </c>
@@ -45659,17 +44816,10 @@
         <v>84</v>
       </c>
       <c r="F130" s="33">
-        <v>25</v>
-      </c>
-      <c r="G130" s="48">
-        <v>35</v>
-      </c>
-      <c r="H130" s="33">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="33" t="s">
         <v>910</v>
       </c>
@@ -45683,17 +44833,10 @@
         <v>84</v>
       </c>
       <c r="F131" s="33">
-        <v>7</v>
-      </c>
-      <c r="G131" s="48">
-        <v>1</v>
-      </c>
-      <c r="H131" s="33">
-        <f t="shared" ref="H131:H194" si="2">F131+G131</f>
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="33" t="s">
         <v>598</v>
       </c>
@@ -45707,17 +44850,10 @@
         <v>84</v>
       </c>
       <c r="F132" s="33">
-        <v>121</v>
-      </c>
-      <c r="G132" s="48">
-        <v>61</v>
-      </c>
-      <c r="H132" s="33">
-        <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="33" t="s">
         <v>599</v>
       </c>
@@ -45733,12 +44869,8 @@
       <c r="F133" s="33">
         <v>4</v>
       </c>
-      <c r="H133" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="33" t="s">
         <v>600</v>
       </c>
@@ -45752,17 +44884,10 @@
         <v>84</v>
       </c>
       <c r="F134" s="33">
-        <v>3</v>
-      </c>
-      <c r="G134" s="48">
-        <v>2</v>
-      </c>
-      <c r="H134" s="33">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="37"/>
       <c r="B135" s="33" t="s">
         <v>601</v>
@@ -45777,17 +44902,10 @@
         <v>24</v>
       </c>
       <c r="F135" s="33">
-        <v>41</v>
-      </c>
-      <c r="G135" s="37">
-        <v>16</v>
-      </c>
-      <c r="H135" s="33">
-        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="37"/>
       <c r="B136" s="33" t="s">
         <v>602</v>
@@ -45802,17 +44920,10 @@
         <v>84</v>
       </c>
       <c r="F136" s="33">
-        <v>22</v>
-      </c>
-      <c r="G136" s="37">
-        <v>9</v>
-      </c>
-      <c r="H136" s="33">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="37"/>
       <c r="B137" s="33" t="s">
         <v>603</v>
@@ -45827,17 +44938,10 @@
         <v>84</v>
       </c>
       <c r="F137" s="33">
-        <v>15</v>
-      </c>
-      <c r="G137" s="37">
-        <v>9</v>
-      </c>
-      <c r="H137" s="33">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="37"/>
       <c r="B138" s="33" t="s">
         <v>604</v>
@@ -45852,17 +44956,10 @@
         <v>84</v>
       </c>
       <c r="F138" s="33">
-        <v>48</v>
-      </c>
-      <c r="G138" s="37">
-        <v>14</v>
-      </c>
-      <c r="H138" s="33">
-        <f t="shared" si="2"/>
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="37"/>
       <c r="B139" s="33" t="s">
         <v>605</v>
@@ -45879,13 +44976,8 @@
       <c r="F139" s="33">
         <v>2</v>
       </c>
-      <c r="G139" s="37"/>
-      <c r="H139" s="33">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="168" t="s">
         <v>1287</v>
       </c>
@@ -45902,17 +44994,10 @@
         <v>86</v>
       </c>
       <c r="F140" s="50">
-        <v>72</v>
-      </c>
-      <c r="G140" s="168">
-        <v>47</v>
-      </c>
-      <c r="H140" s="50">
-        <f t="shared" si="2"/>
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="37"/>
       <c r="B141" s="33" t="s">
         <v>608</v>
@@ -45927,17 +45012,10 @@
         <v>84</v>
       </c>
       <c r="F141" s="33">
-        <v>32</v>
-      </c>
-      <c r="G141" s="37">
-        <v>28</v>
-      </c>
-      <c r="H141" s="33">
-        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="37"/>
       <c r="B142" s="33" t="s">
         <v>609</v>
@@ -45952,17 +45030,10 @@
         <v>84</v>
       </c>
       <c r="F142" s="33">
-        <v>49</v>
-      </c>
-      <c r="G142" s="37">
-        <v>38</v>
-      </c>
-      <c r="H142" s="33">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="37"/>
       <c r="B143" s="33" t="s">
         <v>506</v>
@@ -45977,17 +45048,10 @@
         <v>89</v>
       </c>
       <c r="F143" s="33">
-        <v>115</v>
-      </c>
-      <c r="G143" s="37">
-        <v>60</v>
-      </c>
-      <c r="H143" s="33">
-        <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="37"/>
       <c r="B144" s="33" t="s">
         <v>610</v>
@@ -46002,17 +45066,10 @@
         <v>84</v>
       </c>
       <c r="F144" s="33">
-        <v>64</v>
-      </c>
-      <c r="G144" s="37">
-        <v>45</v>
-      </c>
-      <c r="H144" s="33">
-        <f t="shared" si="2"/>
         <v>109</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="37"/>
       <c r="B145" s="33" t="s">
         <v>611</v>
@@ -46027,17 +45084,10 @@
         <v>84</v>
       </c>
       <c r="F145" s="33">
-        <v>10</v>
-      </c>
-      <c r="G145" s="37">
-        <v>6</v>
-      </c>
-      <c r="H145" s="33">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="37"/>
       <c r="B146" s="33" t="s">
         <v>612</v>
@@ -46052,17 +45102,10 @@
         <v>84</v>
       </c>
       <c r="F146" s="33">
-        <v>1</v>
-      </c>
-      <c r="G146" s="37">
-        <v>1</v>
-      </c>
-      <c r="H146" s="33">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="53"/>
       <c r="B147" s="35" t="s">
         <v>613</v>
@@ -46076,16 +45119,11 @@
       <c r="E147" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="35">
+      <c r="F147" s="33">
         <v>1</v>
       </c>
-      <c r="G147" s="53"/>
-      <c r="H147" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="168" t="s">
         <v>897</v>
       </c>
@@ -46102,17 +45140,10 @@
         <v>68</v>
       </c>
       <c r="F148" s="50">
-        <v>29</v>
-      </c>
-      <c r="G148" s="168">
-        <v>26</v>
-      </c>
-      <c r="H148" s="50">
-        <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="37"/>
       <c r="B149" s="33" t="s">
         <v>616</v>
@@ -46127,17 +45158,10 @@
         <v>89</v>
       </c>
       <c r="F149" s="33">
-        <v>5</v>
-      </c>
-      <c r="G149" s="37">
-        <v>3</v>
-      </c>
-      <c r="H149" s="33">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="37"/>
       <c r="B150" s="33" t="s">
         <v>1276</v>
@@ -46152,17 +45176,10 @@
         <v>89</v>
       </c>
       <c r="F150" s="33">
-        <v>14</v>
-      </c>
-      <c r="G150" s="37">
-        <v>8</v>
-      </c>
-      <c r="H150" s="33">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="53"/>
       <c r="B151" s="35" t="s">
         <v>617</v>
@@ -46176,18 +45193,11 @@
       <c r="E151" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F151" s="35">
-        <v>17</v>
-      </c>
-      <c r="G151" s="53">
-        <v>7</v>
-      </c>
-      <c r="H151" s="33">
-        <f t="shared" si="2"/>
+      <c r="F151" s="33">
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="48" t="s">
         <v>618</v>
       </c>
@@ -46203,18 +45213,11 @@
       <c r="E152" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F152" s="33">
-        <v>65</v>
-      </c>
-      <c r="G152" s="48">
-        <v>22</v>
-      </c>
-      <c r="H152" s="50">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F152" s="50">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B153" s="33" t="s">
         <v>620</v>
       </c>
@@ -46228,17 +45231,10 @@
         <v>84</v>
       </c>
       <c r="F153" s="33">
-        <v>7</v>
-      </c>
-      <c r="G153" s="48">
-        <v>3</v>
-      </c>
-      <c r="H153" s="33">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B154" s="33" t="s">
         <v>621</v>
       </c>
@@ -46251,13 +45247,11 @@
       <c r="E154" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F154" s="33"/>
-      <c r="H154" s="33">
-        <f t="shared" si="2"/>
+      <c r="F154" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B155" s="33" t="s">
         <v>622</v>
       </c>
@@ -46271,17 +45265,10 @@
         <v>84</v>
       </c>
       <c r="F155" s="33">
-        <v>1</v>
-      </c>
-      <c r="G155" s="48">
-        <v>2</v>
-      </c>
-      <c r="H155" s="33">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="168" t="s">
         <v>623</v>
       </c>
@@ -46298,17 +45285,10 @@
         <v>84</v>
       </c>
       <c r="F156" s="50">
-        <v>23</v>
-      </c>
-      <c r="G156" s="168">
-        <v>17</v>
-      </c>
-      <c r="H156" s="50">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B157" s="33" t="s">
         <v>624</v>
       </c>
@@ -46322,17 +45302,10 @@
         <v>14</v>
       </c>
       <c r="F157" s="33">
-        <v>134</v>
-      </c>
-      <c r="G157" s="48">
-        <v>105</v>
-      </c>
-      <c r="H157" s="33">
-        <f t="shared" si="2"/>
         <v>239</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B158" s="33" t="s">
         <v>325</v>
       </c>
@@ -46346,17 +45319,10 @@
         <v>14</v>
       </c>
       <c r="F158" s="33">
-        <v>47</v>
-      </c>
-      <c r="G158" s="48">
-        <v>36</v>
-      </c>
-      <c r="H158" s="33">
-        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="168" t="s">
         <v>625</v>
       </c>
@@ -46373,17 +45339,10 @@
         <v>84</v>
       </c>
       <c r="F159" s="50">
-        <v>563</v>
-      </c>
-      <c r="G159" s="168">
-        <v>451</v>
-      </c>
-      <c r="H159" s="50">
-        <f t="shared" si="2"/>
         <v>1014</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B160" s="33" t="s">
         <v>1277</v>
       </c>
@@ -46397,17 +45356,10 @@
         <v>84</v>
       </c>
       <c r="F160" s="33">
-        <v>113</v>
-      </c>
-      <c r="G160" s="48">
-        <v>127</v>
-      </c>
-      <c r="H160" s="33">
-        <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B161" s="33" t="s">
         <v>628</v>
       </c>
@@ -46421,17 +45373,10 @@
         <v>86</v>
       </c>
       <c r="F161" s="33">
-        <v>97</v>
-      </c>
-      <c r="G161" s="48">
-        <v>73</v>
-      </c>
-      <c r="H161" s="33">
-        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B162" s="33" t="s">
         <v>912</v>
       </c>
@@ -46445,17 +45390,10 @@
         <v>84</v>
       </c>
       <c r="F162" s="33">
-        <v>90</v>
-      </c>
-      <c r="G162" s="48">
-        <v>48</v>
-      </c>
-      <c r="H162" s="33">
-        <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B163" s="33" t="s">
         <v>630</v>
       </c>
@@ -46469,17 +45407,10 @@
         <v>86</v>
       </c>
       <c r="F163" s="33">
-        <v>4</v>
-      </c>
-      <c r="G163" s="48">
-        <v>4</v>
-      </c>
-      <c r="H163" s="33">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="168" t="s">
         <v>13</v>
       </c>
@@ -46495,18 +45426,11 @@
       <c r="E164" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="F164" s="50">
-        <v>175</v>
-      </c>
-      <c r="G164" s="168">
-        <v>175</v>
-      </c>
-      <c r="H164" s="32">
-        <f t="shared" si="2"/>
+      <c r="F164" s="32">
         <v>350</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="168" t="s">
         <v>632</v>
       </c>
@@ -46523,17 +45447,10 @@
         <v>86</v>
       </c>
       <c r="F165" s="50">
-        <v>73</v>
-      </c>
-      <c r="G165" s="168">
-        <v>28</v>
-      </c>
-      <c r="H165" s="50">
-        <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B166" s="33" t="s">
         <v>634</v>
       </c>
@@ -46547,17 +45464,10 @@
         <v>86</v>
       </c>
       <c r="F166" s="33">
-        <v>61</v>
-      </c>
-      <c r="G166" s="48">
-        <v>47</v>
-      </c>
-      <c r="H166" s="33">
-        <f t="shared" si="2"/>
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B167" s="33" t="s">
         <v>635</v>
       </c>
@@ -46571,17 +45481,10 @@
         <v>86</v>
       </c>
       <c r="F167" s="33">
-        <v>55</v>
-      </c>
-      <c r="G167" s="48">
-        <v>12</v>
-      </c>
-      <c r="H167" s="33">
-        <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B168" s="33" t="s">
         <v>636</v>
       </c>
@@ -46595,17 +45498,10 @@
         <v>86</v>
       </c>
       <c r="F168" s="33">
-        <v>18</v>
-      </c>
-      <c r="G168" s="48">
-        <v>18</v>
-      </c>
-      <c r="H168" s="33">
-        <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B169" s="33" t="s">
         <v>637</v>
       </c>
@@ -46619,17 +45515,10 @@
         <v>86</v>
       </c>
       <c r="F169" s="33">
-        <v>188</v>
-      </c>
-      <c r="G169" s="48">
-        <v>161</v>
-      </c>
-      <c r="H169" s="33">
-        <f t="shared" si="2"/>
         <v>349</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B170" s="33" t="s">
         <v>638</v>
       </c>
@@ -46643,17 +45532,10 @@
         <v>86</v>
       </c>
       <c r="F170" s="33">
-        <v>40</v>
-      </c>
-      <c r="G170" s="48">
-        <v>35</v>
-      </c>
-      <c r="H170" s="33">
-        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="33" t="s">
         <v>639</v>
       </c>
@@ -46667,17 +45549,10 @@
         <v>86</v>
       </c>
       <c r="F171" s="33">
-        <v>20</v>
-      </c>
-      <c r="G171" s="48">
-        <v>3</v>
-      </c>
-      <c r="H171" s="33">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B172" s="33" t="s">
         <v>640</v>
       </c>
@@ -46691,17 +45566,10 @@
         <v>86</v>
       </c>
       <c r="F172" s="33">
-        <v>2</v>
-      </c>
-      <c r="G172" s="48">
-        <v>3</v>
-      </c>
-      <c r="H172" s="33">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B173" s="33" t="s">
         <v>641</v>
       </c>
@@ -46715,17 +45583,10 @@
         <v>86</v>
       </c>
       <c r="F173" s="33">
-        <v>1</v>
-      </c>
-      <c r="G173" s="48">
-        <v>9</v>
-      </c>
-      <c r="H173" s="33">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="33" t="s">
         <v>642</v>
       </c>
@@ -46739,17 +45600,10 @@
         <v>86</v>
       </c>
       <c r="F174" s="33">
-        <v>26</v>
-      </c>
-      <c r="G174" s="48">
-        <v>33</v>
-      </c>
-      <c r="H174" s="33">
-        <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="33" t="s">
         <v>643</v>
       </c>
@@ -46763,17 +45617,10 @@
         <v>86</v>
       </c>
       <c r="F175" s="33">
-        <v>30</v>
-      </c>
-      <c r="G175" s="48">
-        <v>35</v>
-      </c>
-      <c r="H175" s="33">
-        <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B176" s="33" t="s">
         <v>644</v>
       </c>
@@ -46787,17 +45634,10 @@
         <v>86</v>
       </c>
       <c r="F176" s="33">
-        <v>24</v>
-      </c>
-      <c r="G176" s="48">
-        <v>40</v>
-      </c>
-      <c r="H176" s="33">
-        <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B177" s="33" t="s">
         <v>645</v>
       </c>
@@ -46811,17 +45651,10 @@
         <v>86</v>
       </c>
       <c r="F177" s="33">
-        <v>86</v>
-      </c>
-      <c r="G177" s="48">
-        <v>54</v>
-      </c>
-      <c r="H177" s="33">
-        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B178" s="33" t="s">
         <v>646</v>
       </c>
@@ -46835,17 +45668,10 @@
         <v>86</v>
       </c>
       <c r="F178" s="33">
-        <v>102</v>
-      </c>
-      <c r="G178" s="48">
-        <v>24</v>
-      </c>
-      <c r="H178" s="33">
-        <f t="shared" si="2"/>
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B179" s="33" t="s">
         <v>356</v>
       </c>
@@ -46859,17 +45685,10 @@
         <v>86</v>
       </c>
       <c r="F179" s="33">
-        <v>107</v>
-      </c>
-      <c r="G179" s="48">
-        <v>196</v>
-      </c>
-      <c r="H179" s="33">
-        <f t="shared" si="2"/>
         <v>303</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B180" s="33" t="s">
         <v>647</v>
       </c>
@@ -46883,17 +45702,10 @@
         <v>86</v>
       </c>
       <c r="F180" s="33">
-        <v>35</v>
-      </c>
-      <c r="G180" s="48">
-        <v>72</v>
-      </c>
-      <c r="H180" s="33">
-        <f t="shared" si="2"/>
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B181" s="33" t="s">
         <v>648</v>
       </c>
@@ -46907,17 +45719,10 @@
         <v>86</v>
       </c>
       <c r="F181" s="33">
-        <v>3</v>
-      </c>
-      <c r="G181" s="48">
-        <v>2</v>
-      </c>
-      <c r="H181" s="33">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B182" s="33" t="s">
         <v>649</v>
       </c>
@@ -46931,17 +45736,10 @@
         <v>86</v>
       </c>
       <c r="F182" s="33">
-        <v>297</v>
-      </c>
-      <c r="G182" s="48">
-        <v>154</v>
-      </c>
-      <c r="H182" s="33">
-        <f t="shared" si="2"/>
         <v>451</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B183" s="33" t="s">
         <v>650</v>
       </c>
@@ -46955,17 +45753,10 @@
         <v>86</v>
       </c>
       <c r="F183" s="33">
-        <v>2</v>
-      </c>
-      <c r="G183" s="48">
-        <v>37</v>
-      </c>
-      <c r="H183" s="33">
-        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B184" s="33" t="s">
         <v>651</v>
       </c>
@@ -46978,16 +45769,11 @@
       <c r="E184" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F184" s="33"/>
-      <c r="G184" s="48">
+      <c r="F184" s="33">
         <v>4</v>
       </c>
-      <c r="H184" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B185" s="33" t="s">
         <v>652</v>
       </c>
@@ -47001,17 +45787,10 @@
         <v>86</v>
       </c>
       <c r="F185" s="33">
-        <v>68</v>
-      </c>
-      <c r="G185" s="48">
-        <v>35</v>
-      </c>
-      <c r="H185" s="33">
-        <f t="shared" si="2"/>
         <v>103</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B186" s="33" t="s">
         <v>913</v>
       </c>
@@ -47025,17 +45804,10 @@
         <v>86</v>
       </c>
       <c r="F186" s="33">
-        <v>163</v>
-      </c>
-      <c r="G186" s="48">
-        <v>189</v>
-      </c>
-      <c r="H186" s="33">
-        <f t="shared" si="2"/>
         <v>352</v>
       </c>
     </row>
-    <row r="187" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B187" s="33" t="s">
         <v>914</v>
       </c>
@@ -47049,17 +45821,10 @@
         <v>86</v>
       </c>
       <c r="F187" s="33">
-        <v>117</v>
-      </c>
-      <c r="G187" s="48">
-        <v>29</v>
-      </c>
-      <c r="H187" s="33">
-        <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B188" s="33" t="s">
         <v>915</v>
       </c>
@@ -47073,17 +45838,10 @@
         <v>86</v>
       </c>
       <c r="F188" s="33">
-        <v>296</v>
-      </c>
-      <c r="G188" s="48">
-        <v>237</v>
-      </c>
-      <c r="H188" s="33">
-        <f t="shared" si="2"/>
         <v>533</v>
       </c>
     </row>
-    <row r="189" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B189" s="33" t="s">
         <v>916</v>
       </c>
@@ -47097,17 +45855,10 @@
         <v>86</v>
       </c>
       <c r="F189" s="33">
-        <v>61</v>
-      </c>
-      <c r="G189" s="48">
-        <v>84</v>
-      </c>
-      <c r="H189" s="33">
-        <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
-    <row r="190" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B190" s="33" t="s">
         <v>917</v>
       </c>
@@ -47121,17 +45872,10 @@
         <v>86</v>
       </c>
       <c r="F190" s="33">
-        <v>26</v>
-      </c>
-      <c r="G190" s="48">
-        <v>13</v>
-      </c>
-      <c r="H190" s="33">
-        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B191" s="33" t="s">
         <v>659</v>
       </c>
@@ -47145,17 +45889,10 @@
         <v>86</v>
       </c>
       <c r="F191" s="33">
-        <v>12</v>
-      </c>
-      <c r="G191" s="48">
-        <v>24</v>
-      </c>
-      <c r="H191" s="33">
-        <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B192" s="33" t="s">
         <v>660</v>
       </c>
@@ -47169,17 +45906,10 @@
         <v>86</v>
       </c>
       <c r="F192" s="33">
-        <v>1</v>
-      </c>
-      <c r="G192" s="48">
-        <v>1</v>
-      </c>
-      <c r="H192" s="33">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B193" s="33" t="s">
         <v>661</v>
       </c>
@@ -47192,16 +45922,11 @@
       <c r="E193" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F193" s="33"/>
-      <c r="G193" s="48">
+      <c r="F193" s="33">
         <v>6</v>
       </c>
-      <c r="H193" s="33">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" s="33" t="s">
         <v>662</v>
       </c>
@@ -47215,17 +45940,10 @@
         <v>86</v>
       </c>
       <c r="F194" s="33">
-        <v>7</v>
-      </c>
-      <c r="G194" s="48">
-        <v>28</v>
-      </c>
-      <c r="H194" s="33">
-        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B195" s="33" t="s">
         <v>663</v>
       </c>
@@ -47238,16 +45956,11 @@
       <c r="E195" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F195" s="33"/>
-      <c r="G195" s="48">
+      <c r="F195" s="33">
         <v>2</v>
       </c>
-      <c r="H195" s="33">
-        <f t="shared" ref="H195:H205" si="3">F195+G195</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B196" s="33" t="s">
         <v>664</v>
       </c>
@@ -47261,17 +45974,10 @@
         <v>86</v>
       </c>
       <c r="F196" s="33">
-        <v>13</v>
-      </c>
-      <c r="G196" s="48">
-        <v>32</v>
-      </c>
-      <c r="H196" s="33">
-        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B197" s="33" t="s">
         <v>665</v>
       </c>
@@ -47285,17 +45991,10 @@
         <v>86</v>
       </c>
       <c r="F197" s="33">
-        <v>11</v>
-      </c>
-      <c r="G197" s="48">
-        <v>9</v>
-      </c>
-      <c r="H197" s="33">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B198" s="33" t="s">
         <v>666</v>
       </c>
@@ -47309,17 +46008,10 @@
         <v>86</v>
       </c>
       <c r="F198" s="33">
-        <v>61</v>
-      </c>
-      <c r="G198" s="48">
-        <v>96</v>
-      </c>
-      <c r="H198" s="33">
-        <f t="shared" si="3"/>
         <v>157</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="33" t="s">
         <v>667</v>
       </c>
@@ -47333,17 +46025,10 @@
         <v>86</v>
       </c>
       <c r="F199" s="33">
-        <v>116</v>
-      </c>
-      <c r="G199" s="48">
-        <v>99</v>
-      </c>
-      <c r="H199" s="33">
-        <f t="shared" si="3"/>
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="33" t="s">
         <v>668</v>
       </c>
@@ -47357,17 +46042,10 @@
         <v>86</v>
       </c>
       <c r="F200" s="33">
-        <v>13</v>
-      </c>
-      <c r="G200" s="48">
-        <v>14</v>
-      </c>
-      <c r="H200" s="33">
-        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="33" t="s">
         <v>669</v>
       </c>
@@ -47381,17 +46059,10 @@
         <v>86</v>
       </c>
       <c r="F201" s="33">
-        <v>37</v>
-      </c>
-      <c r="G201" s="48">
-        <v>21</v>
-      </c>
-      <c r="H201" s="33">
-        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="168" t="s">
         <v>670</v>
       </c>
@@ -47408,17 +46079,10 @@
         <v>84</v>
       </c>
       <c r="F202" s="50">
-        <v>3</v>
-      </c>
-      <c r="G202" s="168">
-        <v>3</v>
-      </c>
-      <c r="H202" s="50">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="37"/>
       <c r="B203" s="33" t="s">
         <v>672</v>
@@ -47432,16 +46096,11 @@
       <c r="E203" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F203" s="33"/>
-      <c r="G203" s="37">
+      <c r="F203" s="33">
         <v>1</v>
       </c>
-      <c r="H203" s="33">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="37"/>
       <c r="B204" s="33" t="s">
         <v>673</v>
@@ -47456,17 +46115,10 @@
         <v>84</v>
       </c>
       <c r="F204" s="33">
-        <v>16</v>
-      </c>
-      <c r="G204" s="37">
-        <v>38</v>
-      </c>
-      <c r="H204" s="33">
-        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="53"/>
       <c r="B205" s="35" t="s">
         <v>674</v>
@@ -47480,19 +46132,12 @@
       <c r="E205" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F205" s="35">
-        <v>7</v>
-      </c>
-      <c r="G205" s="53">
-        <v>13</v>
-      </c>
-      <c r="H205" s="33">
-        <f t="shared" si="3"/>
+      <c r="F205" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H206" s="168"/>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F206" s="168"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47503,7 +46148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5152F6-972D-7D4C-9BE9-115020DCE41E}">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9510D0A-84DB-1948-B04A-62198A076083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70855BA0-721D-4340-A9D6-60439BEF96CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId19"/>
-    <pivotCache cacheId="41" r:id="rId20"/>
-    <pivotCache cacheId="42" r:id="rId21"/>
-    <pivotCache cacheId="43" r:id="rId22"/>
-    <pivotCache cacheId="44" r:id="rId23"/>
-    <pivotCache cacheId="45" r:id="rId24"/>
-    <pivotCache cacheId="46" r:id="rId25"/>
+    <pivotCache cacheId="47" r:id="rId19"/>
+    <pivotCache cacheId="48" r:id="rId20"/>
+    <pivotCache cacheId="49" r:id="rId21"/>
+    <pivotCache cacheId="50" r:id="rId22"/>
+    <pivotCache cacheId="51" r:id="rId23"/>
+    <pivotCache cacheId="52" r:id="rId24"/>
+    <pivotCache cacheId="53" r:id="rId25"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -13525,7 +13525,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G2:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -13595,7 +13595,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F71FD943-D8DE-B04D-A293-4F8A349850E4}" name="PivotTable3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F71FD943-D8DE-B04D-A293-4F8A349850E4}" name="PivotTable3" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -13693,7 +13693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F5CE638-D57B-2D45-A776-7B74F40C3272}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F5CE638-D57B-2D45-A776-7B74F40C3272}" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H2:I17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -13832,7 +13832,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA77B427-30EE-2D4E-AF9F-FB74689F53BA}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA77B427-30EE-2D4E-AF9F-FB74689F53BA}" name="PivotTable2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N2:O17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -13970,7 +13970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0980F33B-844F-CB44-945E-9EC5C1BFF35C}" name="PivotTable6" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0980F33B-844F-CB44-945E-9EC5C1BFF35C}" name="PivotTable6" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E2:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -14100,7 +14100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCBFB610-686F-5F40-B4FD-EF02A31BB584}" name="PivotTable5" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCBFB610-686F-5F40-B4FD-EF02A31BB584}" name="PivotTable5" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K2:L17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -14236,7 +14236,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BB1F9D-9A4F-BA48-A5D5-2977DEB5B29A}" name="PivotTable4" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BB1F9D-9A4F-BA48-A5D5-2977DEB5B29A}" name="PivotTable4" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q2:R17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -14694,8 +14694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A11" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15663,7 +15663,7 @@
         <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F38" s="8">
         <f>2588-SUM(F37)</f>
@@ -16071,8 +16071,8 @@
   <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="176" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16127,7 +16127,9 @@
       <c r="E2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
@@ -16142,7 +16144,9 @@
       <c r="E3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
@@ -16191,7 +16195,9 @@
       <c r="E6" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
@@ -16325,7 +16331,9 @@
       <c r="E14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
@@ -16340,7 +16348,9 @@
       <c r="E15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
@@ -16355,7 +16365,9 @@
       <c r="E16" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
@@ -16370,7 +16382,9 @@
       <c r="E17" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
@@ -16521,7 +16535,9 @@
       <c r="E26" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="33" t="s">
@@ -16553,7 +16569,9 @@
       <c r="E28" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="33" t="s">
@@ -16585,7 +16603,9 @@
       <c r="E30" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="33" t="s">
@@ -16651,7 +16671,9 @@
       <c r="E34" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="33" t="s">
@@ -16683,7 +16705,9 @@
       <c r="E36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="33"/>
+      <c r="F36" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
@@ -16698,7 +16722,9 @@
       <c r="E37" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
@@ -16713,7 +16739,9 @@
       <c r="E38" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="33" t="s">
@@ -16728,7 +16756,9 @@
       <c r="E39" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="33" t="s">
@@ -16760,7 +16790,9 @@
       <c r="E41" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="33"/>
+      <c r="F41" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="33" t="s">
@@ -16877,7 +16909,9 @@
       <c r="E48" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="33" t="s">
@@ -16926,7 +16960,9 @@
       <c r="E51" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="33"/>
+      <c r="F51" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="33" t="s">
@@ -16941,7 +16977,9 @@
       <c r="E52" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="33"/>
+      <c r="F52" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="33" t="s">
@@ -17984,7 +18022,9 @@
       <c r="E113" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F113" s="33"/>
+      <c r="F113" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="33" t="s">
@@ -18368,7 +18408,9 @@
       <c r="E135" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="F135" s="33"/>
+      <c r="F135" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" s="33" t="s">
@@ -18400,7 +18442,9 @@
       <c r="E137" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="F137" s="33"/>
+      <c r="F137" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" s="33" t="s">
@@ -19870,7 +19914,9 @@
       <c r="E222" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F222" s="33"/>
+      <c r="F222" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B223" s="33" t="s">
@@ -19937,7 +19983,9 @@
       <c r="E226" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F226" s="35"/>
+      <c r="F226" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="48" t="s">
@@ -20858,7 +20906,9 @@
       <c r="E279" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="F279" s="95"/>
+      <c r="F279" s="95">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:6" s="100" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B280" s="106" t="s">
@@ -20958,9 +21008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11268065-042F-7744-9FAD-BCB8A8758450}">
   <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G277" sqref="G277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21015,7 +21065,9 @@
       <c r="E2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -21157,7 +21209,9 @@
       <c r="E10" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
@@ -21173,7 +21227,9 @@
       <c r="E11" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
@@ -21297,7 +21353,9 @@
       <c r="E18" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
@@ -21313,7 +21371,9 @@
       <c r="E19" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
@@ -21365,7 +21425,9 @@
       <c r="E22" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
@@ -21435,7 +21497,9 @@
       <c r="E26" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
@@ -21541,7 +21605,9 @@
       <c r="E32" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
@@ -22621,7 +22687,9 @@
       <c r="E92" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F92" s="33"/>
+      <c r="F92" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
@@ -24651,7 +24719,9 @@
       <c r="E204" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F204" s="33"/>
+      <c r="F204" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="35"/>
@@ -24705,7 +24775,9 @@
       <c r="E207" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F207" s="33"/>
+      <c r="F207" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="33"/>
@@ -24721,7 +24793,9 @@
       <c r="E208" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F208" s="33"/>
+      <c r="F208" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="33"/>
@@ -24809,7 +24883,9 @@
       <c r="E213" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F213" s="33"/>
+      <c r="F213" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="33"/>
@@ -24861,7 +24937,9 @@
       <c r="E216" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F216" s="33"/>
+      <c r="F216" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="35"/>
@@ -24877,7 +24955,9 @@
       <c r="E217" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F217" s="35"/>
+      <c r="F217" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="33" t="s">
@@ -25949,7 +26029,9 @@
       <c r="E276" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="F276" s="95"/>
+      <c r="F276" s="95">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:6" s="100" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="95"/>
@@ -33183,9 +33265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B2E49A-556D-F34D-9F51-F7E75AC7C46E}">
   <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39099,8 +39181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E69982-BF0E-F041-A45E-74DA75E5B4F6}">
   <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
@@ -42545,8 +42627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5E015A-69B3-E449-BA8B-148C187E74C0}">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -46149,9 +46231,9 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomLeft" activeCell="I201" sqref="I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46242,7 +46324,9 @@
       <c r="E4" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
@@ -46384,7 +46468,9 @@
       <c r="E12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
@@ -46400,7 +46486,9 @@
       <c r="E13" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
@@ -46560,7 +46648,9 @@
       <c r="E22" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
@@ -46576,7 +46666,9 @@
       <c r="E23" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
@@ -48166,7 +48258,9 @@
       <c r="E111" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F111" s="33"/>
+      <c r="F111" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
@@ -48454,7 +48548,9 @@
       <c r="E127" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F127" s="33"/>
+      <c r="F127" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="33"/>
@@ -48814,7 +48910,9 @@
       <c r="E147" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="35"/>
+      <c r="F147" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
@@ -48942,7 +49040,9 @@
       <c r="E154" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F154" s="33"/>
+      <c r="F154" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="35"/>
@@ -49832,7 +49932,9 @@
       <c r="E203" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F203" s="50"/>
+      <c r="F203" s="50">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="33"/>
@@ -50270,9 +50372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50488,7 +50590,9 @@
       <c r="E11" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
@@ -50612,7 +50716,9 @@
       <c r="E18" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -50646,7 +50752,9 @@
       <c r="E20" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
@@ -50680,7 +50788,9 @@
       <c r="E22" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
@@ -50768,7 +50878,9 @@
       <c r="E27" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
@@ -50856,7 +50968,9 @@
       <c r="E32" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
@@ -50872,7 +50986,9 @@
       <c r="E33" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
@@ -50888,7 +51004,9 @@
       <c r="E34" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
@@ -50922,7 +51040,9 @@
       <c r="E36" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
@@ -51010,7 +51130,9 @@
       <c r="E41" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
@@ -51044,7 +51166,9 @@
       <c r="E43" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="22"/>
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
@@ -51078,7 +51202,9 @@
       <c r="E45" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
@@ -51094,7 +51220,9 @@
       <c r="E46" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
@@ -51110,7 +51238,9 @@
       <c r="E47" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="22"/>
+      <c r="F47" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
@@ -51126,7 +51256,9 @@
       <c r="E48" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="22"/>
+      <c r="F48" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
@@ -51160,7 +51292,9 @@
       <c r="E50" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="22"/>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
@@ -51194,7 +51328,9 @@
       <c r="E52" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="22"/>
+      <c r="F52" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
@@ -51210,7 +51346,9 @@
       <c r="E53" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="22"/>
+      <c r="F53" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
@@ -51226,7 +51364,9 @@
       <c r="E54" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="22"/>
+      <c r="F54" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="35"/>
@@ -52566,7 +52706,9 @@
       <c r="E128" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F128" s="22"/>
+      <c r="F128" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="33"/>
@@ -52600,7 +52742,9 @@
       <c r="E130" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F130" s="22"/>
+      <c r="F130" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="33"/>
@@ -53868,7 +54012,9 @@
       <c r="E200" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F200" s="22"/>
+      <c r="F200" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="35"/>
@@ -54899,9 +55045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E890A69B-E139-B34C-9916-D83CF01530C6}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -55083,7 +55229,9 @@
       <c r="E9" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
@@ -55261,7 +55409,9 @@
       <c r="E19" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
@@ -55331,7 +55481,9 @@
       <c r="E23" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
@@ -55401,7 +55553,9 @@
       <c r="E27" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="33"/>
+      <c r="F27" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
@@ -55453,7 +55607,9 @@
       <c r="E30" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
@@ -55469,7 +55625,9 @@
       <c r="E31" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
@@ -55503,7 +55661,9 @@
       <c r="E33" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
@@ -55591,7 +55751,9 @@
       <c r="E38" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
@@ -55625,7 +55787,9 @@
       <c r="E40" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
@@ -55659,7 +55823,9 @@
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="33"/>
+      <c r="F42" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
@@ -55675,7 +55841,9 @@
       <c r="E43" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="33"/>
+      <c r="F43" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
@@ -55691,7 +55859,9 @@
       <c r="E44" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="33"/>
+      <c r="F44" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
@@ -55707,7 +55877,9 @@
       <c r="E45" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="33"/>
+      <c r="F45" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
@@ -55723,7 +55895,9 @@
       <c r="E46" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
@@ -55757,7 +55931,9 @@
       <c r="E48" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
@@ -55773,7 +55949,9 @@
       <c r="E49" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="33"/>
+      <c r="F49" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
@@ -57311,7 +57489,9 @@
       <c r="E134" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F134" s="33"/>
+      <c r="F134" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="33"/>
@@ -58433,7 +58613,9 @@
       <c r="E196" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F196" s="33"/>
+      <c r="F196" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="35"/>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1A43BF-7D97-FC4B-8799-68A515C7E94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D197E61-D723-1343-A7FD-7139E9A93048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId20"/>
-    <pivotCache cacheId="22" r:id="rId21"/>
-    <pivotCache cacheId="23" r:id="rId22"/>
-    <pivotCache cacheId="24" r:id="rId23"/>
-    <pivotCache cacheId="25" r:id="rId24"/>
-    <pivotCache cacheId="26" r:id="rId25"/>
-    <pivotCache cacheId="27" r:id="rId26"/>
+    <pivotCache cacheId="0" r:id="rId20"/>
+    <pivotCache cacheId="1" r:id="rId21"/>
+    <pivotCache cacheId="2" r:id="rId22"/>
+    <pivotCache cacheId="3" r:id="rId23"/>
+    <pivotCache cacheId="4" r:id="rId24"/>
+    <pivotCache cacheId="5" r:id="rId25"/>
+    <pivotCache cacheId="6" r:id="rId26"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10925" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11093" uniqueCount="1614">
   <si>
     <t>Notes</t>
   </si>
@@ -4940,6 +4941,12 @@
   </si>
   <si>
     <t>Cirrhosis of liver (with mention of alcoholism)</t>
+  </si>
+  <si>
+    <t>Crude Death Rate per 100,000 Population</t>
+  </si>
+  <si>
+    <t>https://data.census.gov/cedsci/</t>
   </si>
 </sst>
 </file>
@@ -5308,7 +5315,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5595,9 +5602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5605,12 +5609,50 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5618,7 +5660,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14490,7 +14560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G2:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -14560,143 +14630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCBFB610-686F-5F40-B4FD-EF02A31BB584}" name="PivotTable5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K2:L17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="37">
-        <item x="18"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="29"/>
-        <item m="1" x="34"/>
-        <item x="26"/>
-        <item x="12"/>
-        <item x="25"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="30"/>
-        <item x="20"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="21"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="22"/>
-        <item x="28"/>
-        <item x="10"/>
-        <item m="1" x="35"/>
-        <item x="19"/>
-        <item x="31"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="8"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BB1F9D-9A4F-BA48-A5D5-2977DEB5B29A}" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BB1F9D-9A4F-BA48-A5D5-2977DEB5B29A}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q2:R17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -14831,8 +14765,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F71FD943-D8DE-B04D-A293-4F8A349850E4}" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F71FD943-D8DE-B04D-A293-4F8A349850E4}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -14929,8 +14863,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F5CE638-D57B-2D45-A776-7B74F40C3272}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F5CE638-D57B-2D45-A776-7B74F40C3272}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H2:I17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -15068,8 +15002,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA77B427-30EE-2D4E-AF9F-FB74689F53BA}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA77B427-30EE-2D4E-AF9F-FB74689F53BA}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N2:O17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -15206,8 +15140,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0980F33B-844F-CB44-945E-9EC5C1BFF35C}" name="PivotTable6" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0980F33B-844F-CB44-945E-9EC5C1BFF35C}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E2:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -15261,6 +15195,142 @@
         <item sd="0" x="11"/>
         <item sd="0" x="2"/>
         <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCBFB610-686F-5F40-B4FD-EF02A31BB584}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K2:L17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="37">
+        <item x="18"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="32"/>
+        <item x="29"/>
+        <item m="1" x="34"/>
+        <item x="26"/>
+        <item x="12"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="10"/>
+        <item m="1" x="35"/>
+        <item x="19"/>
+        <item x="31"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="8"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -17018,8 +17088,8 @@
   <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21704,8 +21774,8 @@
   <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -31914,15 +31984,15 @@
       <c r="I4" s="97" t="s">
         <v>491</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="J4" s="142" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
     </row>
     <row r="5" spans="1:16" ht="16">
       <c r="A5" s="91" t="s">
@@ -31943,13 +32013,13 @@
       <c r="F5" s="33">
         <v>41</v>
       </c>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
     </row>
     <row r="6" spans="1:16" ht="16">
       <c r="A6" s="91" t="s">
@@ -31970,13 +32040,13 @@
       <c r="F6" s="33">
         <v>807</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
     </row>
     <row r="7" spans="1:16" ht="16">
       <c r="A7" s="91" t="s">
@@ -31997,13 +32067,13 @@
       <c r="F7" s="33">
         <v>947</v>
       </c>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
     </row>
     <row r="8" spans="1:16" ht="16">
       <c r="A8" s="91" t="s">
@@ -32024,13 +32094,13 @@
       <c r="F8" s="33">
         <v>1467</v>
       </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
     </row>
     <row r="9" spans="1:16" ht="48">
       <c r="A9" s="91" t="s">
@@ -32051,13 +32121,13 @@
       <c r="F9" s="33">
         <v>571</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
     </row>
     <row r="10" spans="1:16" ht="16">
       <c r="A10" s="93" t="s">
@@ -32078,13 +32148,13 @@
       <c r="F10" s="34">
         <v>800</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
     </row>
     <row r="11" spans="1:16" ht="16">
       <c r="A11" s="95"/>
@@ -33832,8 +33902,8 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -33863,6 +33933,10 @@
       </c>
       <c r="F1" s="40" t="s">
         <v>61</v>
+      </c>
+      <c r="G1" s="128">
+        <f>SUM(F2:F101)</f>
+        <v>234840</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>1232</v>
@@ -35770,8 +35844,8 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -35801,6 +35875,10 @@
       </c>
       <c r="F1" s="43" t="s">
         <v>61</v>
+      </c>
+      <c r="G1" s="25">
+        <f>SUM(F2:F102)</f>
+        <v>269417</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>1232</v>
@@ -37726,7 +37804,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -37820,7 +37898,7 @@
       <c r="A4" s="38">
         <v>1917</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="79" t="s">
         <v>1263</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -37886,7 +37964,7 @@
       <c r="A7" s="38">
         <v>1929</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="79" t="s">
         <v>1285</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -37913,9 +37991,9 @@
       <c r="B8" s="21" t="s">
         <v>1396</v>
       </c>
-      <c r="C8" s="125"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="83"/>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="125" t="s">
         <v>1397</v>
       </c>
       <c r="F8" s="83"/>
@@ -38140,9 +38218,11 @@
     <hyperlink ref="B16" r:id="rId8" xr:uid="{D8E59D4B-F945-334B-80D5-40B91BA28451}"/>
     <hyperlink ref="B17" r:id="rId9" xr:uid="{F302548C-F198-C541-B864-00E656792DC5}"/>
     <hyperlink ref="B5" r:id="rId10" xr:uid="{35CB9550-3859-9545-9E4F-72427E6F28B6}"/>
+    <hyperlink ref="B4" r:id="rId11" xr:uid="{2F92CB98-9E0A-9C46-B192-0C915310CA66}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{2F8974C6-A6EA-9340-96ED-C81BA8BCC36E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -38790,169 +38870,302 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6088356-EAF0-3047-99CA-B8AF6FB8D417}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="32">
+      <c r="B1" s="20" t="s">
         <v>1035</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1036</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1900</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="129">
         <v>22506</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="129">
         <v>1485053</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="129">
+        <f>(B2/C2)*100000</f>
+        <v>1515.5014669510113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1910</v>
       </c>
-      <c r="B3">
-        <v>32401</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="129">
+        <v>32400</v>
+      </c>
+      <c r="C3" s="129">
         <v>2377549</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="129">
+        <f t="shared" ref="D3:D17" si="0">(B3/C3)*100000</f>
+        <v>1362.7479391591928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
+        <v>1917</v>
+      </c>
+      <c r="B4" s="129">
+        <v>41809</v>
+      </c>
+      <c r="C4" s="129">
+        <v>3029032</v>
+      </c>
+      <c r="D4" s="129">
+        <f t="shared" si="0"/>
+        <v>1380.2759429415073</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1918</v>
+      </c>
+      <c r="B5" s="129">
+        <v>56488</v>
+      </c>
+      <c r="C5" s="129">
+        <v>3262000</v>
+      </c>
+      <c r="D5" s="129">
+        <f t="shared" si="0"/>
+        <v>1731.6983445738811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>1920</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="129">
         <v>47196</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="129">
         <v>3426861</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1930</v>
-      </c>
-      <c r="C5">
-        <v>5677251</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" s="129">
+        <f t="shared" si="0"/>
+        <v>1377.2370691428687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1929</v>
+      </c>
+      <c r="B7" s="129">
+        <v>65450</v>
+      </c>
+      <c r="C7" s="129">
+        <v>5512588</v>
+      </c>
+      <c r="D7" s="129">
+        <f t="shared" si="0"/>
+        <v>1187.2826338554596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1939</v>
+      </c>
+      <c r="B8" s="129">
+        <v>77130</v>
+      </c>
+      <c r="C8" s="129">
+        <v>6783955</v>
+      </c>
+      <c r="D8" s="129">
+        <f t="shared" si="0"/>
+        <v>1136.947400152271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1940</v>
+      </c>
+      <c r="B9" s="129">
+        <v>79742</v>
+      </c>
+      <c r="C9" s="129">
+        <v>6907387</v>
+      </c>
+      <c r="D9" s="129">
+        <f t="shared" si="0"/>
+        <v>1154.4452337765351</v>
+      </c>
+      <c r="E9" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1940</v>
-      </c>
-      <c r="C6">
-        <v>6907387</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1950</v>
+      </c>
+      <c r="B10" s="129">
+        <v>98760</v>
+      </c>
+      <c r="C10" s="129">
+        <v>10586223</v>
+      </c>
+      <c r="D10" s="129">
+        <f t="shared" si="0"/>
+        <v>932.91063299913492</v>
+      </c>
+      <c r="E10" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1950</v>
-      </c>
-      <c r="B7">
-        <v>98760</v>
-      </c>
-      <c r="C7">
-        <v>10586223</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1960</v>
+      </c>
+      <c r="B11" s="129">
+        <v>135508</v>
+      </c>
+      <c r="C11" s="129">
+        <v>15717204</v>
+      </c>
+      <c r="D11" s="129">
+        <f t="shared" si="0"/>
+        <v>862.16352475923827</v>
+      </c>
+      <c r="E11" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1960</v>
-      </c>
-      <c r="B8">
-        <v>135508</v>
-      </c>
-      <c r="C8">
-        <v>15717204</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1970</v>
+      </c>
+      <c r="B12" s="129">
+        <v>166338</v>
+      </c>
+      <c r="C12" s="129">
+        <v>19953134</v>
+      </c>
+      <c r="D12" s="129">
+        <f t="shared" si="0"/>
+        <v>833.64347675908959</v>
+      </c>
+      <c r="E12" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1970</v>
-      </c>
-      <c r="B9">
-        <v>166338</v>
-      </c>
-      <c r="C9">
-        <v>19953134</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1980</v>
+      </c>
+      <c r="B13" s="129">
+        <v>186624</v>
+      </c>
+      <c r="C13" s="129">
+        <v>23667902</v>
+      </c>
+      <c r="D13" s="129">
+        <f t="shared" si="0"/>
+        <v>788.51095462538251</v>
+      </c>
+      <c r="E13" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1980</v>
-      </c>
-      <c r="C10">
-        <v>23667902</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1990</v>
+      </c>
+      <c r="B14" s="129">
+        <v>214369</v>
+      </c>
+      <c r="C14" s="129">
+        <v>29760021</v>
+      </c>
+      <c r="D14" s="129">
+        <f t="shared" si="0"/>
+        <v>720.32543256605902</v>
+      </c>
+      <c r="E14" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1990</v>
-      </c>
-      <c r="B11">
-        <v>214369</v>
-      </c>
-      <c r="C11">
-        <v>29760021</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="129">
+        <v>229697</v>
+      </c>
+      <c r="C15" s="129">
+        <v>33871648</v>
+      </c>
+      <c r="D15" s="129">
+        <f t="shared" si="0"/>
+        <v>678.1394279959452</v>
+      </c>
+      <c r="E15" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2000</v>
-      </c>
-      <c r="B12">
-        <v>229697</v>
-      </c>
-      <c r="C12">
-        <v>33871648</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>2010</v>
+      </c>
+      <c r="B16" s="129">
+        <v>234840</v>
+      </c>
+      <c r="C16" s="129">
+        <v>37349363</v>
+      </c>
+      <c r="D16" s="129">
+        <f t="shared" si="0"/>
+        <v>628.76574360853226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="129">
+        <v>269417</v>
+      </c>
+      <c r="C17" s="129">
+        <v>39557045</v>
+      </c>
+      <c r="D17" s="129">
+        <f t="shared" si="0"/>
+        <v>681.08474735663401</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1613</v>
       </c>
     </row>
   </sheetData>
@@ -38964,9 +39177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B2E49A-556D-F34D-9F51-F7E75AC7C46E}">
   <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44876,7 +45089,7 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44890,7 +45103,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44921,6 +45134,10 @@
       <c r="F1" s="57" t="s">
         <v>61</v>
       </c>
+      <c r="G1" s="2">
+        <f>SUM(F2:F188)</f>
+        <v>41809</v>
+      </c>
       <c r="H1" s="25" t="s">
         <v>1232</v>
       </c>
@@ -45770,7 +45987,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="27">
-        <v>2015</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16">
@@ -48330,7 +48547,7 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48342,9 +48559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5E015A-69B3-E449-BA8B-148C187E74C0}">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -51941,7 +52158,7 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55718,7 +55935,7 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55731,8 +55948,8 @@
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -59935,7 +60152,7 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59945,21 +60162,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DCE92E-083B-BD4D-9E79-C8655C97D55B}">
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="50.83203125" customWidth="1"/>
     <col min="3" max="5" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1">
+    <row r="1" spans="1:8" ht="16" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>59</v>
       </c>
@@ -59978,2741 +60196,4346 @@
       <c r="F1" s="81" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1">
-      <c r="A2" t="s">
+      <c r="G1" s="20">
+        <f>SUM(F2:F279)</f>
+        <v>77130</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>1041</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="F2" s="131"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1">
-      <c r="B3" s="131" t="s">
+      <c r="C2" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="130">
+        <v>38</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="F3" s="131">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1">
-      <c r="B4" s="131" t="s">
+      <c r="C3" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="130">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="F4" s="131">
+      <c r="C4" s="20"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="130">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="130">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="130" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="130">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="130" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="130">
+        <v>31</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="130" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="130">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="130">
+        <v>30</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="130">
+        <v>45</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="130" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="130">
+        <v>59</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="130">
+        <v>19</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="130">
+        <v>21</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="32">
+      <c r="A14" s="20"/>
+      <c r="B14" s="130" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="130">
+        <v>64</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="32">
+      <c r="A15" s="20"/>
+      <c r="B15" s="130" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="130">
+        <v>3431</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="130">
+        <v>156</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="130" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="130">
+        <v>50</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="130">
+        <v>45</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="130" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="130">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1">
-      <c r="B5" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="F5" s="131">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="130" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="130">
+        <v>10</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="130" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="130">
+        <v>3</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="130" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="130">
+        <v>8</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="130" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="130">
+        <v>32</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="130" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="130">
+        <v>6</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="130" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="130">
+        <v>90</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="130" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="130">
+        <v>9</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1">
-      <c r="B6" s="131" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D6" s="131"/>
-      <c r="F6" s="131">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="130" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="130">
+        <v>55</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="16" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="130" t="s">
+        <v>525</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="130">
+        <v>16</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="130" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="130">
+        <v>2</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="16" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="130" t="s">
+        <v>895</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="130">
+        <v>137</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="16" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" customHeight="1">
-      <c r="B7" s="131" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D7" s="131"/>
-      <c r="F7" s="131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" customHeight="1">
-      <c r="B8" s="131" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D8" s="131"/>
-      <c r="F8" s="131">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1">
-      <c r="B9" s="131" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="131"/>
-      <c r="F9" s="131">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="16" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="130" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" customHeight="1">
-      <c r="B10" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="131"/>
-      <c r="F10" s="131">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1">
-      <c r="B11" s="131" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D11" s="131"/>
-      <c r="F11" s="131">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" customHeight="1">
-      <c r="B12" s="131" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="131"/>
-      <c r="F12" s="131">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" customHeight="1">
-      <c r="B13" s="131" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="131"/>
-      <c r="F13" s="131">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" customHeight="1">
-      <c r="B14" s="131" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D14" s="131"/>
-      <c r="F14" s="131">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="130" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D34" s="130"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="130">
+        <v>62</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="16" customHeight="1">
+      <c r="A35" s="20"/>
+      <c r="B35" s="130" t="s">
+        <v>552</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D35" s="130"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="130">
+        <v>270</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="16" customHeight="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="130" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D36" s="130"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="130">
+        <v>108</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="16" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D37" s="130"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="130">
+        <v>448</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" ht="16" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="130" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D38" s="130"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="130">
+        <v>90</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" ht="16" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="130" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D39" s="130"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="130">
+        <v>342</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" ht="16" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="130" t="s">
+        <v>509</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="130">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" ht="16" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="130" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="130">
+        <v>10</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" ht="16" customHeight="1">
+      <c r="A42" s="20"/>
+      <c r="B42" s="130" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="130">
+        <v>137</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" ht="16" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="130" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="130">
+        <v>87</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" ht="16" customHeight="1">
+      <c r="A44" s="20"/>
+      <c r="B44" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="130">
+        <v>2</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" customHeight="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="130">
+        <v>64</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" ht="16" customHeight="1">
+      <c r="A46" s="20"/>
+      <c r="B46" s="130" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="130">
+        <v>78</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" ht="16" customHeight="1">
+      <c r="A47" s="20"/>
+      <c r="B47" s="130" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="130">
+        <v>26</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" ht="16" customHeight="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="130" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="130">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" customHeight="1">
-      <c r="B15" s="131" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D15" s="131"/>
-      <c r="F15" s="131">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" customHeight="1">
-      <c r="B16" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="131"/>
-      <c r="F16" s="131">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="16" customHeight="1">
-      <c r="B17" s="131" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D17" s="131"/>
-      <c r="F17" s="131">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="16" customHeight="1">
-      <c r="B18" s="131" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="131"/>
-      <c r="F18" s="131">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="16" customHeight="1">
-      <c r="B19" s="131" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D19" s="131"/>
-      <c r="F19" s="131">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="16" customHeight="1">
-      <c r="B20" s="131" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D20" s="131"/>
-      <c r="F20" s="131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="16" customHeight="1">
-      <c r="B21" s="131" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D21" s="131"/>
-      <c r="F21" s="131">
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" ht="16" customHeight="1">
+      <c r="A49" s="20"/>
+      <c r="B49" s="130" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="130">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="16" customHeight="1">
-      <c r="B22" s="131" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D22" s="131"/>
-      <c r="F22" s="131">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="16" customHeight="1">
-      <c r="B23" s="131" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D23" s="131"/>
-      <c r="F23" s="131">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="16" customHeight="1">
-      <c r="B24" s="131" t="s">
-        <v>523</v>
-      </c>
-      <c r="D24" s="131"/>
-      <c r="F24" s="131">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="16" customHeight="1">
-      <c r="B25" s="131" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D25" s="131"/>
-      <c r="F25" s="131">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="16" customHeight="1">
-      <c r="B26" s="131" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D26" s="131"/>
-      <c r="F26" s="131">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="16" customHeight="1">
-      <c r="B27" s="131" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="131"/>
-      <c r="F27" s="131">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" ht="16" customHeight="1">
+      <c r="A50" s="20"/>
+      <c r="B50" s="130" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="130">
+        <v>2</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" ht="16" customHeight="1">
+      <c r="A51" s="20"/>
+      <c r="B51" s="130" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="16" customHeight="1">
-      <c r="B28" s="131" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D28" s="131"/>
-      <c r="F28" s="131">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="16" customHeight="1">
-      <c r="B29" s="131" t="s">
-        <v>525</v>
-      </c>
-      <c r="D29" s="131"/>
-      <c r="F29" s="131">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="16" customHeight="1">
-      <c r="B30" s="131" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D30" s="131"/>
-      <c r="F30" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="16" customHeight="1">
-      <c r="B31" s="131" t="s">
-        <v>895</v>
-      </c>
-      <c r="D31" s="131"/>
-      <c r="F31" s="131">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="16" customHeight="1">
-      <c r="B32" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="131"/>
-      <c r="F32" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="16" customHeight="1">
-      <c r="B33" s="131" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D33" s="131"/>
-      <c r="F33" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="16" customHeight="1">
-      <c r="B34" s="131" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C34" t="s">
-        <v>497</v>
-      </c>
-      <c r="D34" s="131"/>
-      <c r="F34" s="131">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="16" customHeight="1">
-      <c r="B35" s="131" t="s">
-        <v>552</v>
-      </c>
-      <c r="C35" t="s">
-        <v>497</v>
-      </c>
-      <c r="D35" s="131"/>
-      <c r="F35" s="131">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="16" customHeight="1">
-      <c r="B36" s="131" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C36" t="s">
-        <v>497</v>
-      </c>
-      <c r="D36" s="131"/>
-      <c r="F36" s="131">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="16" customHeight="1">
-      <c r="B37" s="131" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" t="s">
-        <v>497</v>
-      </c>
-      <c r="D37" s="131"/>
-      <c r="F37" s="131">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="16" customHeight="1">
-      <c r="B38" s="131" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C38" t="s">
-        <v>497</v>
-      </c>
-      <c r="D38" s="131"/>
-      <c r="F38" s="131">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="16" customHeight="1">
-      <c r="B39" s="131" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C39" t="s">
-        <v>497</v>
-      </c>
-      <c r="D39" s="131"/>
-      <c r="F39" s="131">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="16" customHeight="1">
-      <c r="B40" s="131" t="s">
-        <v>509</v>
-      </c>
-      <c r="D40" s="131"/>
-      <c r="F40" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="16" customHeight="1">
-      <c r="B41" s="131" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D41" s="131"/>
-      <c r="F41" s="131">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="16" customHeight="1">
-      <c r="B42" s="131" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D42" s="131"/>
-      <c r="F42" s="131">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="16" customHeight="1">
-      <c r="B43" s="131" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D43" s="131"/>
-      <c r="F43" s="131">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="16" customHeight="1">
-      <c r="B44" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="131"/>
-      <c r="F44" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="16" customHeight="1">
-      <c r="B45" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="131"/>
-      <c r="F45" s="131">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="16" customHeight="1">
-      <c r="B46" s="131" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D46" s="131"/>
-      <c r="F46" s="131">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="16" customHeight="1">
-      <c r="B47" s="131" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D47" s="131"/>
-      <c r="F47" s="131">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="16" customHeight="1">
-      <c r="B48" s="131" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D48" s="131"/>
-      <c r="F48" s="131">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16" customHeight="1">
-      <c r="B49" s="131" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D49" s="131"/>
-      <c r="F49" s="131">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16" customHeight="1">
-      <c r="B50" s="131" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D50" s="131"/>
-      <c r="F50" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16" customHeight="1">
-      <c r="B51" s="131" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D51" s="131"/>
-      <c r="F51" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16" customHeight="1">
-      <c r="B52" s="131" t="s">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" ht="16" customHeight="1">
+      <c r="A52" s="20"/>
+      <c r="B52" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="131"/>
-      <c r="F52" s="131">
+      <c r="C52" s="20"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="130">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="16" customHeight="1">
-      <c r="B53" s="131" t="s">
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" ht="16" customHeight="1">
+      <c r="A53" s="20"/>
+      <c r="B53" s="130" t="s">
         <v>1428</v>
       </c>
-      <c r="D53" s="131"/>
-      <c r="F53" s="131">
+      <c r="C53" s="20"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1">
-      <c r="B54" s="131" t="s">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" ht="16" customHeight="1">
+      <c r="A54" s="20"/>
+      <c r="B54" s="130" t="s">
         <v>516</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="F54" s="131">
+      <c r="C54" s="20"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="130">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1">
-      <c r="B55" s="131" t="s">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" ht="16" customHeight="1">
+      <c r="A55" s="20"/>
+      <c r="B55" s="130" t="s">
         <v>1429</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="F55" s="131">
+      <c r="C55" s="20"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="130">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1">
-      <c r="A56" s="127" t="s">
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" ht="16" customHeight="1">
+      <c r="A56" s="131" t="s">
         <v>1430</v>
       </c>
       <c r="B56" s="132" t="s">
         <v>1431</v>
       </c>
-      <c r="C56" s="127"/>
+      <c r="C56" s="131"/>
       <c r="D56" s="132"/>
-      <c r="E56" s="127"/>
+      <c r="E56" s="131"/>
       <c r="F56" s="132">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1">
-      <c r="A57" s="129"/>
-      <c r="B57" s="131" t="s">
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" ht="16" customHeight="1">
+      <c r="A57" s="133"/>
+      <c r="B57" s="130" t="s">
         <v>1432</v>
       </c>
-      <c r="C57" s="129"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="131">
+      <c r="C57" s="133"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="130">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1">
-      <c r="A58" s="129"/>
-      <c r="B58" s="131" t="s">
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" ht="16" customHeight="1">
+      <c r="A58" s="133"/>
+      <c r="B58" s="130" t="s">
         <v>1433</v>
       </c>
-      <c r="C58" s="129"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="131">
+      <c r="C58" s="133"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="130">
         <v>161</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1">
-      <c r="A59" s="129"/>
-      <c r="B59" s="131" t="s">
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" ht="16" customHeight="1">
+      <c r="A59" s="133"/>
+      <c r="B59" s="130" t="s">
         <v>1434</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="131">
+      <c r="C59" s="133"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="130">
         <v>1679</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1">
-      <c r="A60" s="129"/>
-      <c r="B60" s="131" t="s">
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="1:8" ht="16" customHeight="1">
+      <c r="A60" s="133"/>
+      <c r="B60" s="130" t="s">
         <v>1435</v>
       </c>
-      <c r="C60" s="129"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="131">
+      <c r="C60" s="133"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="130">
         <v>490</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1">
-      <c r="B61" s="131" t="s">
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="1:8" ht="16" customHeight="1">
+      <c r="A61" s="20"/>
+      <c r="B61" s="130" t="s">
         <v>1436</v>
       </c>
-      <c r="D61" s="131"/>
-      <c r="F61" s="131">
+      <c r="C61" s="20"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="130">
         <v>375</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1">
-      <c r="B62" s="131" t="s">
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:8" ht="16" customHeight="1">
+      <c r="A62" s="20"/>
+      <c r="B62" s="130" t="s">
         <v>1437</v>
       </c>
-      <c r="D62" s="131"/>
-      <c r="F62" s="131">
+      <c r="C62" s="20"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="130">
         <v>1599</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1">
-      <c r="B63" s="131" t="s">
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" ht="16" customHeight="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="130" t="s">
         <v>1438</v>
       </c>
-      <c r="D63" s="131"/>
-      <c r="F63" s="131">
+      <c r="C63" s="20"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="130">
         <v>596</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1">
-      <c r="B64" s="131" t="s">
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" ht="16" customHeight="1">
+      <c r="A64" s="20"/>
+      <c r="B64" s="130" t="s">
         <v>1439</v>
       </c>
-      <c r="D64" s="131"/>
-      <c r="F64" s="131">
+      <c r="C64" s="20"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="130">
         <v>925</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="16" customHeight="1">
-      <c r="B65" s="131" t="s">
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:8" ht="16" customHeight="1">
+      <c r="A65" s="20"/>
+      <c r="B65" s="130" t="s">
         <v>1440</v>
       </c>
-      <c r="D65" s="131"/>
-      <c r="F65" s="131">
+      <c r="C65" s="20"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="130">
         <v>329</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="16" customHeight="1">
-      <c r="B66" s="131" t="s">
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="1:8" ht="16" customHeight="1">
+      <c r="A66" s="20"/>
+      <c r="B66" s="130" t="s">
         <v>1441</v>
       </c>
-      <c r="D66" s="131"/>
-      <c r="F66" s="131">
+      <c r="C66" s="20"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="130">
         <v>1061</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="16" customHeight="1">
-      <c r="B67" s="131" t="s">
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="1:8" ht="16" customHeight="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="130" t="s">
         <v>1442</v>
       </c>
-      <c r="D67" s="131"/>
-      <c r="F67" s="131">
+      <c r="C67" s="20"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="130">
         <v>628</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="16" customHeight="1">
-      <c r="B68" s="131" t="s">
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="1:8" ht="16" customHeight="1">
+      <c r="A68" s="20"/>
+      <c r="B68" s="130" t="s">
         <v>1443</v>
       </c>
-      <c r="D68" s="131"/>
-      <c r="F68" s="131">
+      <c r="C68" s="20"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="130">
         <v>469</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="16" customHeight="1">
-      <c r="B69" s="131" t="s">
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="1:8" ht="16" customHeight="1">
+      <c r="A69" s="20"/>
+      <c r="B69" s="130" t="s">
         <v>1444</v>
       </c>
-      <c r="D69" s="131"/>
-      <c r="F69" s="131">
+      <c r="C69" s="20"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="130">
         <v>195</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="16" customHeight="1">
-      <c r="B70" s="131" t="s">
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="1:8" ht="16" customHeight="1">
+      <c r="A70" s="20"/>
+      <c r="B70" s="130" t="s">
         <v>1445</v>
       </c>
-      <c r="D70" s="131"/>
-      <c r="F70" s="131">
+      <c r="C70" s="20"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="130">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="16" customHeight="1">
-      <c r="B71" s="131" t="s">
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="1:8" ht="16" customHeight="1">
+      <c r="A71" s="20"/>
+      <c r="B71" s="130" t="s">
         <v>1446</v>
       </c>
-      <c r="D71" s="131"/>
-      <c r="F71" s="131">
+      <c r="C71" s="20"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="130">
         <v>658</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="16" customHeight="1">
-      <c r="B72" s="131" t="s">
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="1:8" ht="16" customHeight="1">
+      <c r="A72" s="20"/>
+      <c r="B72" s="130" t="s">
         <v>1447</v>
       </c>
-      <c r="D72" s="131"/>
-      <c r="F72" s="131">
+      <c r="C72" s="20"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="130">
         <v>44</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="16" customHeight="1">
-      <c r="B73" s="131" t="s">
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" ht="16" customHeight="1">
+      <c r="A73" s="20"/>
+      <c r="B73" s="130" t="s">
         <v>1448</v>
       </c>
-      <c r="D73" s="131"/>
-      <c r="F73" s="131">
+      <c r="C73" s="20"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="130">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="16" customHeight="1">
-      <c r="B74" s="131" t="s">
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" ht="16" customHeight="1">
+      <c r="A74" s="20"/>
+      <c r="B74" s="130" t="s">
         <v>1449</v>
       </c>
-      <c r="D74" s="131"/>
-      <c r="F74" s="131">
+      <c r="C74" s="20"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="16" customHeight="1">
-      <c r="B75" s="131" t="s">
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" ht="16" customHeight="1">
+      <c r="A75" s="20"/>
+      <c r="B75" s="130" t="s">
         <v>1450</v>
       </c>
-      <c r="D75" s="131"/>
-      <c r="F75" s="131">
+      <c r="C75" s="20"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="130">
         <v>105</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="16" customHeight="1">
-      <c r="B76" s="131" t="s">
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" ht="16" customHeight="1">
+      <c r="A76" s="20"/>
+      <c r="B76" s="130" t="s">
         <v>1451</v>
       </c>
-      <c r="D76" s="131"/>
-      <c r="F76" s="131">
+      <c r="C76" s="20"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="130">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1">
-      <c r="B77" s="131" t="s">
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" ht="16" customHeight="1">
+      <c r="A77" s="20"/>
+      <c r="B77" s="130" t="s">
         <v>1452</v>
       </c>
-      <c r="D77" s="131"/>
-      <c r="F77" s="131">
+      <c r="C77" s="20"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="130">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="16" customHeight="1">
-      <c r="B78" s="131" t="s">
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:8" ht="16" customHeight="1">
+      <c r="A78" s="20"/>
+      <c r="B78" s="130" t="s">
         <v>1453</v>
       </c>
-      <c r="D78" s="131"/>
-      <c r="F78" s="131">
+      <c r="C78" s="20"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="16" customHeight="1">
-      <c r="B79" s="131" t="s">
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:8" ht="16" customHeight="1">
+      <c r="A79" s="20"/>
+      <c r="B79" s="130" t="s">
         <v>1454</v>
       </c>
-      <c r="D79" s="131"/>
-      <c r="F79" s="131">
+      <c r="C79" s="20"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="130">
         <v>73</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="16" customHeight="1">
-      <c r="A80" s="127" t="s">
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" ht="16" customHeight="1">
+      <c r="A80" s="131" t="s">
         <v>1455</v>
       </c>
       <c r="B80" s="132" t="s">
         <v>1456</v>
       </c>
-      <c r="C80" s="127"/>
+      <c r="C80" s="131"/>
       <c r="D80" s="132"/>
-      <c r="E80" s="127"/>
+      <c r="E80" s="131"/>
       <c r="F80" s="132">
         <v>34</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="16" customHeight="1">
-      <c r="A81" s="129"/>
-      <c r="B81" s="131" t="s">
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" ht="32">
+      <c r="A81" s="133"/>
+      <c r="B81" s="130" t="s">
         <v>1457</v>
       </c>
-      <c r="C81" s="129"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="129"/>
-      <c r="F81" s="131">
+      <c r="C81" s="133"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="130">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="16" customHeight="1">
-      <c r="A82" s="129"/>
-      <c r="B82" s="131" t="s">
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" ht="16" customHeight="1">
+      <c r="A82" s="133"/>
+      <c r="B82" s="130" t="s">
         <v>1458</v>
       </c>
-      <c r="C82" s="129"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="131">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="16" customHeight="1">
-      <c r="A83" s="129"/>
-      <c r="B83" s="131" t="s">
+      <c r="C82" s="133"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="133"/>
+      <c r="F82" s="130">
+        <v>86</v>
+      </c>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" ht="16" customHeight="1">
+      <c r="A83" s="133"/>
+      <c r="B83" s="130" t="s">
         <v>1459</v>
       </c>
-      <c r="C83" s="129"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="131">
+      <c r="C83" s="133"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="133"/>
+      <c r="F83" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="16" customHeight="1">
-      <c r="B84" s="131" t="s">
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="1:8" ht="16" customHeight="1">
+      <c r="A84" s="20"/>
+      <c r="B84" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="131"/>
-      <c r="F84" s="131">
+      <c r="C84" s="20"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="130">
         <v>1622</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="16" customHeight="1">
-      <c r="B85" s="131" t="s">
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="1:8" ht="16" customHeight="1">
+      <c r="A85" s="20"/>
+      <c r="B85" s="130" t="s">
         <v>769</v>
       </c>
-      <c r="D85" s="131"/>
-      <c r="F85" s="131">
+      <c r="C85" s="20"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="130">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="16" customHeight="1">
-      <c r="B86" s="131" t="s">
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" ht="16" customHeight="1">
+      <c r="A86" s="20"/>
+      <c r="B86" s="130" t="s">
         <v>1460</v>
       </c>
-      <c r="D86" s="131"/>
-      <c r="F86" s="131">
+      <c r="C86" s="20"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="130">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="16" customHeight="1">
-      <c r="B87" s="131" t="s">
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" ht="16" customHeight="1">
+      <c r="A87" s="20"/>
+      <c r="B87" s="130" t="s">
         <v>537</v>
       </c>
-      <c r="D87" s="131"/>
-      <c r="F87" s="131">
+      <c r="C87" s="20"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="130">
         <v>139</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="16" customHeight="1">
-      <c r="B88" s="131" t="s">
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="1:8" ht="16" customHeight="1">
+      <c r="A88" s="20"/>
+      <c r="B88" s="130" t="s">
         <v>1461</v>
       </c>
-      <c r="D88" s="131"/>
-      <c r="F88" s="131">
+      <c r="C88" s="20"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="130">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="16" customHeight="1">
-      <c r="B89" s="131" t="s">
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="89" spans="1:8" ht="16" customHeight="1">
+      <c r="A89" s="20"/>
+      <c r="B89" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="D89" s="131"/>
-      <c r="F89" s="131">
+      <c r="C89" s="20"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="130">
         <v>84</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="16" customHeight="1">
-      <c r="B90" s="131" t="s">
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="1:8" ht="16" customHeight="1">
+      <c r="A90" s="20"/>
+      <c r="B90" s="130" t="s">
         <v>1462</v>
       </c>
-      <c r="D90" s="131"/>
-      <c r="F90" s="131">
+      <c r="C90" s="20"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="130">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="16" customHeight="1">
-      <c r="B91" s="131" t="s">
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="1:8" ht="16" customHeight="1">
+      <c r="A91" s="20"/>
+      <c r="B91" s="130" t="s">
         <v>540</v>
       </c>
-      <c r="D91" s="131"/>
-      <c r="F91" s="131">
+      <c r="C91" s="20"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="130">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="16" customHeight="1">
-      <c r="B92" s="131" t="s">
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:8" ht="16" customHeight="1">
+      <c r="A92" s="20"/>
+      <c r="B92" s="130" t="s">
         <v>536</v>
       </c>
-      <c r="D92" s="131"/>
-      <c r="F92" s="131">
+      <c r="C92" s="20"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="16" customHeight="1">
-      <c r="B93" s="131" t="s">
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:8" ht="16" customHeight="1">
+      <c r="A93" s="20"/>
+      <c r="B93" s="130" t="s">
         <v>517</v>
       </c>
-      <c r="D93" s="131"/>
-      <c r="F93" s="131">
+      <c r="C93" s="20"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="130">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="16" customHeight="1">
-      <c r="B94" s="131" t="s">
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:8" ht="16" customHeight="1">
+      <c r="A94" s="20"/>
+      <c r="B94" s="130" t="s">
         <v>1246</v>
       </c>
-      <c r="D94" s="131"/>
-      <c r="F94" s="131">
+      <c r="C94" s="20"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="130">
         <v>41</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="16" customHeight="1">
-      <c r="B95" s="131" t="s">
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" ht="16" customHeight="1">
+      <c r="A95" s="20"/>
+      <c r="B95" s="130" t="s">
         <v>524</v>
       </c>
-      <c r="D95" s="131"/>
-      <c r="F95" s="131">
+      <c r="C95" s="20"/>
+      <c r="D95" s="130"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="130">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="16" customHeight="1">
-      <c r="B96" s="131" t="s">
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="1:8" ht="16" customHeight="1">
+      <c r="A96" s="20"/>
+      <c r="B96" s="130" t="s">
         <v>1463</v>
       </c>
-      <c r="D96" s="131"/>
-      <c r="F96" s="131">
+      <c r="C96" s="20"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="16" customHeight="1">
-      <c r="A97" s="127" t="s">
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="1:8" ht="16" customHeight="1">
+      <c r="A97" s="131" t="s">
         <v>1464</v>
       </c>
       <c r="B97" s="132" t="s">
         <v>1465</v>
       </c>
-      <c r="C97" s="127"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="132"/>
-      <c r="E97" s="127"/>
+      <c r="E97" s="131"/>
       <c r="F97" s="132">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="16" customHeight="1">
-      <c r="A98" s="129"/>
-      <c r="B98" s="131" t="s">
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" ht="16" customHeight="1">
+      <c r="A98" s="133"/>
+      <c r="B98" s="130" t="s">
         <v>1311</v>
       </c>
-      <c r="C98" s="129"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="129"/>
-      <c r="F98" s="131">
+      <c r="C98" s="133"/>
+      <c r="D98" s="130"/>
+      <c r="E98" s="133"/>
+      <c r="F98" s="130">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="16" customHeight="1">
-      <c r="A99" s="129"/>
-      <c r="B99" s="131" t="s">
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:8" ht="16" customHeight="1">
+      <c r="A99" s="133"/>
+      <c r="B99" s="130" t="s">
         <v>1466</v>
       </c>
-      <c r="C99" s="129"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="129"/>
-      <c r="F99" s="131">
+      <c r="C99" s="133"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="130">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="16" customHeight="1">
-      <c r="A100" s="129"/>
-      <c r="B100" s="131" t="s">
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" spans="1:8" ht="16" customHeight="1">
+      <c r="A100" s="133"/>
+      <c r="B100" s="130" t="s">
         <v>1467</v>
       </c>
-      <c r="C100" s="129"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="129"/>
-      <c r="F100" s="131">
+      <c r="C100" s="133"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="133"/>
+      <c r="F100" s="130">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="16" customHeight="1">
-      <c r="A101" s="129"/>
-      <c r="B101" s="131" t="s">
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="1:8" ht="16" customHeight="1">
+      <c r="A101" s="133"/>
+      <c r="B101" s="130" t="s">
         <v>1468</v>
       </c>
-      <c r="C101" s="129"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="129"/>
-      <c r="F101" s="131">
+      <c r="C101" s="133"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="133"/>
+      <c r="F101" s="130">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="16" customHeight="1">
-      <c r="A102" s="129"/>
-      <c r="B102" s="131" t="s">
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="1:8" ht="16" customHeight="1">
+      <c r="A102" s="133"/>
+      <c r="B102" s="130" t="s">
         <v>588</v>
       </c>
-      <c r="C102" s="129"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="129"/>
-      <c r="F102" s="131">
+      <c r="C102" s="133"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="133"/>
+      <c r="F102" s="130">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="16" customHeight="1">
-      <c r="B103" s="131" t="s">
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:8" ht="16" customHeight="1">
+      <c r="A103" s="20"/>
+      <c r="B103" s="130" t="s">
         <v>1469</v>
       </c>
-      <c r="D103" s="131"/>
-      <c r="F103" s="131">
+      <c r="C103" s="20"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="130">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="16" customHeight="1">
-      <c r="A104" s="127" t="s">
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:8" ht="32">
+      <c r="A104" s="131" t="s">
         <v>1470</v>
       </c>
       <c r="B104" s="132" t="s">
         <v>1471</v>
       </c>
-      <c r="C104" s="127"/>
+      <c r="C104" s="131"/>
       <c r="D104" s="132"/>
-      <c r="E104" s="127"/>
+      <c r="E104" s="131"/>
       <c r="F104" s="132">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="16" customHeight="1">
-      <c r="A105" s="129"/>
-      <c r="B105" s="131" t="s">
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:8" ht="16" customHeight="1">
+      <c r="A105" s="133"/>
+      <c r="B105" s="130" t="s">
         <v>1472</v>
       </c>
-      <c r="C105" s="129"/>
-      <c r="D105" s="131"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="131">
+      <c r="C105" s="133"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="133"/>
+      <c r="F105" s="130">
         <v>144</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="16" customHeight="1">
-      <c r="A106" s="129"/>
-      <c r="B106" s="131" t="s">
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+    </row>
+    <row r="106" spans="1:8" ht="16" customHeight="1">
+      <c r="A106" s="133"/>
+      <c r="B106" s="130" t="s">
         <v>1473</v>
       </c>
-      <c r="C106" s="129"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="129"/>
-      <c r="F106" s="131">
+      <c r="C106" s="133"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="133"/>
+      <c r="F106" s="130">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="16" customHeight="1">
-      <c r="A107" s="130"/>
-      <c r="B107" s="133" t="s">
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="1:8" ht="16" customHeight="1">
+      <c r="A107" s="134"/>
+      <c r="B107" s="135" t="s">
         <v>1474</v>
       </c>
-      <c r="C107" s="130"/>
-      <c r="D107" s="133"/>
-      <c r="E107" s="130"/>
-      <c r="F107" s="133">
+      <c r="C107" s="134"/>
+      <c r="D107" s="135"/>
+      <c r="E107" s="134"/>
+      <c r="F107" s="135">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="16" customHeight="1">
-      <c r="A108" s="127" t="s">
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+    </row>
+    <row r="108" spans="1:8" ht="16" customHeight="1">
+      <c r="A108" s="131" t="s">
         <v>1475</v>
       </c>
       <c r="B108" s="132" t="s">
         <v>1476</v>
       </c>
-      <c r="C108" s="127"/>
+      <c r="C108" s="131"/>
       <c r="D108" s="132"/>
-      <c r="E108" s="127"/>
+      <c r="E108" s="131"/>
       <c r="F108" s="132">
         <v>58</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="16" customHeight="1">
-      <c r="A109" s="129"/>
-      <c r="B109" s="131" t="s">
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+    </row>
+    <row r="109" spans="1:8" ht="16" customHeight="1">
+      <c r="A109" s="133"/>
+      <c r="B109" s="130" t="s">
         <v>1477</v>
       </c>
-      <c r="C109" s="129"/>
-      <c r="D109" s="131"/>
-      <c r="E109" s="129"/>
-      <c r="F109" s="131">
+      <c r="C109" s="133"/>
+      <c r="D109" s="130"/>
+      <c r="E109" s="133"/>
+      <c r="F109" s="130">
         <v>57</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="16" customHeight="1">
-      <c r="A110" s="129"/>
-      <c r="B110" s="131" t="s">
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" spans="1:8" ht="16" customHeight="1">
+      <c r="A110" s="133"/>
+      <c r="B110" s="130" t="s">
         <v>1478</v>
       </c>
-      <c r="C110" s="129"/>
-      <c r="D110" s="131"/>
-      <c r="E110" s="129"/>
-      <c r="F110" s="131">
+      <c r="C110" s="133"/>
+      <c r="D110" s="130"/>
+      <c r="E110" s="133"/>
+      <c r="F110" s="130">
         <v>155</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="16" customHeight="1">
-      <c r="A111" s="129"/>
-      <c r="B111" s="131" t="s">
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" spans="1:8" ht="16" customHeight="1">
+      <c r="A111" s="133"/>
+      <c r="B111" s="130" t="s">
         <v>1479</v>
       </c>
-      <c r="C111" s="129"/>
-      <c r="D111" s="131"/>
-      <c r="E111" s="129"/>
-      <c r="F111" s="131">
+      <c r="C111" s="133"/>
+      <c r="D111" s="130"/>
+      <c r="E111" s="133"/>
+      <c r="F111" s="130">
         <v>4924</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="16" customHeight="1">
-      <c r="B112" s="131" t="s">
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="1:8" ht="16" customHeight="1">
+      <c r="A112" s="20"/>
+      <c r="B112" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="D112" s="131"/>
-      <c r="F112" s="131">
+      <c r="C112" s="20"/>
+      <c r="D112" s="130"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="130">
         <v>801</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="16" customHeight="1">
-      <c r="B113" s="131" t="s">
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="1:8" ht="16" customHeight="1">
+      <c r="A113" s="20"/>
+      <c r="B113" s="130" t="s">
         <v>1480</v>
       </c>
-      <c r="D113" s="131"/>
-      <c r="F113" s="131">
+      <c r="C113" s="20"/>
+      <c r="D113" s="130"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="130">
         <v>81</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="16" customHeight="1">
-      <c r="B114" s="131" t="s">
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+    </row>
+    <row r="114" spans="1:8" ht="16" customHeight="1">
+      <c r="A114" s="20"/>
+      <c r="B114" s="130" t="s">
         <v>1481</v>
       </c>
-      <c r="D114" s="131"/>
-      <c r="F114" s="131">
+      <c r="C114" s="20"/>
+      <c r="D114" s="130"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="130">
         <v>46</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="16" customHeight="1">
-      <c r="B115" s="131" t="s">
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="1:8" ht="16" customHeight="1">
+      <c r="A115" s="20"/>
+      <c r="B115" s="130" t="s">
         <v>1482</v>
       </c>
-      <c r="D115" s="131"/>
-      <c r="F115" s="131">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="16" customHeight="1">
-      <c r="B116" s="131" t="s">
+      <c r="C115" s="20"/>
+      <c r="D115" s="130"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="130">
+        <v>88</v>
+      </c>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:8" ht="16" customHeight="1">
+      <c r="A116" s="20"/>
+      <c r="B116" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="131"/>
-      <c r="F116" s="131">
+      <c r="C116" s="20"/>
+      <c r="D116" s="130"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="130">
         <v>81</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="16" customHeight="1">
-      <c r="B117" s="131" t="s">
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="1:8" ht="16" customHeight="1">
+      <c r="A117" s="20"/>
+      <c r="B117" s="130" t="s">
         <v>1483</v>
       </c>
-      <c r="D117" s="131"/>
-      <c r="F117" s="131">
+      <c r="C117" s="20"/>
+      <c r="D117" s="130"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="130">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="16" customHeight="1">
-      <c r="B118" s="131" t="s">
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" spans="1:8" ht="16" customHeight="1">
+      <c r="A118" s="20"/>
+      <c r="B118" s="130" t="s">
         <v>1484</v>
       </c>
-      <c r="D118" s="131"/>
-      <c r="F118" s="131">
+      <c r="C118" s="20"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="130">
         <v>143</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="16" customHeight="1">
-      <c r="B119" s="131" t="s">
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:8" ht="16" customHeight="1">
+      <c r="A119" s="20"/>
+      <c r="B119" s="130" t="s">
         <v>1485</v>
       </c>
-      <c r="D119" s="131"/>
-      <c r="F119" s="131">
+      <c r="C119" s="20"/>
+      <c r="D119" s="130"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="130">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="16" customHeight="1">
-      <c r="B120" s="131" t="s">
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" spans="1:8" ht="16" customHeight="1">
+      <c r="A120" s="20"/>
+      <c r="B120" s="130" t="s">
         <v>1486</v>
       </c>
-      <c r="D120" s="131"/>
-      <c r="F120" s="131">
+      <c r="C120" s="20"/>
+      <c r="D120" s="130"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="130">
         <v>68</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="16" customHeight="1">
-      <c r="B121" s="131" t="s">
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="1:8" ht="16" customHeight="1">
+      <c r="A121" s="20"/>
+      <c r="B121" s="130" t="s">
         <v>1325</v>
       </c>
-      <c r="D121" s="131"/>
-      <c r="F121" s="131">
+      <c r="C121" s="20"/>
+      <c r="D121" s="130"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="130">
         <v>44</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="16" customHeight="1">
-      <c r="A122" s="127" t="s">
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" spans="1:8" ht="16" customHeight="1">
+      <c r="A122" s="131" t="s">
         <v>105</v>
       </c>
       <c r="B122" s="132" t="s">
         <v>1487</v>
       </c>
-      <c r="C122" s="127"/>
+      <c r="C122" s="131"/>
       <c r="D122" s="132"/>
-      <c r="E122" s="127"/>
+      <c r="E122" s="131"/>
       <c r="F122" s="132">
         <v>54</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="16" customHeight="1">
-      <c r="B123" s="131" t="s">
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:8" ht="16" customHeight="1">
+      <c r="A123" s="20"/>
+      <c r="B123" s="130" t="s">
         <v>1488</v>
       </c>
-      <c r="D123" s="131"/>
-      <c r="F123" s="131">
+      <c r="C123" s="20"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="130">
         <v>152</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="16" customHeight="1">
-      <c r="B124" s="131" t="s">
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" spans="1:8" ht="16" customHeight="1">
+      <c r="A124" s="20"/>
+      <c r="B124" s="130" t="s">
         <v>1491</v>
       </c>
-      <c r="D124" s="131"/>
-      <c r="F124" s="131">
+      <c r="C124" s="20"/>
+      <c r="D124" s="130"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="130">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="16" customHeight="1">
-      <c r="B125" s="131" t="s">
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+    </row>
+    <row r="125" spans="1:8" ht="16" customHeight="1">
+      <c r="A125" s="20"/>
+      <c r="B125" s="130" t="s">
         <v>1492</v>
       </c>
-      <c r="D125" s="131"/>
-      <c r="F125" s="131">
+      <c r="C125" s="20"/>
+      <c r="D125" s="130"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="130">
         <v>2148</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="16" customHeight="1">
-      <c r="B126" s="131" t="s">
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" spans="1:8" ht="16" customHeight="1">
+      <c r="A126" s="20"/>
+      <c r="B126" s="130" t="s">
         <v>1489</v>
       </c>
-      <c r="D126" s="131"/>
-      <c r="F126" s="131">
+      <c r="C126" s="20"/>
+      <c r="D126" s="130"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="130">
         <v>91</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="16" customHeight="1">
-      <c r="B127" s="131" t="s">
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="1:8" ht="16" customHeight="1">
+      <c r="A127" s="20"/>
+      <c r="B127" s="130" t="s">
         <v>1490</v>
       </c>
-      <c r="D127" s="131"/>
-      <c r="F127" s="131">
+      <c r="C127" s="20"/>
+      <c r="D127" s="130"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="130">
         <v>170</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="16" customHeight="1">
-      <c r="B128" s="131" t="s">
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+    </row>
+    <row r="128" spans="1:8" ht="16" customHeight="1">
+      <c r="A128" s="20"/>
+      <c r="B128" s="130" t="s">
         <v>1493</v>
       </c>
-      <c r="D128" s="131"/>
-      <c r="F128" s="131">
+      <c r="C128" s="20"/>
+      <c r="D128" s="130"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="130">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="16" customHeight="1">
-      <c r="B129" s="131" t="s">
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" spans="1:8" ht="16" customHeight="1">
+      <c r="A129" s="20"/>
+      <c r="B129" s="130" t="s">
         <v>1494</v>
       </c>
-      <c r="D129" s="131"/>
-      <c r="F129" s="131">
+      <c r="C129" s="20"/>
+      <c r="D129" s="130"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="130">
         <v>12671</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="16" customHeight="1">
-      <c r="B130" s="131" t="s">
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+    </row>
+    <row r="130" spans="1:8" ht="16" customHeight="1">
+      <c r="A130" s="20"/>
+      <c r="B130" s="130" t="s">
         <v>1495</v>
       </c>
-      <c r="D130" s="131"/>
-      <c r="F130" s="131">
+      <c r="C130" s="20"/>
+      <c r="D130" s="130"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="130">
         <v>717</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="16" customHeight="1">
-      <c r="B131" s="131" t="s">
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+    </row>
+    <row r="131" spans="1:8" ht="16" customHeight="1">
+      <c r="A131" s="20"/>
+      <c r="B131" s="130" t="s">
         <v>1496</v>
       </c>
-      <c r="D131" s="131"/>
-      <c r="F131" s="131">
+      <c r="C131" s="20"/>
+      <c r="D131" s="130"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="130">
         <v>5670</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="16" customHeight="1">
-      <c r="B132" s="131" t="s">
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+    </row>
+    <row r="132" spans="1:8" ht="16" customHeight="1">
+      <c r="A132" s="20"/>
+      <c r="B132" s="130" t="s">
         <v>562</v>
       </c>
-      <c r="D132" s="131"/>
-      <c r="F132" s="131">
+      <c r="C132" s="20"/>
+      <c r="D132" s="130"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="130">
         <v>303</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="16" customHeight="1">
-      <c r="B133" s="131" t="s">
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+    </row>
+    <row r="133" spans="1:8" ht="16" customHeight="1">
+      <c r="A133" s="20"/>
+      <c r="B133" s="130" t="s">
         <v>1497</v>
       </c>
-      <c r="D133" s="131"/>
-      <c r="F133" s="131">
+      <c r="C133" s="20"/>
+      <c r="D133" s="130"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="130">
         <v>38</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="16" customHeight="1">
-      <c r="B134" s="131" t="s">
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+    </row>
+    <row r="134" spans="1:8" ht="16" customHeight="1">
+      <c r="A134" s="20"/>
+      <c r="B134" s="130" t="s">
         <v>1498</v>
       </c>
-      <c r="D134" s="131"/>
-      <c r="F134" s="131">
+      <c r="C134" s="20"/>
+      <c r="D134" s="130"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="130">
         <v>993</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="16" customHeight="1">
-      <c r="B135" s="131" t="s">
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+    </row>
+    <row r="135" spans="1:8" ht="16" customHeight="1">
+      <c r="A135" s="20"/>
+      <c r="B135" s="130" t="s">
         <v>1499</v>
       </c>
-      <c r="D135" s="131"/>
-      <c r="F135" s="131">
+      <c r="C135" s="20"/>
+      <c r="D135" s="130"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="130">
         <v>71</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="16" customHeight="1">
-      <c r="B136" s="131" t="s">
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+    </row>
+    <row r="136" spans="1:8" ht="16" customHeight="1">
+      <c r="A136" s="20"/>
+      <c r="B136" s="130" t="s">
         <v>1500</v>
       </c>
-      <c r="D136" s="131"/>
-      <c r="F136" s="131">
+      <c r="C136" s="20"/>
+      <c r="D136" s="130"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="130">
         <v>1906</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="16" customHeight="1">
-      <c r="B137" s="131" t="s">
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" spans="1:8" ht="16" customHeight="1">
+      <c r="A137" s="20"/>
+      <c r="B137" s="130" t="s">
         <v>612</v>
       </c>
-      <c r="D137" s="131"/>
-      <c r="F137" s="131">
+      <c r="C137" s="20"/>
+      <c r="D137" s="130"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="130">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="16" customHeight="1">
-      <c r="B138" s="131" t="s">
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+    </row>
+    <row r="138" spans="1:8" ht="16" customHeight="1">
+      <c r="A138" s="20"/>
+      <c r="B138" s="130" t="s">
         <v>1501</v>
       </c>
-      <c r="D138" s="131"/>
-      <c r="F138" s="131">
+      <c r="C138" s="20"/>
+      <c r="D138" s="130"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="130">
         <v>104</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="16" customHeight="1">
-      <c r="B139" s="131" t="s">
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+    </row>
+    <row r="139" spans="1:8" ht="16" customHeight="1">
+      <c r="A139" s="20"/>
+      <c r="B139" s="130" t="s">
         <v>1502</v>
       </c>
-      <c r="D139" s="131"/>
-      <c r="F139" s="131">
+      <c r="C139" s="20"/>
+      <c r="D139" s="130"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="130">
         <v>39</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="16" customHeight="1">
-      <c r="B140" s="131" t="s">
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+    </row>
+    <row r="140" spans="1:8" ht="16" customHeight="1">
+      <c r="A140" s="20"/>
+      <c r="B140" s="130" t="s">
         <v>1503</v>
       </c>
-      <c r="D140" s="131"/>
-      <c r="F140" s="131">
+      <c r="C140" s="20"/>
+      <c r="D140" s="130"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="130">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="16" customHeight="1">
-      <c r="B141" s="131" t="s">
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+    </row>
+    <row r="141" spans="1:8" ht="16" customHeight="1">
+      <c r="A141" s="20"/>
+      <c r="B141" s="130" t="s">
         <v>1504</v>
       </c>
-      <c r="D141" s="131"/>
-      <c r="F141" s="131">
+      <c r="C141" s="20"/>
+      <c r="D141" s="130"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="130">
         <v>29</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="16" customHeight="1">
-      <c r="B142" s="131" t="s">
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" spans="1:8" ht="16" customHeight="1">
+      <c r="A142" s="20"/>
+      <c r="B142" s="130" t="s">
         <v>808</v>
       </c>
-      <c r="D142" s="131"/>
-      <c r="F142" s="131">
+      <c r="C142" s="20"/>
+      <c r="D142" s="130"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="16" customHeight="1">
-      <c r="A143" s="127" t="s">
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" spans="1:8" ht="16" customHeight="1">
+      <c r="A143" s="131" t="s">
         <v>106</v>
       </c>
       <c r="B143" s="132" t="s">
         <v>1505</v>
       </c>
-      <c r="C143" s="127"/>
+      <c r="C143" s="131"/>
       <c r="D143" s="132"/>
-      <c r="E143" s="127"/>
+      <c r="E143" s="131"/>
       <c r="F143" s="132">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="16" customHeight="1">
-      <c r="A144" s="129"/>
-      <c r="B144" s="131" t="s">
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+    </row>
+    <row r="144" spans="1:8" ht="16" customHeight="1">
+      <c r="A144" s="133"/>
+      <c r="B144" s="130" t="s">
         <v>1506</v>
       </c>
-      <c r="C144" s="129"/>
-      <c r="D144" s="131"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="131">
+      <c r="C144" s="133"/>
+      <c r="D144" s="130"/>
+      <c r="E144" s="133"/>
+      <c r="F144" s="130">
         <v>36</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="16" customHeight="1">
-      <c r="B145" s="131" t="s">
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+    </row>
+    <row r="145" spans="1:8" ht="16" customHeight="1">
+      <c r="A145" s="20"/>
+      <c r="B145" s="130" t="s">
         <v>1507</v>
       </c>
-      <c r="D145" s="131"/>
-      <c r="F145" s="131">
+      <c r="C145" s="20"/>
+      <c r="D145" s="130"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="130">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="16" customHeight="1">
-      <c r="B146" s="131" t="s">
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+    </row>
+    <row r="146" spans="1:8" ht="16" customHeight="1">
+      <c r="A146" s="20"/>
+      <c r="B146" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="D146" s="131"/>
-      <c r="F146" s="131">
+      <c r="C146" s="20"/>
+      <c r="D146" s="130"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="130">
         <v>24</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="16" customHeight="1">
-      <c r="B147" s="131" t="s">
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" spans="1:8" ht="16" customHeight="1">
+      <c r="A147" s="20"/>
+      <c r="B147" s="130" t="s">
         <v>569</v>
       </c>
-      <c r="D147" s="131"/>
-      <c r="F147" s="131">
+      <c r="C147" s="20"/>
+      <c r="D147" s="130"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="130">
         <v>88</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="16" customHeight="1">
-      <c r="B148" s="131" t="s">
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" spans="1:8" ht="16" customHeight="1">
+      <c r="A148" s="20"/>
+      <c r="B148" s="130" t="s">
         <v>1508</v>
       </c>
-      <c r="D148" s="131"/>
-      <c r="F148" s="131">
+      <c r="C148" s="20"/>
+      <c r="D148" s="130"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="130">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="16" customHeight="1">
-      <c r="B149" s="131" t="s">
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:8" ht="16" customHeight="1">
+      <c r="A149" s="20"/>
+      <c r="B149" s="130" t="s">
         <v>1509</v>
       </c>
-      <c r="D149" s="131"/>
-      <c r="F149" s="131">
+      <c r="C149" s="20"/>
+      <c r="D149" s="130"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="130">
         <v>2110</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="16" customHeight="1">
-      <c r="B150" s="131" t="s">
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" spans="1:8" ht="16" customHeight="1">
+      <c r="A150" s="20"/>
+      <c r="B150" s="130" t="s">
         <v>299</v>
       </c>
-      <c r="D150" s="131"/>
-      <c r="F150" s="131">
+      <c r="C150" s="20"/>
+      <c r="D150" s="130"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="130">
         <v>1248</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="16" customHeight="1">
-      <c r="B151" s="131" t="s">
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" spans="1:8" ht="16" customHeight="1">
+      <c r="A151" s="20"/>
+      <c r="B151" s="130" t="s">
         <v>1341</v>
       </c>
-      <c r="D151" s="131"/>
-      <c r="F151" s="131">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="16" customHeight="1">
-      <c r="B152" s="131" t="s">
+      <c r="C151" s="20"/>
+      <c r="D151" s="130"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="130">
+        <v>83</v>
+      </c>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="1:8" ht="16" customHeight="1">
+      <c r="A152" s="20"/>
+      <c r="B152" s="130" t="s">
         <v>1510</v>
       </c>
-      <c r="D152" s="131"/>
-      <c r="F152" s="131">
+      <c r="C152" s="20"/>
+      <c r="D152" s="130"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="130">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="16" customHeight="1">
-      <c r="B153" s="131" t="s">
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" spans="1:8" ht="16" customHeight="1">
+      <c r="A153" s="20"/>
+      <c r="B153" s="130" t="s">
         <v>1511</v>
       </c>
-      <c r="D153" s="131"/>
-      <c r="F153" s="131">
+      <c r="C153" s="20"/>
+      <c r="D153" s="130"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="130">
         <v>37</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="16" customHeight="1">
-      <c r="B154" s="131" t="s">
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+    </row>
+    <row r="154" spans="1:8" ht="16" customHeight="1">
+      <c r="A154" s="20"/>
+      <c r="B154" s="130" t="s">
         <v>1512</v>
       </c>
-      <c r="D154" s="131"/>
-      <c r="F154" s="131">
+      <c r="C154" s="20"/>
+      <c r="D154" s="130"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="130">
         <v>67</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="16" customHeight="1">
-      <c r="B155" s="131" t="s">
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+    </row>
+    <row r="155" spans="1:8" ht="16" customHeight="1">
+      <c r="A155" s="20"/>
+      <c r="B155" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="D155" s="131"/>
-      <c r="F155" s="131">
+      <c r="C155" s="20"/>
+      <c r="D155" s="130"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="130">
         <v>95</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="16" customHeight="1">
-      <c r="B156" s="131" t="s">
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+    </row>
+    <row r="156" spans="1:8" ht="16" customHeight="1">
+      <c r="A156" s="20"/>
+      <c r="B156" s="130" t="s">
         <v>573</v>
       </c>
-      <c r="D156" s="131"/>
-      <c r="F156" s="131">
+      <c r="C156" s="20"/>
+      <c r="D156" s="130"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="130">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="16" customHeight="1">
-      <c r="B157" s="131" t="s">
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+    </row>
+    <row r="157" spans="1:8" ht="16" customHeight="1">
+      <c r="A157" s="20"/>
+      <c r="B157" s="130" t="s">
         <v>1513</v>
       </c>
-      <c r="D157" s="131"/>
-      <c r="F157" s="131">
+      <c r="C157" s="20"/>
+      <c r="D157" s="130"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="130">
         <v>82</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="16" customHeight="1">
-      <c r="A158" s="127" t="s">
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+    </row>
+    <row r="158" spans="1:8" ht="16" customHeight="1">
+      <c r="A158" s="131" t="s">
         <v>107</v>
       </c>
       <c r="B158" s="132" t="s">
         <v>1514</v>
       </c>
-      <c r="C158" s="127"/>
+      <c r="C158" s="131"/>
       <c r="D158" s="132"/>
-      <c r="E158" s="127"/>
+      <c r="E158" s="131"/>
       <c r="F158" s="132">
         <v>79</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="16" customHeight="1">
-      <c r="A159" s="129"/>
-      <c r="B159" s="131" t="s">
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+    </row>
+    <row r="159" spans="1:8" ht="16" customHeight="1">
+      <c r="A159" s="133"/>
+      <c r="B159" s="130" t="s">
         <v>1515</v>
       </c>
-      <c r="C159" s="129"/>
-      <c r="D159" s="131"/>
-      <c r="E159" s="129"/>
-      <c r="F159" s="131">
+      <c r="C159" s="133"/>
+      <c r="D159" s="130"/>
+      <c r="E159" s="133"/>
+      <c r="F159" s="130">
         <v>58</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="16" customHeight="1">
-      <c r="B160" s="131" t="s">
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+    </row>
+    <row r="160" spans="1:8" ht="16" customHeight="1">
+      <c r="A160" s="20"/>
+      <c r="B160" s="130" t="s">
         <v>1516</v>
       </c>
-      <c r="D160" s="131"/>
-      <c r="F160" s="131">
+      <c r="C160" s="20"/>
+      <c r="D160" s="130"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="130">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="2:6" ht="16" customHeight="1">
-      <c r="B161" s="131" t="s">
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+    </row>
+    <row r="161" spans="1:8" ht="16" customHeight="1">
+      <c r="A161" s="20"/>
+      <c r="B161" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="D161" s="131"/>
-      <c r="F161" s="131">
+      <c r="C161" s="20"/>
+      <c r="D161" s="130"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="130">
         <v>422</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" ht="16" customHeight="1">
-      <c r="B162" s="131" t="s">
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+    </row>
+    <row r="162" spans="1:8" ht="16" customHeight="1">
+      <c r="A162" s="20"/>
+      <c r="B162" s="130" t="s">
         <v>369</v>
       </c>
-      <c r="D162" s="131"/>
-      <c r="F162" s="131">
+      <c r="C162" s="20"/>
+      <c r="D162" s="130"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="130">
         <v>252</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" ht="16" customHeight="1">
-      <c r="B163" s="131" t="s">
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+    </row>
+    <row r="163" spans="1:8" ht="16" customHeight="1">
+      <c r="A163" s="20"/>
+      <c r="B163" s="130" t="s">
         <v>1517</v>
       </c>
-      <c r="D163" s="131"/>
-      <c r="F163" s="131">
+      <c r="C163" s="20"/>
+      <c r="D163" s="130"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="130">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="2:6" ht="16" customHeight="1">
-      <c r="B164" s="131" t="s">
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+    </row>
+    <row r="164" spans="1:8" ht="16" customHeight="1">
+      <c r="A164" s="20"/>
+      <c r="B164" s="130" t="s">
         <v>1254</v>
       </c>
-      <c r="D164" s="131"/>
-      <c r="F164" s="131">
+      <c r="C164" s="20"/>
+      <c r="D164" s="130"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="130">
         <v>597</v>
       </c>
-    </row>
-    <row r="165" spans="2:6" ht="16" customHeight="1">
-      <c r="B165" s="131" t="s">
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+    </row>
+    <row r="165" spans="1:8" ht="16" customHeight="1">
+      <c r="A165" s="20"/>
+      <c r="B165" s="130" t="s">
         <v>1518</v>
       </c>
-      <c r="D165" s="131"/>
-      <c r="F165" s="131">
+      <c r="C165" s="20"/>
+      <c r="D165" s="130"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="130">
         <v>126</v>
       </c>
-    </row>
-    <row r="166" spans="2:6" ht="16" customHeight="1">
-      <c r="B166" s="131" t="s">
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+    </row>
+    <row r="166" spans="1:8" ht="16" customHeight="1">
+      <c r="A166" s="20"/>
+      <c r="B166" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="D166" s="131"/>
-      <c r="F166" s="131">
+      <c r="C166" s="20"/>
+      <c r="D166" s="130"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="130">
         <v>668</v>
       </c>
-    </row>
-    <row r="167" spans="2:6" ht="16" customHeight="1">
-      <c r="B167" s="131" t="s">
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+    </row>
+    <row r="167" spans="1:8" ht="16" customHeight="1">
+      <c r="A167" s="20"/>
+      <c r="B167" s="130" t="s">
         <v>581</v>
       </c>
-      <c r="D167" s="131"/>
-      <c r="F167" s="131">
+      <c r="C167" s="20"/>
+      <c r="D167" s="130"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="130">
         <v>261</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" ht="16" customHeight="1">
-      <c r="B168" s="131" t="s">
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+    </row>
+    <row r="168" spans="1:8" ht="16" customHeight="1">
+      <c r="A168" s="20"/>
+      <c r="B168" s="130" t="s">
         <v>582</v>
       </c>
-      <c r="D168" s="131"/>
-      <c r="F168" s="131">
+      <c r="C168" s="20"/>
+      <c r="D168" s="130"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="130">
         <v>378</v>
       </c>
-    </row>
-    <row r="169" spans="2:6" ht="16" customHeight="1">
-      <c r="B169" s="131" t="s">
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+    </row>
+    <row r="169" spans="1:8" ht="16" customHeight="1">
+      <c r="A169" s="20"/>
+      <c r="B169" s="130" t="s">
         <v>1519</v>
       </c>
-      <c r="D169" s="131"/>
-      <c r="F169" s="131">
+      <c r="C169" s="20"/>
+      <c r="D169" s="130"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="130">
         <v>106</v>
       </c>
-    </row>
-    <row r="170" spans="2:6" ht="16" customHeight="1">
-      <c r="B170" s="131" t="s">
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+    </row>
+    <row r="170" spans="1:8" ht="16" customHeight="1">
+      <c r="A170" s="20"/>
+      <c r="B170" s="130" t="s">
         <v>1611</v>
       </c>
-      <c r="D170" s="131"/>
-      <c r="F170" s="131">
+      <c r="C170" s="20"/>
+      <c r="D170" s="130"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="130">
         <v>220</v>
       </c>
-    </row>
-    <row r="171" spans="2:6" ht="16" customHeight="1">
-      <c r="B171" s="131" t="s">
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+    </row>
+    <row r="171" spans="1:8" ht="16" customHeight="1">
+      <c r="A171" s="20"/>
+      <c r="B171" s="130" t="s">
         <v>1520</v>
       </c>
-      <c r="D171" s="131"/>
-      <c r="F171" s="131">
+      <c r="C171" s="20"/>
+      <c r="D171" s="130"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="130">
         <v>953</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" ht="16" customHeight="1">
-      <c r="B172" s="131" t="s">
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+    </row>
+    <row r="172" spans="1:8" ht="16" customHeight="1">
+      <c r="A172" s="20"/>
+      <c r="B172" s="130" t="s">
         <v>1521</v>
       </c>
-      <c r="D172" s="131"/>
-      <c r="F172" s="131">
+      <c r="C172" s="20"/>
+      <c r="D172" s="130"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="130">
         <v>37</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" ht="16" customHeight="1">
-      <c r="B173" s="131" t="s">
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+    </row>
+    <row r="173" spans="1:8" ht="16" customHeight="1">
+      <c r="A173" s="20"/>
+      <c r="B173" s="130" t="s">
         <v>1522</v>
       </c>
-      <c r="D173" s="131"/>
-      <c r="F173" s="131">
+      <c r="C173" s="20"/>
+      <c r="D173" s="130"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="130">
         <v>110</v>
       </c>
-    </row>
-    <row r="174" spans="2:6" ht="16" customHeight="1">
-      <c r="B174" s="131" t="s">
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+    </row>
+    <row r="174" spans="1:8" ht="16" customHeight="1">
+      <c r="A174" s="20"/>
+      <c r="B174" s="130" t="s">
         <v>586</v>
       </c>
-      <c r="D174" s="131"/>
-      <c r="F174" s="131">
+      <c r="C174" s="20"/>
+      <c r="D174" s="130"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="130">
         <v>247</v>
       </c>
-    </row>
-    <row r="175" spans="2:6" ht="16" customHeight="1">
-      <c r="B175" s="131" t="s">
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+    </row>
+    <row r="175" spans="1:8" ht="16" customHeight="1">
+      <c r="A175" s="20"/>
+      <c r="B175" s="130" t="s">
         <v>1523</v>
       </c>
-      <c r="D175" s="131"/>
-      <c r="F175" s="131">
+      <c r="C175" s="20"/>
+      <c r="D175" s="130"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="130">
         <v>183</v>
       </c>
-    </row>
-    <row r="176" spans="2:6" ht="16" customHeight="1">
-      <c r="B176" s="131" t="s">
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+    </row>
+    <row r="176" spans="1:8" ht="16" customHeight="1">
+      <c r="A176" s="20"/>
+      <c r="B176" s="130" t="s">
         <v>1524</v>
       </c>
-      <c r="D176" s="131"/>
-      <c r="F176" s="131">
+      <c r="C176" s="20"/>
+      <c r="D176" s="130"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="130">
         <v>70</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="16" customHeight="1">
-      <c r="B177" s="131" t="s">
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+    </row>
+    <row r="177" spans="1:8" ht="16" customHeight="1">
+      <c r="A177" s="20"/>
+      <c r="B177" s="130" t="s">
         <v>1525</v>
       </c>
-      <c r="D177" s="131"/>
-      <c r="F177" s="131">
+      <c r="C177" s="20"/>
+      <c r="D177" s="130"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="130">
         <v>45</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="16" customHeight="1">
-      <c r="A178" s="127" t="s">
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+    </row>
+    <row r="178" spans="1:8" ht="16" customHeight="1">
+      <c r="A178" s="131" t="s">
         <v>108</v>
       </c>
       <c r="B178" s="132" t="s">
         <v>303</v>
       </c>
-      <c r="C178" s="127"/>
+      <c r="C178" s="131"/>
       <c r="D178" s="132"/>
-      <c r="E178" s="127"/>
+      <c r="E178" s="131"/>
       <c r="F178" s="132">
         <v>90</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="16" customHeight="1">
-      <c r="B179" s="131" t="s">
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+    </row>
+    <row r="179" spans="1:8" ht="16" customHeight="1">
+      <c r="A179" s="20"/>
+      <c r="B179" s="130" t="s">
         <v>1526</v>
       </c>
-      <c r="D179" s="131"/>
-      <c r="F179" s="131">
+      <c r="C179" s="20"/>
+      <c r="D179" s="130"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="130">
         <v>3358</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="16" customHeight="1">
-      <c r="B180" s="131" t="s">
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+    </row>
+    <row r="180" spans="1:8" ht="16" customHeight="1">
+      <c r="A180" s="20"/>
+      <c r="B180" s="130" t="s">
         <v>1527</v>
       </c>
-      <c r="D180" s="131"/>
-      <c r="F180" s="131">
+      <c r="C180" s="20"/>
+      <c r="D180" s="130"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="130">
         <v>1224</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="16" customHeight="1">
-      <c r="B181" s="131" t="s">
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+    </row>
+    <row r="181" spans="1:8" ht="16" customHeight="1">
+      <c r="A181" s="20"/>
+      <c r="B181" s="130" t="s">
         <v>1528</v>
       </c>
-      <c r="D181" s="131"/>
-      <c r="F181" s="131">
+      <c r="C181" s="20"/>
+      <c r="D181" s="130"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="130">
         <v>120</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="16" customHeight="1">
-      <c r="B182" s="131" t="s">
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+    </row>
+    <row r="182" spans="1:8" ht="16" customHeight="1">
+      <c r="A182" s="20"/>
+      <c r="B182" s="130" t="s">
         <v>1529</v>
       </c>
-      <c r="D182" s="131"/>
-      <c r="F182" s="131">
+      <c r="C182" s="20"/>
+      <c r="D182" s="130"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="130">
         <v>239</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="16" customHeight="1">
-      <c r="B183" s="131" t="s">
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+    </row>
+    <row r="183" spans="1:8" ht="16" customHeight="1">
+      <c r="A183" s="20"/>
+      <c r="B183" s="130" t="s">
         <v>1282</v>
       </c>
-      <c r="D183" s="131"/>
-      <c r="F183" s="131">
+      <c r="C183" s="20"/>
+      <c r="D183" s="130"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="130">
         <v>128</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="16" customHeight="1">
-      <c r="B184" s="131" t="s">
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+    </row>
+    <row r="184" spans="1:8" ht="16" customHeight="1">
+      <c r="A184" s="20"/>
+      <c r="B184" s="130" t="s">
         <v>1530</v>
       </c>
-      <c r="D184" s="131"/>
-      <c r="F184" s="131">
+      <c r="C184" s="20"/>
+      <c r="D184" s="130"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="130">
         <v>43</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="16" customHeight="1">
-      <c r="B185" s="131" t="s">
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+    </row>
+    <row r="185" spans="1:8" ht="16" customHeight="1">
+      <c r="A185" s="20"/>
+      <c r="B185" s="130" t="s">
         <v>1531</v>
       </c>
-      <c r="D185" s="131"/>
-      <c r="F185" s="131">
+      <c r="C185" s="20"/>
+      <c r="D185" s="130"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="130">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="16" customHeight="1">
-      <c r="B186" s="131" t="s">
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+    </row>
+    <row r="186" spans="1:8" ht="16" customHeight="1">
+      <c r="A186" s="20"/>
+      <c r="B186" s="130" t="s">
         <v>1532</v>
       </c>
-      <c r="D186" s="131"/>
-      <c r="F186" s="131">
+      <c r="C186" s="20"/>
+      <c r="D186" s="130"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="130">
         <v>528</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="16" customHeight="1">
-      <c r="B187" s="131" t="s">
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+    </row>
+    <row r="187" spans="1:8" ht="16" customHeight="1">
+      <c r="A187" s="20"/>
+      <c r="B187" s="130" t="s">
         <v>1533</v>
       </c>
-      <c r="D187" s="131"/>
-      <c r="F187" s="131">
+      <c r="C187" s="20"/>
+      <c r="D187" s="130"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="16" customHeight="1">
-      <c r="B188" s="131" t="s">
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+    </row>
+    <row r="188" spans="1:8" ht="16" customHeight="1">
+      <c r="A188" s="20"/>
+      <c r="B188" s="130" t="s">
         <v>1534</v>
       </c>
-      <c r="D188" s="131"/>
-      <c r="F188" s="131">
+      <c r="C188" s="20"/>
+      <c r="D188" s="130"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="130">
         <v>69</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="16" customHeight="1">
-      <c r="B189" s="131" t="s">
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+    </row>
+    <row r="189" spans="1:8" ht="16" customHeight="1">
+      <c r="A189" s="20"/>
+      <c r="B189" s="130" t="s">
         <v>1535</v>
       </c>
-      <c r="D189" s="131"/>
-      <c r="F189" s="131">
+      <c r="C189" s="20"/>
+      <c r="D189" s="130"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="130">
         <v>26</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="16" customHeight="1">
-      <c r="B190" s="131" t="s">
+      <c r="G189" s="20"/>
+      <c r="H189" s="20"/>
+    </row>
+    <row r="190" spans="1:8" ht="16" customHeight="1">
+      <c r="A190" s="20"/>
+      <c r="B190" s="130" t="s">
         <v>1536</v>
       </c>
-      <c r="D190" s="131"/>
-      <c r="F190" s="131">
+      <c r="C190" s="20"/>
+      <c r="D190" s="130"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="16" customHeight="1">
-      <c r="A191" s="127" t="s">
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+    </row>
+    <row r="191" spans="1:8" ht="16" customHeight="1">
+      <c r="A191" s="131" t="s">
         <v>1537</v>
       </c>
       <c r="B191" s="132" t="s">
         <v>1538</v>
       </c>
-      <c r="C191" s="127"/>
+      <c r="C191" s="131"/>
       <c r="D191" s="132"/>
-      <c r="E191" s="127"/>
+      <c r="E191" s="131"/>
       <c r="F191" s="132">
         <v>38</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="16" customHeight="1">
-      <c r="A192" s="129"/>
-      <c r="B192" s="131" t="s">
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+    </row>
+    <row r="192" spans="1:8" ht="16" customHeight="1">
+      <c r="A192" s="133"/>
+      <c r="B192" s="130" t="s">
         <v>1539</v>
       </c>
-      <c r="C192" s="129"/>
-      <c r="D192" s="131"/>
-      <c r="E192" s="129"/>
-      <c r="F192" s="131">
+      <c r="C192" s="133"/>
+      <c r="D192" s="130"/>
+      <c r="E192" s="133"/>
+      <c r="F192" s="130">
         <v>23</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="16" customHeight="1">
-      <c r="A193" s="129"/>
-      <c r="B193" s="131" t="s">
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+    </row>
+    <row r="193" spans="1:8" ht="16" customHeight="1">
+      <c r="A193" s="133"/>
+      <c r="B193" s="130" t="s">
         <v>1540</v>
       </c>
-      <c r="C193" s="129"/>
-      <c r="D193" s="131"/>
-      <c r="E193" s="129"/>
-      <c r="F193" s="131">
+      <c r="C193" s="133"/>
+      <c r="D193" s="130"/>
+      <c r="E193" s="133"/>
+      <c r="F193" s="130">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="16" customHeight="1">
-      <c r="A194" s="129"/>
-      <c r="B194" s="131" t="s">
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+    </row>
+    <row r="194" spans="1:8" ht="16" customHeight="1">
+      <c r="A194" s="133"/>
+      <c r="B194" s="130" t="s">
         <v>1541</v>
       </c>
-      <c r="C194" s="129"/>
-      <c r="D194" s="131"/>
-      <c r="E194" s="129"/>
-      <c r="F194" s="131">
+      <c r="C194" s="133"/>
+      <c r="D194" s="130"/>
+      <c r="E194" s="133"/>
+      <c r="F194" s="130">
         <v>10</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="16" customHeight="1">
-      <c r="A195" s="129"/>
-      <c r="B195" s="131" t="s">
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+    </row>
+    <row r="195" spans="1:8" ht="16" customHeight="1">
+      <c r="A195" s="133"/>
+      <c r="B195" s="130" t="s">
         <v>1542</v>
       </c>
-      <c r="C195" s="129"/>
-      <c r="D195" s="131"/>
-      <c r="E195" s="129"/>
-      <c r="F195" s="131">
+      <c r="C195" s="133"/>
+      <c r="D195" s="130"/>
+      <c r="E195" s="133"/>
+      <c r="F195" s="130">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="16" customHeight="1">
-      <c r="B196" s="131" t="s">
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+    </row>
+    <row r="196" spans="1:8" ht="16" customHeight="1">
+      <c r="A196" s="20"/>
+      <c r="B196" s="130" t="s">
         <v>1543</v>
       </c>
-      <c r="D196" s="131"/>
-      <c r="F196" s="131">
+      <c r="C196" s="20"/>
+      <c r="D196" s="130"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="130">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="16" customHeight="1">
-      <c r="B197" s="131" t="s">
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+    </row>
+    <row r="197" spans="1:8" ht="16" customHeight="1">
+      <c r="A197" s="20"/>
+      <c r="B197" s="130" t="s">
         <v>1544</v>
       </c>
-      <c r="D197" s="131"/>
-      <c r="F197" s="131">
+      <c r="C197" s="20"/>
+      <c r="D197" s="130"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="130">
         <v>10</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="16" customHeight="1">
-      <c r="B198" s="131" t="s">
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+    </row>
+    <row r="198" spans="1:8" ht="16" customHeight="1">
+      <c r="A198" s="20"/>
+      <c r="B198" s="130" t="s">
         <v>1545</v>
       </c>
-      <c r="D198" s="131"/>
-      <c r="F198" s="131">
+      <c r="C198" s="20"/>
+      <c r="D198" s="130"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="16" customHeight="1">
-      <c r="B199" s="131" t="s">
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+    </row>
+    <row r="199" spans="1:8" ht="16" customHeight="1">
+      <c r="A199" s="20"/>
+      <c r="B199" s="130" t="s">
         <v>1546</v>
       </c>
-      <c r="D199" s="131"/>
-      <c r="F199" s="131">
+      <c r="C199" s="20"/>
+      <c r="D199" s="130"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="130">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="16" customHeight="1">
-      <c r="B200" s="131" t="s">
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+    </row>
+    <row r="200" spans="1:8" ht="16" customHeight="1">
+      <c r="A200" s="20"/>
+      <c r="B200" s="130" t="s">
         <v>1547</v>
       </c>
-      <c r="D200" s="131"/>
-      <c r="F200" s="131">
+      <c r="C200" s="20"/>
+      <c r="D200" s="130"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="130">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="16" customHeight="1">
-      <c r="B201" s="131" t="s">
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
+    </row>
+    <row r="201" spans="1:8" ht="16" customHeight="1">
+      <c r="A201" s="20"/>
+      <c r="B201" s="130" t="s">
         <v>1548</v>
       </c>
-      <c r="D201" s="131"/>
-      <c r="F201" s="131">
+      <c r="C201" s="20"/>
+      <c r="D201" s="130"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="130">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="16" customHeight="1">
-      <c r="B202" s="131" t="s">
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+    </row>
+    <row r="202" spans="1:8" ht="16" customHeight="1">
+      <c r="A202" s="20"/>
+      <c r="B202" s="130" t="s">
         <v>1549</v>
       </c>
-      <c r="D202" s="131"/>
-      <c r="F202" s="131">
+      <c r="C202" s="20"/>
+      <c r="D202" s="130"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="130">
         <v>10</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="16" customHeight="1">
-      <c r="B203" s="131" t="s">
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+    </row>
+    <row r="203" spans="1:8" ht="16" customHeight="1">
+      <c r="A203" s="20"/>
+      <c r="B203" s="130" t="s">
         <v>1550</v>
       </c>
-      <c r="D203" s="131"/>
-      <c r="F203" s="131">
+      <c r="C203" s="20"/>
+      <c r="D203" s="130"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="130">
         <v>9</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="16" customHeight="1">
-      <c r="B204" s="131" t="s">
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+    </row>
+    <row r="204" spans="1:8" ht="16" customHeight="1">
+      <c r="A204" s="20"/>
+      <c r="B204" s="130" t="s">
         <v>1551</v>
       </c>
-      <c r="D204" s="131"/>
-      <c r="F204" s="131">
+      <c r="C204" s="20"/>
+      <c r="D204" s="130"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="130">
         <v>41</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="16" customHeight="1">
-      <c r="B205" s="131" t="s">
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
+    </row>
+    <row r="205" spans="1:8" ht="16" customHeight="1">
+      <c r="A205" s="20"/>
+      <c r="B205" s="130" t="s">
         <v>1552</v>
       </c>
-      <c r="D205" s="131"/>
-      <c r="F205" s="131">
+      <c r="C205" s="20"/>
+      <c r="D205" s="130"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="130">
         <v>43</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="16" customHeight="1">
-      <c r="B206" s="131" t="s">
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
+    </row>
+    <row r="206" spans="1:8" ht="16" customHeight="1">
+      <c r="A206" s="20"/>
+      <c r="B206" s="130" t="s">
         <v>1553</v>
       </c>
-      <c r="D206" s="131"/>
-      <c r="F206" s="131">
+      <c r="C206" s="20"/>
+      <c r="D206" s="130"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="130">
         <v>38</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="16" customHeight="1">
-      <c r="B207" s="131" t="s">
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+    </row>
+    <row r="207" spans="1:8" ht="16" customHeight="1">
+      <c r="A207" s="20"/>
+      <c r="B207" s="130" t="s">
         <v>1554</v>
       </c>
-      <c r="D207" s="131"/>
-      <c r="F207" s="131">
+      <c r="C207" s="20"/>
+      <c r="D207" s="130"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="130">
         <v>26</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="16" customHeight="1">
-      <c r="B208" s="131" t="s">
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+    </row>
+    <row r="208" spans="1:8" ht="16" customHeight="1">
+      <c r="A208" s="20"/>
+      <c r="B208" s="130" t="s">
         <v>1555</v>
       </c>
-      <c r="D208" s="131"/>
-      <c r="F208" s="131">
+      <c r="C208" s="20"/>
+      <c r="D208" s="130"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="130">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="16" customHeight="1">
-      <c r="B209" s="131" t="s">
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
+    </row>
+    <row r="209" spans="1:8" ht="16" customHeight="1">
+      <c r="A209" s="20"/>
+      <c r="B209" s="130" t="s">
         <v>1556</v>
       </c>
-      <c r="D209" s="131"/>
-      <c r="F209" s="131">
+      <c r="C209" s="20"/>
+      <c r="D209" s="130"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="130">
         <v>36</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="16" customHeight="1">
-      <c r="B210" s="131" t="s">
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
+    </row>
+    <row r="210" spans="1:8" ht="16" customHeight="1">
+      <c r="A210" s="20"/>
+      <c r="B210" s="130" t="s">
         <v>1557</v>
       </c>
-      <c r="D210" s="131"/>
-      <c r="F210" s="131">
+      <c r="C210" s="20"/>
+      <c r="D210" s="130"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="130">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="16" customHeight="1">
-      <c r="A211" s="127" t="s">
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+    </row>
+    <row r="211" spans="1:8" ht="16" customHeight="1">
+      <c r="A211" s="131" t="s">
         <v>954</v>
       </c>
       <c r="B211" s="132" t="s">
         <v>1558</v>
       </c>
-      <c r="C211" s="127"/>
+      <c r="C211" s="131"/>
       <c r="D211" s="132"/>
-      <c r="E211" s="127"/>
+      <c r="E211" s="131"/>
       <c r="F211" s="132">
         <v>26</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="16" customHeight="1">
-      <c r="A212" s="129"/>
-      <c r="B212" s="131" t="s">
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+    </row>
+    <row r="212" spans="1:8" ht="16" customHeight="1">
+      <c r="A212" s="133"/>
+      <c r="B212" s="130" t="s">
         <v>1559</v>
       </c>
-      <c r="C212" s="129"/>
-      <c r="D212" s="131"/>
-      <c r="E212" s="129"/>
-      <c r="F212" s="131">
+      <c r="C212" s="133"/>
+      <c r="D212" s="130"/>
+      <c r="E212" s="133"/>
+      <c r="F212" s="130">
         <v>22</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="16" customHeight="1">
-      <c r="A213" s="129"/>
-      <c r="B213" s="131" t="s">
+      <c r="G212" s="20"/>
+      <c r="H212" s="20"/>
+    </row>
+    <row r="213" spans="1:8" ht="16" customHeight="1">
+      <c r="A213" s="133"/>
+      <c r="B213" s="130" t="s">
         <v>1560</v>
       </c>
-      <c r="C213" s="129"/>
-      <c r="D213" s="131"/>
-      <c r="E213" s="129"/>
-      <c r="F213" s="131">
+      <c r="C213" s="133"/>
+      <c r="D213" s="130"/>
+      <c r="E213" s="133"/>
+      <c r="F213" s="130">
         <v>23</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="16" customHeight="1">
-      <c r="A214" s="127" t="s">
+      <c r="G213" s="20"/>
+      <c r="H213" s="20"/>
+    </row>
+    <row r="214" spans="1:8" ht="16" customHeight="1">
+      <c r="A214" s="131" t="s">
         <v>1561</v>
       </c>
       <c r="B214" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="C214" s="127"/>
+      <c r="C214" s="131"/>
       <c r="D214" s="132"/>
-      <c r="E214" s="127"/>
+      <c r="E214" s="131"/>
       <c r="F214" s="132">
         <v>46</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="16" customHeight="1">
-      <c r="A215" s="129"/>
-      <c r="B215" s="131" t="s">
+      <c r="G214" s="20"/>
+      <c r="H214" s="20"/>
+    </row>
+    <row r="215" spans="1:8" ht="16" customHeight="1">
+      <c r="A215" s="133"/>
+      <c r="B215" s="130" t="s">
         <v>1562</v>
       </c>
-      <c r="C215" s="129"/>
-      <c r="D215" s="131"/>
-      <c r="E215" s="129"/>
-      <c r="F215" s="131">
+      <c r="C215" s="133"/>
+      <c r="D215" s="130"/>
+      <c r="E215" s="133"/>
+      <c r="F215" s="130">
         <v>12</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="16" customHeight="1">
-      <c r="A216" s="130"/>
-      <c r="B216" s="133" t="s">
+      <c r="G215" s="20"/>
+      <c r="H215" s="20"/>
+    </row>
+    <row r="216" spans="1:8" ht="16" customHeight="1">
+      <c r="A216" s="134"/>
+      <c r="B216" s="135" t="s">
         <v>1563</v>
       </c>
-      <c r="C216" s="130"/>
-      <c r="D216" s="133"/>
-      <c r="E216" s="130"/>
-      <c r="F216" s="133">
+      <c r="C216" s="134"/>
+      <c r="D216" s="135"/>
+      <c r="E216" s="134"/>
+      <c r="F216" s="135">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="16" customHeight="1">
-      <c r="A217" s="128" t="s">
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
+    </row>
+    <row r="217" spans="1:8" ht="16" customHeight="1">
+      <c r="A217" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="137" t="s">
         <v>1259</v>
       </c>
-      <c r="C217" s="128"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="128"/>
-      <c r="F217" s="18">
+      <c r="C217" s="136"/>
+      <c r="D217" s="137"/>
+      <c r="E217" s="136"/>
+      <c r="F217" s="137">
         <v>580</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="16" customHeight="1">
-      <c r="A218" s="127" t="s">
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
+    </row>
+    <row r="218" spans="1:8" ht="16" customHeight="1">
+      <c r="A218" s="131" t="s">
         <v>1564</v>
       </c>
       <c r="B218" s="132" t="s">
         <v>1565</v>
       </c>
-      <c r="C218" s="127"/>
+      <c r="C218" s="131"/>
       <c r="D218" s="132"/>
-      <c r="E218" s="127"/>
+      <c r="E218" s="131"/>
       <c r="F218" s="132">
         <v>70</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="16" customHeight="1">
-      <c r="B219" s="131" t="s">
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
+    </row>
+    <row r="219" spans="1:8" ht="16" customHeight="1">
+      <c r="A219" s="20"/>
+      <c r="B219" s="130" t="s">
         <v>1566</v>
       </c>
-      <c r="D219" s="131"/>
-      <c r="F219" s="131">
+      <c r="C219" s="20"/>
+      <c r="D219" s="130"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="130">
         <v>1418</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="16" customHeight="1">
-      <c r="B220" s="131" t="s">
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+    </row>
+    <row r="220" spans="1:8" ht="16" customHeight="1">
+      <c r="A220" s="20"/>
+      <c r="B220" s="130" t="s">
         <v>1567</v>
       </c>
-      <c r="D220" s="131"/>
-      <c r="F220" s="131">
+      <c r="C220" s="20"/>
+      <c r="D220" s="130"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="130">
         <v>161</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="16" customHeight="1">
-      <c r="B221" s="131" t="s">
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+    </row>
+    <row r="221" spans="1:8" ht="16" customHeight="1">
+      <c r="A221" s="20"/>
+      <c r="B221" s="130" t="s">
         <v>1568</v>
       </c>
-      <c r="D221" s="131"/>
-      <c r="F221" s="131">
+      <c r="C221" s="20"/>
+      <c r="D221" s="130"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="130">
         <v>237</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="16" customHeight="1">
-      <c r="B222" s="131" t="s">
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+    </row>
+    <row r="222" spans="1:8" ht="16" customHeight="1">
+      <c r="A222" s="20"/>
+      <c r="B222" s="130" t="s">
         <v>1569</v>
       </c>
-      <c r="D222" s="131"/>
-      <c r="F222" s="131">
+      <c r="C222" s="20"/>
+      <c r="D222" s="130"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="130">
         <v>285</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="16" customHeight="1">
-      <c r="A223" s="128" t="s">
+      <c r="G222" s="20"/>
+      <c r="H222" s="20"/>
+    </row>
+    <row r="223" spans="1:8" ht="16" customHeight="1">
+      <c r="A223" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B223" s="137" t="s">
         <v>628</v>
       </c>
-      <c r="C223" s="128"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="128"/>
-      <c r="F223" s="18">
+      <c r="C223" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" s="137">
         <v>171</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="16" customHeight="1">
-      <c r="A224" s="127" t="s">
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
+    </row>
+    <row r="224" spans="1:8" ht="16" customHeight="1">
+      <c r="A224" s="131" t="s">
         <v>1570</v>
       </c>
       <c r="B224" s="132" t="s">
         <v>1571</v>
       </c>
-      <c r="C224" s="127"/>
+      <c r="C224" s="131" t="s">
+        <v>63</v>
+      </c>
       <c r="D224" s="132"/>
-      <c r="E224" s="127"/>
+      <c r="E224" s="131" t="s">
+        <v>85</v>
+      </c>
       <c r="F224" s="132">
         <v>328</v>
       </c>
-    </row>
-    <row r="225" spans="2:6" ht="16" customHeight="1">
-      <c r="B225" s="131" t="s">
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
+    </row>
+    <row r="225" spans="1:8" ht="16" customHeight="1">
+      <c r="A225" s="20"/>
+      <c r="B225" s="130" t="s">
         <v>1572</v>
       </c>
-      <c r="D225" s="131"/>
-      <c r="F225" s="131">
+      <c r="C225" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" s="130"/>
+      <c r="E225" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F225" s="130">
         <v>289</v>
       </c>
-    </row>
-    <row r="226" spans="2:6" ht="16" customHeight="1">
-      <c r="B226" s="131" t="s">
+      <c r="G225" s="20"/>
+      <c r="H225" s="20"/>
+    </row>
+    <row r="226" spans="1:8" ht="16" customHeight="1">
+      <c r="A226" s="20"/>
+      <c r="B226" s="130" t="s">
         <v>632</v>
       </c>
-      <c r="D226" s="131"/>
-      <c r="F226" s="131">
+      <c r="C226" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" s="130"/>
+      <c r="E226" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F226" s="130">
         <v>228</v>
       </c>
-    </row>
-    <row r="227" spans="2:6" ht="16" customHeight="1">
-      <c r="B227" s="131" t="s">
+      <c r="G226" s="20"/>
+      <c r="H226" s="20"/>
+    </row>
+    <row r="227" spans="1:8" ht="16" customHeight="1">
+      <c r="A227" s="20"/>
+      <c r="B227" s="130" t="s">
         <v>633</v>
       </c>
-      <c r="D227" s="131"/>
-      <c r="F227" s="131">
+      <c r="C227" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" s="130"/>
+      <c r="E227" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F227" s="130">
         <v>45</v>
       </c>
-    </row>
-    <row r="228" spans="2:6" ht="16" customHeight="1">
-      <c r="B228" s="131" t="s">
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
+    </row>
+    <row r="228" spans="1:8" ht="16" customHeight="1">
+      <c r="A228" s="20"/>
+      <c r="B228" s="130" t="s">
         <v>361</v>
       </c>
-      <c r="D228" s="131"/>
-      <c r="F228" s="131">
+      <c r="C228" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" s="130"/>
+      <c r="E228" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F228" s="130">
         <v>578</v>
       </c>
-    </row>
-    <row r="229" spans="2:6" ht="16" customHeight="1">
-      <c r="B229" s="131" t="s">
+      <c r="G228" s="20"/>
+      <c r="H228" s="20"/>
+    </row>
+    <row r="229" spans="1:8" ht="16" customHeight="1">
+      <c r="A229" s="20"/>
+      <c r="B229" s="130" t="s">
         <v>635</v>
       </c>
-      <c r="D229" s="131"/>
-      <c r="F229" s="131">
+      <c r="C229" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" s="130"/>
+      <c r="E229" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F229" s="130">
         <v>81</v>
       </c>
-    </row>
-    <row r="230" spans="2:6" ht="16" customHeight="1">
-      <c r="B230" s="131" t="s">
+      <c r="G229" s="20"/>
+      <c r="H229" s="20"/>
+    </row>
+    <row r="230" spans="1:8" ht="16" customHeight="1">
+      <c r="A230" s="20"/>
+      <c r="B230" s="130" t="s">
         <v>636</v>
       </c>
-      <c r="D230" s="131"/>
-      <c r="F230" s="131">
+      <c r="C230" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" s="130"/>
+      <c r="E230" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F230" s="130">
         <v>62</v>
       </c>
-    </row>
-    <row r="231" spans="2:6" ht="16" customHeight="1">
-      <c r="B231" s="131" t="s">
+      <c r="G230" s="20"/>
+      <c r="H230" s="20"/>
+    </row>
+    <row r="231" spans="1:8" ht="16" customHeight="1">
+      <c r="A231" s="20"/>
+      <c r="B231" s="130" t="s">
         <v>637</v>
       </c>
-      <c r="D231" s="131"/>
-      <c r="F231" s="131">
+      <c r="C231" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" s="130"/>
+      <c r="E231" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F231" s="130">
         <v>22</v>
       </c>
-    </row>
-    <row r="232" spans="2:6" ht="16" customHeight="1">
-      <c r="B232" s="131" t="s">
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
+    </row>
+    <row r="232" spans="1:8" ht="16" customHeight="1">
+      <c r="A232" s="20"/>
+      <c r="B232" s="130" t="s">
         <v>1573</v>
       </c>
-      <c r="D232" s="131"/>
-      <c r="F232" s="131">
+      <c r="C232" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" s="130"/>
+      <c r="E232" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F232" s="130">
         <v>13</v>
       </c>
-    </row>
-    <row r="233" spans="2:6" ht="16" customHeight="1">
-      <c r="B233" s="131" t="s">
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+    </row>
+    <row r="233" spans="1:8" ht="16" customHeight="1">
+      <c r="A233" s="20"/>
+      <c r="B233" s="130" t="s">
         <v>664</v>
       </c>
-      <c r="D233" s="131"/>
-      <c r="F233" s="131">
+      <c r="C233" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D233" s="130"/>
+      <c r="E233" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F233" s="130">
         <v>162</v>
       </c>
-    </row>
-    <row r="234" spans="2:6" ht="16" customHeight="1">
-      <c r="B234" s="131" t="s">
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+    </row>
+    <row r="234" spans="1:8" ht="16" customHeight="1">
+      <c r="A234" s="20"/>
+      <c r="B234" s="130" t="s">
         <v>665</v>
       </c>
-      <c r="D234" s="131"/>
-      <c r="F234" s="131">
+      <c r="C234" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" s="130"/>
+      <c r="E234" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F234" s="130">
         <v>45</v>
       </c>
-    </row>
-    <row r="235" spans="2:6" ht="16" customHeight="1">
-      <c r="B235" s="131" t="s">
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+    </row>
+    <row r="235" spans="1:8" ht="16" customHeight="1">
+      <c r="A235" s="20"/>
+      <c r="B235" s="130" t="s">
         <v>666</v>
       </c>
-      <c r="D235" s="131"/>
-      <c r="F235" s="131">
+      <c r="C235" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" s="130"/>
+      <c r="E235" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F235" s="130">
         <v>93</v>
       </c>
-    </row>
-    <row r="236" spans="2:6" ht="16" customHeight="1">
-      <c r="B236" s="131" t="s">
+      <c r="G235" s="20"/>
+      <c r="H235" s="20"/>
+    </row>
+    <row r="236" spans="1:8" ht="16" customHeight="1">
+      <c r="A236" s="20"/>
+      <c r="B236" s="130" t="s">
         <v>1574</v>
       </c>
-      <c r="D236" s="131"/>
-      <c r="F236" s="131">
+      <c r="C236" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D236" s="130"/>
+      <c r="E236" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F236" s="130">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="2:6" ht="16" customHeight="1">
-      <c r="B237" s="131" t="s">
+      <c r="G236" s="20"/>
+      <c r="H236" s="20"/>
+    </row>
+    <row r="237" spans="1:8" ht="16" customHeight="1">
+      <c r="A237" s="20"/>
+      <c r="B237" s="130" t="s">
         <v>1575</v>
       </c>
-      <c r="D237" s="131"/>
-      <c r="F237" s="131">
+      <c r="C237" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D237" s="130"/>
+      <c r="E237" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F237" s="130">
         <v>134</v>
       </c>
-    </row>
-    <row r="238" spans="2:6" ht="16" customHeight="1">
-      <c r="B238" s="131" t="s">
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+    </row>
+    <row r="238" spans="1:8" ht="16" customHeight="1">
+      <c r="A238" s="20"/>
+      <c r="B238" s="130" t="s">
         <v>1576</v>
       </c>
-      <c r="D238" s="131"/>
-      <c r="F238" s="131">
+      <c r="C238" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D238" s="130"/>
+      <c r="E238" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F238" s="130">
         <v>29</v>
       </c>
-    </row>
-    <row r="239" spans="2:6" ht="16" customHeight="1">
-      <c r="B239" s="131" t="s">
+      <c r="G238" s="20"/>
+      <c r="H238" s="20"/>
+    </row>
+    <row r="239" spans="1:8" ht="16" customHeight="1">
+      <c r="A239" s="20"/>
+      <c r="B239" s="130" t="s">
         <v>1577</v>
       </c>
-      <c r="D239" s="131"/>
-      <c r="F239" s="131">
+      <c r="C239" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D239" s="130"/>
+      <c r="E239" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F239" s="130">
         <v>2648</v>
       </c>
-    </row>
-    <row r="240" spans="2:6" ht="16" customHeight="1">
-      <c r="B240" s="131" t="s">
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
+    </row>
+    <row r="240" spans="1:8" ht="16" customHeight="1">
+      <c r="A240" s="20"/>
+      <c r="B240" s="130" t="s">
         <v>1578</v>
       </c>
-      <c r="D240" s="131"/>
-      <c r="F240" s="131">
+      <c r="C240" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D240" s="130"/>
+      <c r="E240" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F240" s="130">
         <v>49</v>
       </c>
-    </row>
-    <row r="241" spans="2:6" ht="16" customHeight="1">
-      <c r="B241" s="131" t="s">
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
+    </row>
+    <row r="241" spans="1:8" ht="16" customHeight="1">
+      <c r="A241" s="20"/>
+      <c r="B241" s="130" t="s">
         <v>1579</v>
       </c>
-      <c r="D241" s="131"/>
-      <c r="F241" s="131">
+      <c r="C241" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D241" s="130"/>
+      <c r="E241" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F241" s="130">
         <v>43</v>
       </c>
-    </row>
-    <row r="242" spans="2:6" ht="16" customHeight="1">
-      <c r="B242" s="131" t="s">
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
+    </row>
+    <row r="242" spans="1:8" ht="16" customHeight="1">
+      <c r="A242" s="20"/>
+      <c r="B242" s="130" t="s">
         <v>1580</v>
       </c>
-      <c r="D242" s="131"/>
-      <c r="F242" s="131">
+      <c r="C242" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D242" s="130"/>
+      <c r="E242" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F242" s="130">
         <v>13</v>
       </c>
-    </row>
-    <row r="243" spans="2:6" ht="16" customHeight="1">
-      <c r="B243" s="131" t="s">
+      <c r="G242" s="20"/>
+      <c r="H242" s="20"/>
+    </row>
+    <row r="243" spans="1:8" ht="16" customHeight="1">
+      <c r="A243" s="20"/>
+      <c r="B243" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D243" s="131"/>
-      <c r="F243" s="131">
+      <c r="C243" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D243" s="130"/>
+      <c r="E243" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F243" s="130">
         <v>92</v>
       </c>
-    </row>
-    <row r="244" spans="2:6" ht="16" customHeight="1">
-      <c r="B244" s="131" t="s">
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
+    </row>
+    <row r="244" spans="1:8" ht="16" customHeight="1">
+      <c r="A244" s="20"/>
+      <c r="B244" s="130" t="s">
         <v>1581</v>
       </c>
-      <c r="D244" s="131"/>
-      <c r="F244" s="131">
+      <c r="C244" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D244" s="130"/>
+      <c r="E244" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F244" s="130">
         <v>58</v>
       </c>
-    </row>
-    <row r="245" spans="2:6" ht="16" customHeight="1">
-      <c r="B245" s="131" t="s">
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
+    </row>
+    <row r="245" spans="1:8" ht="16" customHeight="1">
+      <c r="A245" s="20"/>
+      <c r="B245" s="130" t="s">
         <v>1582</v>
       </c>
-      <c r="D245" s="131"/>
-      <c r="F245" s="131">
+      <c r="C245" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D245" s="130"/>
+      <c r="E245" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F245" s="130">
         <v>26</v>
       </c>
-    </row>
-    <row r="246" spans="2:6" ht="16" customHeight="1">
-      <c r="B246" s="131" t="s">
+      <c r="G245" s="20"/>
+      <c r="H245" s="20"/>
+    </row>
+    <row r="246" spans="1:8" ht="16" customHeight="1">
+      <c r="A246" s="20"/>
+      <c r="B246" s="130" t="s">
         <v>1583</v>
       </c>
-      <c r="D246" s="131"/>
-      <c r="F246" s="131">
+      <c r="C246" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D246" s="130"/>
+      <c r="E246" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F246" s="130">
         <v>18</v>
       </c>
-    </row>
-    <row r="247" spans="2:6" ht="16" customHeight="1">
-      <c r="B247" s="131" t="s">
+      <c r="G246" s="20"/>
+      <c r="H246" s="20"/>
+    </row>
+    <row r="247" spans="1:8" ht="16" customHeight="1">
+      <c r="A247" s="20"/>
+      <c r="B247" s="130" t="s">
         <v>1584</v>
       </c>
-      <c r="D247" s="131"/>
-      <c r="F247" s="131">
+      <c r="C247" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D247" s="130"/>
+      <c r="E247" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F247" s="130">
         <v>26</v>
       </c>
-    </row>
-    <row r="248" spans="2:6" ht="16" customHeight="1">
-      <c r="B248" s="131" t="s">
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
+    </row>
+    <row r="248" spans="1:8" ht="16" customHeight="1">
+      <c r="A248" s="20"/>
+      <c r="B248" s="130" t="s">
         <v>1585</v>
       </c>
-      <c r="D248" s="131"/>
-      <c r="F248" s="131">
+      <c r="C248" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D248" s="130"/>
+      <c r="E248" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F248" s="130">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="2:6" ht="16" customHeight="1">
-      <c r="B249" s="131" t="s">
+      <c r="G248" s="20"/>
+      <c r="H248" s="20"/>
+    </row>
+    <row r="249" spans="1:8" ht="16" customHeight="1">
+      <c r="A249" s="20"/>
+      <c r="B249" s="130" t="s">
         <v>1586</v>
       </c>
-      <c r="D249" s="131"/>
-      <c r="F249" s="131">
+      <c r="C249" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D249" s="130"/>
+      <c r="E249" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F249" s="130">
         <v>9</v>
       </c>
-    </row>
-    <row r="250" spans="2:6" ht="16" customHeight="1">
-      <c r="B250" s="131" t="s">
+      <c r="G249" s="20"/>
+      <c r="H249" s="20"/>
+    </row>
+    <row r="250" spans="1:8" ht="16" customHeight="1">
+      <c r="A250" s="20"/>
+      <c r="B250" s="130" t="s">
         <v>1587</v>
       </c>
-      <c r="D250" s="131"/>
-      <c r="F250" s="131">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" ht="16" customHeight="1">
-      <c r="B251" s="131" t="s">
+      <c r="C250" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D250" s="130"/>
+      <c r="E250" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F250" s="130">
+        <v>83</v>
+      </c>
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
+    </row>
+    <row r="251" spans="1:8" ht="16" customHeight="1">
+      <c r="A251" s="20"/>
+      <c r="B251" s="130" t="s">
         <v>1588</v>
       </c>
-      <c r="D251" s="131"/>
-      <c r="F251" s="131">
+      <c r="C251" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D251" s="130"/>
+      <c r="E251" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F251" s="130">
         <v>20</v>
       </c>
-    </row>
-    <row r="252" spans="2:6" ht="16" customHeight="1">
-      <c r="B252" s="131" t="s">
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
+    </row>
+    <row r="252" spans="1:8" ht="16" customHeight="1">
+      <c r="A252" s="20"/>
+      <c r="B252" s="130" t="s">
         <v>1589</v>
       </c>
-      <c r="D252" s="131"/>
-      <c r="F252" s="131">
+      <c r="C252" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D252" s="130"/>
+      <c r="E252" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F252" s="130">
         <v>66</v>
       </c>
-    </row>
-    <row r="253" spans="2:6" ht="16" customHeight="1">
-      <c r="B253" s="131" t="s">
+      <c r="G252" s="20"/>
+      <c r="H252" s="20"/>
+    </row>
+    <row r="253" spans="1:8" ht="16" customHeight="1">
+      <c r="A253" s="20"/>
+      <c r="B253" s="130" t="s">
         <v>1590</v>
       </c>
-      <c r="D253" s="131"/>
-      <c r="F253" s="131">
+      <c r="C253" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D253" s="130"/>
+      <c r="E253" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F253" s="130">
         <v>82</v>
       </c>
-    </row>
-    <row r="254" spans="2:6" ht="16" customHeight="1">
-      <c r="B254" s="131" t="s">
+      <c r="G253" s="20"/>
+      <c r="H253" s="20"/>
+    </row>
+    <row r="254" spans="1:8" ht="16" customHeight="1">
+      <c r="A254" s="20"/>
+      <c r="B254" s="130" t="s">
         <v>641</v>
       </c>
-      <c r="D254" s="131"/>
-      <c r="F254" s="131">
+      <c r="C254" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D254" s="130"/>
+      <c r="E254" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F254" s="130">
         <v>108</v>
       </c>
-    </row>
-    <row r="255" spans="2:6" ht="16" customHeight="1">
-      <c r="B255" s="131" t="s">
+      <c r="G254" s="20"/>
+      <c r="H254" s="20"/>
+    </row>
+    <row r="255" spans="1:8" ht="16" customHeight="1">
+      <c r="A255" s="20"/>
+      <c r="B255" s="130" t="s">
         <v>1591</v>
       </c>
-      <c r="D255" s="131"/>
-      <c r="F255" s="131">
+      <c r="C255" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D255" s="130"/>
+      <c r="E255" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F255" s="130">
         <v>201</v>
       </c>
-    </row>
-    <row r="256" spans="2:6" ht="16" customHeight="1">
-      <c r="B256" s="131" t="s">
+      <c r="G255" s="20"/>
+      <c r="H255" s="20"/>
+    </row>
+    <row r="256" spans="1:8" ht="16" customHeight="1">
+      <c r="A256" s="20"/>
+      <c r="B256" s="130" t="s">
         <v>1592</v>
       </c>
-      <c r="D256" s="131"/>
-      <c r="F256" s="131">
+      <c r="C256" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D256" s="130"/>
+      <c r="E256" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F256" s="130">
         <v>64</v>
       </c>
-    </row>
-    <row r="257" spans="2:6" ht="16" customHeight="1">
-      <c r="B257" s="131" t="s">
+      <c r="G256" s="20"/>
+      <c r="H256" s="20"/>
+    </row>
+    <row r="257" spans="1:8" ht="16" customHeight="1">
+      <c r="A257" s="20"/>
+      <c r="B257" s="130" t="s">
         <v>355</v>
       </c>
-      <c r="D257" s="131"/>
-      <c r="F257" s="131">
+      <c r="C257" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D257" s="130"/>
+      <c r="E257" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F257" s="130">
         <v>301</v>
       </c>
-    </row>
-    <row r="258" spans="2:6" ht="16" customHeight="1">
-      <c r="B258" s="131" t="s">
+      <c r="G257" s="20"/>
+      <c r="H257" s="20"/>
+    </row>
+    <row r="258" spans="1:8" ht="16" customHeight="1">
+      <c r="A258" s="20"/>
+      <c r="B258" s="130" t="s">
         <v>1593</v>
       </c>
-      <c r="D258" s="131"/>
-      <c r="F258" s="131">
+      <c r="C258" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D258" s="130"/>
+      <c r="E258" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F258" s="130">
         <v>127</v>
       </c>
-    </row>
-    <row r="259" spans="2:6" ht="16" customHeight="1">
-      <c r="B259" s="131" t="s">
+      <c r="G258" s="20"/>
+      <c r="H258" s="20"/>
+    </row>
+    <row r="259" spans="1:8" ht="16" customHeight="1">
+      <c r="A259" s="20"/>
+      <c r="B259" s="130" t="s">
         <v>1594</v>
       </c>
-      <c r="D259" s="131"/>
-      <c r="F259" s="131">
+      <c r="C259" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D259" s="130"/>
+      <c r="E259" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F259" s="130">
         <v>25</v>
       </c>
-    </row>
-    <row r="260" spans="2:6" ht="16" customHeight="1">
-      <c r="B260" s="131" t="s">
+      <c r="G259" s="20"/>
+      <c r="H259" s="20"/>
+    </row>
+    <row r="260" spans="1:8" ht="16" customHeight="1">
+      <c r="A260" s="20"/>
+      <c r="B260" s="130" t="s">
         <v>1595</v>
       </c>
-      <c r="D260" s="131"/>
-      <c r="F260" s="131">
+      <c r="C260" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D260" s="130"/>
+      <c r="E260" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F260" s="130">
         <v>1251</v>
       </c>
-    </row>
-    <row r="261" spans="2:6" ht="16" customHeight="1">
-      <c r="B261" s="131" t="s">
+      <c r="G260" s="20"/>
+      <c r="H260" s="20"/>
+    </row>
+    <row r="261" spans="1:8" ht="16" customHeight="1">
+      <c r="A261" s="20"/>
+      <c r="B261" s="130" t="s">
         <v>1596</v>
       </c>
-      <c r="D261" s="131"/>
-      <c r="F261" s="131">
+      <c r="C261" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D261" s="130"/>
+      <c r="E261" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F261" s="130">
         <v>20</v>
       </c>
-    </row>
-    <row r="262" spans="2:6" ht="16" customHeight="1">
-      <c r="B262" s="131" t="s">
+      <c r="G261" s="20"/>
+      <c r="H261" s="20"/>
+    </row>
+    <row r="262" spans="1:8" ht="16" customHeight="1">
+      <c r="A262" s="20"/>
+      <c r="B262" s="130" t="s">
         <v>1597</v>
       </c>
-      <c r="D262" s="131"/>
-      <c r="F262" s="131">
+      <c r="C262" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D262" s="130"/>
+      <c r="E262" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F262" s="130">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="2:6" ht="16" customHeight="1">
-      <c r="B263" s="131" t="s">
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
+    </row>
+    <row r="263" spans="1:8" ht="16" customHeight="1">
+      <c r="A263" s="20"/>
+      <c r="B263" s="130" t="s">
         <v>1598</v>
       </c>
-      <c r="D263" s="131"/>
-      <c r="F263" s="131">
+      <c r="C263" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D263" s="130"/>
+      <c r="E263" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F263" s="130">
         <v>11</v>
       </c>
-    </row>
-    <row r="264" spans="2:6" ht="16" customHeight="1">
-      <c r="B264" s="131" t="s">
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
+    </row>
+    <row r="264" spans="1:8" ht="16" customHeight="1">
+      <c r="A264" s="20"/>
+      <c r="B264" s="130" t="s">
         <v>1599</v>
       </c>
-      <c r="D264" s="131"/>
-      <c r="F264" s="131">
+      <c r="C264" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D264" s="130"/>
+      <c r="E264" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F264" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="2:6" ht="16" customHeight="1">
-      <c r="B265" s="131" t="s">
+      <c r="G264" s="20"/>
+      <c r="H264" s="20"/>
+    </row>
+    <row r="265" spans="1:8" ht="16" customHeight="1">
+      <c r="A265" s="20"/>
+      <c r="B265" s="130" t="s">
         <v>658</v>
       </c>
-      <c r="D265" s="131"/>
-      <c r="F265" s="131">
+      <c r="C265" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D265" s="130"/>
+      <c r="E265" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F265" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="2:6" ht="16" customHeight="1">
-      <c r="B266" s="131" t="s">
+      <c r="G265" s="20"/>
+      <c r="H265" s="20"/>
+    </row>
+    <row r="266" spans="1:8" ht="16" customHeight="1">
+      <c r="A266" s="20"/>
+      <c r="B266" s="130" t="s">
         <v>1387</v>
       </c>
-      <c r="D266" s="131"/>
-      <c r="F266" s="131">
+      <c r="C266" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D266" s="130"/>
+      <c r="E266" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F266" s="130">
         <v>53</v>
       </c>
-    </row>
-    <row r="267" spans="2:6" ht="16" customHeight="1">
-      <c r="B267" s="131" t="s">
+      <c r="G266" s="20"/>
+      <c r="H266" s="20"/>
+    </row>
+    <row r="267" spans="1:8" ht="16" customHeight="1">
+      <c r="A267" s="20"/>
+      <c r="B267" s="130" t="s">
         <v>660</v>
       </c>
-      <c r="D267" s="131"/>
-      <c r="F267" s="131">
+      <c r="C267" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D267" s="130"/>
+      <c r="E267" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F267" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="2:6" ht="16" customHeight="1">
-      <c r="B268" s="131" t="s">
+      <c r="G267" s="20"/>
+      <c r="H267" s="20"/>
+    </row>
+    <row r="268" spans="1:8" ht="16" customHeight="1">
+      <c r="A268" s="20"/>
+      <c r="B268" s="130" t="s">
         <v>1600</v>
       </c>
-      <c r="D268" s="131"/>
-      <c r="F268" s="131">
+      <c r="C268" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D268" s="130"/>
+      <c r="E268" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F268" s="130">
         <v>40</v>
       </c>
-    </row>
-    <row r="269" spans="2:6" ht="16" customHeight="1">
-      <c r="B269" s="131" t="s">
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
+    </row>
+    <row r="269" spans="1:8" ht="16" customHeight="1">
+      <c r="A269" s="20"/>
+      <c r="B269" s="130" t="s">
         <v>1601</v>
       </c>
-      <c r="D269" s="131"/>
-      <c r="F269" s="131">
+      <c r="C269" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D269" s="130"/>
+      <c r="E269" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F269" s="130">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="2:6" ht="16" customHeight="1">
-      <c r="B270" s="131" t="s">
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
+    </row>
+    <row r="270" spans="1:8" ht="16" customHeight="1">
+      <c r="A270" s="20"/>
+      <c r="B270" s="130" t="s">
         <v>1602</v>
       </c>
-      <c r="D270" s="131"/>
-      <c r="F270" s="131">
+      <c r="C270" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D270" s="130"/>
+      <c r="E270" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F270" s="130">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="2:6" ht="16" customHeight="1">
-      <c r="B271" s="131" t="s">
+      <c r="G270" s="20"/>
+      <c r="H270" s="20"/>
+    </row>
+    <row r="271" spans="1:8" ht="16" customHeight="1">
+      <c r="A271" s="20"/>
+      <c r="B271" s="130" t="s">
         <v>1603</v>
       </c>
-      <c r="D271" s="131"/>
-      <c r="F271" s="131">
+      <c r="C271" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D271" s="130"/>
+      <c r="E271" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F271" s="130">
         <v>40</v>
       </c>
-    </row>
-    <row r="272" spans="2:6" ht="16" customHeight="1">
-      <c r="B272" s="131" t="s">
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+    </row>
+    <row r="272" spans="1:8" ht="16" customHeight="1">
+      <c r="A272" s="20"/>
+      <c r="B272" s="130" t="s">
         <v>1604</v>
       </c>
-      <c r="D272" s="131"/>
-      <c r="F272" s="131">
+      <c r="C272" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D272" s="130"/>
+      <c r="E272" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F272" s="130">
         <v>173</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="16" customHeight="1">
-      <c r="B273" s="131" t="s">
+      <c r="G272" s="20"/>
+      <c r="H272" s="20"/>
+    </row>
+    <row r="273" spans="1:8" ht="16" customHeight="1">
+      <c r="A273" s="20"/>
+      <c r="B273" s="130" t="s">
         <v>1605</v>
       </c>
-      <c r="D273" s="131"/>
-      <c r="F273" s="131">
+      <c r="C273" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D273" s="130"/>
+      <c r="E273" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F273" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="16" customHeight="1">
-      <c r="B274" s="131" t="s">
+      <c r="G273" s="20"/>
+      <c r="H273" s="20"/>
+    </row>
+    <row r="274" spans="1:8" ht="16" customHeight="1">
+      <c r="A274" s="20"/>
+      <c r="B274" s="130" t="s">
         <v>1606</v>
       </c>
-      <c r="D274" s="131"/>
-      <c r="F274" s="131">
+      <c r="C274" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D274" s="130"/>
+      <c r="E274" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F274" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="16" customHeight="1">
-      <c r="B275" s="131" t="s">
+      <c r="G274" s="20"/>
+      <c r="H274" s="20"/>
+    </row>
+    <row r="275" spans="1:8" ht="16" customHeight="1">
+      <c r="A275" s="20"/>
+      <c r="B275" s="130" t="s">
         <v>1607</v>
       </c>
-      <c r="D275" s="131"/>
-      <c r="F275" s="131">
+      <c r="C275" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D275" s="130"/>
+      <c r="E275" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F275" s="130">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="16" customHeight="1">
-      <c r="A276" s="127" t="s">
+      <c r="G275" s="20"/>
+      <c r="H275" s="20"/>
+    </row>
+    <row r="276" spans="1:8" ht="16" customHeight="1">
+      <c r="A276" s="131" t="s">
         <v>1608</v>
       </c>
       <c r="B276" s="132" t="s">
         <v>669</v>
       </c>
-      <c r="C276" s="127"/>
-      <c r="D276" s="132"/>
-      <c r="E276" s="127"/>
+      <c r="C276" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D276" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E276" s="81" t="s">
+        <v>83</v>
+      </c>
       <c r="F276" s="132">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="16" customHeight="1">
-      <c r="B277" s="131" t="s">
+      <c r="G276" s="20"/>
+      <c r="H276" s="20"/>
+    </row>
+    <row r="277" spans="1:8" ht="16" customHeight="1">
+      <c r="A277" s="20"/>
+      <c r="B277" s="130" t="s">
         <v>670</v>
       </c>
-      <c r="D277" s="131"/>
-      <c r="F277" s="131">
+      <c r="C277" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D277" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E277" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F277" s="130">
         <v>40</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="16" customHeight="1">
-      <c r="B278" s="131" t="s">
+      <c r="G277" s="20"/>
+      <c r="H277" s="20"/>
+    </row>
+    <row r="278" spans="1:8" ht="16" customHeight="1">
+      <c r="A278" s="20"/>
+      <c r="B278" s="130" t="s">
         <v>1609</v>
       </c>
-      <c r="D278" s="131"/>
-      <c r="F278" s="131">
+      <c r="C278" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D278" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E278" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F278" s="130">
         <v>6</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="16" customHeight="1">
-      <c r="B279" s="133" t="s">
+      <c r="G278" s="20"/>
+      <c r="H278" s="20"/>
+    </row>
+    <row r="279" spans="1:8" ht="16" customHeight="1">
+      <c r="A279" s="20"/>
+      <c r="B279" s="140" t="s">
         <v>1610</v>
       </c>
-      <c r="D279" s="133"/>
-      <c r="F279" s="133">
+      <c r="C279" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E279" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F279" s="141">
         <v>32</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="16" customHeight="1">
-      <c r="A280" s="127"/>
-      <c r="B280" s="127"/>
+      <c r="G279" s="20"/>
+      <c r="H279" s="20"/>
+    </row>
+    <row r="280" spans="1:8" ht="16" customHeight="1">
+      <c r="A280" s="126"/>
+      <c r="B280" s="126"/>
       <c r="C280" s="127"/>
       <c r="D280" s="127"/>
       <c r="E280" s="127"/>
-      <c r="F280" s="127"/>
-    </row>
-    <row r="281" spans="1:6" ht="16" customHeight="1">
-      <c r="A281" s="129"/>
-      <c r="B281" s="129"/>
-      <c r="C281" s="129"/>
-      <c r="D281" s="129"/>
-      <c r="E281" s="129"/>
-      <c r="F281" s="129"/>
-    </row>
-    <row r="282" spans="1:6" ht="16" customHeight="1">
-      <c r="A282" s="129"/>
-      <c r="B282" s="129"/>
-      <c r="C282" s="129"/>
-      <c r="D282" s="129"/>
-      <c r="E282" s="129"/>
-      <c r="F282" s="129"/>
-    </row>
-    <row r="283" spans="1:6" ht="16" customHeight="1">
-      <c r="A283" s="129"/>
-      <c r="B283" s="129"/>
-      <c r="C283" s="129"/>
-      <c r="D283" s="129"/>
-      <c r="E283" s="129"/>
-      <c r="F283" s="129"/>
-    </row>
-    <row r="284" spans="1:6" ht="16" customHeight="1">
-      <c r="A284" s="129"/>
-      <c r="B284" s="129"/>
-      <c r="C284" s="129"/>
-      <c r="D284" s="129"/>
-      <c r="E284" s="129"/>
-      <c r="F284" s="129"/>
+      <c r="F280" s="126"/>
+    </row>
+    <row r="281" spans="1:8" ht="16" customHeight="1">
+      <c r="A281" s="127"/>
+      <c r="B281" s="127"/>
+      <c r="C281" s="127"/>
+      <c r="D281" s="127"/>
+      <c r="E281" s="127"/>
+      <c r="F281" s="127"/>
+    </row>
+    <row r="282" spans="1:8" ht="16" customHeight="1">
+      <c r="A282" s="127"/>
+      <c r="B282" s="127"/>
+      <c r="C282" s="127"/>
+      <c r="D282" s="127"/>
+      <c r="E282" s="127"/>
+      <c r="F282" s="127"/>
+    </row>
+    <row r="283" spans="1:8" ht="16" customHeight="1">
+      <c r="A283" s="127"/>
+      <c r="B283" s="127"/>
+      <c r="C283" s="127"/>
+      <c r="D283" s="127"/>
+      <c r="E283" s="127"/>
+      <c r="F283" s="127"/>
+    </row>
+    <row r="284" spans="1:8" ht="16" customHeight="1">
+      <c r="A284" s="127"/>
+      <c r="B284" s="127"/>
+      <c r="C284" s="127"/>
+      <c r="D284" s="127"/>
+      <c r="E284" s="127"/>
+      <c r="F284" s="127"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Cardiovascular">
+      <formula>NOT(ISERROR(SEARCH("Cardiovascular",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E223">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Cardiovascular">
+      <formula>NOT(ISERROR(SEARCH("Cardiovascular",E223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E26">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Cardiovascular">
+      <formula>NOT(ISERROR(SEARCH("Cardiovascular",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E276:E279">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Cardiovascular">
+      <formula>NOT(ISERROR(SEARCH("Cardiovascular",E276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62723,8 +64546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2DB03-2EAE-2749-A49C-27038286C702}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -62751,6 +64574,10 @@
       </c>
       <c r="E1" s="116" t="s">
         <v>61</v>
+      </c>
+      <c r="F1" s="2">
+        <f>SUM(E2:E38)</f>
+        <v>79742</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>1232</v>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA97BA5-1326-6B4D-9557-D9F7AACA5B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D32CE9-7AE3-914D-BAE2-E78BACC00E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -28742,9 +28742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -30102,8 +30102,8 @@
   <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C187" sqref="C187"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32175,13 +32175,13 @@
         <v>271</v>
       </c>
       <c r="C114" s="75" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F114" s="27">
         <v>179</v>
@@ -34788,8 +34788,8 @@
   <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36803,13 +36803,13 @@
         <v>774</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F117" s="27">
         <v>38</v>
@@ -36820,13 +36820,13 @@
         <v>775</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F118" s="27">
         <v>56</v>
@@ -36854,13 +36854,13 @@
         <v>777</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F120" s="27">
         <v>55</v>
@@ -39732,8 +39732,8 @@
   <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -41660,13 +41660,13 @@
         <v>774</v>
       </c>
       <c r="C106" s="85" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F106" s="27">
         <v>12</v>
@@ -41678,13 +41678,13 @@
         <v>775</v>
       </c>
       <c r="C107" s="85" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F107" s="27">
         <v>80</v>
@@ -41714,13 +41714,13 @@
         <v>777</v>
       </c>
       <c r="C109" s="85" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F109" s="27">
         <v>84</v>
@@ -44900,8 +44900,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -45576,13 +45576,13 @@
         <v>386</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F33" s="33">
         <v>223</v>
@@ -46916,8 +46916,8 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -47558,13 +47558,13 @@
         <v>386</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F34" s="43">
         <v>339</v>
@@ -48858,8 +48858,8 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49480,13 +49480,13 @@
         <v>386</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F33" s="57">
         <v>339</v>
@@ -55852,8 +55852,8 @@
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -61776,8 +61776,8 @@
   <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -65234,8 +65234,8 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -68845,9 +68845,9 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -72621,9 +72621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A47E31-AC46-354C-870D-B1B8F3EA8B02}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -76840,9 +76840,9 @@
   <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -78834,13 +78834,13 @@
         <v>1466</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F99" s="130">
         <v>43</v>
@@ -83597,8 +83597,8 @@
   <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C210" sqref="C210:E210"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -85596,13 +85596,13 @@
         <v>271</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F110" s="113">
         <v>139</v>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC36644E-37E3-B844-974A-AE924881DE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273557CE-36BB-9541-ADEB-81AEDC610698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12371" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12372" uniqueCount="1622">
   <si>
     <t>Notes</t>
   </si>
@@ -3220,12 +3220,6 @@
     <t>Liver Disease</t>
   </si>
   <si>
-    <t>Total Deaths</t>
-  </si>
-  <si>
-    <t>Population (Estimated)</t>
-  </si>
-  <si>
     <t>https://www.cdc.gov/nchs/data/vsus/mort90_2a.pdf</t>
   </si>
   <si>
@@ -4976,6 +4970,15 @@
   </si>
   <si>
     <t>CCB #'s</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>nDeaths</t>
   </si>
 </sst>
 </file>
@@ -5846,22 +5849,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="8" tint="0.59996337778862885"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5875,7 +5864,7 @@
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5896,7 +5885,14 @@
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5910,20 +5906,27 @@
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -30275,7 +30278,7 @@
         <v>135508</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -31278,10 +31281,10 @@
         <v>234</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>24</v>
@@ -31296,10 +31299,10 @@
         <v>964</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>24</v>
@@ -31314,10 +31317,10 @@
         <v>965</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>24</v>
@@ -31332,10 +31335,10 @@
         <v>966</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>24</v>
@@ -31350,10 +31353,10 @@
         <v>967</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>24</v>
@@ -31368,10 +31371,10 @@
         <v>968</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E62" s="26" t="s">
         <v>24</v>
@@ -31386,10 +31389,10 @@
         <v>969</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>24</v>
@@ -31404,10 +31407,10 @@
         <v>970</v>
       </c>
       <c r="C64" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>24</v>
@@ -31422,10 +31425,10 @@
         <v>971</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>24</v>
@@ -31440,10 +31443,10 @@
         <v>236</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>24</v>
@@ -31458,10 +31461,10 @@
         <v>972</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>24</v>
@@ -31476,10 +31479,10 @@
         <v>973</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>24</v>
@@ -31494,10 +31497,10 @@
         <v>974</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>24</v>
@@ -31512,10 +31515,10 @@
         <v>239</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>24</v>
@@ -32818,10 +32821,10 @@
         <v>996</v>
       </c>
       <c r="C142" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E142" s="25" t="s">
         <v>67</v>
@@ -32836,10 +32839,10 @@
         <v>183</v>
       </c>
       <c r="C143" s="82" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E143" s="25" t="s">
         <v>67</v>
@@ -32854,10 +32857,10 @@
         <v>997</v>
       </c>
       <c r="C144" s="82" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E144" s="25" t="s">
         <v>67</v>
@@ -33034,10 +33037,10 @@
         <v>291</v>
       </c>
       <c r="C154" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E154" s="25" t="s">
         <v>67</v>
@@ -33052,10 +33055,10 @@
         <v>1000</v>
       </c>
       <c r="C155" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E155" s="25" t="s">
         <v>67</v>
@@ -33070,10 +33073,10 @@
         <v>1001</v>
       </c>
       <c r="C156" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>67</v>
@@ -33088,10 +33091,10 @@
         <v>1002</v>
       </c>
       <c r="C157" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E157" s="25" t="s">
         <v>67</v>
@@ -33106,10 +33109,10 @@
         <v>295</v>
       </c>
       <c r="C158" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E158" s="25" t="s">
         <v>67</v>
@@ -33306,10 +33309,10 @@
         <v>189</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E169" s="25" t="s">
         <v>83</v>
@@ -33342,10 +33345,10 @@
         <v>191</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E171" s="25" t="s">
         <v>83</v>
@@ -33360,10 +33363,10 @@
         <v>817</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D172" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E172" s="25" t="s">
         <v>83</v>
@@ -33378,10 +33381,10 @@
         <v>193</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E173" s="25" t="s">
         <v>83</v>
@@ -33414,10 +33417,10 @@
         <v>1005</v>
       </c>
       <c r="C175" s="74" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D175" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E175" s="74" t="s">
         <v>83</v>
@@ -34958,7 +34961,7 @@
         <v>166338</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -35959,10 +35962,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="101" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D60" s="101" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E60" s="101" t="s">
         <v>24</v>
@@ -35976,10 +35979,10 @@
         <v>727</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>24</v>
@@ -35993,10 +35996,10 @@
         <v>728</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>24</v>
@@ -36010,10 +36013,10 @@
         <v>729</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>24</v>
@@ -36027,10 +36030,10 @@
         <v>730</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>24</v>
@@ -36044,10 +36047,10 @@
         <v>731</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>24</v>
@@ -36061,10 +36064,10 @@
         <v>732</v>
       </c>
       <c r="C66" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D66" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>24</v>
@@ -36078,10 +36081,10 @@
         <v>733</v>
       </c>
       <c r="C67" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D67" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>24</v>
@@ -36095,10 +36098,10 @@
         <v>734</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D68" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E68" s="27" t="s">
         <v>24</v>
@@ -36112,10 +36115,10 @@
         <v>735</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>24</v>
@@ -36146,10 +36149,10 @@
         <v>737</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E71" s="27" t="s">
         <v>24</v>
@@ -37424,10 +37427,10 @@
         <v>789</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E145" s="27" t="s">
         <v>67</v>
@@ -37441,10 +37444,10 @@
         <v>790</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>67</v>
@@ -37458,10 +37461,10 @@
         <v>791</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E147" s="27" t="s">
         <v>67</v>
@@ -37475,10 +37478,10 @@
         <v>792</v>
       </c>
       <c r="C148" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E148" s="27" t="s">
         <v>67</v>
@@ -37492,10 +37495,10 @@
         <v>793</v>
       </c>
       <c r="C149" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E149" s="27" t="s">
         <v>67</v>
@@ -37509,10 +37512,10 @@
         <v>794</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E150" s="27" t="s">
         <v>67</v>
@@ -37526,10 +37529,10 @@
         <v>795</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E151" s="27" t="s">
         <v>67</v>
@@ -37543,10 +37546,10 @@
         <v>796</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E152" s="27" t="s">
         <v>67</v>
@@ -37560,10 +37563,10 @@
         <v>562</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E153" s="27" t="s">
         <v>67</v>
@@ -37839,10 +37842,10 @@
         <v>804</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E169" s="27" t="s">
         <v>67</v>
@@ -37962,10 +37965,10 @@
         <v>809</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E176" s="27" t="s">
         <v>83</v>
@@ -38149,10 +38152,10 @@
         <v>191</v>
       </c>
       <c r="C187" s="101" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D187" s="101" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E187" s="101" t="s">
         <v>83</v>
@@ -38166,10 +38169,10 @@
         <v>817</v>
       </c>
       <c r="C188" s="101" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D188" s="101" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E188" s="101" t="s">
         <v>83</v>
@@ -38183,10 +38186,10 @@
         <v>193</v>
       </c>
       <c r="C189" s="101" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D189" s="101" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E189" s="101" t="s">
         <v>83</v>
@@ -38235,10 +38238,10 @@
         <v>819</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D192" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E192" s="29" t="s">
         <v>83</v>
@@ -39852,7 +39855,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
@@ -39904,15 +39907,15 @@
         <v>214369</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
       <c r="A2" s="27" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C2" s="82" t="s">
         <v>86</v>
@@ -39930,7 +39933,7 @@
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="27"/>
       <c r="B3" s="27" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>86</v>
@@ -39948,7 +39951,7 @@
     <row r="4" spans="1:8" ht="32">
       <c r="A4" s="27"/>
       <c r="B4" s="27" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>86</v>
@@ -39966,7 +39969,7 @@
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="27"/>
       <c r="B5" s="27" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>86</v>
@@ -39984,7 +39987,7 @@
     <row r="6" spans="1:8" ht="16">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>86</v>
@@ -40002,7 +40005,7 @@
     <row r="7" spans="1:8" ht="16">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>86</v>
@@ -40038,7 +40041,7 @@
     <row r="9" spans="1:8" ht="16">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C9" s="82" t="s">
         <v>64</v>
@@ -40110,7 +40113,7 @@
     <row r="13" spans="1:8" ht="17">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C13" s="95" t="s">
         <v>86</v>
@@ -40128,7 +40131,7 @@
     <row r="14" spans="1:8" ht="16">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>30</v>
@@ -40182,7 +40185,7 @@
     <row r="17" spans="1:6" ht="16">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>86</v>
@@ -40254,7 +40257,7 @@
     <row r="21" spans="1:6" ht="16">
       <c r="A21" s="27"/>
       <c r="B21" s="27" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>86</v>
@@ -40272,7 +40275,7 @@
     <row r="22" spans="1:6" ht="16">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>86</v>
@@ -40290,7 +40293,7 @@
     <row r="23" spans="1:6" ht="16">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>86</v>
@@ -40362,7 +40365,7 @@
     <row r="27" spans="1:6" ht="16">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>86</v>
@@ -40380,7 +40383,7 @@
     <row r="28" spans="1:6" ht="16">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>497</v>
@@ -40398,7 +40401,7 @@
     <row r="29" spans="1:6" ht="16">
       <c r="A29" s="27"/>
       <c r="B29" s="27" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>497</v>
@@ -40452,7 +40455,7 @@
     <row r="32" spans="1:6" ht="16">
       <c r="A32" s="27"/>
       <c r="B32" s="27" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>86</v>
@@ -40488,7 +40491,7 @@
     <row r="34" spans="1:6" ht="16">
       <c r="A34" s="27"/>
       <c r="B34" s="27" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>86</v>
@@ -40506,7 +40509,7 @@
     <row r="35" spans="1:6" ht="16">
       <c r="A35" s="27"/>
       <c r="B35" s="27" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>64</v>
@@ -40542,7 +40545,7 @@
     <row r="37" spans="1:6" ht="32">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C37" s="74" t="s">
         <v>86</v>
@@ -40616,7 +40619,7 @@
     <row r="41" spans="1:6" ht="32">
       <c r="A41" s="27"/>
       <c r="B41" s="27" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C41" s="98" t="s">
         <v>935</v>
@@ -40655,10 +40658,10 @@
         <v>726</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>24</v>
@@ -40673,10 +40676,10 @@
         <v>727</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>24</v>
@@ -40688,13 +40691,13 @@
     <row r="45" spans="1:6" ht="32">
       <c r="A45" s="27"/>
       <c r="B45" s="27" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>24</v>
@@ -40709,10 +40712,10 @@
         <v>730</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>24</v>
@@ -40727,10 +40730,10 @@
         <v>731</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>24</v>
@@ -40745,10 +40748,10 @@
         <v>728</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>24</v>
@@ -40760,13 +40763,13 @@
     <row r="49" spans="1:6" ht="16">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>24</v>
@@ -40778,13 +40781,13 @@
     <row r="50" spans="1:6" ht="32">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>24</v>
@@ -40796,13 +40799,13 @@
     <row r="51" spans="1:6" ht="16">
       <c r="A51" s="27"/>
       <c r="B51" s="27" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E51" s="25" t="s">
         <v>24</v>
@@ -40814,13 +40817,13 @@
     <row r="52" spans="1:6" ht="16">
       <c r="A52" s="27"/>
       <c r="B52" s="27" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>24</v>
@@ -40832,13 +40835,13 @@
     <row r="53" spans="1:6" ht="32">
       <c r="A53" s="27"/>
       <c r="B53" s="27" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>24</v>
@@ -40850,7 +40853,7 @@
     <row r="54" spans="1:6" ht="16">
       <c r="A54" s="27"/>
       <c r="B54" s="27" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>935</v>
@@ -40871,10 +40874,10 @@
         <v>737</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>24</v>
@@ -40886,7 +40889,7 @@
     <row r="56" spans="1:6" ht="48">
       <c r="A56" s="27"/>
       <c r="B56" s="27" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>83</v>
@@ -40940,7 +40943,7 @@
     <row r="59" spans="1:6" ht="32">
       <c r="A59" s="27"/>
       <c r="B59" s="27" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>1032</v>
@@ -40958,7 +40961,7 @@
     <row r="60" spans="1:6" ht="16">
       <c r="A60" s="27"/>
       <c r="B60" s="27" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C60" s="51" t="s">
         <v>935</v>
@@ -40994,7 +40997,7 @@
     <row r="62" spans="1:6" ht="16">
       <c r="A62" s="27"/>
       <c r="B62" s="27" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C62" s="51" t="s">
         <v>935</v>
@@ -41012,7 +41015,7 @@
     <row r="63" spans="1:6" ht="16">
       <c r="A63" s="27"/>
       <c r="B63" s="27" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>935</v>
@@ -41030,7 +41033,7 @@
     <row r="64" spans="1:6" ht="16">
       <c r="A64" s="27"/>
       <c r="B64" s="27" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>937</v>
@@ -41048,7 +41051,7 @@
     <row r="65" spans="1:6" ht="16">
       <c r="A65" s="27"/>
       <c r="B65" s="27" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>937</v>
@@ -41102,7 +41105,7 @@
     <row r="68" spans="1:6" ht="16">
       <c r="A68" s="27"/>
       <c r="B68" s="27" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C68" s="51" t="s">
         <v>935</v>
@@ -41156,7 +41159,7 @@
     <row r="71" spans="1:6" ht="16">
       <c r="A71" s="27"/>
       <c r="B71" s="27" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C71" s="51" t="s">
         <v>935</v>
@@ -41174,7 +41177,7 @@
     <row r="72" spans="1:6" ht="16">
       <c r="A72" s="27"/>
       <c r="B72" s="27" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C72" s="51" t="s">
         <v>935</v>
@@ -41210,7 +41213,7 @@
     <row r="74" spans="1:6" ht="32">
       <c r="A74" s="27"/>
       <c r="B74" s="27" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C74" s="51" t="s">
         <v>935</v>
@@ -41246,7 +41249,7 @@
     <row r="76" spans="1:6" ht="16">
       <c r="A76" s="27"/>
       <c r="B76" s="27" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>936</v>
@@ -41264,7 +41267,7 @@
     <row r="77" spans="1:6" ht="32">
       <c r="A77" s="27"/>
       <c r="B77" s="27" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>935</v>
@@ -41282,7 +41285,7 @@
     <row r="78" spans="1:6" ht="32">
       <c r="A78" s="27"/>
       <c r="B78" s="27" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>935</v>
@@ -41300,7 +41303,7 @@
     <row r="79" spans="1:6" ht="16">
       <c r="A79" s="27"/>
       <c r="B79" s="27" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C79" s="25" t="s">
         <v>935</v>
@@ -41354,7 +41357,7 @@
     <row r="82" spans="1:6" ht="16">
       <c r="A82" s="27"/>
       <c r="B82" s="27" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C82" s="25" t="s">
         <v>935</v>
@@ -41372,7 +41375,7 @@
     <row r="83" spans="1:6" ht="16">
       <c r="A83" s="27"/>
       <c r="B83" s="27" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>935</v>
@@ -41390,7 +41393,7 @@
     <row r="84" spans="1:6" ht="16">
       <c r="A84" s="27"/>
       <c r="B84" s="27" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C84" s="82" t="s">
         <v>538</v>
@@ -41498,7 +41501,7 @@
     <row r="90" spans="1:6" ht="16">
       <c r="A90" s="27"/>
       <c r="B90" s="27" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>944</v>
@@ -41516,7 +41519,7 @@
     <row r="91" spans="1:6" ht="16">
       <c r="A91" s="27"/>
       <c r="B91" s="27" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C91" s="25" t="s">
         <v>935</v>
@@ -41534,7 +41537,7 @@
     <row r="92" spans="1:6" ht="16">
       <c r="A92" s="27"/>
       <c r="B92" s="27" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>935</v>
@@ -41552,7 +41555,7 @@
     <row r="93" spans="1:6" ht="16">
       <c r="A93" s="27"/>
       <c r="B93" s="27" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>935</v>
@@ -41570,7 +41573,7 @@
     <row r="94" spans="1:6" ht="16">
       <c r="A94" s="29"/>
       <c r="B94" s="29" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C94" s="74" t="s">
         <v>935</v>
@@ -41587,10 +41590,10 @@
     </row>
     <row r="95" spans="1:6" ht="32">
       <c r="A95" s="27" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C95" s="98" t="s">
         <v>83</v>
@@ -41626,7 +41629,7 @@
     <row r="97" spans="1:6" ht="16">
       <c r="A97" s="27"/>
       <c r="B97" s="27" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C97" s="98" t="s">
         <v>83</v>
@@ -41644,7 +41647,7 @@
     <row r="98" spans="1:6" ht="16">
       <c r="A98" s="27"/>
       <c r="B98" s="27" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C98" s="98" t="s">
         <v>83</v>
@@ -41698,7 +41701,7 @@
     <row r="101" spans="1:6" ht="16">
       <c r="A101" s="27"/>
       <c r="B101" s="27" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C101" s="98" t="s">
         <v>14</v>
@@ -41716,7 +41719,7 @@
     <row r="102" spans="1:6" ht="32">
       <c r="A102" s="27"/>
       <c r="B102" s="27" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C102" s="98" t="s">
         <v>83</v>
@@ -41734,7 +41737,7 @@
     <row r="103" spans="1:6" ht="16">
       <c r="A103" s="27"/>
       <c r="B103" s="27" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C103" s="82" t="s">
         <v>943</v>
@@ -41752,7 +41755,7 @@
     <row r="104" spans="1:6" ht="16">
       <c r="A104" s="27"/>
       <c r="B104" s="27" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C104" s="82" t="s">
         <v>943</v>
@@ -41770,7 +41773,7 @@
     <row r="105" spans="1:6" ht="16">
       <c r="A105" s="29"/>
       <c r="B105" s="29" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C105" s="84" t="s">
         <v>943</v>
@@ -41787,7 +41790,7 @@
     </row>
     <row r="106" spans="1:6" ht="16">
       <c r="A106" s="27" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>774</v>
@@ -41826,7 +41829,7 @@
     <row r="108" spans="1:6" ht="16">
       <c r="A108" s="27"/>
       <c r="B108" s="27" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C108" s="82" t="s">
         <v>14</v>
@@ -41900,7 +41903,7 @@
         <v>684</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C112" s="82" t="s">
         <v>14</v>
@@ -41954,7 +41957,7 @@
     <row r="115" spans="1:6" ht="16">
       <c r="A115" s="27"/>
       <c r="B115" s="27" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>5</v>
@@ -41972,7 +41975,7 @@
     <row r="116" spans="1:6" ht="16">
       <c r="A116" s="27"/>
       <c r="B116" s="27" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>14</v>
@@ -41990,7 +41993,7 @@
     <row r="117" spans="1:6" ht="16">
       <c r="A117" s="27"/>
       <c r="B117" s="27" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C117" s="25" t="s">
         <v>14</v>
@@ -42046,7 +42049,7 @@
     <row r="120" spans="1:6" ht="16">
       <c r="A120" s="27"/>
       <c r="B120" s="27" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C120" s="82" t="s">
         <v>84</v>
@@ -42064,7 +42067,7 @@
     <row r="121" spans="1:6" ht="32">
       <c r="A121" s="27"/>
       <c r="B121" s="27" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C121" s="25" t="s">
         <v>84</v>
@@ -42100,7 +42103,7 @@
     <row r="123" spans="1:6" ht="16">
       <c r="A123" s="27"/>
       <c r="B123" s="27" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C123" s="82" t="s">
         <v>84</v>
@@ -42154,7 +42157,7 @@
     <row r="126" spans="1:6" ht="16">
       <c r="A126" s="27"/>
       <c r="B126" s="27" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C126" s="25" t="s">
         <v>83</v>
@@ -42172,7 +42175,7 @@
     <row r="127" spans="1:6" ht="16">
       <c r="A127" s="29"/>
       <c r="B127" s="29" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C127" s="74" t="s">
         <v>83</v>
@@ -42192,7 +42195,7 @@
         <v>105</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C128" s="82" t="s">
         <v>948</v>
@@ -42210,7 +42213,7 @@
     <row r="129" spans="1:6" ht="16">
       <c r="A129" s="27"/>
       <c r="B129" s="27" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C129" s="82" t="s">
         <v>948</v>
@@ -42228,7 +42231,7 @@
     <row r="130" spans="1:6" ht="16">
       <c r="A130" s="27"/>
       <c r="B130" s="27" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C130" s="82" t="s">
         <v>948</v>
@@ -42246,7 +42249,7 @@
     <row r="131" spans="1:6" ht="16">
       <c r="A131" s="27"/>
       <c r="B131" s="27" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C131" s="82" t="s">
         <v>948</v>
@@ -42264,7 +42267,7 @@
     <row r="132" spans="1:6" ht="16">
       <c r="A132" s="27"/>
       <c r="B132" s="27" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C132" s="82" t="s">
         <v>948</v>
@@ -42285,10 +42288,10 @@
         <v>1002</v>
       </c>
       <c r="C133" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E133" s="25" t="s">
         <v>67</v>
@@ -42303,10 +42306,10 @@
         <v>791</v>
       </c>
       <c r="C134" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>67</v>
@@ -42321,10 +42324,10 @@
         <v>792</v>
       </c>
       <c r="C135" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E135" s="25" t="s">
         <v>67</v>
@@ -42339,10 +42342,10 @@
         <v>793</v>
       </c>
       <c r="C136" s="82" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>67</v>
@@ -42357,10 +42360,10 @@
         <v>794</v>
       </c>
       <c r="C137" s="82" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>67</v>
@@ -42372,13 +42375,13 @@
     <row r="138" spans="1:6" ht="16">
       <c r="A138" s="27"/>
       <c r="B138" s="27" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C138" s="82" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>67</v>
@@ -42393,10 +42396,10 @@
         <v>562</v>
       </c>
       <c r="C139" s="82" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E139" s="25" t="s">
         <v>67</v>
@@ -42408,13 +42411,13 @@
     <row r="140" spans="1:6" ht="32">
       <c r="A140" s="27"/>
       <c r="B140" s="27" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C140" s="82" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>67</v>
@@ -42426,7 +42429,7 @@
     <row r="141" spans="1:6" ht="16">
       <c r="A141" s="27"/>
       <c r="B141" s="27" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C141" s="82" t="s">
         <v>948</v>
@@ -42462,7 +42465,7 @@
     <row r="143" spans="1:6" ht="32">
       <c r="A143" s="27"/>
       <c r="B143" s="27" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C143" s="82" t="s">
         <v>948</v>
@@ -42480,7 +42483,7 @@
     <row r="144" spans="1:6" ht="16">
       <c r="A144" s="27"/>
       <c r="B144" s="27" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C144" s="82" t="s">
         <v>948</v>
@@ -42498,7 +42501,7 @@
     <row r="145" spans="1:6" ht="16">
       <c r="A145" s="27"/>
       <c r="B145" s="27" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C145" s="82" t="s">
         <v>948</v>
@@ -42516,7 +42519,7 @@
     <row r="146" spans="1:6" ht="16">
       <c r="A146" s="27"/>
       <c r="B146" s="27" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C146" s="82" t="s">
         <v>948</v>
@@ -42534,7 +42537,7 @@
     <row r="147" spans="1:6" ht="16">
       <c r="A147" s="27"/>
       <c r="B147" s="27" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C147" s="82" t="s">
         <v>948</v>
@@ -42552,7 +42555,7 @@
     <row r="148" spans="1:6" ht="16">
       <c r="A148" s="27"/>
       <c r="B148" s="27" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C148" s="82" t="s">
         <v>948</v>
@@ -42570,7 +42573,7 @@
     <row r="149" spans="1:6" ht="16">
       <c r="A149" s="27"/>
       <c r="B149" s="27" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C149" s="82" t="s">
         <v>948</v>
@@ -42606,7 +42609,7 @@
     <row r="151" spans="1:6" ht="16">
       <c r="A151" s="27"/>
       <c r="B151" s="27" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C151" s="82" t="s">
         <v>29</v>
@@ -42624,7 +42627,7 @@
     <row r="152" spans="1:6" ht="16">
       <c r="A152" s="27"/>
       <c r="B152" s="27" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C152" s="25" t="s">
         <v>29</v>
@@ -42642,7 +42645,7 @@
     <row r="153" spans="1:6" ht="32">
       <c r="A153" s="27"/>
       <c r="B153" s="27" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C153" s="82" t="s">
         <v>29</v>
@@ -42696,7 +42699,7 @@
     <row r="156" spans="1:6" ht="16">
       <c r="A156" s="27"/>
       <c r="B156" s="27" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C156" s="25" t="s">
         <v>948</v>
@@ -42714,13 +42717,13 @@
     <row r="157" spans="1:6" ht="16">
       <c r="A157" s="27"/>
       <c r="B157" s="27" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E157" s="25" t="s">
         <v>67</v>
@@ -42732,7 +42735,7 @@
     <row r="158" spans="1:6" ht="16">
       <c r="A158" s="27"/>
       <c r="B158" s="27" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C158" s="25" t="s">
         <v>948</v>
@@ -42768,7 +42771,7 @@
     <row r="160" spans="1:6" ht="32">
       <c r="A160" s="27"/>
       <c r="B160" s="27" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C160" s="25" t="s">
         <v>948</v>
@@ -42786,7 +42789,7 @@
     <row r="161" spans="1:6" ht="32">
       <c r="A161" s="29"/>
       <c r="B161" s="29" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C161" s="74" t="s">
         <v>948</v>
@@ -42824,13 +42827,13 @@
     <row r="163" spans="1:6" ht="16">
       <c r="A163" s="27"/>
       <c r="B163" s="27" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E163" s="25" t="s">
         <v>83</v>
@@ -42845,10 +42848,10 @@
         <v>809</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E164" s="25" t="s">
         <v>83</v>
@@ -42878,7 +42881,7 @@
     <row r="166" spans="1:6" ht="16">
       <c r="A166" s="27"/>
       <c r="B166" s="27" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C166" s="25" t="s">
         <v>82</v>
@@ -42896,7 +42899,7 @@
     <row r="167" spans="1:6" ht="16">
       <c r="A167" s="27"/>
       <c r="B167" s="27" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C167" s="25" t="s">
         <v>82</v>
@@ -42914,7 +42917,7 @@
     <row r="168" spans="1:6" ht="16">
       <c r="A168" s="27"/>
       <c r="B168" s="27" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C168" s="25" t="s">
         <v>82</v>
@@ -42950,13 +42953,13 @@
     <row r="170" spans="1:6" ht="16">
       <c r="A170" s="27"/>
       <c r="B170" s="27" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E170" s="25" t="s">
         <v>83</v>
@@ -43022,7 +43025,7 @@
     <row r="174" spans="1:6" ht="16">
       <c r="A174" s="27"/>
       <c r="B174" s="27" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C174" s="25" t="s">
         <v>14</v>
@@ -43040,7 +43043,7 @@
     <row r="175" spans="1:6" ht="16">
       <c r="A175" s="27"/>
       <c r="B175" s="27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C175" s="25" t="s">
         <v>14</v>
@@ -43058,7 +43061,7 @@
     <row r="176" spans="1:6" ht="16">
       <c r="A176" s="27"/>
       <c r="B176" s="27" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C176" s="25" t="s">
         <v>82</v>
@@ -43076,13 +43079,13 @@
     <row r="177" spans="1:6" ht="16">
       <c r="A177" s="27"/>
       <c r="B177" s="27" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E177" s="25" t="s">
         <v>83</v>
@@ -43097,10 +43100,10 @@
         <v>193</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E178" s="25" t="s">
         <v>83</v>
@@ -43112,13 +43115,13 @@
     <row r="179" spans="1:6" ht="16">
       <c r="A179" s="29"/>
       <c r="B179" s="29" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C179" s="74" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D179" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E179" s="74" t="s">
         <v>83</v>
@@ -43132,7 +43135,7 @@
         <v>107</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C180" s="25" t="s">
         <v>951</v>
@@ -43150,7 +43153,7 @@
     <row r="181" spans="1:6" ht="16">
       <c r="A181" s="27"/>
       <c r="B181" s="27" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C181" s="98" t="s">
         <v>951</v>
@@ -43168,7 +43171,7 @@
     <row r="182" spans="1:6" ht="16">
       <c r="A182" s="27"/>
       <c r="B182" s="27" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C182" s="98" t="s">
         <v>951</v>
@@ -43222,7 +43225,7 @@
     <row r="185" spans="1:6" ht="16">
       <c r="A185" s="27"/>
       <c r="B185" s="27" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C185" s="98" t="s">
         <v>951</v>
@@ -43240,7 +43243,7 @@
     <row r="186" spans="1:6" ht="32">
       <c r="A186" s="27"/>
       <c r="B186" s="27" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C186" s="98" t="s">
         <v>951</v>
@@ -43258,7 +43261,7 @@
     <row r="187" spans="1:6" ht="16">
       <c r="A187" s="27"/>
       <c r="B187" s="27" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C187" s="25" t="s">
         <v>14</v>
@@ -43276,7 +43279,7 @@
     <row r="188" spans="1:6" ht="16">
       <c r="A188" s="27"/>
       <c r="B188" s="27" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C188" s="25" t="s">
         <v>951</v>
@@ -43312,7 +43315,7 @@
     <row r="190" spans="1:6" ht="16">
       <c r="A190" s="27"/>
       <c r="B190" s="27" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C190" s="25" t="s">
         <v>5</v>
@@ -43330,7 +43333,7 @@
     <row r="191" spans="1:6" ht="16">
       <c r="A191" s="27"/>
       <c r="B191" s="27" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C191" s="25" t="s">
         <v>86</v>
@@ -43348,7 +43351,7 @@
     <row r="192" spans="1:6" ht="32">
       <c r="A192" s="27"/>
       <c r="B192" s="27" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C192" s="25" t="s">
         <v>1034</v>
@@ -43366,7 +43369,7 @@
     <row r="193" spans="1:6" ht="16">
       <c r="A193" s="27"/>
       <c r="B193" s="27" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C193" s="25" t="s">
         <v>1034</v>
@@ -43384,7 +43387,7 @@
     <row r="194" spans="1:6" ht="16">
       <c r="A194" s="29"/>
       <c r="B194" s="29" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C194" s="74" t="s">
         <v>951</v>
@@ -43401,10 +43404,10 @@
     </row>
     <row r="195" spans="1:6" ht="16">
       <c r="A195" s="27" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C195" s="25" t="s">
         <v>938</v>
@@ -43440,7 +43443,7 @@
     <row r="197" spans="1:6" ht="32">
       <c r="A197" s="27"/>
       <c r="B197" s="27" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C197" s="25" t="s">
         <v>938</v>
@@ -43458,7 +43461,7 @@
     <row r="198" spans="1:6" ht="32">
       <c r="A198" s="27"/>
       <c r="B198" s="27" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C198" s="25" t="s">
         <v>938</v>
@@ -43494,7 +43497,7 @@
     <row r="200" spans="1:6" ht="16">
       <c r="A200" s="27"/>
       <c r="B200" s="27" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C200" s="82" t="s">
         <v>939</v>
@@ -43512,7 +43515,7 @@
     <row r="201" spans="1:6" ht="16">
       <c r="A201" s="27"/>
       <c r="B201" s="27" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C201" s="82" t="s">
         <v>939</v>
@@ -43584,7 +43587,7 @@
     <row r="205" spans="1:6" ht="16">
       <c r="A205" s="29"/>
       <c r="B205" s="29" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C205" s="84" t="s">
         <v>939</v>
@@ -43640,7 +43643,7 @@
     <row r="208" spans="1:6" ht="16">
       <c r="A208" s="27"/>
       <c r="B208" s="27" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C208" s="82" t="s">
         <v>940</v>
@@ -43658,7 +43661,7 @@
     <row r="209" spans="1:6" ht="16">
       <c r="A209" s="27"/>
       <c r="B209" s="27" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C209" s="82" t="s">
         <v>940</v>
@@ -43676,7 +43679,7 @@
     <row r="210" spans="1:6" ht="16">
       <c r="A210" s="27"/>
       <c r="B210" s="27" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C210" s="82" t="s">
         <v>940</v>
@@ -43712,7 +43715,7 @@
     <row r="212" spans="1:6" ht="16">
       <c r="A212" s="27"/>
       <c r="B212" s="27" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C212" s="82" t="s">
         <v>940</v>
@@ -43730,7 +43733,7 @@
     <row r="213" spans="1:6" ht="16">
       <c r="A213" s="27"/>
       <c r="B213" s="27" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C213" s="82" t="s">
         <v>940</v>
@@ -43748,7 +43751,7 @@
     <row r="214" spans="1:6" ht="16">
       <c r="A214" s="27"/>
       <c r="B214" s="27" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C214" s="82" t="s">
         <v>940</v>
@@ -43766,7 +43769,7 @@
     <row r="215" spans="1:6" ht="16">
       <c r="A215" s="27"/>
       <c r="B215" s="27" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C215" s="82" t="s">
         <v>940</v>
@@ -43784,7 +43787,7 @@
     <row r="216" spans="1:6" ht="16">
       <c r="A216" s="27"/>
       <c r="B216" s="27" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C216" s="82" t="s">
         <v>940</v>
@@ -43802,7 +43805,7 @@
     <row r="217" spans="1:6" ht="16">
       <c r="A217" s="29"/>
       <c r="B217" s="29" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C217" s="84" t="s">
         <v>940</v>
@@ -43840,7 +43843,7 @@
     <row r="219" spans="1:6" ht="16">
       <c r="A219" s="29"/>
       <c r="B219" s="29" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C219" s="74" t="s">
         <v>83</v>
@@ -43860,7 +43863,7 @@
         <v>689</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C220" s="25" t="s">
         <v>14</v>
@@ -43878,7 +43881,7 @@
     <row r="221" spans="1:6" ht="16">
       <c r="A221" s="27"/>
       <c r="B221" s="27" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C221" s="82" t="s">
         <v>14</v>
@@ -43896,7 +43899,7 @@
     <row r="222" spans="1:6" ht="16">
       <c r="A222" s="27"/>
       <c r="B222" s="27" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C222" s="82" t="s">
         <v>14</v>
@@ -43914,7 +43917,7 @@
     <row r="223" spans="1:6" ht="16">
       <c r="A223" s="27"/>
       <c r="B223" s="27" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C223" s="82" t="s">
         <v>14</v>
@@ -43932,7 +43935,7 @@
     <row r="224" spans="1:6" ht="32">
       <c r="A224" s="29"/>
       <c r="B224" s="29" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C224" s="84" t="s">
         <v>14</v>
@@ -43952,7 +43955,7 @@
         <v>690</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C225" s="98" t="s">
         <v>14</v>
@@ -43970,7 +43973,7 @@
     <row r="226" spans="1:6" ht="16">
       <c r="A226" s="27"/>
       <c r="B226" s="27" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C226" s="98" t="s">
         <v>14</v>
@@ -44041,10 +44044,10 @@
     </row>
     <row r="230" spans="1:6" ht="16">
       <c r="A230" s="27" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C230" s="85" t="s">
         <v>940</v>
@@ -44062,7 +44065,7 @@
     <row r="231" spans="1:6" ht="32">
       <c r="A231" s="27"/>
       <c r="B231" s="27" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C231" s="82" t="s">
         <v>940</v>
@@ -44080,7 +44083,7 @@
     <row r="232" spans="1:6" ht="16">
       <c r="A232" s="29"/>
       <c r="B232" s="29" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C232" s="84" t="s">
         <v>940</v>
@@ -44097,7 +44100,7 @@
     </row>
     <row r="233" spans="1:6" ht="16">
       <c r="A233" s="27" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B233" s="27" t="s">
         <v>331</v>
@@ -44118,7 +44121,7 @@
     <row r="234" spans="1:6" ht="16">
       <c r="A234" s="29"/>
       <c r="B234" s="29" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C234" s="84" t="s">
         <v>83</v>
@@ -44135,7 +44138,7 @@
     </row>
     <row r="235" spans="1:6" ht="32">
       <c r="A235" s="27" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B235" s="27" t="s">
         <v>333</v>
@@ -44156,7 +44159,7 @@
     <row r="236" spans="1:6" ht="16">
       <c r="A236" s="27"/>
       <c r="B236" s="27" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C236" s="82" t="s">
         <v>947</v>
@@ -44174,7 +44177,7 @@
     <row r="237" spans="1:6" ht="32">
       <c r="A237" s="27"/>
       <c r="B237" s="27" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C237" s="82" t="s">
         <v>947</v>
@@ -44192,7 +44195,7 @@
     <row r="238" spans="1:6" ht="32">
       <c r="A238" s="27"/>
       <c r="B238" s="27" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C238" s="82" t="s">
         <v>947</v>
@@ -44210,7 +44213,7 @@
     <row r="239" spans="1:6" ht="32">
       <c r="A239" s="27"/>
       <c r="B239" s="27" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C239" s="25" t="s">
         <v>947</v>
@@ -44228,7 +44231,7 @@
     <row r="240" spans="1:6" ht="32">
       <c r="A240" s="27"/>
       <c r="B240" s="27" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C240" s="25" t="s">
         <v>947</v>
@@ -44318,7 +44321,7 @@
     <row r="245" spans="1:6" ht="16">
       <c r="A245" s="27"/>
       <c r="B245" s="27" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C245" s="25" t="s">
         <v>85</v>
@@ -44336,7 +44339,7 @@
     <row r="246" spans="1:6" ht="16">
       <c r="A246" s="27"/>
       <c r="B246" s="27" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C246" s="25" t="s">
         <v>85</v>
@@ -44354,7 +44357,7 @@
     <row r="247" spans="1:6" ht="16">
       <c r="A247" s="27"/>
       <c r="B247" s="27" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C247" s="25" t="s">
         <v>85</v>
@@ -44372,7 +44375,7 @@
     <row r="248" spans="1:6" ht="16">
       <c r="A248" s="27"/>
       <c r="B248" s="27" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C248" s="25" t="s">
         <v>85</v>
@@ -44408,7 +44411,7 @@
     <row r="250" spans="1:6" ht="32">
       <c r="A250" s="27"/>
       <c r="B250" s="27" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C250" s="25" t="s">
         <v>85</v>
@@ -44462,7 +44465,7 @@
     <row r="253" spans="1:6" ht="32">
       <c r="A253" s="27"/>
       <c r="B253" s="27" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>85</v>
@@ -44480,7 +44483,7 @@
     <row r="254" spans="1:6" ht="16">
       <c r="A254" s="27"/>
       <c r="B254" s="27" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>85</v>
@@ -44534,7 +44537,7 @@
     <row r="257" spans="1:6" ht="32">
       <c r="A257" s="27"/>
       <c r="B257" s="27" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C257" s="25" t="s">
         <v>85</v>
@@ -44552,7 +44555,7 @@
     <row r="258" spans="1:6" ht="16">
       <c r="A258" s="27"/>
       <c r="B258" s="27" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C258" s="25" t="s">
         <v>85</v>
@@ -44570,7 +44573,7 @@
     <row r="259" spans="1:6" ht="16">
       <c r="A259" s="27"/>
       <c r="B259" s="27" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C259" s="25" t="s">
         <v>85</v>
@@ -44606,7 +44609,7 @@
     <row r="261" spans="1:6" ht="32">
       <c r="A261" s="27"/>
       <c r="B261" s="27" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C261" s="25" t="s">
         <v>85</v>
@@ -44642,7 +44645,7 @@
     <row r="263" spans="1:6" ht="16">
       <c r="A263" s="27"/>
       <c r="B263" s="27" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C263" s="25" t="s">
         <v>85</v>
@@ -44660,7 +44663,7 @@
     <row r="264" spans="1:6" ht="32">
       <c r="A264" s="27"/>
       <c r="B264" s="27" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C264" s="25" t="s">
         <v>85</v>
@@ -44678,7 +44681,7 @@
     <row r="265" spans="1:6" ht="16">
       <c r="A265" s="27"/>
       <c r="B265" s="27" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C265" s="25" t="s">
         <v>63</v>
@@ -44696,7 +44699,7 @@
     <row r="266" spans="1:6" ht="16">
       <c r="A266" s="27"/>
       <c r="B266" s="27" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C266" s="25" t="s">
         <v>63</v>
@@ -44714,7 +44717,7 @@
     <row r="267" spans="1:6" ht="16">
       <c r="A267" s="27"/>
       <c r="B267" s="27" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C267" s="25" t="s">
         <v>63</v>
@@ -44750,7 +44753,7 @@
     <row r="269" spans="1:6" ht="16">
       <c r="A269" s="27"/>
       <c r="B269" s="27" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C269" s="25" t="s">
         <v>63</v>
@@ -44768,7 +44771,7 @@
     <row r="270" spans="1:6" ht="16">
       <c r="A270" s="27"/>
       <c r="B270" s="27" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C270" s="25" t="s">
         <v>63</v>
@@ -44786,7 +44789,7 @@
     <row r="271" spans="1:6" ht="16">
       <c r="A271" s="27"/>
       <c r="B271" s="27" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C271" s="25" t="s">
         <v>63</v>
@@ -44804,7 +44807,7 @@
     <row r="272" spans="1:6" ht="16">
       <c r="A272" s="27"/>
       <c r="B272" s="27" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C272" s="25" t="s">
         <v>54</v>
@@ -44822,7 +44825,7 @@
     <row r="273" spans="1:6" ht="32">
       <c r="A273" s="27"/>
       <c r="B273" s="27" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C273" s="25" t="s">
         <v>54</v>
@@ -44840,7 +44843,7 @@
     <row r="274" spans="1:6" ht="32">
       <c r="A274" s="27"/>
       <c r="B274" s="27" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C274" s="25" t="s">
         <v>54</v>
@@ -44858,7 +44861,7 @@
     <row r="275" spans="1:6" ht="32">
       <c r="A275" s="27"/>
       <c r="B275" s="27" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C275" s="25" t="s">
         <v>54</v>
@@ -44876,7 +44879,7 @@
     <row r="276" spans="1:6" ht="16">
       <c r="A276" s="27"/>
       <c r="B276" s="27" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C276" s="25" t="s">
         <v>54</v>
@@ -44894,7 +44897,7 @@
     <row r="277" spans="1:6" ht="32">
       <c r="A277" s="27"/>
       <c r="B277" s="27" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C277" s="25" t="s">
         <v>54</v>
@@ -44912,7 +44915,7 @@
     <row r="278" spans="1:6" ht="32">
       <c r="A278" s="27"/>
       <c r="B278" s="27" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C278" s="25" t="s">
         <v>85</v>
@@ -44930,7 +44933,7 @@
     <row r="279" spans="1:6" ht="32">
       <c r="A279" s="27"/>
       <c r="B279" s="27" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C279" s="25" t="s">
         <v>85</v>
@@ -44948,7 +44951,7 @@
     <row r="280" spans="1:6" ht="32">
       <c r="A280" s="27"/>
       <c r="B280" s="27" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C280" s="25" t="s">
         <v>85</v>
@@ -44966,7 +44969,7 @@
     <row r="281" spans="1:6" ht="32">
       <c r="A281" s="27"/>
       <c r="B281" s="27" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C281" s="25" t="s">
         <v>85</v>
@@ -44984,7 +44987,7 @@
     <row r="282" spans="1:6" ht="32">
       <c r="A282" s="27"/>
       <c r="B282" s="27" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C282" s="25" t="s">
         <v>85</v>
@@ -45032,9 +45035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J85" sqref="J85"/>
+    <sheetView zoomScale="110" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -45069,7 +45072,7 @@
         <v>61</v>
       </c>
       <c r="G1" s="148" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H1" s="148"/>
       <c r="I1" s="93">
@@ -45077,7 +45080,7 @@
         <v>229697</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16">
@@ -45356,10 +45359,10 @@
         <v>390</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>24</v>
@@ -45376,10 +45379,10 @@
         <v>391</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>24</v>
@@ -45396,10 +45399,10 @@
         <v>392</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>24</v>
@@ -45416,10 +45419,10 @@
         <v>393</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E15" s="49" t="s">
         <v>24</v>
@@ -45954,10 +45957,10 @@
         <v>421</v>
       </c>
       <c r="C41" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D41" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>67</v>
@@ -45974,10 +45977,10 @@
         <v>422</v>
       </c>
       <c r="C42" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D42" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>67</v>
@@ -45994,10 +45997,10 @@
         <v>423</v>
       </c>
       <c r="C43" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D43" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>67</v>
@@ -46014,10 +46017,10 @@
         <v>424</v>
       </c>
       <c r="C44" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D44" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>67</v>
@@ -46036,10 +46039,10 @@
         <v>425</v>
       </c>
       <c r="C45" s="151" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D45" s="151" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E45" s="49" t="s">
         <v>67</v>
@@ -46056,10 +46059,10 @@
         <v>426</v>
       </c>
       <c r="C46" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D46" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E46" s="49" t="s">
         <v>67</v>
@@ -46158,10 +46161,10 @@
         <v>431</v>
       </c>
       <c r="C51" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D51" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>67</v>
@@ -46200,10 +46203,10 @@
         <v>433</v>
       </c>
       <c r="C53" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D53" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>67</v>
@@ -46326,10 +46329,10 @@
         <v>386</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>88</v>
@@ -46474,10 +46477,10 @@
         <v>386</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E66" s="43" t="s">
         <v>83</v>
@@ -47260,22 +47263,22 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576 G1:H1">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Cancer">
-      <formula>NOT(ISERROR(SEARCH("Cancer",E1)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Injury">
+      <formula>NOT(ISERROR(SEARCH("Injury",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Communicable">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Other Chronic">
+      <formula>NOT(ISERROR(SEARCH("Other Chronic",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Communicable">
       <formula>NOT(ISERROR(SEARCH("Communicable",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Other Chronic">
-      <formula>NOT(ISERROR(SEARCH("Other Chronic",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Injury">
-      <formula>NOT(ISERROR(SEARCH("Injury",E1)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Cancer">
+      <formula>NOT(ISERROR(SEARCH("Cancer",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47325,7 +47328,7 @@
         <v>234840</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -47530,10 +47533,10 @@
         <v>390</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>24</v>
@@ -47548,10 +47551,10 @@
         <v>391</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>24</v>
@@ -47566,10 +47569,10 @@
         <v>392</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>24</v>
@@ -47584,10 +47587,10 @@
         <v>393</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E15" s="49" t="s">
         <v>24</v>
@@ -47869,7 +47872,7 @@
     <row r="31" spans="1:6" ht="32">
       <c r="A31" s="48"/>
       <c r="B31" s="51" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C31" s="49" t="s">
         <v>935</v>
@@ -48089,10 +48092,10 @@
         <v>421</v>
       </c>
       <c r="C42" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D42" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>67</v>
@@ -48108,10 +48111,10 @@
         <v>422</v>
       </c>
       <c r="C43" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D43" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>67</v>
@@ -48127,10 +48130,10 @@
         <v>423</v>
       </c>
       <c r="C44" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D44" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>67</v>
@@ -48146,10 +48149,10 @@
         <v>424</v>
       </c>
       <c r="C45" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D45" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E45" s="49" t="s">
         <v>67</v>
@@ -48167,10 +48170,10 @@
         <v>425</v>
       </c>
       <c r="C46" s="151" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E46" s="49" t="s">
         <v>67</v>
@@ -48186,10 +48189,10 @@
         <v>426</v>
       </c>
       <c r="C47" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D47" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>67</v>
@@ -48283,10 +48286,10 @@
         <v>431</v>
       </c>
       <c r="C52" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D52" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E52" s="49" t="s">
         <v>67</v>
@@ -48323,10 +48326,10 @@
         <v>433</v>
       </c>
       <c r="C54" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D54" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>67</v>
@@ -48441,10 +48444,10 @@
         <v>386</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E60" s="40" t="s">
         <v>88</v>
@@ -48529,7 +48532,7 @@
     </row>
     <row r="65" spans="1:6" ht="16">
       <c r="A65" s="43" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>386</v>
@@ -48575,10 +48578,10 @@
         <v>386</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E67" s="43" t="s">
         <v>83</v>
@@ -49251,21 +49254,21 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Injury">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Injury">
       <formula>NOT(ISERROR(SEARCH("Injury",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Other Chronic">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Other Chronic">
       <formula>NOT(ISERROR(SEARCH("Other Chronic",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Communicable">
       <formula>NOT(ISERROR(SEARCH("Communicable",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Cancer">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Cancer">
       <formula>NOT(ISERROR(SEARCH("Cancer",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49316,7 +49319,7 @@
         <v>269417</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -49501,10 +49504,10 @@
         <v>390</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>24</v>
@@ -49519,10 +49522,10 @@
         <v>391</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>24</v>
@@ -49537,10 +49540,10 @@
         <v>392</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>24</v>
@@ -49555,10 +49558,10 @@
         <v>393</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>24</v>
@@ -49840,7 +49843,7 @@
     <row r="30" spans="1:6" ht="32">
       <c r="A30" s="26"/>
       <c r="B30" s="51" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C30" s="49" t="s">
         <v>935</v>
@@ -50060,10 +50063,10 @@
         <v>421</v>
       </c>
       <c r="C41" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D41" s="170" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>67</v>
@@ -50079,10 +50082,10 @@
         <v>422</v>
       </c>
       <c r="C42" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D42" s="170" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>67</v>
@@ -50098,10 +50101,10 @@
         <v>423</v>
       </c>
       <c r="C43" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D43" s="171" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>67</v>
@@ -50117,10 +50120,10 @@
         <v>424</v>
       </c>
       <c r="C44" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D44" s="171" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>67</v>
@@ -50138,10 +50141,10 @@
         <v>425</v>
       </c>
       <c r="C45" s="151" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D45" s="172" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E45" s="49" t="s">
         <v>67</v>
@@ -50157,10 +50160,10 @@
         <v>426</v>
       </c>
       <c r="C46" s="154" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D46" s="171" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E46" s="49" t="s">
         <v>67</v>
@@ -50254,10 +50257,10 @@
         <v>431</v>
       </c>
       <c r="C51" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D51" s="170" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>67</v>
@@ -50294,10 +50297,10 @@
         <v>433</v>
       </c>
       <c r="C53" s="150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D53" s="170" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>67</v>
@@ -50412,10 +50415,10 @@
         <v>386</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E59" s="49" t="s">
         <v>88</v>
@@ -50500,7 +50503,7 @@
     </row>
     <row r="64" spans="1:7" ht="16">
       <c r="A64" s="57" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>386</v>
@@ -50546,10 +50549,10 @@
         <v>386</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E66" s="43" t="s">
         <v>83</v>
@@ -51379,16 +51382,16 @@
         <v>1917</v>
       </c>
       <c r="B4" s="76" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D4" s="71" t="s">
         <v>1263</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>1265</v>
-      </c>
       <c r="E4" s="71" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -51399,16 +51402,16 @@
         <v>1918</v>
       </c>
       <c r="B5" s="76" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D5" s="75" t="s">
         <v>1277</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>1279</v>
-      </c>
       <c r="E5" s="75" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -51445,19 +51448,19 @@
         <v>1929</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D7" s="80" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F7" s="80" t="s">
         <v>1393</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>1395</v>
       </c>
       <c r="G7" s="80" t="s">
         <v>679</v>
@@ -51469,12 +51472,12 @@
         <v>1939</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C8" s="121"/>
       <c r="D8" s="80"/>
       <c r="E8" s="122" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
@@ -51491,7 +51494,7 @@
         <v>888</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>941</v>
@@ -51583,10 +51586,10 @@
         <v>883</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -51597,16 +51600,16 @@
         <v>1990</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>1037</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="E14" s="38" t="s">
         <v>1038</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>1040</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -51617,7 +51620,7 @@
         <v>2000</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>375</v>
@@ -51643,7 +51646,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>375</v>
@@ -51658,7 +51661,7 @@
         <v>493</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H16" s="38"/>
     </row>
@@ -51667,7 +51670,7 @@
         <v>2018</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>375</v>
@@ -51682,7 +51685,7 @@
         <v>493</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H17" s="38"/>
     </row>
@@ -52037,7 +52040,7 @@
         <v>206</v>
       </c>
       <c r="AC4" s="146" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="AD4" s="13">
         <v>215</v>
@@ -52075,7 +52078,7 @@
     </row>
     <row r="5" spans="2:45">
       <c r="B5" s="12" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C5" s="13">
         <v>9632</v>
@@ -52173,31 +52176,31 @@
         <v>1113</v>
       </c>
       <c r="E6" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F6" s="13">
         <v>251</v>
       </c>
       <c r="H6" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I6" s="13">
         <v>407</v>
       </c>
       <c r="K6" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="L6" s="13">
         <v>474</v>
       </c>
       <c r="N6" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="O6" s="13">
         <v>517</v>
       </c>
       <c r="Q6" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="R6" s="13">
         <v>983</v>
@@ -52227,7 +52230,7 @@
         <v>2118</v>
       </c>
       <c r="AF6" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AG6" s="13">
         <v>3950</v>
@@ -52307,13 +52310,13 @@
         <v>11211</v>
       </c>
       <c r="Z7" s="146" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AA7" s="13">
         <v>2169</v>
       </c>
       <c r="AC7" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AD7" s="13">
         <v>3076</v>
@@ -52331,19 +52334,19 @@
         <v>13758</v>
       </c>
       <c r="AL7" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AM7" s="13">
         <v>5245</v>
       </c>
       <c r="AO7" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AP7" s="13">
         <v>5243</v>
       </c>
       <c r="AR7" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AS7" s="13">
         <v>5468</v>
@@ -52449,31 +52452,31 @@
         <v>4353</v>
       </c>
       <c r="E9" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F9" s="13">
         <v>819</v>
       </c>
       <c r="H9" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I9" s="13">
         <v>1216</v>
       </c>
       <c r="K9" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="L9" s="13">
         <v>1252</v>
       </c>
       <c r="N9" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="O9" s="13">
         <v>1424</v>
       </c>
       <c r="Q9" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="R9" s="13">
         <v>2158</v>
@@ -52541,19 +52544,19 @@
         <v>766</v>
       </c>
       <c r="E10" s="146" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F10" s="13">
         <v>2</v>
       </c>
       <c r="H10" s="146" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I10" s="13">
         <v>1</v>
       </c>
       <c r="K10" s="146" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="L10" s="13">
         <v>3</v>
@@ -52565,13 +52568,13 @@
         <v>11493</v>
       </c>
       <c r="Q10" s="146" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="R10" s="13">
         <v>1</v>
       </c>
       <c r="T10" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="U10" s="13">
         <v>375</v>
@@ -52595,13 +52598,13 @@
         <v>7636</v>
       </c>
       <c r="AF10" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AG10" s="13">
         <v>1666</v>
       </c>
       <c r="AI10" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AJ10" s="13">
         <v>2537</v>
@@ -52651,7 +52654,7 @@
         <v>10695</v>
       </c>
       <c r="N11" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="O11" s="13">
         <v>397</v>
@@ -52663,7 +52666,7 @@
         <v>20018</v>
       </c>
       <c r="T11" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="U11" s="13">
         <v>2169</v>
@@ -52675,13 +52678,13 @@
         <v>1747</v>
       </c>
       <c r="Z11" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AA11" s="13">
         <v>686</v>
       </c>
       <c r="AC11" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AD11" s="13">
         <v>1159</v>
@@ -52699,19 +52702,19 @@
         <v>3002</v>
       </c>
       <c r="AL11" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AM11" s="13">
         <v>2884</v>
       </c>
       <c r="AO11" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AP11" s="13">
         <v>3818</v>
       </c>
       <c r="AR11" s="146" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AS11" s="13">
         <v>4546</v>
@@ -52725,19 +52728,19 @@
         <v>9041</v>
       </c>
       <c r="E12" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F12" s="13">
         <v>185</v>
       </c>
       <c r="H12" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I12" s="13">
         <v>284</v>
       </c>
       <c r="K12" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="L12" s="13">
         <v>303</v>
@@ -52749,7 +52752,7 @@
         <v>7915</v>
       </c>
       <c r="Q12" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="R12" s="13">
         <v>1190</v>
@@ -52779,13 +52782,13 @@
         <v>1055</v>
       </c>
       <c r="AF12" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AG12" s="13">
         <v>1650</v>
       </c>
       <c r="AI12" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AJ12" s="13">
         <v>2581</v>
@@ -52847,7 +52850,7 @@
         <v>14407</v>
       </c>
       <c r="T13" s="146" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="U13" s="13">
         <v>1935</v>
@@ -52859,13 +52862,13 @@
         <v>3879</v>
       </c>
       <c r="Z13" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AA13" s="13">
         <v>2131</v>
       </c>
       <c r="AC13" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AD13" s="13">
         <v>2335</v>
@@ -52877,25 +52880,25 @@
         <v>195</v>
       </c>
       <c r="AI13" s="146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AJ13" s="13">
         <v>5267</v>
       </c>
       <c r="AL13" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AM13" s="13">
         <v>3305</v>
       </c>
       <c r="AO13" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AP13" s="13">
         <v>4301</v>
       </c>
       <c r="AR13" s="146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AS13" s="13">
         <v>5189</v>
@@ -52939,7 +52942,7 @@
         <v>4421</v>
       </c>
       <c r="T14" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="U14" s="13">
         <v>5973</v>
@@ -52951,13 +52954,13 @@
         <v>8415</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="AA14" s="13">
         <v>27636</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="AD14" s="13">
         <v>35866</v>
@@ -53067,19 +53070,19 @@
         <v>17184</v>
       </c>
       <c r="AL15" s="146" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AM15" s="13">
         <v>16025</v>
       </c>
       <c r="AO15" s="146" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AP15" s="13">
         <v>15678</v>
       </c>
       <c r="AR15" s="146" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AS15" s="13">
         <v>19818</v>
@@ -53159,19 +53162,19 @@
         <v>198</v>
       </c>
       <c r="AL16" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AM16" s="13">
         <v>45017</v>
       </c>
       <c r="AO16" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AP16" s="13">
         <v>32979</v>
       </c>
       <c r="AR16" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AS16" s="13">
         <v>30144</v>
@@ -53239,7 +53242,7 @@
         <v>723</v>
       </c>
       <c r="AF17" s="146" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AG17" s="13">
         <v>4162</v>
@@ -53331,7 +53334,7 @@
         <v>1775</v>
       </c>
       <c r="AF18" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AG18" s="13">
         <v>56194</v>
@@ -53509,7 +53512,7 @@
         <v>3567</v>
       </c>
       <c r="AC20" s="146" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="AD20" s="13">
         <v>25792</v>
@@ -53731,7 +53734,7 @@
     </row>
     <row r="23" spans="2:45">
       <c r="B23" s="146" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C23" s="13">
         <v>229</v>
@@ -53895,19 +53898,19 @@
         <v>4884</v>
       </c>
       <c r="AL24" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AM24" s="13">
         <v>33</v>
       </c>
       <c r="AO24" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AP24" s="13">
         <v>18</v>
       </c>
       <c r="AR24" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AS24" s="13">
         <v>28</v>
@@ -53915,7 +53918,7 @@
     </row>
     <row r="25" spans="2:45">
       <c r="B25" s="146" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C25" s="13">
         <v>466</v>
@@ -54865,7 +54868,7 @@
         <v>400</v>
       </c>
       <c r="N36" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="O36" s="13">
         <v>444</v>
@@ -54901,7 +54904,7 @@
         <v>279</v>
       </c>
       <c r="AI36" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AJ36" s="13">
         <v>1680</v>
@@ -54913,7 +54916,7 @@
         <v>12</v>
       </c>
       <c r="AO36" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AP36" s="13">
         <v>2272</v>
@@ -54927,19 +54930,19 @@
     </row>
     <row r="37" spans="5:45">
       <c r="E37" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F37" s="13">
         <v>419</v>
       </c>
       <c r="H37" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I37" s="13">
         <v>421</v>
       </c>
       <c r="K37" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="L37" s="13">
         <v>426</v>
@@ -54951,7 +54954,7 @@
         <v>3540</v>
       </c>
       <c r="Q37" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="R37" s="13">
         <v>540</v>
@@ -54987,7 +54990,7 @@
         <v>482</v>
       </c>
       <c r="AL37" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AM37" s="13">
         <v>1928</v>
@@ -54999,7 +55002,7 @@
         <v>7017</v>
       </c>
       <c r="AR37" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AS37" s="13">
         <v>2952</v>
@@ -55037,7 +55040,7 @@
         <v>4219</v>
       </c>
       <c r="T38" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="U38" s="13">
         <v>437</v>
@@ -55207,13 +55210,13 @@
         <v>21618</v>
       </c>
       <c r="AC40" s="146" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="AD40" s="13">
         <v>30179</v>
       </c>
       <c r="AF40" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AG40" s="13">
         <v>1181</v>
@@ -55439,13 +55442,13 @@
         <v>1622</v>
       </c>
       <c r="Z43" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AA43" s="13">
         <v>879</v>
       </c>
       <c r="AC43" s="146" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AD43" s="13">
         <v>1408</v>
@@ -55991,7 +55994,7 @@
         <v>166338</v>
       </c>
       <c r="AI52" s="146" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AJ52" s="13">
         <v>5727</v>
@@ -55999,7 +56002,7 @@
     </row>
     <row r="53" spans="5:45">
       <c r="AI53" s="146" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AJ53" s="13">
         <v>46381</v>
@@ -56022,8 +56025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6088356-EAF0-3047-99CA-B8AF6FB8D417}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -56035,17 +56038,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="32">
+      <c r="A1" s="20" t="s">
+        <v>1619</v>
+      </c>
       <c r="B1" s="20" t="s">
-        <v>1035</v>
+        <v>1621</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1036</v>
+        <v>1620</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -56093,7 +56099,7 @@
         <v>1380.2759429415073</v>
       </c>
       <c r="E4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -56171,7 +56177,7 @@
         <v>1154.4452337765351</v>
       </c>
       <c r="E9" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -56189,7 +56195,7 @@
         <v>932.91063299913492</v>
       </c>
       <c r="E10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -56207,7 +56213,7 @@
         <v>862.16352475923827</v>
       </c>
       <c r="E11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -56225,7 +56231,7 @@
         <v>833.64347675908959</v>
       </c>
       <c r="E12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -56243,7 +56249,7 @@
         <v>788.51095462538251</v>
       </c>
       <c r="E13" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -56261,7 +56267,7 @@
         <v>720.32543256605902</v>
       </c>
       <c r="E14" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -56279,7 +56285,7 @@
         <v>678.1394279959452</v>
       </c>
       <c r="E15" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -56297,7 +56303,7 @@
         <v>628.76574360853226</v>
       </c>
       <c r="E16" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -56315,7 +56321,7 @@
         <v>681.08474735663401</v>
       </c>
       <c r="E17" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
   </sheetData>
@@ -56376,7 +56382,7 @@
         <v>32400</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16">
@@ -57488,10 +57494,10 @@
         <v>897</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>24</v>
@@ -57517,10 +57523,10 @@
         <v>898</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>24</v>
@@ -58727,10 +58733,10 @@
         <v>562</v>
       </c>
       <c r="C84" s="82" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>67</v>
@@ -58753,7 +58759,7 @@
     <row r="85" spans="1:9" ht="16">
       <c r="A85" s="26"/>
       <c r="B85" s="27" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C85" s="82" t="s">
         <v>948</v>
@@ -58903,10 +58909,10 @@
         <v>566</v>
       </c>
       <c r="C90" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>83</v>
@@ -58930,10 +58936,10 @@
         <v>567</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>83</v>
@@ -58988,10 +58994,10 @@
         <v>189</v>
       </c>
       <c r="C93" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>83</v>
@@ -59133,10 +59139,10 @@
         <v>193</v>
       </c>
       <c r="C98" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>83</v>
@@ -59162,10 +59168,10 @@
         <v>571</v>
       </c>
       <c r="C99" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>83</v>
@@ -59191,10 +59197,10 @@
         <v>572</v>
       </c>
       <c r="C100" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>83</v>
@@ -59278,10 +59284,10 @@
         <v>574</v>
       </c>
       <c r="C103" s="84" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>83</v>
@@ -59713,10 +59719,10 @@
         <v>585</v>
       </c>
       <c r="C118" s="82" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>24</v>
@@ -60083,7 +60089,7 @@
     <row r="131" spans="1:9" ht="16">
       <c r="A131" s="26"/>
       <c r="B131" s="27" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C131" s="82" t="s">
         <v>939</v>
@@ -60624,7 +60630,7 @@
     <row r="150" spans="1:9" ht="16">
       <c r="A150" s="26"/>
       <c r="B150" s="27" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C150" s="82" t="s">
         <v>86</v>
@@ -62289,7 +62295,7 @@
         <v>41809</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -62603,7 +62609,7 @@
     <row r="19" spans="1:6" ht="16">
       <c r="A19" s="26"/>
       <c r="B19" s="25" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>943</v>
@@ -62840,10 +62846,10 @@
         <v>897</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>24</v>
@@ -62858,10 +62864,10 @@
         <v>898</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E33" s="27" t="s">
         <v>24</v>
@@ -63217,7 +63223,7 @@
     <row r="53" spans="1:6" ht="16">
       <c r="A53" s="26"/>
       <c r="B53" s="25" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>30</v>
@@ -63582,10 +63588,10 @@
         <v>562</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E73" s="27" t="s">
         <v>67</v>
@@ -63597,7 +63603,7 @@
     <row r="74" spans="1:6" ht="16">
       <c r="A74" s="26"/>
       <c r="B74" s="25" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C74" s="27" t="s">
         <v>948</v>
@@ -63692,10 +63698,10 @@
         <v>566</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>83</v>
@@ -63710,10 +63716,10 @@
         <v>567</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>83</v>
@@ -63746,10 +63752,10 @@
         <v>189</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E82" s="27" t="s">
         <v>83</v>
@@ -63836,10 +63842,10 @@
         <v>193</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E87" s="27" t="s">
         <v>83</v>
@@ -63854,10 +63860,10 @@
         <v>571</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E88" s="27" t="s">
         <v>83</v>
@@ -63872,10 +63878,10 @@
         <v>572</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E89" s="27" t="s">
         <v>83</v>
@@ -63926,10 +63932,10 @@
         <v>574</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E92" s="29" t="s">
         <v>83</v>
@@ -64069,7 +64075,7 @@
     <row r="100" spans="1:6" ht="16">
       <c r="A100" s="26"/>
       <c r="B100" s="72" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C100" s="27" t="s">
         <v>86</v>
@@ -64180,10 +64186,10 @@
         <v>585</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E106" s="27" t="s">
         <v>24</v>
@@ -64395,7 +64401,7 @@
     <row r="118" spans="1:6" ht="16">
       <c r="A118" s="26"/>
       <c r="B118" s="72" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C118" s="27" t="s">
         <v>939</v>
@@ -64631,7 +64637,7 @@
     <row r="131" spans="1:6" ht="16">
       <c r="A131" s="26"/>
       <c r="B131" s="72" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C131" s="27" t="s">
         <v>940</v>
@@ -64723,7 +64729,7 @@
     <row r="136" spans="1:6" ht="16">
       <c r="A136" s="26"/>
       <c r="B136" s="72" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C136" s="27" t="s">
         <v>86</v>
@@ -64873,7 +64879,7 @@
     <row r="144" spans="1:6" ht="16">
       <c r="A144" s="26"/>
       <c r="B144" s="72" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C144" s="27" t="s">
         <v>940</v>
@@ -65363,7 +65369,7 @@
     <row r="171" spans="1:6" ht="16">
       <c r="A171" s="26"/>
       <c r="B171" s="25" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C171" s="27" t="s">
         <v>947</v>
@@ -65750,7 +65756,7 @@
         <v>56488</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -66424,10 +66430,10 @@
         <v>897</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>24</v>
@@ -66441,10 +66447,10 @@
         <v>898</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E42" s="64" t="s">
         <v>24</v>
@@ -66540,7 +66546,7 @@
     </row>
     <row r="48" spans="2:6" ht="16">
       <c r="B48" s="27" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C48" s="82" t="s">
         <v>83</v>
@@ -67168,10 +67174,10 @@
         <v>562</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D84" s="65" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E84" s="64" t="s">
         <v>67</v>
@@ -67183,7 +67189,7 @@
     <row r="85" spans="1:6" ht="16">
       <c r="A85" s="72"/>
       <c r="B85" s="27" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>948</v>
@@ -67278,10 +67284,10 @@
         <v>566</v>
       </c>
       <c r="C90" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>83</v>
@@ -67295,10 +67301,10 @@
         <v>567</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>83</v>
@@ -67329,10 +67335,10 @@
         <v>189</v>
       </c>
       <c r="C93" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>83</v>
@@ -67414,10 +67420,10 @@
         <v>193</v>
       </c>
       <c r="C98" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>83</v>
@@ -67431,10 +67437,10 @@
         <v>571</v>
       </c>
       <c r="C99" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>83</v>
@@ -67448,10 +67454,10 @@
         <v>572</v>
       </c>
       <c r="C100" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>83</v>
@@ -67502,10 +67508,10 @@
         <v>574</v>
       </c>
       <c r="C103" s="84" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>83</v>
@@ -67760,10 +67766,10 @@
         <v>585</v>
       </c>
       <c r="C118" s="82" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>24</v>
@@ -67953,7 +67959,7 @@
     </row>
     <row r="129" spans="1:6" ht="16">
       <c r="B129" s="27" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C129" s="81" t="s">
         <v>939</v>
@@ -68145,7 +68151,7 @@
     </row>
     <row r="140" spans="1:6" ht="16">
       <c r="A140" s="73" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B140" s="78" t="s">
         <v>605</v>
@@ -68330,7 +68336,7 @@
     <row r="150" spans="1:6" ht="16">
       <c r="A150" s="72"/>
       <c r="B150" s="27" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C150" s="82" t="s">
         <v>86</v>
@@ -68510,7 +68516,7 @@
     </row>
     <row r="160" spans="1:6" ht="16">
       <c r="B160" s="27" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C160" s="82" t="s">
         <v>940</v>
@@ -69361,7 +69367,7 @@
         <v>47187</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -70074,10 +70080,10 @@
         <v>527</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>24</v>
@@ -70092,10 +70098,10 @@
         <v>528</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>24</v>
@@ -70852,10 +70858,10 @@
         <v>562</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>67</v>
@@ -70867,7 +70873,7 @@
     <row r="85" spans="1:6" ht="16">
       <c r="A85" s="27"/>
       <c r="B85" s="27" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>948</v>
@@ -70962,10 +70968,10 @@
         <v>566</v>
       </c>
       <c r="C90" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>83</v>
@@ -70980,10 +70986,10 @@
         <v>567</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>83</v>
@@ -71016,10 +71022,10 @@
         <v>189</v>
       </c>
       <c r="C93" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>83</v>
@@ -71106,10 +71112,10 @@
         <v>193</v>
       </c>
       <c r="C98" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>83</v>
@@ -71124,10 +71130,10 @@
         <v>571</v>
       </c>
       <c r="C99" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>83</v>
@@ -71142,10 +71148,10 @@
         <v>572</v>
       </c>
       <c r="C100" s="82" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>83</v>
@@ -71196,10 +71202,10 @@
         <v>574</v>
       </c>
       <c r="C103" s="84" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>83</v>
@@ -71468,10 +71474,10 @@
         <v>585</v>
       </c>
       <c r="C118" s="82" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>24</v>
@@ -72008,7 +72014,7 @@
     </row>
     <row r="148" spans="1:6" ht="16">
       <c r="A148" s="27" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B148" s="27" t="s">
         <v>612</v>
@@ -72047,7 +72053,7 @@
     <row r="150" spans="1:6" ht="16">
       <c r="A150" s="27"/>
       <c r="B150" s="27" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C150" s="82" t="s">
         <v>86</v>
@@ -73136,15 +73142,15 @@
         <v>65450</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1">
       <c r="A2" s="102" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>86</v>
@@ -73180,7 +73186,7 @@
     <row r="4" spans="1:8" ht="16" customHeight="1">
       <c r="A4" s="26"/>
       <c r="B4" s="72" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>86</v>
@@ -73198,7 +73204,7 @@
     <row r="5" spans="1:8" ht="16" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="72" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>86</v>
@@ -73324,7 +73330,7 @@
     <row r="12" spans="1:8" ht="16" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="72" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>86</v>
@@ -73342,7 +73348,7 @@
     <row r="13" spans="1:8" ht="16" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="72" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>86</v>
@@ -73360,7 +73366,7 @@
     <row r="14" spans="1:8" ht="16" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="72" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>86</v>
@@ -73414,7 +73420,7 @@
     <row r="17" spans="1:6" ht="16" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="25" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>86</v>
@@ -73486,7 +73492,7 @@
     <row r="21" spans="1:6" ht="16" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="25" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>86</v>
@@ -73504,7 +73510,7 @@
     <row r="22" spans="1:6" ht="16" customHeight="1">
       <c r="A22" s="26"/>
       <c r="B22" s="25" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>30</v>
@@ -73522,7 +73528,7 @@
     <row r="23" spans="1:6" ht="16" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="25" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>86</v>
@@ -73630,7 +73636,7 @@
     <row r="29" spans="1:6" ht="16" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="25" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>64</v>
@@ -73648,7 +73654,7 @@
     <row r="30" spans="1:6" ht="16" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="25" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>64</v>
@@ -73666,7 +73672,7 @@
     <row r="31" spans="1:6" ht="16" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="25" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>64</v>
@@ -73684,7 +73690,7 @@
     <row r="32" spans="1:6" ht="16" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="25" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>64</v>
@@ -73702,7 +73708,7 @@
     <row r="33" spans="1:6" ht="16" customHeight="1">
       <c r="A33" s="26"/>
       <c r="B33" s="25" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>64</v>
@@ -73738,7 +73744,7 @@
     <row r="35" spans="1:6" ht="16" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="25" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>64</v>
@@ -73756,7 +73762,7 @@
     <row r="36" spans="1:6" ht="16" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="25" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>64</v>
@@ -73792,7 +73798,7 @@
     <row r="38" spans="1:6" ht="16" customHeight="1">
       <c r="A38" s="26"/>
       <c r="B38" s="25" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>86</v>
@@ -73828,7 +73834,7 @@
     <row r="40" spans="1:6" ht="16" customHeight="1">
       <c r="A40" s="26"/>
       <c r="B40" s="25" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>86</v>
@@ -73846,7 +73852,7 @@
     <row r="41" spans="1:6" ht="16" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="25" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>86</v>
@@ -73863,7 +73869,7 @@
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1">
       <c r="A42" s="102" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B42" s="85" t="s">
         <v>896</v>
@@ -73887,10 +73893,10 @@
         <v>897</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>24</v>
@@ -73905,10 +73911,10 @@
         <v>898</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E44" s="27" t="s">
         <v>24</v>
@@ -73974,7 +73980,7 @@
     <row r="48" spans="1:6" ht="16" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="25" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>935</v>
@@ -73992,7 +73998,7 @@
     <row r="49" spans="1:6" ht="32">
       <c r="A49" s="26"/>
       <c r="B49" s="25" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>944</v>
@@ -74010,7 +74016,7 @@
     <row r="50" spans="1:6" ht="16" customHeight="1">
       <c r="A50" s="26"/>
       <c r="B50" s="25" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>948</v>
@@ -74028,7 +74034,7 @@
     <row r="51" spans="1:6" ht="16" customHeight="1">
       <c r="A51" s="26"/>
       <c r="B51" s="25" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>14</v>
@@ -74136,7 +74142,7 @@
     <row r="57" spans="1:6" ht="16" customHeight="1">
       <c r="A57" s="26"/>
       <c r="B57" s="25" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>14</v>
@@ -74154,7 +74160,7 @@
     <row r="58" spans="1:6" ht="16" customHeight="1">
       <c r="A58" s="26"/>
       <c r="B58" s="25" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>14</v>
@@ -74172,7 +74178,7 @@
     <row r="59" spans="1:6" ht="16" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="25" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>83</v>
@@ -74208,7 +74214,7 @@
     <row r="61" spans="1:6" ht="16" customHeight="1">
       <c r="A61" s="26"/>
       <c r="B61" s="25" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>83</v>
@@ -74226,7 +74232,7 @@
     <row r="62" spans="1:6" ht="16" customHeight="1">
       <c r="A62" s="26"/>
       <c r="B62" s="25" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>83</v>
@@ -74244,7 +74250,7 @@
     <row r="63" spans="1:6" ht="16" customHeight="1">
       <c r="A63" s="26"/>
       <c r="B63" s="25" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>83</v>
@@ -74262,7 +74268,7 @@
     <row r="64" spans="1:6" ht="16" customHeight="1">
       <c r="A64" s="26"/>
       <c r="B64" s="25" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>14</v>
@@ -74370,7 +74376,7 @@
     <row r="70" spans="1:6" ht="16" customHeight="1">
       <c r="A70" s="26"/>
       <c r="B70" s="25" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>85</v>
@@ -74388,7 +74394,7 @@
     <row r="71" spans="1:6" ht="16" customHeight="1">
       <c r="A71" s="26"/>
       <c r="B71" s="25" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>85</v>
@@ -74462,7 +74468,7 @@
     <row r="75" spans="1:6" ht="16" customHeight="1">
       <c r="A75" s="26"/>
       <c r="B75" s="72" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C75" s="27" t="s">
         <v>30</v>
@@ -74480,7 +74486,7 @@
     <row r="76" spans="1:6" ht="16" customHeight="1">
       <c r="A76" s="26"/>
       <c r="B76" s="72" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C76" s="27" t="s">
         <v>84</v>
@@ -74624,7 +74630,7 @@
     <row r="84" spans="1:6" ht="16" customHeight="1">
       <c r="A84" s="26"/>
       <c r="B84" s="25" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>84</v>
@@ -74642,7 +74648,7 @@
     <row r="85" spans="1:6" ht="16" customHeight="1">
       <c r="A85" s="26"/>
       <c r="B85" s="25" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>940</v>
@@ -74732,7 +74738,7 @@
     <row r="90" spans="1:6" ht="16" customHeight="1">
       <c r="A90" s="26"/>
       <c r="B90" s="25" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C90" s="27" t="s">
         <v>83</v>
@@ -74750,7 +74756,7 @@
     <row r="91" spans="1:6" ht="16" customHeight="1">
       <c r="A91" s="26"/>
       <c r="B91" s="25" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C91" s="27" t="s">
         <v>83</v>
@@ -74768,7 +74774,7 @@
     <row r="92" spans="1:6" ht="16" customHeight="1">
       <c r="A92" s="26"/>
       <c r="B92" s="25" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C92" s="27" t="s">
         <v>83</v>
@@ -74785,7 +74791,7 @@
     </row>
     <row r="93" spans="1:6" ht="16" customHeight="1">
       <c r="A93" s="102" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B93" s="73" t="s">
         <v>560</v>
@@ -74806,7 +74812,7 @@
     <row r="94" spans="1:6" ht="16" customHeight="1">
       <c r="A94" s="26"/>
       <c r="B94" s="72" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C94" s="27" t="s">
         <v>948</v>
@@ -74827,10 +74833,10 @@
         <v>562</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E95" s="27" t="s">
         <v>67</v>
@@ -74842,7 +74848,7 @@
     <row r="96" spans="1:6" ht="16" customHeight="1">
       <c r="A96" s="26"/>
       <c r="B96" s="72" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C96" s="27" t="s">
         <v>948</v>
@@ -74860,7 +74866,7 @@
     <row r="97" spans="1:6" ht="16" customHeight="1">
       <c r="A97" s="26"/>
       <c r="B97" s="72" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C97" s="27" t="s">
         <v>948</v>
@@ -74878,7 +74884,7 @@
     <row r="98" spans="1:6" ht="16" customHeight="1">
       <c r="A98" s="26"/>
       <c r="B98" s="72" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C98" s="27" t="s">
         <v>948</v>
@@ -74896,7 +74902,7 @@
     <row r="99" spans="1:6" ht="16" customHeight="1">
       <c r="A99" s="26"/>
       <c r="B99" s="25" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C99" s="27" t="s">
         <v>948</v>
@@ -74914,7 +74920,7 @@
     <row r="100" spans="1:6" ht="16" customHeight="1">
       <c r="A100" s="26"/>
       <c r="B100" s="25" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C100" s="27" t="s">
         <v>948</v>
@@ -74932,7 +74938,7 @@
     <row r="101" spans="1:6" ht="16" customHeight="1">
       <c r="A101" s="26"/>
       <c r="B101" s="25" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C101" s="27" t="s">
         <v>948</v>
@@ -74950,7 +74956,7 @@
     <row r="102" spans="1:6" ht="16" customHeight="1">
       <c r="A102" s="26"/>
       <c r="B102" s="25" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>948</v>
@@ -74968,7 +74974,7 @@
     <row r="103" spans="1:6" ht="16" customHeight="1">
       <c r="A103" s="26"/>
       <c r="B103" s="25" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C103" s="84" t="s">
         <v>948</v>
@@ -74991,10 +74997,10 @@
         <v>566</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E104" s="27" t="s">
         <v>83</v>
@@ -75006,13 +75012,13 @@
     <row r="105" spans="1:6" ht="16" customHeight="1">
       <c r="A105" s="26"/>
       <c r="B105" s="72" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E105" s="27" t="s">
         <v>83</v>
@@ -75027,10 +75033,10 @@
         <v>567</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E106" s="27" t="s">
         <v>83</v>
@@ -75045,10 +75051,10 @@
         <v>189</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E107" s="27" t="s">
         <v>83</v>
@@ -75078,13 +75084,13 @@
     <row r="109" spans="1:6" ht="16" customHeight="1">
       <c r="A109" s="26"/>
       <c r="B109" s="72" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>83</v>
@@ -75096,13 +75102,13 @@
     <row r="110" spans="1:6" ht="16" customHeight="1">
       <c r="A110" s="26"/>
       <c r="B110" s="72" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E110" s="27" t="s">
         <v>83</v>
@@ -75114,7 +75120,7 @@
     <row r="111" spans="1:6" ht="16" customHeight="1">
       <c r="A111" s="26"/>
       <c r="B111" s="25" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C111" s="27" t="s">
         <v>82</v>
@@ -75132,13 +75138,13 @@
     <row r="112" spans="1:6" ht="16" customHeight="1">
       <c r="A112" s="26"/>
       <c r="B112" s="25" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E112" s="27" t="s">
         <v>83</v>
@@ -75168,7 +75174,7 @@
     <row r="114" spans="1:6" ht="16" customHeight="1">
       <c r="A114" s="26"/>
       <c r="B114" s="25" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C114" s="27" t="s">
         <v>82</v>
@@ -75189,10 +75195,10 @@
         <v>193</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E115" s="27" t="s">
         <v>83</v>
@@ -75204,13 +75210,13 @@
     <row r="116" spans="1:6" ht="16" customHeight="1">
       <c r="A116" s="26"/>
       <c r="B116" s="25" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E116" s="27" t="s">
         <v>83</v>
@@ -75225,10 +75231,10 @@
         <v>572</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E117" s="27" t="s">
         <v>83</v>
@@ -75276,13 +75282,13 @@
     <row r="120" spans="1:6" ht="32">
       <c r="A120" s="26"/>
       <c r="B120" s="25" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E120" s="29" t="s">
         <v>83</v>
@@ -75314,7 +75320,7 @@
     <row r="122" spans="1:6" ht="16" customHeight="1">
       <c r="A122" s="26"/>
       <c r="B122" s="72" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C122" s="27" t="s">
         <v>951</v>
@@ -75332,7 +75338,7 @@
     <row r="123" spans="1:6" ht="16" customHeight="1">
       <c r="A123" s="26"/>
       <c r="B123" s="72" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C123" s="27" t="s">
         <v>951</v>
@@ -75386,7 +75392,7 @@
     <row r="126" spans="1:6" ht="16" customHeight="1">
       <c r="A126" s="26"/>
       <c r="B126" s="72" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C126" s="27" t="s">
         <v>951</v>
@@ -75476,7 +75482,7 @@
     <row r="131" spans="1:6" ht="16" customHeight="1">
       <c r="A131" s="26"/>
       <c r="B131" s="72" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C131" s="27" t="s">
         <v>86</v>
@@ -75587,10 +75593,10 @@
         <v>585</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E137" s="27" t="s">
         <v>24</v>
@@ -75656,7 +75662,7 @@
     <row r="141" spans="1:6" ht="16" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="25" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C141" s="27" t="s">
         <v>951</v>
@@ -75674,7 +75680,7 @@
     <row r="142" spans="1:6" ht="16" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="25" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C142" s="27" t="s">
         <v>951</v>
@@ -75694,7 +75700,7 @@
         <v>893</v>
       </c>
       <c r="B143" s="73" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C143" s="78" t="s">
         <v>938</v>
@@ -75712,7 +75718,7 @@
     <row r="144" spans="1:6" ht="16" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="72" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C144" s="27" t="s">
         <v>938</v>
@@ -75802,7 +75808,7 @@
     <row r="149" spans="1:6" ht="16" customHeight="1">
       <c r="A149" s="26"/>
       <c r="B149" s="25" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C149" s="27" t="s">
         <v>939</v>
@@ -75856,7 +75862,7 @@
     <row r="152" spans="1:6" ht="16" customHeight="1">
       <c r="A152" s="26"/>
       <c r="B152" s="25" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C152" s="27" t="s">
         <v>944</v>
@@ -75874,7 +75880,7 @@
     <row r="153" spans="1:6" ht="16" customHeight="1">
       <c r="A153" s="26"/>
       <c r="B153" s="25" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C153" s="27" t="s">
         <v>939</v>
@@ -75892,7 +75898,7 @@
     <row r="154" spans="1:6" ht="16" customHeight="1">
       <c r="A154" s="26"/>
       <c r="B154" s="25" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C154" s="27" t="s">
         <v>944</v>
@@ -75910,7 +75916,7 @@
     <row r="155" spans="1:6" ht="16" customHeight="1">
       <c r="A155" s="26"/>
       <c r="B155" s="25" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C155" s="27" t="s">
         <v>939</v>
@@ -75928,7 +75934,7 @@
     <row r="156" spans="1:6" ht="16" customHeight="1">
       <c r="A156" s="26"/>
       <c r="B156" s="25" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C156" s="27" t="s">
         <v>939</v>
@@ -76038,7 +76044,7 @@
     <row r="162" spans="1:6" ht="16" customHeight="1">
       <c r="A162" s="26"/>
       <c r="B162" s="72" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C162" s="27" t="s">
         <v>940</v>
@@ -76074,7 +76080,7 @@
     <row r="164" spans="1:6" ht="16" customHeight="1">
       <c r="A164" s="26"/>
       <c r="B164" s="25" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C164" s="27" t="s">
         <v>940</v>
@@ -76112,7 +76118,7 @@
         <v>894</v>
       </c>
       <c r="B166" s="73" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C166" s="78" t="s">
         <v>948</v>
@@ -76148,7 +76154,7 @@
     <row r="168" spans="1:6" ht="16" customHeight="1">
       <c r="A168" s="26"/>
       <c r="B168" s="72" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C168" s="27" t="s">
         <v>86</v>
@@ -76260,7 +76266,7 @@
         <v>620</v>
       </c>
       <c r="B174" s="73" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C174" s="27" t="s">
         <v>83</v>
@@ -76316,7 +76322,7 @@
         <v>622</v>
       </c>
       <c r="B177" s="73" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C177" s="78" t="s">
         <v>940</v>
@@ -76352,7 +76358,7 @@
     <row r="179" spans="1:6" ht="16" customHeight="1">
       <c r="A179" s="26"/>
       <c r="B179" s="72" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C179" s="27" t="s">
         <v>940</v>
@@ -76370,7 +76376,7 @@
     <row r="180" spans="1:6" ht="16" customHeight="1">
       <c r="A180" s="26"/>
       <c r="B180" s="25" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C180" s="27" t="s">
         <v>940</v>
@@ -76405,10 +76411,10 @@
     </row>
     <row r="182" spans="1:6" ht="16" customHeight="1">
       <c r="A182" s="87" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B182" s="54" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C182" s="79" t="s">
         <v>14</v>
@@ -76428,7 +76434,7 @@
         <v>629</v>
       </c>
       <c r="B183" s="73" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C183" s="78" t="s">
         <v>63</v>
@@ -76446,7 +76452,7 @@
     <row r="184" spans="1:6" ht="16" customHeight="1">
       <c r="A184" s="26"/>
       <c r="B184" s="25" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>63</v>
@@ -76464,7 +76470,7 @@
     <row r="185" spans="1:6" ht="16" customHeight="1">
       <c r="A185" s="26"/>
       <c r="B185" s="25" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C185" s="27" t="s">
         <v>63</v>
@@ -76590,7 +76596,7 @@
     <row r="192" spans="1:6" ht="16" customHeight="1">
       <c r="A192" s="26"/>
       <c r="B192" s="25" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C192" s="27" t="s">
         <v>63</v>
@@ -76662,7 +76668,7 @@
     <row r="196" spans="1:6" ht="16" customHeight="1">
       <c r="A196" s="26"/>
       <c r="B196" s="25" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C196" s="27" t="s">
         <v>85</v>
@@ -76680,7 +76686,7 @@
     <row r="197" spans="1:6" ht="16" customHeight="1">
       <c r="A197" s="26"/>
       <c r="B197" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C197" s="27" t="s">
         <v>85</v>
@@ -76698,7 +76704,7 @@
     <row r="198" spans="1:6" ht="16" customHeight="1">
       <c r="A198" s="26"/>
       <c r="B198" s="25" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C198" s="27" t="s">
         <v>85</v>
@@ -76752,7 +76758,7 @@
     <row r="201" spans="1:6" ht="16" customHeight="1">
       <c r="A201" s="26"/>
       <c r="B201" s="25" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C201" s="27" t="s">
         <v>85</v>
@@ -76770,7 +76776,7 @@
     <row r="202" spans="1:6" ht="16" customHeight="1">
       <c r="A202" s="26"/>
       <c r="B202" s="25" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C202" s="27" t="s">
         <v>85</v>
@@ -76788,7 +76794,7 @@
     <row r="203" spans="1:6" ht="16" customHeight="1">
       <c r="A203" s="26"/>
       <c r="B203" s="25" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C203" s="27" t="s">
         <v>85</v>
@@ -76806,7 +76812,7 @@
     <row r="204" spans="1:6" ht="16" customHeight="1">
       <c r="A204" s="26"/>
       <c r="B204" s="25" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C204" s="27" t="s">
         <v>85</v>
@@ -76914,7 +76920,7 @@
     <row r="210" spans="1:6" ht="16" customHeight="1">
       <c r="A210" s="26"/>
       <c r="B210" s="25" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C210" s="65" t="s">
         <v>947</v>
@@ -76932,7 +76938,7 @@
     <row r="211" spans="1:6" ht="16" customHeight="1">
       <c r="A211" s="26"/>
       <c r="B211" s="25" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C211" s="27" t="s">
         <v>85</v>
@@ -76950,7 +76956,7 @@
     <row r="212" spans="1:6" ht="16" customHeight="1">
       <c r="A212" s="26"/>
       <c r="B212" s="25" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C212" s="65" t="s">
         <v>947</v>
@@ -76968,7 +76974,7 @@
     <row r="213" spans="1:6" ht="16" customHeight="1">
       <c r="A213" s="26"/>
       <c r="B213" s="25" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C213" s="65" t="s">
         <v>947</v>
@@ -76986,7 +76992,7 @@
     <row r="214" spans="1:6" ht="32">
       <c r="A214" s="26"/>
       <c r="B214" s="25" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C214" s="65" t="s">
         <v>947</v>
@@ -77004,7 +77010,7 @@
     <row r="215" spans="1:6" ht="16" customHeight="1">
       <c r="A215" s="26"/>
       <c r="B215" s="25" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C215" s="27" t="s">
         <v>85</v>
@@ -77058,7 +77064,7 @@
     <row r="218" spans="1:6" ht="16" customHeight="1">
       <c r="A218" s="26"/>
       <c r="B218" s="25" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C218" s="27" t="s">
         <v>85</v>
@@ -77076,7 +77082,7 @@
     <row r="219" spans="1:6" ht="16" customHeight="1">
       <c r="A219" s="26"/>
       <c r="B219" s="25" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C219" s="27" t="s">
         <v>85</v>
@@ -77094,7 +77100,7 @@
     <row r="220" spans="1:6" ht="16" customHeight="1">
       <c r="A220" s="26"/>
       <c r="B220" s="25" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C220" s="27" t="s">
         <v>85</v>
@@ -77130,7 +77136,7 @@
     <row r="222" spans="1:6" ht="16" customHeight="1">
       <c r="A222" s="26"/>
       <c r="B222" s="25" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C222" s="27" t="s">
         <v>85</v>
@@ -77166,7 +77172,7 @@
     <row r="224" spans="1:6" ht="16" customHeight="1">
       <c r="A224" s="26"/>
       <c r="B224" s="25" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C224" s="27" t="s">
         <v>85</v>
@@ -77184,7 +77190,7 @@
     <row r="225" spans="1:6" ht="16" customHeight="1">
       <c r="A225" s="26"/>
       <c r="B225" s="25" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C225" s="27" t="s">
         <v>85</v>
@@ -77220,7 +77226,7 @@
     <row r="227" spans="1:6" ht="16" customHeight="1">
       <c r="A227" s="26"/>
       <c r="B227" s="25" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C227" s="27" t="s">
         <v>85</v>
@@ -77353,12 +77359,12 @@
         <v>77130</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="127" t="s">
         <v>118</v>
@@ -77441,7 +77447,7 @@
     <row r="6" spans="1:8" ht="16" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="127" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>86</v>
@@ -77461,7 +77467,7 @@
     <row r="7" spans="1:8" ht="16" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="127" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>30</v>
@@ -77481,7 +77487,7 @@
     <row r="8" spans="1:8" ht="16" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="127" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>86</v>
@@ -77541,7 +77547,7 @@
     <row r="11" spans="1:8" ht="16" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="127" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>86</v>
@@ -77601,7 +77607,7 @@
     <row r="14" spans="1:8" ht="32">
       <c r="A14" s="20"/>
       <c r="B14" s="127" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>64</v>
@@ -77621,7 +77627,7 @@
     <row r="15" spans="1:8" ht="32">
       <c r="A15" s="20"/>
       <c r="B15" s="127" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C15" s="82" t="s">
         <v>64</v>
@@ -77661,7 +77667,7 @@
     <row r="17" spans="1:8" ht="16" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="127" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>64</v>
@@ -77701,7 +77707,7 @@
     <row r="19" spans="1:8" ht="16" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="127" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C19" s="82" t="s">
         <v>64</v>
@@ -77721,7 +77727,7 @@
     <row r="20" spans="1:8" ht="16" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="127" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C20" s="82" t="s">
         <v>64</v>
@@ -77741,7 +77747,7 @@
     <row r="21" spans="1:8" ht="16" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="127" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C21" s="82" t="s">
         <v>64</v>
@@ -77761,7 +77767,7 @@
     <row r="22" spans="1:8" ht="16" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="127" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C22" s="82" t="s">
         <v>64</v>
@@ -77781,7 +77787,7 @@
     <row r="23" spans="1:8" ht="16" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="127" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C23" s="82" t="s">
         <v>64</v>
@@ -77821,7 +77827,7 @@
     <row r="25" spans="1:8" ht="16" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="127" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C25" s="82" t="s">
         <v>64</v>
@@ -77841,7 +77847,7 @@
     <row r="26" spans="1:8" ht="16" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="127" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C26" s="82" t="s">
         <v>64</v>
@@ -77881,7 +77887,7 @@
     <row r="28" spans="1:8" ht="16" customHeight="1">
       <c r="A28" s="20"/>
       <c r="B28" s="127" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>86</v>
@@ -77921,7 +77927,7 @@
     <row r="30" spans="1:8" ht="16" customHeight="1">
       <c r="A30" s="20"/>
       <c r="B30" s="127" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>86</v>
@@ -77981,7 +77987,7 @@
     <row r="33" spans="1:8" ht="16" customHeight="1">
       <c r="A33" s="20"/>
       <c r="B33" s="127" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>86</v>
@@ -78001,7 +78007,7 @@
     <row r="34" spans="1:8" ht="16" customHeight="1">
       <c r="A34" s="20"/>
       <c r="B34" s="127" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>497</v>
@@ -78041,7 +78047,7 @@
     <row r="36" spans="1:8" ht="16" customHeight="1">
       <c r="A36" s="20"/>
       <c r="B36" s="127" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>497</v>
@@ -78081,7 +78087,7 @@
     <row r="38" spans="1:8" ht="16" customHeight="1">
       <c r="A38" s="20"/>
       <c r="B38" s="127" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>497</v>
@@ -78101,7 +78107,7 @@
     <row r="39" spans="1:8" ht="16" customHeight="1">
       <c r="A39" s="20"/>
       <c r="B39" s="127" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>497</v>
@@ -78141,7 +78147,7 @@
     <row r="41" spans="1:8" ht="16" customHeight="1">
       <c r="A41" s="20"/>
       <c r="B41" s="127" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>86</v>
@@ -78161,7 +78167,7 @@
     <row r="42" spans="1:8" ht="16" customHeight="1">
       <c r="A42" s="20"/>
       <c r="B42" s="127" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>86</v>
@@ -78181,7 +78187,7 @@
     <row r="43" spans="1:8" ht="16" customHeight="1">
       <c r="A43" s="20"/>
       <c r="B43" s="127" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>86</v>
@@ -78241,7 +78247,7 @@
     <row r="46" spans="1:8" ht="16" customHeight="1">
       <c r="A46" s="20"/>
       <c r="B46" s="127" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>86</v>
@@ -78261,7 +78267,7 @@
     <row r="47" spans="1:8" ht="16" customHeight="1">
       <c r="A47" s="20"/>
       <c r="B47" s="127" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>86</v>
@@ -78281,7 +78287,7 @@
     <row r="48" spans="1:8" ht="16" customHeight="1">
       <c r="A48" s="20"/>
       <c r="B48" s="127" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>86</v>
@@ -78301,7 +78307,7 @@
     <row r="49" spans="1:8" ht="16" customHeight="1">
       <c r="A49" s="20"/>
       <c r="B49" s="127" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>86</v>
@@ -78321,7 +78327,7 @@
     <row r="50" spans="1:8" ht="16" customHeight="1">
       <c r="A50" s="20"/>
       <c r="B50" s="127" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>86</v>
@@ -78341,7 +78347,7 @@
     <row r="51" spans="1:8" ht="16" customHeight="1">
       <c r="A51" s="20"/>
       <c r="B51" s="127" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>86</v>
@@ -78381,7 +78387,7 @@
     <row r="53" spans="1:8" ht="16" customHeight="1">
       <c r="A53" s="20"/>
       <c r="B53" s="127" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>86</v>
@@ -78421,7 +78427,7 @@
     <row r="55" spans="1:8" ht="16" customHeight="1">
       <c r="A55" s="20"/>
       <c r="B55" s="127" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>86</v>
@@ -78440,10 +78446,10 @@
     </row>
     <row r="56" spans="1:8" ht="16" customHeight="1">
       <c r="A56" s="128" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B56" s="129" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>935</v>
@@ -78463,7 +78469,7 @@
     <row r="57" spans="1:8" ht="16" customHeight="1">
       <c r="A57" s="130"/>
       <c r="B57" s="127" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>935</v>
@@ -78483,7 +78489,7 @@
     <row r="58" spans="1:8" ht="16" customHeight="1">
       <c r="A58" s="130"/>
       <c r="B58" s="127" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C58" s="64" t="s">
         <v>935</v>
@@ -78503,13 +78509,13 @@
     <row r="59" spans="1:8" ht="16" customHeight="1">
       <c r="A59" s="130"/>
       <c r="B59" s="127" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D59" s="127" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E59" s="72" t="s">
         <v>24</v>
@@ -78523,13 +78529,13 @@
     <row r="60" spans="1:8" ht="16" customHeight="1">
       <c r="A60" s="130"/>
       <c r="B60" s="127" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E60" s="72" t="s">
         <v>24</v>
@@ -78543,13 +78549,13 @@
     <row r="61" spans="1:8" ht="16" customHeight="1">
       <c r="A61" s="20"/>
       <c r="B61" s="127" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C61" s="64" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D61" s="64" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>24</v>
@@ -78563,7 +78569,7 @@
     <row r="62" spans="1:8" ht="16" customHeight="1">
       <c r="A62" s="20"/>
       <c r="B62" s="127" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>935</v>
@@ -78583,7 +78589,7 @@
     <row r="63" spans="1:8" ht="16" customHeight="1">
       <c r="A63" s="20"/>
       <c r="B63" s="127" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C63" s="64" t="s">
         <v>1032</v>
@@ -78603,7 +78609,7 @@
     <row r="64" spans="1:8" ht="16" customHeight="1">
       <c r="A64" s="20"/>
       <c r="B64" s="127" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>935</v>
@@ -78623,7 +78629,7 @@
     <row r="65" spans="1:8" ht="16" customHeight="1">
       <c r="A65" s="20"/>
       <c r="B65" s="127" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>935</v>
@@ -78643,7 +78649,7 @@
     <row r="66" spans="1:8" ht="16" customHeight="1">
       <c r="A66" s="20"/>
       <c r="B66" s="127" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C66" s="64" t="s">
         <v>937</v>
@@ -78663,7 +78669,7 @@
     <row r="67" spans="1:8" ht="16" customHeight="1">
       <c r="A67" s="20"/>
       <c r="B67" s="127" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>935</v>
@@ -78683,7 +78689,7 @@
     <row r="68" spans="1:8" ht="16" customHeight="1">
       <c r="A68" s="20"/>
       <c r="B68" s="127" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>935</v>
@@ -78703,7 +78709,7 @@
     <row r="69" spans="1:8" ht="16" customHeight="1">
       <c r="A69" s="20"/>
       <c r="B69" s="127" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>935</v>
@@ -78723,7 +78729,7 @@
     <row r="70" spans="1:8" ht="16" customHeight="1">
       <c r="A70" s="20"/>
       <c r="B70" s="127" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>936</v>
@@ -78743,7 +78749,7 @@
     <row r="71" spans="1:8" ht="16" customHeight="1">
       <c r="A71" s="20"/>
       <c r="B71" s="127" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>935</v>
@@ -78763,7 +78769,7 @@
     <row r="72" spans="1:8" ht="16" customHeight="1">
       <c r="A72" s="20"/>
       <c r="B72" s="127" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C72" s="64" t="s">
         <v>944</v>
@@ -78783,7 +78789,7 @@
     <row r="73" spans="1:8" ht="16" customHeight="1">
       <c r="A73" s="20"/>
       <c r="B73" s="127" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C73" s="64" t="s">
         <v>944</v>
@@ -78803,7 +78809,7 @@
     <row r="74" spans="1:8" ht="16" customHeight="1">
       <c r="A74" s="20"/>
       <c r="B74" s="127" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C74" s="64" t="s">
         <v>944</v>
@@ -78823,7 +78829,7 @@
     <row r="75" spans="1:8" ht="16" customHeight="1">
       <c r="A75" s="20"/>
       <c r="B75" s="127" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C75" s="64" t="s">
         <v>944</v>
@@ -78843,7 +78849,7 @@
     <row r="76" spans="1:8" ht="16" customHeight="1">
       <c r="A76" s="20"/>
       <c r="B76" s="127" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>935</v>
@@ -78863,7 +78869,7 @@
     <row r="77" spans="1:8" ht="16" customHeight="1">
       <c r="A77" s="20"/>
       <c r="B77" s="127" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>935</v>
@@ -78883,7 +78889,7 @@
     <row r="78" spans="1:8" ht="16" customHeight="1">
       <c r="A78" s="20"/>
       <c r="B78" s="127" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>935</v>
@@ -78903,7 +78909,7 @@
     <row r="79" spans="1:8" ht="16" customHeight="1">
       <c r="A79" s="20"/>
       <c r="B79" s="127" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>935</v>
@@ -78922,10 +78928,10 @@
     </row>
     <row r="80" spans="1:8" ht="16" customHeight="1">
       <c r="A80" s="128" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B80" s="129" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C80" s="78" t="s">
         <v>948</v>
@@ -78945,7 +78951,7 @@
     <row r="81" spans="1:8" ht="32">
       <c r="A81" s="130"/>
       <c r="B81" s="127" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C81" s="130" t="s">
         <v>83</v>
@@ -78965,7 +78971,7 @@
     <row r="82" spans="1:8" ht="16" customHeight="1">
       <c r="A82" s="130"/>
       <c r="B82" s="127" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C82" s="130" t="s">
         <v>14</v>
@@ -78985,7 +78991,7 @@
     <row r="83" spans="1:8" ht="16" customHeight="1">
       <c r="A83" s="130"/>
       <c r="B83" s="127" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>14</v>
@@ -79045,7 +79051,7 @@
     <row r="86" spans="1:8" ht="16" customHeight="1">
       <c r="A86" s="20"/>
       <c r="B86" s="127" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>943</v>
@@ -79085,7 +79091,7 @@
     <row r="88" spans="1:8" ht="16" customHeight="1">
       <c r="A88" s="20"/>
       <c r="B88" s="127" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C88" s="135" t="s">
         <v>83</v>
@@ -79125,7 +79131,7 @@
     <row r="90" spans="1:8" ht="16" customHeight="1">
       <c r="A90" s="20"/>
       <c r="B90" s="127" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C90" s="27" t="s">
         <v>14</v>
@@ -79205,7 +79211,7 @@
     <row r="94" spans="1:8" ht="16" customHeight="1">
       <c r="A94" s="20"/>
       <c r="B94" s="127" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C94" s="27" t="s">
         <v>943</v>
@@ -79245,7 +79251,7 @@
     <row r="96" spans="1:8" ht="16" customHeight="1">
       <c r="A96" s="20"/>
       <c r="B96" s="127" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C96" s="140" t="s">
         <v>943</v>
@@ -79264,10 +79270,10 @@
     </row>
     <row r="97" spans="1:8" ht="16" customHeight="1">
       <c r="A97" s="128" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B97" s="129" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C97" s="128" t="s">
         <v>83</v>
@@ -79287,7 +79293,7 @@
     <row r="98" spans="1:8" ht="16" customHeight="1">
       <c r="A98" s="130"/>
       <c r="B98" s="127" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>14</v>
@@ -79307,7 +79313,7 @@
     <row r="99" spans="1:8" ht="16" customHeight="1">
       <c r="A99" s="130"/>
       <c r="B99" s="127" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>14</v>
@@ -79327,7 +79333,7 @@
     <row r="100" spans="1:8" ht="16" customHeight="1">
       <c r="A100" s="130"/>
       <c r="B100" s="127" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C100" s="64" t="s">
         <v>538</v>
@@ -79347,7 +79353,7 @@
     <row r="101" spans="1:8" ht="16" customHeight="1">
       <c r="A101" s="130"/>
       <c r="B101" s="127" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C101" s="64" t="s">
         <v>538</v>
@@ -79387,7 +79393,7 @@
     <row r="103" spans="1:8" ht="16" customHeight="1">
       <c r="A103" s="20"/>
       <c r="B103" s="127" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>83</v>
@@ -79406,10 +79412,10 @@
     </row>
     <row r="104" spans="1:8" ht="32">
       <c r="A104" s="128" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B104" s="129" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C104" s="78" t="s">
         <v>5</v>
@@ -79429,7 +79435,7 @@
     <row r="105" spans="1:8" ht="16" customHeight="1">
       <c r="A105" s="130"/>
       <c r="B105" s="127" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C105" s="27" t="s">
         <v>5</v>
@@ -79449,7 +79455,7 @@
     <row r="106" spans="1:8" ht="16" customHeight="1">
       <c r="A106" s="130"/>
       <c r="B106" s="127" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C106" s="130" t="s">
         <v>85</v>
@@ -79469,7 +79475,7 @@
     <row r="107" spans="1:8" ht="16" customHeight="1">
       <c r="A107" s="131"/>
       <c r="B107" s="132" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C107" s="131" t="s">
         <v>85</v>
@@ -79488,10 +79494,10 @@
     </row>
     <row r="108" spans="1:8" ht="16" customHeight="1">
       <c r="A108" s="128" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B108" s="129" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C108" s="78" t="s">
         <v>83</v>
@@ -79511,7 +79517,7 @@
     <row r="109" spans="1:8" ht="16" customHeight="1">
       <c r="A109" s="130"/>
       <c r="B109" s="127" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C109" s="27" t="s">
         <v>30</v>
@@ -79531,7 +79537,7 @@
     <row r="110" spans="1:8" ht="16" customHeight="1">
       <c r="A110" s="130"/>
       <c r="B110" s="127" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C110" s="130" t="s">
         <v>83</v>
@@ -79551,7 +79557,7 @@
     <row r="111" spans="1:8" ht="16" customHeight="1">
       <c r="A111" s="130"/>
       <c r="B111" s="127" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C111" s="27" t="s">
         <v>29</v>
@@ -79591,7 +79597,7 @@
     <row r="113" spans="1:8" ht="16" customHeight="1">
       <c r="A113" s="20"/>
       <c r="B113" s="127" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C113" s="27" t="s">
         <v>84</v>
@@ -79611,7 +79617,7 @@
     <row r="114" spans="1:8" ht="16" customHeight="1">
       <c r="A114" s="20"/>
       <c r="B114" s="127" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C114" s="27" t="s">
         <v>84</v>
@@ -79631,7 +79637,7 @@
     <row r="115" spans="1:8" ht="16" customHeight="1">
       <c r="A115" s="20"/>
       <c r="B115" s="127" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C115" s="27" t="s">
         <v>84</v>
@@ -79671,7 +79677,7 @@
     <row r="117" spans="1:8" ht="16" customHeight="1">
       <c r="A117" s="20"/>
       <c r="B117" s="127" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C117" s="27" t="s">
         <v>940</v>
@@ -79691,7 +79697,7 @@
     <row r="118" spans="1:8" ht="16" customHeight="1">
       <c r="A118" s="20"/>
       <c r="B118" s="127" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C118" s="27" t="s">
         <v>83</v>
@@ -79711,7 +79717,7 @@
     <row r="119" spans="1:8" ht="16" customHeight="1">
       <c r="A119" s="20"/>
       <c r="B119" s="127" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C119" s="27" t="s">
         <v>83</v>
@@ -79731,7 +79737,7 @@
     <row r="120" spans="1:8" ht="16" customHeight="1">
       <c r="A120" s="20"/>
       <c r="B120" s="127" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C120" s="27" t="s">
         <v>83</v>
@@ -79751,7 +79757,7 @@
     <row r="121" spans="1:8" ht="16" customHeight="1">
       <c r="A121" s="20"/>
       <c r="B121" s="127" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C121" s="27" t="s">
         <v>83</v>
@@ -79773,7 +79779,7 @@
         <v>105</v>
       </c>
       <c r="B122" s="129" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C122" s="78" t="s">
         <v>948</v>
@@ -79793,7 +79799,7 @@
     <row r="123" spans="1:8" ht="16" customHeight="1">
       <c r="A123" s="20"/>
       <c r="B123" s="127" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C123" s="135" t="s">
         <v>86</v>
@@ -79813,7 +79819,7 @@
     <row r="124" spans="1:8" ht="16" customHeight="1">
       <c r="A124" s="20"/>
       <c r="B124" s="127" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C124" s="135" t="s">
         <v>948</v>
@@ -79833,7 +79839,7 @@
     <row r="125" spans="1:8" ht="16" customHeight="1">
       <c r="A125" s="20"/>
       <c r="B125" s="127" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C125" s="135" t="s">
         <v>948</v>
@@ -79853,7 +79859,7 @@
     <row r="126" spans="1:8" ht="16" customHeight="1">
       <c r="A126" s="20"/>
       <c r="B126" s="127" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="C126" s="135" t="s">
         <v>948</v>
@@ -79873,7 +79879,7 @@
     <row r="127" spans="1:8" ht="16" customHeight="1">
       <c r="A127" s="20"/>
       <c r="B127" s="127" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C127" s="27" t="s">
         <v>948</v>
@@ -79893,7 +79899,7 @@
     <row r="128" spans="1:8" ht="16" customHeight="1">
       <c r="A128" s="20"/>
       <c r="B128" s="127" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C128" s="27" t="s">
         <v>948</v>
@@ -79913,7 +79919,7 @@
     <row r="129" spans="1:8" ht="16" customHeight="1">
       <c r="A129" s="20"/>
       <c r="B129" s="127" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C129" s="135" t="s">
         <v>948</v>
@@ -79933,7 +79939,7 @@
     <row r="130" spans="1:8" ht="16" customHeight="1">
       <c r="A130" s="20"/>
       <c r="B130" s="127" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="C130" s="135" t="s">
         <v>948</v>
@@ -79953,13 +79959,13 @@
     <row r="131" spans="1:8" ht="16" customHeight="1">
       <c r="A131" s="20"/>
       <c r="B131" s="127" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E131" s="26" t="s">
         <v>67</v>
@@ -79976,10 +79982,10 @@
         <v>562</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E132" s="26" t="s">
         <v>67</v>
@@ -79993,7 +79999,7 @@
     <row r="133" spans="1:8" ht="16" customHeight="1">
       <c r="A133" s="20"/>
       <c r="B133" s="127" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C133" s="27" t="s">
         <v>948</v>
@@ -80013,7 +80019,7 @@
     <row r="134" spans="1:8" ht="16" customHeight="1">
       <c r="A134" s="20"/>
       <c r="B134" s="127" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C134" s="27" t="s">
         <v>948</v>
@@ -80033,7 +80039,7 @@
     <row r="135" spans="1:8" ht="16" customHeight="1">
       <c r="A135" s="20"/>
       <c r="B135" s="127" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C135" s="135" t="s">
         <v>948</v>
@@ -80053,13 +80059,13 @@
     <row r="136" spans="1:8" ht="16" customHeight="1">
       <c r="A136" s="20"/>
       <c r="B136" s="127" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E136" s="27" t="s">
         <v>67</v>
@@ -80093,7 +80099,7 @@
     <row r="138" spans="1:8" ht="16" customHeight="1">
       <c r="A138" s="20"/>
       <c r="B138" s="127" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C138" s="27" t="s">
         <v>948</v>
@@ -80113,7 +80119,7 @@
     <row r="139" spans="1:8" ht="16" customHeight="1">
       <c r="A139" s="20"/>
       <c r="B139" s="127" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C139" s="27" t="s">
         <v>948</v>
@@ -80133,7 +80139,7 @@
     <row r="140" spans="1:8" ht="16" customHeight="1">
       <c r="A140" s="20"/>
       <c r="B140" s="127" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C140" s="135" t="s">
         <v>948</v>
@@ -80153,13 +80159,13 @@
     <row r="141" spans="1:8" ht="16" customHeight="1">
       <c r="A141" s="20"/>
       <c r="B141" s="127" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>67</v>
@@ -80195,13 +80201,13 @@
         <v>106</v>
       </c>
       <c r="B143" s="129" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C143" s="78" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D143" s="78" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E143" s="78" t="s">
         <v>83</v>
@@ -80215,13 +80221,13 @@
     <row r="144" spans="1:8" ht="16" customHeight="1">
       <c r="A144" s="130"/>
       <c r="B144" s="127" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E144" s="27" t="s">
         <v>83</v>
@@ -80235,13 +80241,13 @@
     <row r="145" spans="1:8" ht="16" customHeight="1">
       <c r="A145" s="20"/>
       <c r="B145" s="127" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E145" s="27" t="s">
         <v>83</v>
@@ -80258,10 +80264,10 @@
         <v>189</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>83</v>
@@ -80295,13 +80301,13 @@
     <row r="148" spans="1:8" ht="16" customHeight="1">
       <c r="A148" s="20"/>
       <c r="B148" s="127" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C148" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E148" s="27" t="s">
         <v>83</v>
@@ -80315,7 +80321,7 @@
     <row r="149" spans="1:8" ht="16" customHeight="1">
       <c r="A149" s="20"/>
       <c r="B149" s="127" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C149" s="27" t="s">
         <v>82</v>
@@ -80355,7 +80361,7 @@
     <row r="151" spans="1:8" ht="16" customHeight="1">
       <c r="A151" s="20"/>
       <c r="B151" s="127" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C151" s="27" t="s">
         <v>82</v>
@@ -80375,13 +80381,13 @@
     <row r="152" spans="1:8" ht="16" customHeight="1">
       <c r="A152" s="20"/>
       <c r="B152" s="127" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E152" s="27" t="s">
         <v>83</v>
@@ -80395,13 +80401,13 @@
     <row r="153" spans="1:8" ht="16" customHeight="1">
       <c r="A153" s="20"/>
       <c r="B153" s="127" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E153" s="27" t="s">
         <v>83</v>
@@ -80415,13 +80421,13 @@
     <row r="154" spans="1:8" ht="16" customHeight="1">
       <c r="A154" s="20"/>
       <c r="B154" s="127" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E154" s="27" t="s">
         <v>83</v>
@@ -80475,13 +80481,13 @@
     <row r="157" spans="1:8" ht="16" customHeight="1">
       <c r="A157" s="20"/>
       <c r="B157" s="127" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D157" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E157" s="29" t="s">
         <v>83</v>
@@ -80497,7 +80503,7 @@
         <v>107</v>
       </c>
       <c r="B158" s="129" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C158" s="78" t="s">
         <v>951</v>
@@ -80517,7 +80523,7 @@
     <row r="159" spans="1:8" ht="16" customHeight="1">
       <c r="A159" s="130"/>
       <c r="B159" s="127" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C159" s="27" t="s">
         <v>951</v>
@@ -80537,7 +80543,7 @@
     <row r="160" spans="1:8" ht="16" customHeight="1">
       <c r="A160" s="20"/>
       <c r="B160" s="127" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C160" s="27" t="s">
         <v>951</v>
@@ -80597,7 +80603,7 @@
     <row r="163" spans="1:8" ht="16" customHeight="1">
       <c r="A163" s="20"/>
       <c r="B163" s="127" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C163" s="27" t="s">
         <v>951</v>
@@ -80617,7 +80623,7 @@
     <row r="164" spans="1:8" ht="16" customHeight="1">
       <c r="A164" s="20"/>
       <c r="B164" s="127" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C164" s="27" t="s">
         <v>86</v>
@@ -80637,7 +80643,7 @@
     <row r="165" spans="1:8" ht="16" customHeight="1">
       <c r="A165" s="20"/>
       <c r="B165" s="127" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C165" s="27" t="s">
         <v>86</v>
@@ -80717,7 +80723,7 @@
     <row r="169" spans="1:8" ht="16" customHeight="1">
       <c r="A169" s="20"/>
       <c r="B169" s="127" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C169" s="27" t="s">
         <v>951</v>
@@ -80737,7 +80743,7 @@
     <row r="170" spans="1:8" ht="16" customHeight="1">
       <c r="A170" s="20"/>
       <c r="B170" s="127" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C170" s="26" t="s">
         <v>5</v>
@@ -80757,7 +80763,7 @@
     <row r="171" spans="1:8" ht="16" customHeight="1">
       <c r="A171" s="20"/>
       <c r="B171" s="127" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C171" s="26" t="s">
         <v>1034</v>
@@ -80777,7 +80783,7 @@
     <row r="172" spans="1:8" ht="16" customHeight="1">
       <c r="A172" s="20"/>
       <c r="B172" s="127" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C172" s="27" t="s">
         <v>1034</v>
@@ -80797,7 +80803,7 @@
     <row r="173" spans="1:8" ht="16" customHeight="1">
       <c r="A173" s="20"/>
       <c r="B173" s="127" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C173" s="27" t="s">
         <v>1034</v>
@@ -80837,7 +80843,7 @@
     <row r="175" spans="1:8" ht="16" customHeight="1">
       <c r="A175" s="20"/>
       <c r="B175" s="127" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C175" s="136" t="s">
         <v>1034</v>
@@ -80857,7 +80863,7 @@
     <row r="176" spans="1:8" ht="16" customHeight="1">
       <c r="A176" s="20"/>
       <c r="B176" s="127" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C176" s="27" t="s">
         <v>951</v>
@@ -80877,7 +80883,7 @@
     <row r="177" spans="1:8" ht="16" customHeight="1">
       <c r="A177" s="20"/>
       <c r="B177" s="127" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C177" s="27" t="s">
         <v>951</v>
@@ -80919,7 +80925,7 @@
     <row r="179" spans="1:8" ht="16" customHeight="1">
       <c r="A179" s="20"/>
       <c r="B179" s="127" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C179" s="27" t="s">
         <v>938</v>
@@ -80939,7 +80945,7 @@
     <row r="180" spans="1:8" ht="16" customHeight="1">
       <c r="A180" s="20"/>
       <c r="B180" s="127" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C180" s="27" t="s">
         <v>938</v>
@@ -80959,7 +80965,7 @@
     <row r="181" spans="1:8" ht="16" customHeight="1">
       <c r="A181" s="20"/>
       <c r="B181" s="127" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="C181" s="27" t="s">
         <v>938</v>
@@ -80979,7 +80985,7 @@
     <row r="182" spans="1:8" ht="16" customHeight="1">
       <c r="A182" s="20"/>
       <c r="B182" s="127" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C182" s="135" t="s">
         <v>938</v>
@@ -80999,7 +81005,7 @@
     <row r="183" spans="1:8" ht="16" customHeight="1">
       <c r="A183" s="20"/>
       <c r="B183" s="127" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C183" s="27" t="s">
         <v>939</v>
@@ -81019,7 +81025,7 @@
     <row r="184" spans="1:8" ht="16" customHeight="1">
       <c r="A184" s="20"/>
       <c r="B184" s="127" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>939</v>
@@ -81039,7 +81045,7 @@
     <row r="185" spans="1:8" ht="16" customHeight="1">
       <c r="A185" s="20"/>
       <c r="B185" s="127" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C185" s="27" t="s">
         <v>939</v>
@@ -81059,7 +81065,7 @@
     <row r="186" spans="1:8" ht="16" customHeight="1">
       <c r="A186" s="20"/>
       <c r="B186" s="127" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>939</v>
@@ -81079,7 +81085,7 @@
     <row r="187" spans="1:8" ht="16" customHeight="1">
       <c r="A187" s="20"/>
       <c r="B187" s="127" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C187" s="27" t="s">
         <v>939</v>
@@ -81099,7 +81105,7 @@
     <row r="188" spans="1:8" ht="16" customHeight="1">
       <c r="A188" s="20"/>
       <c r="B188" s="127" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C188" s="27" t="s">
         <v>939</v>
@@ -81119,7 +81125,7 @@
     <row r="189" spans="1:8" ht="16" customHeight="1">
       <c r="A189" s="20"/>
       <c r="B189" s="127" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C189" s="27" t="s">
         <v>939</v>
@@ -81139,7 +81145,7 @@
     <row r="190" spans="1:8" ht="16" customHeight="1">
       <c r="A190" s="20"/>
       <c r="B190" s="127" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C190" s="27" t="s">
         <v>939</v>
@@ -81158,10 +81164,10 @@
     </row>
     <row r="191" spans="1:8" ht="16" customHeight="1">
       <c r="A191" s="128" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B191" s="129" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C191" s="78" t="s">
         <v>940</v>
@@ -81181,7 +81187,7 @@
     <row r="192" spans="1:8" ht="16" customHeight="1">
       <c r="A192" s="130"/>
       <c r="B192" s="127" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C192" s="130" t="s">
         <v>940</v>
@@ -81201,7 +81207,7 @@
     <row r="193" spans="1:8" ht="16" customHeight="1">
       <c r="A193" s="130"/>
       <c r="B193" s="127" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C193" s="26" t="s">
         <v>940</v>
@@ -81221,7 +81227,7 @@
     <row r="194" spans="1:8" ht="16" customHeight="1">
       <c r="A194" s="130"/>
       <c r="B194" s="127" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C194" s="26" t="s">
         <v>940</v>
@@ -81241,7 +81247,7 @@
     <row r="195" spans="1:8" ht="16" customHeight="1">
       <c r="A195" s="130"/>
       <c r="B195" s="127" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C195" s="26" t="s">
         <v>940</v>
@@ -81261,7 +81267,7 @@
     <row r="196" spans="1:8" ht="16" customHeight="1">
       <c r="A196" s="20"/>
       <c r="B196" s="127" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C196" s="130" t="s">
         <v>940</v>
@@ -81281,7 +81287,7 @@
     <row r="197" spans="1:8" ht="16" customHeight="1">
       <c r="A197" s="20"/>
       <c r="B197" s="127" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C197" s="26" t="s">
         <v>940</v>
@@ -81301,7 +81307,7 @@
     <row r="198" spans="1:8" ht="16" customHeight="1">
       <c r="A198" s="20"/>
       <c r="B198" s="127" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C198" s="136" t="s">
         <v>940</v>
@@ -81321,7 +81327,7 @@
     <row r="199" spans="1:8" ht="16" customHeight="1">
       <c r="A199" s="20"/>
       <c r="B199" s="127" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C199" s="136" t="s">
         <v>940</v>
@@ -81341,7 +81347,7 @@
     <row r="200" spans="1:8" ht="16" customHeight="1">
       <c r="A200" s="20"/>
       <c r="B200" s="127" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C200" s="136" t="s">
         <v>940</v>
@@ -81361,7 +81367,7 @@
     <row r="201" spans="1:8" ht="16" customHeight="1">
       <c r="A201" s="20"/>
       <c r="B201" s="127" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C201" s="136" t="s">
         <v>940</v>
@@ -81381,7 +81387,7 @@
     <row r="202" spans="1:8" ht="16" customHeight="1">
       <c r="A202" s="20"/>
       <c r="B202" s="127" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C202" s="136" t="s">
         <v>940</v>
@@ -81401,7 +81407,7 @@
     <row r="203" spans="1:8" ht="16" customHeight="1">
       <c r="A203" s="20"/>
       <c r="B203" s="127" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C203" s="136" t="s">
         <v>940</v>
@@ -81421,7 +81427,7 @@
     <row r="204" spans="1:8" ht="16" customHeight="1">
       <c r="A204" s="20"/>
       <c r="B204" s="127" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C204" s="136" t="s">
         <v>940</v>
@@ -81441,7 +81447,7 @@
     <row r="205" spans="1:8" ht="16" customHeight="1">
       <c r="A205" s="20"/>
       <c r="B205" s="127" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C205" s="136" t="s">
         <v>940</v>
@@ -81461,7 +81467,7 @@
     <row r="206" spans="1:8" ht="16" customHeight="1">
       <c r="A206" s="20"/>
       <c r="B206" s="127" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C206" s="136" t="s">
         <v>940</v>
@@ -81481,7 +81487,7 @@
     <row r="207" spans="1:8" ht="16" customHeight="1">
       <c r="A207" s="20"/>
       <c r="B207" s="127" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C207" s="136" t="s">
         <v>940</v>
@@ -81501,7 +81507,7 @@
     <row r="208" spans="1:8" ht="16" customHeight="1">
       <c r="A208" s="20"/>
       <c r="B208" s="127" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C208" s="136" t="s">
         <v>940</v>
@@ -81521,7 +81527,7 @@
     <row r="209" spans="1:8" ht="16" customHeight="1">
       <c r="A209" s="20"/>
       <c r="B209" s="127" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C209" s="136" t="s">
         <v>940</v>
@@ -81541,7 +81547,7 @@
     <row r="210" spans="1:8" ht="16" customHeight="1">
       <c r="A210" s="20"/>
       <c r="B210" s="127" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C210" s="136" t="s">
         <v>940</v>
@@ -81563,7 +81569,7 @@
         <v>954</v>
       </c>
       <c r="B211" s="129" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C211" s="135" t="s">
         <v>86</v>
@@ -81583,7 +81589,7 @@
     <row r="212" spans="1:8" ht="16" customHeight="1">
       <c r="A212" s="130"/>
       <c r="B212" s="127" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C212" s="135" t="s">
         <v>86</v>
@@ -81603,7 +81609,7 @@
     <row r="213" spans="1:8" ht="16" customHeight="1">
       <c r="A213" s="130"/>
       <c r="B213" s="127" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C213" s="144" t="s">
         <v>83</v>
@@ -81622,7 +81628,7 @@
     </row>
     <row r="214" spans="1:8" ht="16" customHeight="1">
       <c r="A214" s="128" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B214" s="129" t="s">
         <v>318</v>
@@ -81645,7 +81651,7 @@
     <row r="215" spans="1:8" ht="16" customHeight="1">
       <c r="A215" s="130"/>
       <c r="B215" s="127" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C215" s="27" t="s">
         <v>83</v>
@@ -81665,7 +81671,7 @@
     <row r="216" spans="1:8" ht="16" customHeight="1">
       <c r="A216" s="131"/>
       <c r="B216" s="132" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C216" s="27" t="s">
         <v>83</v>
@@ -81687,7 +81693,7 @@
         <v>112</v>
       </c>
       <c r="B217" s="134" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C217" s="79" t="s">
         <v>14</v>
@@ -81706,10 +81712,10 @@
     </row>
     <row r="218" spans="1:8" ht="16" customHeight="1">
       <c r="A218" s="128" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B218" s="129" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C218" s="78" t="s">
         <v>940</v>
@@ -81729,7 +81735,7 @@
     <row r="219" spans="1:8" ht="16" customHeight="1">
       <c r="A219" s="20"/>
       <c r="B219" s="127" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C219" s="27" t="s">
         <v>940</v>
@@ -81749,7 +81755,7 @@
     <row r="220" spans="1:8" ht="16" customHeight="1">
       <c r="A220" s="20"/>
       <c r="B220" s="141" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C220" s="82" t="s">
         <v>940</v>
@@ -81769,7 +81775,7 @@
     <row r="221" spans="1:8" ht="16" customHeight="1">
       <c r="A221" s="20"/>
       <c r="B221" s="141" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C221" s="82" t="s">
         <v>940</v>
@@ -81789,7 +81795,7 @@
     <row r="222" spans="1:8" ht="16" customHeight="1">
       <c r="A222" s="20"/>
       <c r="B222" s="127" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C222" s="20" t="s">
         <v>940</v>
@@ -81830,10 +81836,10 @@
     </row>
     <row r="224" spans="1:8" ht="16" customHeight="1">
       <c r="A224" s="128" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B224" s="129" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C224" s="128" t="s">
         <v>63</v>
@@ -81853,7 +81859,7 @@
     <row r="225" spans="1:8" ht="16" customHeight="1">
       <c r="A225" s="20"/>
       <c r="B225" s="127" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C225" s="20" t="s">
         <v>63</v>
@@ -81993,7 +81999,7 @@
     <row r="232" spans="1:8" ht="16" customHeight="1">
       <c r="A232" s="20"/>
       <c r="B232" s="127" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C232" s="20" t="s">
         <v>63</v>
@@ -82073,7 +82079,7 @@
     <row r="236" spans="1:8" ht="16" customHeight="1">
       <c r="A236" s="20"/>
       <c r="B236" s="127" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C236" s="20" t="s">
         <v>85</v>
@@ -82093,7 +82099,7 @@
     <row r="237" spans="1:8" ht="16" customHeight="1">
       <c r="A237" s="20"/>
       <c r="B237" s="127" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C237" s="20" t="s">
         <v>85</v>
@@ -82113,7 +82119,7 @@
     <row r="238" spans="1:8" ht="16" customHeight="1">
       <c r="A238" s="20"/>
       <c r="B238" s="127" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C238" s="20" t="s">
         <v>85</v>
@@ -82133,7 +82139,7 @@
     <row r="239" spans="1:8" ht="16" customHeight="1">
       <c r="A239" s="20"/>
       <c r="B239" s="127" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C239" s="20" t="s">
         <v>85</v>
@@ -82153,7 +82159,7 @@
     <row r="240" spans="1:8" ht="16" customHeight="1">
       <c r="A240" s="20"/>
       <c r="B240" s="127" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C240" s="20" t="s">
         <v>85</v>
@@ -82173,7 +82179,7 @@
     <row r="241" spans="1:8" ht="16" customHeight="1">
       <c r="A241" s="20"/>
       <c r="B241" s="127" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C241" s="20" t="s">
         <v>85</v>
@@ -82193,7 +82199,7 @@
     <row r="242" spans="1:8" ht="16" customHeight="1">
       <c r="A242" s="20"/>
       <c r="B242" s="127" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C242" s="20" t="s">
         <v>85</v>
@@ -82233,7 +82239,7 @@
     <row r="244" spans="1:8" ht="16" customHeight="1">
       <c r="A244" s="20"/>
       <c r="B244" s="127" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C244" s="20" t="s">
         <v>85</v>
@@ -82253,7 +82259,7 @@
     <row r="245" spans="1:8" ht="16" customHeight="1">
       <c r="A245" s="20"/>
       <c r="B245" s="127" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C245" s="20" t="s">
         <v>85</v>
@@ -82273,7 +82279,7 @@
     <row r="246" spans="1:8" ht="16" customHeight="1">
       <c r="A246" s="20"/>
       <c r="B246" s="127" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C246" s="20" t="s">
         <v>85</v>
@@ -82293,7 +82299,7 @@
     <row r="247" spans="1:8" ht="16" customHeight="1">
       <c r="A247" s="20"/>
       <c r="B247" s="127" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C247" s="20" t="s">
         <v>85</v>
@@ -82313,7 +82319,7 @@
     <row r="248" spans="1:8" ht="16" customHeight="1">
       <c r="A248" s="20"/>
       <c r="B248" s="127" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C248" s="20" t="s">
         <v>85</v>
@@ -82333,7 +82339,7 @@
     <row r="249" spans="1:8" ht="16" customHeight="1">
       <c r="A249" s="20"/>
       <c r="B249" s="127" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C249" s="20" t="s">
         <v>85</v>
@@ -82353,7 +82359,7 @@
     <row r="250" spans="1:8" ht="16" customHeight="1">
       <c r="A250" s="20"/>
       <c r="B250" s="127" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C250" s="20" t="s">
         <v>85</v>
@@ -82373,7 +82379,7 @@
     <row r="251" spans="1:8" ht="16" customHeight="1">
       <c r="A251" s="20"/>
       <c r="B251" s="127" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C251" s="20" t="s">
         <v>85</v>
@@ -82393,7 +82399,7 @@
     <row r="252" spans="1:8" ht="16" customHeight="1">
       <c r="A252" s="20"/>
       <c r="B252" s="127" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C252" s="20" t="s">
         <v>85</v>
@@ -82413,7 +82419,7 @@
     <row r="253" spans="1:8" ht="16" customHeight="1">
       <c r="A253" s="20"/>
       <c r="B253" s="127" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C253" s="20" t="s">
         <v>85</v>
@@ -82453,7 +82459,7 @@
     <row r="255" spans="1:8" ht="16" customHeight="1">
       <c r="A255" s="20"/>
       <c r="B255" s="127" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C255" s="20" t="s">
         <v>85</v>
@@ -82473,7 +82479,7 @@
     <row r="256" spans="1:8" ht="16" customHeight="1">
       <c r="A256" s="20"/>
       <c r="B256" s="127" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C256" s="20" t="s">
         <v>85</v>
@@ -82513,7 +82519,7 @@
     <row r="258" spans="1:8" ht="16" customHeight="1">
       <c r="A258" s="20"/>
       <c r="B258" s="127" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C258" s="20" t="s">
         <v>85</v>
@@ -82533,7 +82539,7 @@
     <row r="259" spans="1:8" ht="16" customHeight="1">
       <c r="A259" s="20"/>
       <c r="B259" s="127" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C259" s="20" t="s">
         <v>85</v>
@@ -82553,7 +82559,7 @@
     <row r="260" spans="1:8" ht="16" customHeight="1">
       <c r="A260" s="20"/>
       <c r="B260" s="127" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C260" s="20" t="s">
         <v>85</v>
@@ -82573,7 +82579,7 @@
     <row r="261" spans="1:8" ht="16" customHeight="1">
       <c r="A261" s="20"/>
       <c r="B261" s="127" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C261" s="20" t="s">
         <v>85</v>
@@ -82593,7 +82599,7 @@
     <row r="262" spans="1:8" ht="16" customHeight="1">
       <c r="A262" s="20"/>
       <c r="B262" s="127" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C262" s="20" t="s">
         <v>85</v>
@@ -82613,7 +82619,7 @@
     <row r="263" spans="1:8" ht="16" customHeight="1">
       <c r="A263" s="20"/>
       <c r="B263" s="127" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C263" s="20" t="s">
         <v>85</v>
@@ -82633,7 +82639,7 @@
     <row r="264" spans="1:8" ht="16" customHeight="1">
       <c r="A264" s="20"/>
       <c r="B264" s="127" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C264" s="20" t="s">
         <v>85</v>
@@ -82673,7 +82679,7 @@
     <row r="266" spans="1:8" ht="16" customHeight="1">
       <c r="A266" s="20"/>
       <c r="B266" s="127" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C266" s="20" t="s">
         <v>85</v>
@@ -82713,7 +82719,7 @@
     <row r="268" spans="1:8" ht="16" customHeight="1">
       <c r="A268" s="20"/>
       <c r="B268" s="127" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C268" s="20" t="s">
         <v>85</v>
@@ -82733,7 +82739,7 @@
     <row r="269" spans="1:8" ht="16" customHeight="1">
       <c r="A269" s="20"/>
       <c r="B269" s="127" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C269" s="20" t="s">
         <v>85</v>
@@ -82753,7 +82759,7 @@
     <row r="270" spans="1:8" ht="16" customHeight="1">
       <c r="A270" s="20"/>
       <c r="B270" s="127" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C270" s="20" t="s">
         <v>85</v>
@@ -82773,7 +82779,7 @@
     <row r="271" spans="1:8" ht="16" customHeight="1">
       <c r="A271" s="20"/>
       <c r="B271" s="127" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C271" s="20" t="s">
         <v>85</v>
@@ -82793,7 +82799,7 @@
     <row r="272" spans="1:8" ht="16" customHeight="1">
       <c r="A272" s="20"/>
       <c r="B272" s="127" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C272" s="20" t="s">
         <v>85</v>
@@ -82813,7 +82819,7 @@
     <row r="273" spans="1:8" ht="16" customHeight="1">
       <c r="A273" s="20"/>
       <c r="B273" s="127" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C273" s="20" t="s">
         <v>85</v>
@@ -82833,7 +82839,7 @@
     <row r="274" spans="1:8" ht="16" customHeight="1">
       <c r="A274" s="20"/>
       <c r="B274" s="127" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C274" s="20" t="s">
         <v>85</v>
@@ -82853,7 +82859,7 @@
     <row r="275" spans="1:8" ht="16" customHeight="1">
       <c r="A275" s="20"/>
       <c r="B275" s="127" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C275" s="20" t="s">
         <v>54</v>
@@ -82872,7 +82878,7 @@
     </row>
     <row r="276" spans="1:8" ht="16" customHeight="1">
       <c r="A276" s="128" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B276" s="129" t="s">
         <v>669</v>
@@ -82915,7 +82921,7 @@
     <row r="278" spans="1:8" ht="16" customHeight="1">
       <c r="A278" s="20"/>
       <c r="B278" s="127" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C278" s="27" t="s">
         <v>83</v>
@@ -82935,7 +82941,7 @@
     <row r="279" spans="1:8" ht="16" customHeight="1">
       <c r="A279" s="20"/>
       <c r="B279" s="137" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C279" s="29" t="s">
         <v>83</v>
@@ -83425,12 +83431,12 @@
         <v>79742</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16">
       <c r="A2" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>86</v>
@@ -83447,7 +83453,7 @@
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>30</v>
@@ -83532,7 +83538,7 @@
     </row>
     <row r="8" spans="1:7" ht="16">
       <c r="A8" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>64</v>
@@ -83583,7 +83589,7 @@
     </row>
     <row r="11" spans="1:7" ht="16">
       <c r="A11" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>86</v>
@@ -83600,7 +83606,7 @@
     </row>
     <row r="12" spans="1:7" ht="16">
       <c r="A12" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>935</v>
@@ -83617,7 +83623,7 @@
     </row>
     <row r="13" spans="1:7" ht="16">
       <c r="A13" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>948</v>
@@ -83668,7 +83674,7 @@
     </row>
     <row r="16" spans="1:7" ht="16">
       <c r="A16" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>943</v>
@@ -83685,7 +83691,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B17" s="114" t="s">
         <v>83</v>
@@ -83702,7 +83708,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B18" s="114" t="s">
         <v>83</v>
@@ -83719,7 +83725,7 @@
     </row>
     <row r="19" spans="1:5" ht="16">
       <c r="A19" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>948</v>
@@ -83736,7 +83742,7 @@
     </row>
     <row r="20" spans="1:5" ht="16">
       <c r="A20" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>948</v>
@@ -83753,7 +83759,7 @@
     </row>
     <row r="21" spans="1:5" ht="16">
       <c r="A21" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>948</v>
@@ -83770,7 +83776,7 @@
     </row>
     <row r="22" spans="1:5" ht="16">
       <c r="A22" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>82</v>
@@ -83787,7 +83793,7 @@
     </row>
     <row r="23" spans="1:5" ht="16">
       <c r="A23" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>951</v>
@@ -83804,7 +83810,7 @@
     </row>
     <row r="24" spans="1:5" ht="16">
       <c r="A24" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>951</v>
@@ -83838,7 +83844,7 @@
     </row>
     <row r="26" spans="1:5" ht="16">
       <c r="A26" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>951</v>
@@ -83872,7 +83878,7 @@
     </row>
     <row r="28" spans="1:5" ht="16">
       <c r="A28" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>951</v>
@@ -83889,7 +83895,7 @@
     </row>
     <row r="29" spans="1:5" ht="16">
       <c r="A29" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>938</v>
@@ -83923,7 +83929,7 @@
     </row>
     <row r="31" spans="1:5" ht="16">
       <c r="A31" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>940</v>
@@ -83940,7 +83946,7 @@
     </row>
     <row r="32" spans="1:5" ht="16">
       <c r="A32" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>14</v>
@@ -84008,7 +84014,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B36" s="114" t="s">
         <v>947</v>
@@ -84025,7 +84031,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B37" s="114" t="s">
         <v>85</v>
@@ -84042,7 +84048,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="115" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B38" s="116" t="s">
         <v>83</v>
@@ -84072,9 +84078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -84111,7 +84117,7 @@
         <v>98760</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -85186,10 +85192,10 @@
         <v>234</v>
       </c>
       <c r="C61" s="64" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D61" s="64" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E61" s="65" t="s">
         <v>24</v>
@@ -85204,10 +85210,10 @@
         <v>235</v>
       </c>
       <c r="C62" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E62" s="65" t="s">
         <v>24</v>
@@ -85222,10 +85228,10 @@
         <v>236</v>
       </c>
       <c r="C63" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E63" s="65" t="s">
         <v>24</v>
@@ -85240,10 +85246,10 @@
         <v>237</v>
       </c>
       <c r="C64" s="64" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D64" s="64" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E64" s="65" t="s">
         <v>24</v>
@@ -85258,10 +85264,10 @@
         <v>238</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D65" s="64" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E65" s="65" t="s">
         <v>24</v>
@@ -85276,10 +85282,10 @@
         <v>239</v>
       </c>
       <c r="C66" s="64" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D66" s="64" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E66" s="65" t="s">
         <v>24</v>
@@ -86618,10 +86624,10 @@
         <v>183</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>67</v>
@@ -86636,10 +86642,10 @@
         <v>184</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>67</v>
@@ -86834,10 +86840,10 @@
         <v>291</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E152" s="26" t="s">
         <v>67</v>
@@ -86852,10 +86858,10 @@
         <v>292</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E153" s="26" t="s">
         <v>67</v>
@@ -86870,10 +86876,10 @@
         <v>293</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E154" s="26" t="s">
         <v>67</v>
@@ -86888,10 +86894,10 @@
         <v>294</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E155" s="26" t="s">
         <v>67</v>
@@ -86906,10 +86912,10 @@
         <v>295</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E156" s="27" t="s">
         <v>67</v>
@@ -87106,10 +87112,10 @@
         <v>189</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D167" s="26" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E167" s="26" t="s">
         <v>83</v>
@@ -87142,10 +87148,10 @@
         <v>191</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E169" s="26" t="s">
         <v>83</v>
@@ -87160,10 +87166,10 @@
         <v>192</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E170" s="26" t="s">
         <v>83</v>
@@ -87178,10 +87184,10 @@
         <v>193</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E171" s="26" t="s">
         <v>83</v>
@@ -87196,10 +87202,10 @@
         <v>194</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D172" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E172" s="28" t="s">
         <v>83</v>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC882CBC-9EC9-A644-A095-184A6F6889A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101EB078-2B1A-164B-95BE-961CAD7F4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15179" uniqueCount="1730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15179" uniqueCount="1732">
   <si>
     <t>Notes</t>
   </si>
@@ -5290,6 +5290,12 @@
   </si>
   <si>
     <t>Other Neurologic</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Kidney Disease and Diabetes</t>
   </si>
 </sst>
 </file>
@@ -5689,7 +5695,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6196,10 +6202,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8015,9 +8033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8105,7 +8123,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>1730</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -9553,8 +9571,8 @@
   <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11817,7 +11835,7 @@
         <v>158</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>21</v>
@@ -12051,8 +12069,8 @@
       <c r="B118" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C118" s="25" t="s">
-        <v>5</v>
+      <c r="C118" s="202" t="s">
+        <v>1730</v>
       </c>
       <c r="D118" s="27" t="s">
         <v>5</v>
@@ -12073,7 +12091,7 @@
         <v>986</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D119" s="27" t="s">
         <v>14</v>
@@ -12094,7 +12112,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>5</v>
+        <v>1730</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>5</v>
@@ -12115,7 +12133,7 @@
         <v>169</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>14</v>
@@ -12136,7 +12154,7 @@
         <v>987</v>
       </c>
       <c r="C122" s="74" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>14</v>
@@ -13467,7 +13485,7 @@
         <v>199</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>5</v>
+        <v>1030</v>
       </c>
       <c r="D185" s="27" t="s">
         <v>5</v>
@@ -13553,7 +13571,7 @@
         <v>301</v>
       </c>
       <c r="C189" s="72" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D189" s="27" t="s">
         <v>935</v>
@@ -13574,7 +13592,7 @@
         <v>302</v>
       </c>
       <c r="C190" s="72" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D190" s="27" t="s">
         <v>935</v>
@@ -13595,7 +13613,7 @@
         <v>1005</v>
       </c>
       <c r="C191" s="72" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D191" s="27" t="s">
         <v>935</v>
@@ -13616,7 +13634,7 @@
         <v>202</v>
       </c>
       <c r="C192" s="72" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D192" s="27" t="s">
         <v>935</v>
@@ -13637,7 +13655,7 @@
         <v>1006</v>
       </c>
       <c r="C193" s="72" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D193" s="27" t="s">
         <v>935</v>
@@ -15038,8 +15056,8 @@
   <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17238,7 +17256,7 @@
         <v>158</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D109" s="82" t="s">
         <v>21</v>
@@ -17545,8 +17563,8 @@
       <c r="B124" s="27" t="s">
         <v>778</v>
       </c>
-      <c r="C124" s="27" t="s">
-        <v>5</v>
+      <c r="C124" s="201" t="s">
+        <v>1730</v>
       </c>
       <c r="D124" s="82" t="s">
         <v>5</v>
@@ -17566,7 +17584,7 @@
         <v>777</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D125" s="82" t="s">
         <v>14</v>
@@ -17586,7 +17604,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>5</v>
+        <v>1730</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>5</v>
@@ -17606,7 +17624,7 @@
         <v>779</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D127" s="82" t="s">
         <v>14</v>
@@ -17627,7 +17645,7 @@
         <v>780</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D128" s="84" t="s">
         <v>14</v>
@@ -19149,7 +19167,7 @@
         <v>824</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>5</v>
+        <v>1030</v>
       </c>
       <c r="D203" s="82" t="s">
         <v>5</v>
@@ -19253,7 +19271,7 @@
         <v>301</v>
       </c>
       <c r="C208" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D208" s="82" t="s">
         <v>935</v>
@@ -19273,7 +19291,7 @@
         <v>828</v>
       </c>
       <c r="C209" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D209" s="82" t="s">
         <v>935</v>
@@ -19293,7 +19311,7 @@
         <v>829</v>
       </c>
       <c r="C210" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D210" s="82" t="s">
         <v>935</v>
@@ -19313,7 +19331,7 @@
         <v>202</v>
       </c>
       <c r="C211" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D211" s="82" t="s">
         <v>935</v>
@@ -20890,8 +20908,8 @@
   <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22921,7 +22939,7 @@
         <v>158</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D96" s="49" t="s">
         <v>21</v>
@@ -24907,7 +24925,7 @@
         <v>1145</v>
       </c>
       <c r="C190" s="89" t="s">
-        <v>5</v>
+        <v>1030</v>
       </c>
       <c r="D190" s="49" t="s">
         <v>5</v>
@@ -25014,7 +25032,7 @@
         <v>1151</v>
       </c>
       <c r="C195" s="89" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D195" s="49" t="s">
         <v>935</v>
@@ -25035,7 +25053,7 @@
         <v>828</v>
       </c>
       <c r="C196" s="89" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D196" s="49" t="s">
         <v>935</v>
@@ -25056,7 +25074,7 @@
         <v>1152</v>
       </c>
       <c r="C197" s="89" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D197" s="49" t="s">
         <v>935</v>
@@ -25077,7 +25095,7 @@
         <v>1153</v>
       </c>
       <c r="C198" s="89" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D198" s="49" t="s">
         <v>935</v>
@@ -25098,7 +25116,7 @@
         <v>202</v>
       </c>
       <c r="C199" s="89" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D199" s="49" t="s">
         <v>935</v>
@@ -26939,9 +26957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -27385,13 +27403,13 @@
         <v>392</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>24</v>
@@ -27805,7 +27823,7 @@
         <v>384</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>21</v>
@@ -27902,7 +27920,7 @@
       <c r="B38" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="201" t="s">
+      <c r="C38" s="200" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -27927,7 +27945,7 @@
       <c r="B39" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="201" t="s">
+      <c r="C39" s="200" t="s">
         <v>1728</v>
       </c>
       <c r="D39" s="43" t="s">
@@ -28484,7 +28502,10 @@
         <v>1797</v>
       </c>
       <c r="H61" s="138"/>
-      <c r="I61" s="138"/>
+      <c r="I61" s="138">
+        <f>SUM(G59,G60,G61,G62,G63,G66,G65,G64)</f>
+        <v>15672</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="16">
       <c r="A62" s="92"/>
@@ -28689,11 +28710,11 @@
       <c r="B70" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="C70" s="199" t="s">
+      <c r="C70" s="45" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D70" s="199" t="s">
         <v>5</v>
-      </c>
-      <c r="D70" s="45" t="s">
-        <v>1030</v>
       </c>
       <c r="E70" s="45" t="s">
         <v>14</v>
@@ -28763,7 +28784,7 @@
         <v>455</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>935</v>
@@ -28786,7 +28807,7 @@
         <v>456</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D74" s="49" t="s">
         <v>935</v>
@@ -28809,7 +28830,7 @@
         <v>457</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D75" s="49" t="s">
         <v>935</v>
@@ -28832,7 +28853,7 @@
         <v>458</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>935</v>
@@ -28857,7 +28878,7 @@
         <v>384</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>935</v>
@@ -29537,8 +29558,8 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29897,13 +29918,13 @@
         <v>392</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>24</v>
@@ -30302,7 +30323,7 @@
         <v>384</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>21</v>
@@ -30391,7 +30412,7 @@
       <c r="B39" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="201" t="s">
+      <c r="C39" s="200" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="43" t="s">
@@ -30414,7 +30435,7 @@
       <c r="B40" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C40" s="201" t="s">
+      <c r="C40" s="200" t="s">
         <v>1728</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -31170,11 +31191,11 @@
       <c r="B72" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="C72" s="200" t="s">
+      <c r="C72" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D72" s="203" t="s">
         <v>5</v>
-      </c>
-      <c r="D72" s="91" t="s">
-        <v>1030</v>
       </c>
       <c r="E72" s="91" t="s">
         <v>14</v>
@@ -31217,7 +31238,7 @@
         <v>455</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D74" s="45" t="s">
         <v>935</v>
@@ -31238,7 +31259,7 @@
         <v>456</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D75" s="49" t="s">
         <v>935</v>
@@ -31259,7 +31280,7 @@
         <v>457</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D76" s="49" t="s">
         <v>935</v>
@@ -31282,7 +31303,7 @@
         <v>384</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>935</v>
@@ -31869,9 +31890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F991E2-CA91-C64F-92DE-133AD8400423}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32207,13 +32228,13 @@
         <v>392</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>24</v>
@@ -32612,7 +32633,7 @@
         <v>384</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>21</v>
@@ -32701,7 +32722,7 @@
       <c r="B38" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="201" t="s">
+      <c r="C38" s="200" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -32724,7 +32745,7 @@
       <c r="B39" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="201" t="s">
+      <c r="C39" s="200" t="s">
         <v>1728</v>
       </c>
       <c r="D39" s="43" t="s">
@@ -33480,11 +33501,11 @@
       <c r="B71" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="C71" s="200" t="s">
+      <c r="C71" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D71" s="203" t="s">
         <v>5</v>
-      </c>
-      <c r="D71" s="91" t="s">
-        <v>1030</v>
       </c>
       <c r="E71" s="91" t="s">
         <v>14</v>
@@ -33527,7 +33548,7 @@
         <v>455</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D73" s="90" t="s">
         <v>935</v>
@@ -33548,7 +33569,7 @@
         <v>456</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D74" s="92" t="s">
         <v>935</v>
@@ -33569,7 +33590,7 @@
         <v>457</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D75" s="92" t="s">
         <v>935</v>
@@ -33590,7 +33611,7 @@
         <v>458</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D76" s="91" t="s">
         <v>935</v>
@@ -33613,7 +33634,7 @@
         <v>384</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>935</v>
@@ -34239,9 +34260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE00D5B-D363-6A46-AEA9-149824DE4DAC}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -35063,7 +35084,7 @@
         <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -35224,7 +35245,7 @@
         <v>1696</v>
       </c>
       <c r="C43" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D43" t="s">
         <v>935</v>
@@ -35678,7 +35699,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView topLeftCell="B15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36500,7 +36521,7 @@
         <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -36661,7 +36682,7 @@
         <v>1696</v>
       </c>
       <c r="C43" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D43" t="s">
         <v>935</v>
@@ -37114,8 +37135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="99" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="C9" zoomScale="99" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -37565,9 +37586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B2E49A-556D-F34D-9F51-F7E75AC7C46E}">
   <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39165,7 +39186,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>21</v>
@@ -41527,7 +41548,7 @@
         <v>301</v>
       </c>
       <c r="C125" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D125" s="27" t="s">
         <v>935</v>
@@ -41559,7 +41580,7 @@
         <v>588</v>
       </c>
       <c r="C126" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>935</v>
@@ -41591,7 +41612,7 @@
         <v>589</v>
       </c>
       <c r="C127" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D127" s="27" t="s">
         <v>935</v>
@@ -41619,7 +41640,7 @@
         <v>590</v>
       </c>
       <c r="C128" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>935</v>
@@ -44515,8 +44536,8 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -45407,7 +45428,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>21</v>
@@ -46908,7 +46929,7 @@
         <v>301</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D113" s="27" t="s">
         <v>935</v>
@@ -46929,7 +46950,7 @@
         <v>588</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>935</v>
@@ -46950,7 +46971,7 @@
         <v>590</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D115" s="27" t="s">
         <v>935</v>
@@ -48571,8 +48592,8 @@
   <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49606,7 +49627,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>21</v>
@@ -51122,7 +51143,7 @@
         <v>301</v>
       </c>
       <c r="C125" s="81" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D125" s="65" t="s">
         <v>935</v>
@@ -51142,7 +51163,7 @@
         <v>588</v>
       </c>
       <c r="C126" s="81" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D126" s="65" t="s">
         <v>935</v>
@@ -51162,7 +51183,7 @@
         <v>589</v>
       </c>
       <c r="C127" s="81" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D127" s="65" t="s">
         <v>935</v>
@@ -51182,7 +51203,7 @@
         <v>590</v>
       </c>
       <c r="C128" s="81" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D128" s="65" t="s">
         <v>935</v>
@@ -52830,10 +52851,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5152F6-972D-7D4C-9BE9-115020DCE41E}">
   <dimension ref="A1:I206"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -53915,7 +53936,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>21</v>
@@ -55479,7 +55500,7 @@
         <v>301</v>
       </c>
       <c r="C125" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D125" s="27" t="s">
         <v>935</v>
@@ -55500,7 +55521,7 @@
         <v>588</v>
       </c>
       <c r="C126" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>935</v>
@@ -55521,7 +55542,7 @@
         <v>589</v>
       </c>
       <c r="C127" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D127" s="27" t="s">
         <v>935</v>
@@ -55542,7 +55563,7 @@
         <v>590</v>
       </c>
       <c r="C128" s="82" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>935</v>
@@ -57260,8 +57281,8 @@
   <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -58449,7 +58470,7 @@
         <v>158</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>21</v>
@@ -60286,7 +60307,7 @@
         <v>1342</v>
       </c>
       <c r="C143" s="78" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D143" s="78" t="s">
         <v>935</v>
@@ -60307,7 +60328,7 @@
         <v>1343</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>935</v>
@@ -60328,7 +60349,7 @@
         <v>589</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>935</v>
@@ -60349,7 +60370,7 @@
         <v>590</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>935</v>
@@ -62202,9 +62223,9 @@
   <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -64143,7 +64164,7 @@
         <v>158</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>21</v>
@@ -64606,7 +64627,7 @@
       <c r="B104" s="123" t="s">
         <v>1463</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C104" s="205" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="78" t="s">
@@ -64629,7 +64650,7 @@
       <c r="B105" s="121" t="s">
         <v>1464</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="201" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="27" t="s">
@@ -66133,7 +66154,7 @@
         <v>1603</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>5</v>
+        <v>1030</v>
       </c>
       <c r="D170" s="26" t="s">
         <v>5</v>
@@ -66319,7 +66340,7 @@
         <v>301</v>
       </c>
       <c r="C178" s="78" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D178" s="78" t="s">
         <v>935</v>
@@ -66342,7 +66363,7 @@
         <v>1518</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D179" s="27" t="s">
         <v>935</v>
@@ -66365,7 +66386,7 @@
         <v>1519</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>935</v>
@@ -66388,7 +66409,7 @@
         <v>1520</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D181" s="27" t="s">
         <v>935</v>
@@ -66411,7 +66432,7 @@
         <v>1521</v>
       </c>
       <c r="C182" s="129" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D182" s="130" t="s">
         <v>935</v>
@@ -68762,8 +68783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2DB03-2EAE-2749-A49C-27038286C702}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -69048,7 +69069,7 @@
         <v>158</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="C14" s="108" t="s">
         <v>21</v>
@@ -69348,7 +69369,7 @@
         <v>1249</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>935</v>
@@ -69591,9 +69612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -71770,7 +71791,7 @@
         <v>158</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>21</v>
+        <v>1731</v>
       </c>
       <c r="D103" s="26" t="s">
         <v>21</v>
@@ -72004,8 +72025,8 @@
       <c r="B114" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="C114" s="82" t="s">
-        <v>5</v>
+      <c r="C114" s="204" t="s">
+        <v>1730</v>
       </c>
       <c r="D114" s="82" t="s">
         <v>5</v>
@@ -72026,7 +72047,7 @@
         <v>168</v>
       </c>
       <c r="C115" s="82" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D115" s="82" t="s">
         <v>14</v>
@@ -72047,7 +72068,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="82" t="s">
-        <v>5</v>
+        <v>1730</v>
       </c>
       <c r="D116" s="82" t="s">
         <v>5</v>
@@ -72068,7 +72089,7 @@
         <v>169</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>14</v>
@@ -72089,7 +72110,7 @@
         <v>170</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>14</v>
+        <v>1730</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>14</v>
@@ -73420,7 +73441,7 @@
         <v>199</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>5</v>
+        <v>1030</v>
       </c>
       <c r="D181" s="26" t="s">
         <v>5</v>
@@ -73485,7 +73506,7 @@
         <v>301</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D184" s="26" t="s">
         <v>935</v>
@@ -73506,7 +73527,7 @@
         <v>302</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D185" s="26" t="s">
         <v>935</v>
@@ -73527,7 +73548,7 @@
         <v>303</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D186" s="26" t="s">
         <v>935</v>
@@ -73548,7 +73569,7 @@
         <v>202</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D187" s="26" t="s">
         <v>935</v>
@@ -73569,7 +73590,7 @@
         <v>203</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>935</v>
+        <v>1731</v>
       </c>
       <c r="D188" s="26" t="s">
         <v>935</v>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101EB078-2B1A-164B-95BE-961CAD7F4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E639DB7A-1004-AC4C-9971-2663CF550466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="234" r:id="rId22"/>
+    <pivotCache cacheId="0" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -6115,6 +6115,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6198,27 +6219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7641,7 +7641,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="234" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H2:I11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -8033,9 +8033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12069,7 +12069,7 @@
       <c r="B118" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C118" s="202" t="s">
+      <c r="C118" s="174" t="s">
         <v>1730</v>
       </c>
       <c r="D118" s="27" t="s">
@@ -17563,7 +17563,7 @@
       <c r="B124" s="27" t="s">
         <v>778</v>
       </c>
-      <c r="C124" s="201" t="s">
+      <c r="C124" s="173" t="s">
         <v>1730</v>
       </c>
       <c r="D124" s="82" t="s">
@@ -27052,7 +27052,7 @@
       <c r="G3" s="34">
         <v>85</v>
       </c>
-      <c r="H3" s="172"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1">
@@ -27075,20 +27075,20 @@
       <c r="G4" s="36">
         <v>19</v>
       </c>
-      <c r="H4" s="172"/>
+      <c r="H4" s="179"/>
       <c r="I4" s="138"/>
       <c r="L4" s="94" t="s">
         <v>489</v>
       </c>
-      <c r="M4" s="171" t="s">
+      <c r="M4" s="178" t="s">
         <v>490</v>
       </c>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
     </row>
     <row r="5" spans="1:19" ht="16">
       <c r="A5" s="88" t="s">
@@ -27114,13 +27114,13 @@
       </c>
       <c r="H5" s="138"/>
       <c r="I5" s="138"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
     </row>
     <row r="6" spans="1:19" ht="16">
       <c r="A6" s="88" t="s">
@@ -27146,13 +27146,13 @@
       </c>
       <c r="H6" s="138"/>
       <c r="I6" s="138"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
     </row>
     <row r="7" spans="1:19" ht="16">
       <c r="A7" s="88" t="s">
@@ -27178,13 +27178,13 @@
       </c>
       <c r="H7" s="138"/>
       <c r="I7" s="138"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
     </row>
     <row r="8" spans="1:19" ht="16">
       <c r="A8" s="88" t="s">
@@ -27210,13 +27210,13 @@
       </c>
       <c r="H8" s="138"/>
       <c r="I8" s="138"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
     </row>
     <row r="9" spans="1:19" ht="48">
       <c r="A9" s="88" t="s">
@@ -27242,13 +27242,13 @@
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="171"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
     </row>
     <row r="10" spans="1:19" ht="16">
       <c r="A10" s="90" t="s">
@@ -27274,13 +27274,13 @@
       </c>
       <c r="H10" s="138"/>
       <c r="I10" s="138"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
     </row>
     <row r="11" spans="1:19" ht="16">
       <c r="A11" s="92"/>
@@ -27920,7 +27920,7 @@
       <c r="B38" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="200" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -27945,7 +27945,7 @@
       <c r="B39" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="200" t="s">
+      <c r="C39" s="172" t="s">
         <v>1728</v>
       </c>
       <c r="D39" s="43" t="s">
@@ -27990,11 +27990,11 @@
       <c r="G40" s="34">
         <v>394</v>
       </c>
-      <c r="I40" s="178">
+      <c r="I40" s="185">
         <f>SUM(G41:G42,G51)</f>
         <v>5828</v>
       </c>
-      <c r="J40" s="173">
+      <c r="J40" s="180">
         <v>5867</v>
       </c>
     </row>
@@ -28018,8 +28018,8 @@
       <c r="G41" s="35">
         <v>3404</v>
       </c>
-      <c r="I41" s="179"/>
-      <c r="J41" s="174"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="181"/>
     </row>
     <row r="42" spans="1:10" ht="16">
       <c r="A42" s="92"/>
@@ -28041,8 +28041,8 @@
       <c r="G42" s="35">
         <v>408</v>
       </c>
-      <c r="I42" s="179"/>
-      <c r="J42" s="174"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="181"/>
     </row>
     <row r="43" spans="1:10" ht="16">
       <c r="A43" s="92"/>
@@ -28064,8 +28064,8 @@
       <c r="G43" s="35">
         <v>16543</v>
       </c>
-      <c r="I43" s="179"/>
-      <c r="J43" s="174"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="181"/>
     </row>
     <row r="44" spans="1:10" ht="16">
       <c r="A44" s="92"/>
@@ -28087,11 +28087,11 @@
       <c r="G44" s="35">
         <v>106</v>
       </c>
-      <c r="I44" s="180">
+      <c r="I44" s="187">
         <f>SUM(G43:G46)</f>
         <v>53585</v>
       </c>
-      <c r="J44" s="176">
+      <c r="J44" s="183">
         <v>53593</v>
       </c>
     </row>
@@ -28115,8 +28115,8 @@
       <c r="G45" s="35">
         <v>8568</v>
       </c>
-      <c r="I45" s="180"/>
-      <c r="J45" s="176"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="183"/>
     </row>
     <row r="46" spans="1:10" ht="32">
       <c r="A46" s="92"/>
@@ -28138,8 +28138,8 @@
       <c r="G46" s="35">
         <v>28368</v>
       </c>
-      <c r="I46" s="180"/>
-      <c r="J46" s="176"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="183"/>
     </row>
     <row r="47" spans="1:10" ht="16">
       <c r="A47" s="92"/>
@@ -28161,8 +28161,8 @@
       <c r="G47" s="35">
         <v>120</v>
       </c>
-      <c r="I47" s="180"/>
-      <c r="J47" s="176"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="183"/>
     </row>
     <row r="48" spans="1:10" ht="16">
       <c r="A48" s="92"/>
@@ -28184,11 +28184,11 @@
       <c r="G48" s="35">
         <v>77</v>
       </c>
-      <c r="I48" s="181">
+      <c r="I48" s="188">
         <f>SUM(G52)</f>
         <v>18185</v>
       </c>
-      <c r="J48" s="175">
+      <c r="J48" s="182">
         <v>18101</v>
       </c>
     </row>
@@ -28212,8 +28212,8 @@
       <c r="G49" s="35">
         <v>3160</v>
       </c>
-      <c r="I49" s="181"/>
-      <c r="J49" s="175"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="182"/>
     </row>
     <row r="50" spans="1:10" ht="16">
       <c r="A50" s="92"/>
@@ -28235,8 +28235,8 @@
       <c r="G50" s="35">
         <v>7278</v>
       </c>
-      <c r="I50" s="181"/>
-      <c r="J50" s="175"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="182"/>
     </row>
     <row r="51" spans="1:10" ht="32">
       <c r="A51" s="92"/>
@@ -28258,8 +28258,8 @@
       <c r="G51" s="35">
         <v>2016</v>
       </c>
-      <c r="I51" s="181"/>
-      <c r="J51" s="175"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="182"/>
     </row>
     <row r="52" spans="1:10" ht="16">
       <c r="A52" s="92"/>
@@ -28281,11 +28281,11 @@
       <c r="G52" s="35">
         <v>18185</v>
       </c>
-      <c r="I52" s="182">
+      <c r="I52" s="189">
         <f>SUM(G40,G47:G50,G53:G56)</f>
         <v>15384</v>
       </c>
-      <c r="J52" s="177">
+      <c r="J52" s="184">
         <v>15424</v>
       </c>
     </row>
@@ -28309,8 +28309,8 @@
       <c r="G53" s="35">
         <v>1629</v>
       </c>
-      <c r="I53" s="182"/>
-      <c r="J53" s="177"/>
+      <c r="I53" s="189"/>
+      <c r="J53" s="184"/>
     </row>
     <row r="54" spans="1:10" ht="16">
       <c r="A54" s="92"/>
@@ -28332,8 +28332,8 @@
       <c r="G54" s="35">
         <v>1407</v>
       </c>
-      <c r="I54" s="182"/>
-      <c r="J54" s="177"/>
+      <c r="I54" s="189"/>
+      <c r="J54" s="184"/>
     </row>
     <row r="55" spans="1:10" ht="16">
       <c r="A55" s="91"/>
@@ -28355,8 +28355,8 @@
       <c r="G55" s="36">
         <v>813</v>
       </c>
-      <c r="I55" s="182"/>
-      <c r="J55" s="177"/>
+      <c r="I55" s="189"/>
+      <c r="J55" s="184"/>
     </row>
     <row r="56" spans="1:10" ht="16">
       <c r="A56" s="88" t="s">
@@ -28380,8 +28380,8 @@
       <c r="G56" s="33">
         <v>506</v>
       </c>
-      <c r="I56" s="182"/>
-      <c r="J56" s="177"/>
+      <c r="I56" s="189"/>
+      <c r="J56" s="184"/>
     </row>
     <row r="57" spans="1:10" ht="16">
       <c r="A57" s="92" t="s">
@@ -28713,7 +28713,7 @@
       <c r="C70" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="D70" s="199" t="s">
+      <c r="D70" s="171" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="45" t="s">
@@ -30412,7 +30412,7 @@
       <c r="B39" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="200" t="s">
+      <c r="C39" s="172" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="43" t="s">
@@ -30435,7 +30435,7 @@
       <c r="B40" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C40" s="200" t="s">
+      <c r="C40" s="172" t="s">
         <v>1728</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -30479,11 +30479,11 @@
       <c r="G41" s="49">
         <v>323</v>
       </c>
-      <c r="I41" s="188">
+      <c r="I41" s="195">
         <f>SUM(G42:G43,G52)</f>
         <v>8202</v>
       </c>
-      <c r="J41" s="183">
+      <c r="J41" s="190">
         <v>8119</v>
       </c>
     </row>
@@ -30507,8 +30507,8 @@
       <c r="G42" s="50">
         <v>4057</v>
       </c>
-      <c r="I42" s="189"/>
-      <c r="J42" s="184"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="191"/>
     </row>
     <row r="43" spans="1:10" ht="16">
       <c r="A43" s="48"/>
@@ -30530,8 +30530,8 @@
       <c r="G43" s="49">
         <v>412</v>
       </c>
-      <c r="I43" s="189"/>
-      <c r="J43" s="184"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="191"/>
     </row>
     <row r="44" spans="1:10" ht="16">
       <c r="A44" s="48"/>
@@ -30553,8 +30553,8 @@
       <c r="G44" s="50">
         <v>11005</v>
       </c>
-      <c r="I44" s="189"/>
-      <c r="J44" s="184"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="191"/>
     </row>
     <row r="45" spans="1:10" ht="16">
       <c r="A45" s="48"/>
@@ -30576,11 +30576,11 @@
       <c r="G45" s="49">
         <v>186</v>
       </c>
-      <c r="I45" s="190">
+      <c r="I45" s="197">
         <f>SUM(G44:G47)</f>
         <v>39663</v>
       </c>
-      <c r="J45" s="185">
+      <c r="J45" s="192">
         <v>39133</v>
       </c>
     </row>
@@ -30604,8 +30604,8 @@
       <c r="G46" s="50">
         <v>6684</v>
       </c>
-      <c r="I46" s="191"/>
-      <c r="J46" s="185"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="192"/>
     </row>
     <row r="47" spans="1:10" ht="32">
       <c r="A47" s="48"/>
@@ -30627,8 +30627,8 @@
       <c r="G47" s="50">
         <v>21788</v>
       </c>
-      <c r="I47" s="191"/>
-      <c r="J47" s="185"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="192"/>
     </row>
     <row r="48" spans="1:10" ht="16">
       <c r="A48" s="48"/>
@@ -30650,8 +30650,8 @@
       <c r="G48" s="49">
         <v>115</v>
       </c>
-      <c r="I48" s="191"/>
-      <c r="J48" s="185"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="192"/>
     </row>
     <row r="49" spans="1:10" ht="16">
       <c r="A49" s="48"/>
@@ -30673,11 +30673,11 @@
       <c r="G49" s="49">
         <v>76</v>
       </c>
-      <c r="I49" s="192">
+      <c r="I49" s="199">
         <f>SUM(G53)</f>
         <v>13662</v>
       </c>
-      <c r="J49" s="186">
+      <c r="J49" s="193">
         <v>13551</v>
       </c>
     </row>
@@ -30701,8 +30701,8 @@
       <c r="G50" s="50">
         <v>4648</v>
       </c>
-      <c r="I50" s="193"/>
-      <c r="J50" s="186"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="193"/>
     </row>
     <row r="51" spans="1:10" ht="16">
       <c r="A51" s="48"/>
@@ -30724,8 +30724,8 @@
       <c r="G51" s="50">
         <v>9347</v>
       </c>
-      <c r="I51" s="193"/>
-      <c r="J51" s="186"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="193"/>
     </row>
     <row r="52" spans="1:10" ht="32">
       <c r="A52" s="48"/>
@@ -30747,8 +30747,8 @@
       <c r="G52" s="50">
         <v>3733</v>
       </c>
-      <c r="I52" s="193"/>
-      <c r="J52" s="186"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="193"/>
     </row>
     <row r="53" spans="1:10" ht="16">
       <c r="A53" s="48"/>
@@ -30770,11 +30770,11 @@
       <c r="G53" s="50">
         <v>13662</v>
       </c>
-      <c r="I53" s="194">
+      <c r="I53" s="201">
         <f>SUM(G41,G48:G51,G54:G57)</f>
         <v>17433</v>
       </c>
-      <c r="J53" s="187">
+      <c r="J53" s="194">
         <v>17182</v>
       </c>
     </row>
@@ -30798,8 +30798,8 @@
       <c r="G54" s="49">
         <v>792</v>
       </c>
-      <c r="I54" s="194"/>
-      <c r="J54" s="187"/>
+      <c r="I54" s="201"/>
+      <c r="J54" s="194"/>
     </row>
     <row r="55" spans="1:10" ht="16">
       <c r="A55" s="48"/>
@@ -30821,8 +30821,8 @@
       <c r="G55" s="49">
         <v>982</v>
       </c>
-      <c r="I55" s="194"/>
-      <c r="J55" s="187"/>
+      <c r="I55" s="201"/>
+      <c r="J55" s="194"/>
     </row>
     <row r="56" spans="1:10" ht="16">
       <c r="A56" s="39"/>
@@ -30844,8 +30844,8 @@
       <c r="G56" s="39">
         <v>704</v>
       </c>
-      <c r="I56" s="194"/>
-      <c r="J56" s="187"/>
+      <c r="I56" s="201"/>
+      <c r="J56" s="194"/>
     </row>
     <row r="57" spans="1:10" ht="16">
       <c r="A57" s="41" t="s">
@@ -30869,8 +30869,8 @@
       <c r="G57" s="43">
         <v>446</v>
       </c>
-      <c r="I57" s="194"/>
-      <c r="J57" s="187"/>
+      <c r="I57" s="201"/>
+      <c r="J57" s="194"/>
     </row>
     <row r="58" spans="1:10" ht="16">
       <c r="A58" s="44" t="s">
@@ -31194,7 +31194,7 @@
       <c r="C72" s="40" t="s">
         <v>1030</v>
       </c>
-      <c r="D72" s="203" t="s">
+      <c r="D72" s="175" t="s">
         <v>5</v>
       </c>
       <c r="E72" s="91" t="s">
@@ -32722,7 +32722,7 @@
       <c r="B38" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="200" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -32745,7 +32745,7 @@
       <c r="B39" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="200" t="s">
+      <c r="C39" s="172" t="s">
         <v>1728</v>
       </c>
       <c r="D39" s="43" t="s">
@@ -32789,11 +32789,11 @@
       <c r="G40" s="64">
         <v>368</v>
       </c>
-      <c r="I40" s="188">
+      <c r="I40" s="195">
         <f>SUM(G41:G42,G51)</f>
         <v>11856</v>
       </c>
-      <c r="J40" s="195">
+      <c r="J40" s="202">
         <v>11817</v>
       </c>
     </row>
@@ -32817,8 +32817,8 @@
       <c r="G41" s="150">
         <v>5442</v>
       </c>
-      <c r="I41" s="189"/>
-      <c r="J41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="203"/>
     </row>
     <row r="42" spans="1:10" ht="16">
       <c r="A42" s="26"/>
@@ -32840,8 +32840,8 @@
       <c r="G42" s="64">
         <v>903</v>
       </c>
-      <c r="I42" s="189"/>
-      <c r="J42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="203"/>
     </row>
     <row r="43" spans="1:10" ht="16">
       <c r="A43" s="26"/>
@@ -32863,8 +32863,8 @@
       <c r="G43" s="150">
         <v>9839</v>
       </c>
-      <c r="I43" s="189"/>
-      <c r="J43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="203"/>
     </row>
     <row r="44" spans="1:10" ht="16">
       <c r="A44" s="26"/>
@@ -32886,11 +32886,11 @@
       <c r="G44" s="64">
         <v>160</v>
       </c>
-      <c r="I44" s="190">
+      <c r="I44" s="197">
         <f>SUM(G43:G46)</f>
         <v>37465</v>
       </c>
-      <c r="J44" s="197">
+      <c r="J44" s="204">
         <v>37099</v>
       </c>
     </row>
@@ -32914,8 +32914,8 @@
       <c r="G45" s="150">
         <v>7321</v>
       </c>
-      <c r="I45" s="191"/>
-      <c r="J45" s="197"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="204"/>
     </row>
     <row r="46" spans="1:10" ht="32">
       <c r="A46" s="26"/>
@@ -32937,8 +32937,8 @@
       <c r="G46" s="150">
         <v>20145</v>
       </c>
-      <c r="I46" s="191"/>
-      <c r="J46" s="197"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="204"/>
     </row>
     <row r="47" spans="1:10" ht="16">
       <c r="A47" s="26"/>
@@ -32960,8 +32960,8 @@
       <c r="G47" s="64">
         <v>140</v>
       </c>
-      <c r="I47" s="191"/>
-      <c r="J47" s="197"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="204"/>
     </row>
     <row r="48" spans="1:10" ht="16">
       <c r="A48" s="26"/>
@@ -32983,11 +32983,11 @@
       <c r="G48" s="64">
         <v>68</v>
       </c>
-      <c r="I48" s="192">
+      <c r="I48" s="199">
         <f>SUM(G52)</f>
         <v>16457</v>
       </c>
-      <c r="J48" s="198">
+      <c r="J48" s="205">
         <v>16331</v>
       </c>
     </row>
@@ -33011,8 +33011,8 @@
       <c r="G49" s="150">
         <v>7615</v>
       </c>
-      <c r="I49" s="193"/>
-      <c r="J49" s="198"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="205"/>
     </row>
     <row r="50" spans="1:10" ht="16">
       <c r="A50" s="26"/>
@@ -33034,8 +33034,8 @@
       <c r="G50" s="150">
         <v>10546</v>
       </c>
-      <c r="I50" s="193"/>
-      <c r="J50" s="198"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="205"/>
     </row>
     <row r="51" spans="1:10" ht="32">
       <c r="A51" s="26"/>
@@ -33057,8 +33057,8 @@
       <c r="G51" s="150">
         <v>5511</v>
       </c>
-      <c r="I51" s="193"/>
-      <c r="J51" s="198"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="205"/>
     </row>
     <row r="52" spans="1:10" ht="16">
       <c r="A52" s="26"/>
@@ -33080,11 +33080,11 @@
       <c r="G52" s="150">
         <v>16457</v>
       </c>
-      <c r="I52" s="194">
+      <c r="I52" s="201">
         <f>SUM(G40,G47:G50,G53:G56)</f>
         <v>21504</v>
       </c>
-      <c r="J52" s="187">
+      <c r="J52" s="194">
         <v>21287</v>
       </c>
     </row>
@@ -33108,8 +33108,8 @@
       <c r="G53" s="64">
         <v>641</v>
       </c>
-      <c r="I53" s="194"/>
-      <c r="J53" s="187"/>
+      <c r="I53" s="201"/>
+      <c r="J53" s="194"/>
     </row>
     <row r="54" spans="1:10" ht="16">
       <c r="A54" s="26"/>
@@ -33131,8 +33131,8 @@
       <c r="G54" s="64">
         <v>902</v>
       </c>
-      <c r="I54" s="194"/>
-      <c r="J54" s="187"/>
+      <c r="I54" s="201"/>
+      <c r="J54" s="194"/>
     </row>
     <row r="55" spans="1:10" ht="16">
       <c r="A55" s="26"/>
@@ -33154,8 +33154,8 @@
       <c r="G55" s="64">
         <v>782</v>
       </c>
-      <c r="I55" s="194"/>
-      <c r="J55" s="187"/>
+      <c r="I55" s="201"/>
+      <c r="J55" s="194"/>
     </row>
     <row r="56" spans="1:10" ht="16">
       <c r="A56" s="57" t="s">
@@ -33179,8 +33179,8 @@
       <c r="G56" s="57">
         <v>442</v>
       </c>
-      <c r="I56" s="194"/>
-      <c r="J56" s="187"/>
+      <c r="I56" s="201"/>
+      <c r="J56" s="194"/>
     </row>
     <row r="57" spans="1:10" ht="16">
       <c r="A57" s="64" t="s">
@@ -33504,7 +33504,7 @@
       <c r="C71" s="40" t="s">
         <v>1030</v>
       </c>
-      <c r="D71" s="203" t="s">
+      <c r="D71" s="175" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="91" t="s">
@@ -34260,7 +34260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE00D5B-D363-6A46-AEA9-149824DE4DAC}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
@@ -37587,7 +37587,7 @@
   <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -44536,7 +44536,7 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -48592,7 +48592,7 @@
   <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -52852,7 +52852,7 @@
   <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
@@ -57281,7 +57281,7 @@
   <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
@@ -62223,9 +62223,9 @@
   <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -64627,7 +64627,7 @@
       <c r="B104" s="123" t="s">
         <v>1463</v>
       </c>
-      <c r="C104" s="205" t="s">
+      <c r="C104" s="177" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="78" t="s">
@@ -64650,7 +64650,7 @@
       <c r="B105" s="121" t="s">
         <v>1464</v>
       </c>
-      <c r="C105" s="201" t="s">
+      <c r="C105" s="173" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="27" t="s">
@@ -68776,6 +68776,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -68783,7 +68784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2DB03-2EAE-2749-A49C-27038286C702}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -69613,8 +69614,8 @@
   <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -72025,7 +72026,7 @@
       <c r="B114" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="C114" s="204" t="s">
+      <c r="C114" s="176" t="s">
         <v>1730</v>
       </c>
       <c r="D114" s="82" t="s">

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E639DB7A-1004-AC4C-9971-2663CF550466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AA5C6A-BBB5-6C4D-B660-FDAC112F6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -6136,6 +6136,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6152,24 +6170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8033,7 +8033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
@@ -27052,7 +27052,7 @@
       <c r="G3" s="34">
         <v>85</v>
       </c>
-      <c r="H3" s="179"/>
+      <c r="H3" s="185"/>
       <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1">
@@ -27075,20 +27075,20 @@
       <c r="G4" s="36">
         <v>19</v>
       </c>
-      <c r="H4" s="179"/>
+      <c r="H4" s="185"/>
       <c r="I4" s="138"/>
       <c r="L4" s="94" t="s">
         <v>489</v>
       </c>
-      <c r="M4" s="178" t="s">
+      <c r="M4" s="184" t="s">
         <v>490</v>
       </c>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
     </row>
     <row r="5" spans="1:19" ht="16">
       <c r="A5" s="88" t="s">
@@ -27114,13 +27114,13 @@
       </c>
       <c r="H5" s="138"/>
       <c r="I5" s="138"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
     </row>
     <row r="6" spans="1:19" ht="16">
       <c r="A6" s="88" t="s">
@@ -27146,13 +27146,13 @@
       </c>
       <c r="H6" s="138"/>
       <c r="I6" s="138"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
     </row>
     <row r="7" spans="1:19" ht="16">
       <c r="A7" s="88" t="s">
@@ -27178,13 +27178,13 @@
       </c>
       <c r="H7" s="138"/>
       <c r="I7" s="138"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
     </row>
     <row r="8" spans="1:19" ht="16">
       <c r="A8" s="88" t="s">
@@ -27210,13 +27210,13 @@
       </c>
       <c r="H8" s="138"/>
       <c r="I8" s="138"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
     </row>
     <row r="9" spans="1:19" ht="48">
       <c r="A9" s="88" t="s">
@@ -27242,13 +27242,13 @@
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
     </row>
     <row r="10" spans="1:19" ht="16">
       <c r="A10" s="90" t="s">
@@ -27274,13 +27274,13 @@
       </c>
       <c r="H10" s="138"/>
       <c r="I10" s="138"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
     </row>
     <row r="11" spans="1:19" ht="16">
       <c r="A11" s="92"/>
@@ -27990,11 +27990,11 @@
       <c r="G40" s="34">
         <v>394</v>
       </c>
-      <c r="I40" s="185">
+      <c r="I40" s="179">
         <f>SUM(G41:G42,G51)</f>
         <v>5828</v>
       </c>
-      <c r="J40" s="180">
+      <c r="J40" s="186">
         <v>5867</v>
       </c>
     </row>
@@ -28018,8 +28018,8 @@
       <c r="G41" s="35">
         <v>3404</v>
       </c>
-      <c r="I41" s="186"/>
-      <c r="J41" s="181"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="187"/>
     </row>
     <row r="42" spans="1:10" ht="16">
       <c r="A42" s="92"/>
@@ -28041,8 +28041,8 @@
       <c r="G42" s="35">
         <v>408</v>
       </c>
-      <c r="I42" s="186"/>
-      <c r="J42" s="181"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="187"/>
     </row>
     <row r="43" spans="1:10" ht="16">
       <c r="A43" s="92"/>
@@ -28064,8 +28064,8 @@
       <c r="G43" s="35">
         <v>16543</v>
       </c>
-      <c r="I43" s="186"/>
-      <c r="J43" s="181"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="187"/>
     </row>
     <row r="44" spans="1:10" ht="16">
       <c r="A44" s="92"/>
@@ -28087,11 +28087,11 @@
       <c r="G44" s="35">
         <v>106</v>
       </c>
-      <c r="I44" s="187">
+      <c r="I44" s="181">
         <f>SUM(G43:G46)</f>
         <v>53585</v>
       </c>
-      <c r="J44" s="183">
+      <c r="J44" s="189">
         <v>53593</v>
       </c>
     </row>
@@ -28115,8 +28115,8 @@
       <c r="G45" s="35">
         <v>8568</v>
       </c>
-      <c r="I45" s="187"/>
-      <c r="J45" s="183"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="189"/>
     </row>
     <row r="46" spans="1:10" ht="32">
       <c r="A46" s="92"/>
@@ -28138,8 +28138,8 @@
       <c r="G46" s="35">
         <v>28368</v>
       </c>
-      <c r="I46" s="187"/>
-      <c r="J46" s="183"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="189"/>
     </row>
     <row r="47" spans="1:10" ht="16">
       <c r="A47" s="92"/>
@@ -28161,8 +28161,8 @@
       <c r="G47" s="35">
         <v>120</v>
       </c>
-      <c r="I47" s="187"/>
-      <c r="J47" s="183"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="189"/>
     </row>
     <row r="48" spans="1:10" ht="16">
       <c r="A48" s="92"/>
@@ -28184,11 +28184,11 @@
       <c r="G48" s="35">
         <v>77</v>
       </c>
-      <c r="I48" s="188">
+      <c r="I48" s="182">
         <f>SUM(G52)</f>
         <v>18185</v>
       </c>
-      <c r="J48" s="182">
+      <c r="J48" s="188">
         <v>18101</v>
       </c>
     </row>
@@ -28212,8 +28212,8 @@
       <c r="G49" s="35">
         <v>3160</v>
       </c>
-      <c r="I49" s="188"/>
-      <c r="J49" s="182"/>
+      <c r="I49" s="182"/>
+      <c r="J49" s="188"/>
     </row>
     <row r="50" spans="1:10" ht="16">
       <c r="A50" s="92"/>
@@ -28235,8 +28235,8 @@
       <c r="G50" s="35">
         <v>7278</v>
       </c>
-      <c r="I50" s="188"/>
-      <c r="J50" s="182"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="188"/>
     </row>
     <row r="51" spans="1:10" ht="32">
       <c r="A51" s="92"/>
@@ -28258,8 +28258,8 @@
       <c r="G51" s="35">
         <v>2016</v>
       </c>
-      <c r="I51" s="188"/>
-      <c r="J51" s="182"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="188"/>
     </row>
     <row r="52" spans="1:10" ht="16">
       <c r="A52" s="92"/>
@@ -28281,11 +28281,11 @@
       <c r="G52" s="35">
         <v>18185</v>
       </c>
-      <c r="I52" s="189">
+      <c r="I52" s="183">
         <f>SUM(G40,G47:G50,G53:G56)</f>
         <v>15384</v>
       </c>
-      <c r="J52" s="184">
+      <c r="J52" s="178">
         <v>15424</v>
       </c>
     </row>
@@ -28309,8 +28309,8 @@
       <c r="G53" s="35">
         <v>1629</v>
       </c>
-      <c r="I53" s="189"/>
-      <c r="J53" s="184"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="178"/>
     </row>
     <row r="54" spans="1:10" ht="16">
       <c r="A54" s="92"/>
@@ -28332,8 +28332,8 @@
       <c r="G54" s="35">
         <v>1407</v>
       </c>
-      <c r="I54" s="189"/>
-      <c r="J54" s="184"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="178"/>
     </row>
     <row r="55" spans="1:10" ht="16">
       <c r="A55" s="91"/>
@@ -28355,8 +28355,8 @@
       <c r="G55" s="36">
         <v>813</v>
       </c>
-      <c r="I55" s="189"/>
-      <c r="J55" s="184"/>
+      <c r="I55" s="183"/>
+      <c r="J55" s="178"/>
     </row>
     <row r="56" spans="1:10" ht="16">
       <c r="A56" s="88" t="s">
@@ -28380,8 +28380,8 @@
       <c r="G56" s="33">
         <v>506</v>
       </c>
-      <c r="I56" s="189"/>
-      <c r="J56" s="184"/>
+      <c r="I56" s="183"/>
+      <c r="J56" s="178"/>
     </row>
     <row r="57" spans="1:10" ht="16">
       <c r="A57" s="92" t="s">
@@ -29499,16 +29499,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M4:S10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="J44:J47"/>
     <mergeCell ref="J52:J56"/>
     <mergeCell ref="I40:I43"/>
     <mergeCell ref="I44:I47"/>
     <mergeCell ref="I48:I51"/>
     <mergeCell ref="I52:I56"/>
-    <mergeCell ref="M4:S10"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="J44:J47"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F2:F1048576">
@@ -35696,10 +35696,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003FD4F6-0596-924C-9C8D-517B5EE2F179}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="B3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -35708,7 +35708,7 @@
     <col min="3" max="6" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="18" t="s">
         <v>1618</v>
       </c>
@@ -35730,8 +35730,12 @@
       <c r="G1" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16">
+      <c r="I1">
+        <f>SUM(G2:G60)</f>
+        <v>316540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" t="s">
         <v>1620</v>
       </c>
@@ -35754,7 +35758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" t="s">
         <v>1621</v>
       </c>
@@ -35777,7 +35781,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" t="s">
         <v>1623</v>
       </c>
@@ -35800,7 +35804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" t="s">
         <v>1624</v>
       </c>
@@ -35823,7 +35827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" t="s">
         <v>1625</v>
       </c>
@@ -35846,7 +35850,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" t="s">
         <v>1627</v>
       </c>
@@ -35869,7 +35873,7 @@
         <v>6042</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" t="s">
         <v>1629</v>
       </c>
@@ -35892,7 +35896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16">
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" t="s">
         <v>1631</v>
       </c>
@@ -35915,7 +35919,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" t="s">
         <v>1633</v>
       </c>
@@ -35938,7 +35942,7 @@
         <v>30857</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" t="s">
         <v>1635</v>
       </c>
@@ -35961,7 +35965,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" t="s">
         <v>1637</v>
       </c>
@@ -35984,7 +35988,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" t="s">
         <v>1639</v>
       </c>
@@ -36007,7 +36011,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" t="s">
         <v>1641</v>
       </c>
@@ -36030,7 +36034,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" t="s">
         <v>1643</v>
       </c>
@@ -36053,7 +36057,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" t="s">
         <v>1645</v>
       </c>
@@ -44225,10 +44229,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6088356-EAF0-3047-99CA-B8AF6FB8D417}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44282,7 +44286,7 @@
         <v>2377549</v>
       </c>
       <c r="D3" s="120">
-        <f t="shared" ref="D3:D17" si="0">(B3/C3)*100000</f>
+        <f t="shared" ref="D3:D19" si="0">(B3/C3)*100000</f>
         <v>1362.7479391591928</v>
       </c>
     </row>
@@ -44524,6 +44528,30 @@
       </c>
       <c r="E17" t="s">
         <v>1605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="120" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <v>316540</v>
+      </c>
+      <c r="C19" s="120">
+        <v>39512223</v>
+      </c>
+      <c r="D19" s="120">
+        <f t="shared" si="0"/>
+        <v>801.11918785232604</v>
       </c>
     </row>
   </sheetData>
@@ -62222,8 +62250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DCE92E-083B-BD4D-9E79-C8655C97D55B}">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AA5C6A-BBB5-6C4D-B660-FDAC112F6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654803E6-F4FD-1C4A-8798-5C53B48D288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y1900" sheetId="1" r:id="rId1"/>
@@ -6136,6 +6136,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6152,24 +6170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -27052,7 +27052,7 @@
       <c r="G3" s="34">
         <v>85</v>
       </c>
-      <c r="H3" s="185"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1">
@@ -27075,20 +27075,20 @@
       <c r="G4" s="36">
         <v>19</v>
       </c>
-      <c r="H4" s="185"/>
+      <c r="H4" s="179"/>
       <c r="I4" s="138"/>
       <c r="L4" s="94" t="s">
         <v>489</v>
       </c>
-      <c r="M4" s="184" t="s">
+      <c r="M4" s="178" t="s">
         <v>490</v>
       </c>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
     </row>
     <row r="5" spans="1:19" ht="16">
       <c r="A5" s="88" t="s">
@@ -27114,13 +27114,13 @@
       </c>
       <c r="H5" s="138"/>
       <c r="I5" s="138"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
     </row>
     <row r="6" spans="1:19" ht="16">
       <c r="A6" s="88" t="s">
@@ -27146,13 +27146,13 @@
       </c>
       <c r="H6" s="138"/>
       <c r="I6" s="138"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
     </row>
     <row r="7" spans="1:19" ht="16">
       <c r="A7" s="88" t="s">
@@ -27178,13 +27178,13 @@
       </c>
       <c r="H7" s="138"/>
       <c r="I7" s="138"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
     </row>
     <row r="8" spans="1:19" ht="16">
       <c r="A8" s="88" t="s">
@@ -27210,13 +27210,13 @@
       </c>
       <c r="H8" s="138"/>
       <c r="I8" s="138"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
     </row>
     <row r="9" spans="1:19" ht="48">
       <c r="A9" s="88" t="s">
@@ -27242,13 +27242,13 @@
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
     </row>
     <row r="10" spans="1:19" ht="16">
       <c r="A10" s="90" t="s">
@@ -27274,13 +27274,13 @@
       </c>
       <c r="H10" s="138"/>
       <c r="I10" s="138"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
     </row>
     <row r="11" spans="1:19" ht="16">
       <c r="A11" s="92"/>
@@ -27990,11 +27990,11 @@
       <c r="G40" s="34">
         <v>394</v>
       </c>
-      <c r="I40" s="179">
+      <c r="I40" s="185">
         <f>SUM(G41:G42,G51)</f>
         <v>5828</v>
       </c>
-      <c r="J40" s="186">
+      <c r="J40" s="180">
         <v>5867</v>
       </c>
     </row>
@@ -28018,8 +28018,8 @@
       <c r="G41" s="35">
         <v>3404</v>
       </c>
-      <c r="I41" s="180"/>
-      <c r="J41" s="187"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="181"/>
     </row>
     <row r="42" spans="1:10" ht="16">
       <c r="A42" s="92"/>
@@ -28041,8 +28041,8 @@
       <c r="G42" s="35">
         <v>408</v>
       </c>
-      <c r="I42" s="180"/>
-      <c r="J42" s="187"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="181"/>
     </row>
     <row r="43" spans="1:10" ht="16">
       <c r="A43" s="92"/>
@@ -28064,8 +28064,8 @@
       <c r="G43" s="35">
         <v>16543</v>
       </c>
-      <c r="I43" s="180"/>
-      <c r="J43" s="187"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="181"/>
     </row>
     <row r="44" spans="1:10" ht="16">
       <c r="A44" s="92"/>
@@ -28087,11 +28087,11 @@
       <c r="G44" s="35">
         <v>106</v>
       </c>
-      <c r="I44" s="181">
+      <c r="I44" s="187">
         <f>SUM(G43:G46)</f>
         <v>53585</v>
       </c>
-      <c r="J44" s="189">
+      <c r="J44" s="183">
         <v>53593</v>
       </c>
     </row>
@@ -28115,8 +28115,8 @@
       <c r="G45" s="35">
         <v>8568</v>
       </c>
-      <c r="I45" s="181"/>
-      <c r="J45" s="189"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="183"/>
     </row>
     <row r="46" spans="1:10" ht="32">
       <c r="A46" s="92"/>
@@ -28138,8 +28138,8 @@
       <c r="G46" s="35">
         <v>28368</v>
       </c>
-      <c r="I46" s="181"/>
-      <c r="J46" s="189"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="183"/>
     </row>
     <row r="47" spans="1:10" ht="16">
       <c r="A47" s="92"/>
@@ -28161,8 +28161,8 @@
       <c r="G47" s="35">
         <v>120</v>
       </c>
-      <c r="I47" s="181"/>
-      <c r="J47" s="189"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="183"/>
     </row>
     <row r="48" spans="1:10" ht="16">
       <c r="A48" s="92"/>
@@ -28184,11 +28184,11 @@
       <c r="G48" s="35">
         <v>77</v>
       </c>
-      <c r="I48" s="182">
+      <c r="I48" s="188">
         <f>SUM(G52)</f>
         <v>18185</v>
       </c>
-      <c r="J48" s="188">
+      <c r="J48" s="182">
         <v>18101</v>
       </c>
     </row>
@@ -28212,8 +28212,8 @@
       <c r="G49" s="35">
         <v>3160</v>
       </c>
-      <c r="I49" s="182"/>
-      <c r="J49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="182"/>
     </row>
     <row r="50" spans="1:10" ht="16">
       <c r="A50" s="92"/>
@@ -28235,8 +28235,8 @@
       <c r="G50" s="35">
         <v>7278</v>
       </c>
-      <c r="I50" s="182"/>
-      <c r="J50" s="188"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="182"/>
     </row>
     <row r="51" spans="1:10" ht="32">
       <c r="A51" s="92"/>
@@ -28258,8 +28258,8 @@
       <c r="G51" s="35">
         <v>2016</v>
       </c>
-      <c r="I51" s="182"/>
-      <c r="J51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="182"/>
     </row>
     <row r="52" spans="1:10" ht="16">
       <c r="A52" s="92"/>
@@ -28281,11 +28281,11 @@
       <c r="G52" s="35">
         <v>18185</v>
       </c>
-      <c r="I52" s="183">
+      <c r="I52" s="189">
         <f>SUM(G40,G47:G50,G53:G56)</f>
         <v>15384</v>
       </c>
-      <c r="J52" s="178">
+      <c r="J52" s="184">
         <v>15424</v>
       </c>
     </row>
@@ -28309,8 +28309,8 @@
       <c r="G53" s="35">
         <v>1629</v>
       </c>
-      <c r="I53" s="183"/>
-      <c r="J53" s="178"/>
+      <c r="I53" s="189"/>
+      <c r="J53" s="184"/>
     </row>
     <row r="54" spans="1:10" ht="16">
       <c r="A54" s="92"/>
@@ -28332,8 +28332,8 @@
       <c r="G54" s="35">
         <v>1407</v>
       </c>
-      <c r="I54" s="183"/>
-      <c r="J54" s="178"/>
+      <c r="I54" s="189"/>
+      <c r="J54" s="184"/>
     </row>
     <row r="55" spans="1:10" ht="16">
       <c r="A55" s="91"/>
@@ -28355,8 +28355,8 @@
       <c r="G55" s="36">
         <v>813</v>
       </c>
-      <c r="I55" s="183"/>
-      <c r="J55" s="178"/>
+      <c r="I55" s="189"/>
+      <c r="J55" s="184"/>
     </row>
     <row r="56" spans="1:10" ht="16">
       <c r="A56" s="88" t="s">
@@ -28380,8 +28380,8 @@
       <c r="G56" s="33">
         <v>506</v>
       </c>
-      <c r="I56" s="183"/>
-      <c r="J56" s="178"/>
+      <c r="I56" s="189"/>
+      <c r="J56" s="184"/>
     </row>
     <row r="57" spans="1:10" ht="16">
       <c r="A57" s="92" t="s">
@@ -29499,16 +29499,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="I52:I56"/>
     <mergeCell ref="M4:S10"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J40:J43"/>
     <mergeCell ref="J48:J51"/>
     <mergeCell ref="J44:J47"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="I52:I56"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F2:F1048576">
@@ -29558,7 +29558,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -34258,11 +34258,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE00D5B-D363-6A46-AEA9-149824DE4DAC}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -34271,7 +34271,7 @@
     <col min="3" max="6" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="18" t="s">
         <v>1618</v>
       </c>
@@ -34293,8 +34293,12 @@
       <c r="G1" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16">
+      <c r="I1">
+        <f>SUM(G2:G60)</f>
+        <v>267031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" t="s">
         <v>1620</v>
       </c>
@@ -34317,7 +34321,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" t="s">
         <v>1621</v>
       </c>
@@ -34340,7 +34344,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" t="s">
         <v>1623</v>
       </c>
@@ -34363,7 +34367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" t="s">
         <v>1624</v>
       </c>
@@ -34386,7 +34390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" t="s">
         <v>1625</v>
       </c>
@@ -34409,7 +34413,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" t="s">
         <v>1627</v>
       </c>
@@ -34432,7 +34436,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" t="s">
         <v>1629</v>
       </c>
@@ -34455,7 +34459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16">
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" t="s">
         <v>1631</v>
       </c>
@@ -34478,7 +34482,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" t="s">
         <v>1633</v>
       </c>
@@ -34501,7 +34505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" t="s">
         <v>1635</v>
       </c>
@@ -34524,7 +34528,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" t="s">
         <v>1637</v>
       </c>
@@ -34547,7 +34551,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" t="s">
         <v>1639</v>
       </c>
@@ -34570,7 +34574,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" t="s">
         <v>1641</v>
       </c>
@@ -34593,7 +34597,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" t="s">
         <v>1643</v>
       </c>
@@ -34616,7 +34620,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" t="s">
         <v>1645</v>
       </c>
@@ -35698,8 +35702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003FD4F6-0596-924C-9C8D-517B5EE2F179}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44231,8 +44236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6088356-EAF0-3047-99CA-B8AF6FB8D417}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44534,24 +44539,30 @@
       <c r="A18">
         <v>2019</v>
       </c>
-      <c r="D18" s="120" t="e">
+      <c r="B18" s="120">
+        <v>267031</v>
+      </c>
+      <c r="C18" s="120">
+        <v>39512223</v>
+      </c>
+      <c r="D18" s="120">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>675.81872070321128</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>2020</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="120">
         <v>316540</v>
       </c>
       <c r="C19" s="120">
-        <v>39512223</v>
+        <v>39538223</v>
       </c>
       <c r="D19" s="120">
         <f t="shared" si="0"/>
-        <v>801.11918785232604</v>
+        <v>800.59237867114064</v>
       </c>
     </row>
   </sheetData>
@@ -62250,7 +62261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DCE92E-083B-BD4D-9E79-C8655C97D55B}">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>

--- a/CA 1900-2020 Project.xlsx
+++ b/CA 1900-2020 Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FB3680-3AA2-054D-96AE-C4F83A0028B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58BF49E-01E5-A644-BAA0-10CF01304752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65056,7 +65056,7 @@
   <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
